--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE303B-A634-4BFD-8D3E-1A435B9313D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F4EE3-3B24-454E-B705-B052185DC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37890" yWindow="-2190" windowWidth="19275" windowHeight="15570" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1001">
   <si>
     <t>Source:</t>
   </si>
@@ -3051,6 +3051,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -4725,94 +4728,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2579411882892142</c:v>
+                  <c:v>0.35069853975306242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27627957191928759</c:v>
+                  <c:v>0.36674462542937664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2996426865499332</c:v>
+                  <c:v>0.38718735073119148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32888715966126825</c:v>
+                  <c:v>0.41277626470360962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36469629744075793</c:v>
+                  <c:v>0.44410926026066311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40738008065427683</c:v>
+                  <c:v>0.48145757057249217</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45665704065968565</c:v>
+                  <c:v>0.52457491057722483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51148861284062241</c:v>
+                  <c:v>0.57255253623554458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57005612372500036</c:v>
+                  <c:v>0.62379910825937523</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62994387627499959</c:v>
+                  <c:v>0.67620089174062459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68851138715937765</c:v>
+                  <c:v>0.72744746376445535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74334295934031447</c:v>
+                  <c:v>0.77542508942277499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79261991934572329</c:v>
+                  <c:v>0.81854242942750788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83530370255924202</c:v>
+                  <c:v>0.85589073973933671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87111284033873182</c:v>
+                  <c:v>0.88722373529639031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90035731345006687</c:v>
+                  <c:v>0.91281264926880845</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92372042808071253</c:v>
+                  <c:v>0.93325537457062335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94205881171078576</c:v>
+                  <c:v>0.94930146024693762</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95625494622724738</c:v>
+                  <c:v>0.96172307794884149</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96712697743962805</c:v>
+                  <c:v>0.97123610525967452</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97538491251428172</c:v>
+                  <c:v>0.97846179844999637</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98161810407197958</c:v>
+                  <c:v>0.98391584106298202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98630077334741784</c:v>
+                  <c:v>0.98801317667899058</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98980612042871075</c:v>
+                  <c:v>0.99108035537512174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99242316513444306</c:v>
+                  <c:v>0.99337026949263763</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99437313027600394</c:v>
+                  <c:v>0.99507648899150336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99582389944515337</c:v>
+                  <c:v>0.99634591201450906</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99690207724746327</c:v>
+                  <c:v>0.99728931759153028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99770269667543965</c:v>
+                  <c:v>0.99798985959100972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5066,94 +5069,94 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9000000000000005E-2</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.3382769220511585</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.11695001406416487</c:v>
+                  <c:v>0.35069853975306242</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.13877269058395222</c:v>
+                  <c:v>0.36674462542937664</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.16657479699442046</c:v>
+                  <c:v>0.38718735073119148</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.20137571999690912</c:v>
+                  <c:v>0.41277626470360962</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.2439885939545019</c:v>
+                  <c:v>0.44410926026066311</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.2947822959785894</c:v>
+                  <c:v>0.48145757057249217</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.35342187838502587</c:v>
+                  <c:v>0.52457491057722483</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.41867144928034067</c:v>
+                  <c:v>0.57255253623554458</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.4883667872327504</c:v>
+                  <c:v>0.62379910825937523</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.55963321276724964</c:v>
+                  <c:v>0.67620089174062459</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.62932855071965943</c:v>
+                  <c:v>0.72744746376445535</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.69457812161497412</c:v>
+                  <c:v>0.77542508942277499</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.75321770402141064</c:v>
+                  <c:v>0.81854242942750788</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.80401140604549803</c:v>
+                  <c:v>0.85589073973933671</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.84662428000309087</c:v>
+                  <c:v>0.88722373529639031</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.88142520300557958</c:v>
+                  <c:v>0.91281264926880845</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.90922730941604779</c:v>
+                  <c:v>0.93325537457062335</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.9310499859358351</c:v>
+                  <c:v>0.94930146024693762</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.94794338601042438</c:v>
+                  <c:v>0.96172307794884149</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.96088110315315733</c:v>
+                  <c:v>0.97123610525967452</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.97070804589199511</c:v>
+                  <c:v>0.97846179844999637</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.97812554384565553</c:v>
+                  <c:v>0.98391584106298202</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.98369792028342729</c:v>
+                  <c:v>0.98801317667899058</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.98786928331016577</c:v>
+                  <c:v>0.99108035537512174</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.9909835665099872</c:v>
+                  <c:v>0.99337026949263763</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.99330402502844461</c:v>
+                  <c:v>0.99507648899150336</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.99503044033973242</c:v>
+                  <c:v>0.99634591201450906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +7962,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,123 +8101,123 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.3382769220511585</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.11695001406416487</v>
+        <v>0.35069853975306242</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.13877269058395222</v>
+        <v>0.36674462542937664</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.16657479699442046</v>
+        <v>0.38718735073119148</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.20137571999690912</v>
+        <v>0.41277626470360962</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.2439885939545019</v>
+        <v>0.44410926026066311</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.2947822959785894</v>
+        <v>0.48145757057249217</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.35342187838502587</v>
+        <v>0.52457491057722483</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.41867144928034067</v>
+        <v>0.57255253623554458</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.4883667872327504</v>
+        <v>0.62379910825937523</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.55963321276724964</v>
+        <v>0.67620089174062459</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.62932855071965943</v>
+        <v>0.72744746376445535</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.69457812161497412</v>
+        <v>0.77542508942277499</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.75321770402141064</v>
+        <v>0.81854242942750788</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.80401140604549803</v>
+        <v>0.85589073973933671</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.84662428000309087</v>
+        <v>0.88722373529639031</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.88142520300557958</v>
+        <v>0.91281264926880845</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.90922730941604779</v>
+        <v>0.93325537457062335</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.9310499859358351</v>
+        <v>0.94930146024693762</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.94794338601042438</v>
+        <v>0.96172307794884149</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.96088110315315733</v>
+        <v>0.97123610525967452</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.97070804589199511</v>
+        <v>0.97846179844999637</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.97812554384565553</v>
+        <v>0.98391584106298202</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.98369792028342729</v>
+        <v>0.98801317667899058</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.98786928331016577</v>
+        <v>0.99108035537512174</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.9909835665099872</v>
+        <v>0.99337026949263763</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99330402502844461</v>
+        <v>0.99507648899150336</v>
       </c>
       <c r="AE2">
         <f>Data!AL10</f>
-        <v>0.99503044033973242</v>
+        <v>0.99634591201450906</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8348,123 +8351,123 @@
       </c>
       <c r="B4">
         <f>Data!I12</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
         <f>Data!J12</f>
-        <v>1</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="D4">
         <f>Data!K12</f>
-        <v>1</v>
+        <v>0.60714285714285587</v>
       </c>
       <c r="E4">
         <f>Data!L12</f>
-        <v>1</v>
+        <v>0.61428571428571388</v>
       </c>
       <c r="F4">
         <f>Data!M12</f>
-        <v>1</v>
+        <v>0.62142857142857011</v>
       </c>
       <c r="G4">
         <f>Data!N12</f>
-        <v>1</v>
+        <v>0.62857142857142811</v>
       </c>
       <c r="H4">
         <f>Data!O12</f>
-        <v>1</v>
+        <v>0.63571428571428434</v>
       </c>
       <c r="I4">
         <f>Data!P12</f>
-        <v>1</v>
+        <v>0.64285714285714235</v>
       </c>
       <c r="J4">
         <f>Data!Q12</f>
-        <v>1</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="K4">
         <f>Data!R12</f>
-        <v>1</v>
+        <v>0.65714285714285658</v>
       </c>
       <c r="L4">
         <f>Data!S12</f>
-        <v>1</v>
+        <v>0.66428571428571281</v>
       </c>
       <c r="M4">
         <f>Data!T12</f>
-        <v>1</v>
+        <v>0.67142857142857082</v>
       </c>
       <c r="N4">
         <f>Data!U12</f>
-        <v>1</v>
+        <v>0.67857142857142705</v>
       </c>
       <c r="O4">
         <f>Data!V12</f>
-        <v>1</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="P4">
         <f>Data!W12</f>
-        <v>1</v>
+        <v>0.69285714285714128</v>
       </c>
       <c r="Q4">
         <f>Data!X12</f>
-        <v>1</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="R4">
         <f>Data!Y12</f>
-        <v>1</v>
+        <v>0.70714285714285552</v>
       </c>
       <c r="S4">
         <f>Data!Z12</f>
-        <v>1</v>
+        <v>0.71428571428571352</v>
       </c>
       <c r="T4">
         <f>Data!AA12</f>
-        <v>1</v>
+        <v>0.72142857142856975</v>
       </c>
       <c r="U4">
         <f>Data!AB12</f>
-        <v>1</v>
+        <v>0.72857142857142776</v>
       </c>
       <c r="V4">
         <f>Data!AC12</f>
-        <v>1</v>
+        <v>0.73571428571428399</v>
       </c>
       <c r="W4">
         <f>Data!AD12</f>
-        <v>1</v>
+        <v>0.74285714285714199</v>
       </c>
       <c r="X4">
         <f>Data!AE12</f>
-        <v>1</v>
+        <v>0.74999999999999822</v>
       </c>
       <c r="Y4">
         <f>Data!AF12</f>
-        <v>1</v>
+        <v>0.75714285714285623</v>
       </c>
       <c r="Z4">
         <f>Data!AG12</f>
-        <v>1</v>
+        <v>0.76428571428571246</v>
       </c>
       <c r="AA4">
         <f>Data!AH12</f>
-        <v>1</v>
+        <v>0.77142857142857046</v>
       </c>
       <c r="AB4">
         <f>Data!AI12</f>
-        <v>1</v>
+        <v>0.77857142857142669</v>
       </c>
       <c r="AC4">
         <f>Data!AJ12</f>
-        <v>1</v>
+        <v>0.7857142857142847</v>
       </c>
       <c r="AD4">
         <f>Data!AK12</f>
-        <v>1</v>
+        <v>0.7928571428571427</v>
       </c>
       <c r="AE4">
         <f>Data!AL12</f>
-        <v>1</v>
+        <v>0.79999999999999893</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -8473,123 +8476,123 @@
       </c>
       <c r="B5">
         <f>Data!I13</f>
-        <v>4.6260368305253595E-3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C5">
         <f>Data!J13</f>
-        <v>4.6260368305253152E-3</v>
+        <v>0.28000000000000025</v>
       </c>
       <c r="D5">
         <f>Data!K13</f>
-        <v>5.5614806554173946E-3</v>
+        <v>0.27714285714285669</v>
       </c>
       <c r="E5">
         <f>Data!L13</f>
-        <v>6.4969244803096959E-3</v>
+        <v>0.27428571428571402</v>
       </c>
       <c r="F5">
         <f>Data!M13</f>
-        <v>7.4323683052017753E-3</v>
+        <v>0.27142857142857135</v>
       </c>
       <c r="G5">
         <f>Data!N13</f>
-        <v>8.3678121300938546E-3</v>
+        <v>0.26857142857142868</v>
       </c>
       <c r="H5">
         <f>Data!O13</f>
-        <v>9.303255954986156E-3</v>
+        <v>0.26571428571428513</v>
       </c>
       <c r="I5">
         <f>Data!P13</f>
-        <v>1.0238699779878235E-2</v>
+        <v>0.26285714285714246</v>
       </c>
       <c r="J5">
         <f>Data!Q13</f>
-        <v>1.1174143604770537E-2</v>
+        <v>0.25999999999999979</v>
       </c>
       <c r="K5">
         <f>Data!R13</f>
-        <v>1.2109587429662616E-2</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="L5">
         <f>Data!S13</f>
-        <v>1.3045031254554917E-2</v>
+        <v>0.25428571428571445</v>
       </c>
       <c r="M5">
         <f>Data!T13</f>
-        <v>1.3980475079446997E-2</v>
+        <v>0.25142857142857089</v>
       </c>
       <c r="N5">
         <f>Data!U13</f>
-        <v>1.4915918904339076E-2</v>
+        <v>0.24857142857142822</v>
       </c>
       <c r="O5">
         <f>Data!V13</f>
-        <v>1.5851362729231377E-2</v>
+        <v>0.24571428571428555</v>
       </c>
       <c r="P5">
         <f>Data!W13</f>
-        <v>1.6786806554123457E-2</v>
+        <v>0.24285714285714288</v>
       </c>
       <c r="Q5">
         <f>Data!X13</f>
-        <v>1.7722250379015758E-2</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="R5">
         <f>Data!Y13</f>
-        <v>1.8657694203907838E-2</v>
+        <v>0.23714285714285666</v>
       </c>
       <c r="S5">
         <f>Data!Z13</f>
-        <v>1.9593138028800139E-2</v>
+        <v>0.23428571428571399</v>
       </c>
       <c r="T5">
         <f>Data!AA13</f>
-        <v>2.0528581853692218E-2</v>
+        <v>0.23142857142857132</v>
       </c>
       <c r="U5">
         <f>Data!AB13</f>
-        <v>2.146402567858452E-2</v>
+        <v>0.22857142857142865</v>
       </c>
       <c r="V5">
         <f>Data!AC13</f>
-        <v>2.2399469503476599E-2</v>
+        <v>0.22571428571428509</v>
       </c>
       <c r="W5">
         <f>Data!AD13</f>
-        <v>2.3334913328368678E-2</v>
+        <v>0.22285714285714242</v>
       </c>
       <c r="X5">
         <f>Data!AE13</f>
-        <v>2.427035715326098E-2</v>
+        <v>0.21999999999999975</v>
       </c>
       <c r="Y5">
         <f>Data!AF13</f>
-        <v>2.5205800978153059E-2</v>
+        <v>0.21714285714285708</v>
       </c>
       <c r="Z5">
         <f>Data!AG13</f>
-        <v>2.614124480304536E-2</v>
+        <v>0.21428571428571441</v>
       </c>
       <c r="AA5">
         <f>Data!AH13</f>
-        <v>2.707668862793744E-2</v>
+        <v>0.21142857142857086</v>
       </c>
       <c r="AB5">
         <f>Data!AI13</f>
-        <v>2.8012132452829741E-2</v>
+        <v>0.20857142857142819</v>
       </c>
       <c r="AC5">
         <f>Data!AJ13</f>
-        <v>2.894757627772182E-2</v>
+        <v>0.20571428571428552</v>
       </c>
       <c r="AD5">
         <f>Data!AK13</f>
-        <v>2.98830201026139E-2</v>
+        <v>0.20285714285714285</v>
       </c>
       <c r="AE5">
         <f>Data!AL13</f>
-        <v>3.0818463927506201E-2</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -8598,123 +8601,123 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>4.1999999999999997E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
-        <v>8.0000000000000002E-3</v>
+        <v>0.15</v>
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>1.2004677525762598E-2</v>
+        <v>0.18337231271468832</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>1.3231241043871491E-2</v>
+        <v>0.19359367536559574</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>1.4766575882216582E-2</v>
+        <v>0.20638813235180481</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>1.664655561563979E-2</v>
+        <v>0.22205463013033155</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>1.8887454234349531E-2</v>
+        <v>0.24072878528624608</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>2.1474494634633495E-2</v>
+        <v>0.26228745528861241</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>2.435315217413268E-2</v>
+        <v>0.28627626811777229</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>2.742794649556252E-2</v>
+        <v>0.31189955412968762</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>3.0572053504437483E-2</v>
+        <v>0.33810044587031229</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>3.3646847825867326E-2</v>
+        <v>0.36372373188222767</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>3.6525505365366501E-2</v>
+        <v>0.3877125447113875</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>3.9112545765650472E-2</v>
+        <v>0.40927121471375394</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>4.1353444384360213E-2</v>
+        <v>0.42794536986966836</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>4.3233424117783421E-2</v>
+        <v>0.44361186764819516</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>4.4768758956128508E-2</v>
+        <v>0.45640632463440423</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>4.5995322474237404E-2</v>
+        <v>0.46662768728531168</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>4.6958087614816256E-2</v>
+        <v>0.47465073012346881</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>4.7703384676930492E-2</v>
+        <v>0.48086153897442074</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>4.8274166315580479E-2</v>
+        <v>0.48561805262983726</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>4.8707707906999784E-2</v>
+        <v>0.48923089922499818</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>4.9034950463778926E-2</v>
+        <v>0.49195792053149101</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>4.9280790600739442E-2</v>
+        <v>0.49400658833949529</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>4.9464821322507319E-2</v>
+        <v>0.49554017768756087</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>4.9602216169558261E-2</v>
+        <v>0.49668513474631881</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>4.9704589339490207E-2</v>
+        <v>0.49753824449575168</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>4.9780754720870554E-2</v>
+        <v>0.49817295600725453</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>4.9837359055491817E-2</v>
+        <v>0.49864465879576514</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>4.9879391575460584E-2</v>
+        <v>0.49899492979550486</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -8979,8 +8982,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9119,123 +9122,123 @@
       </c>
       <c r="B2">
         <f>Data!I17</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.2579411882892142</v>
+        <v>0.35069853975306242</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.27627957191928759</v>
+        <v>0.36674462542937664</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.2996426865499332</v>
+        <v>0.38718735073119148</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.32888715966126825</v>
+        <v>0.41277626470360962</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.36469629744075793</v>
+        <v>0.44410926026066311</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.40738008065427683</v>
+        <v>0.48145757057249217</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.45665704065968565</v>
+        <v>0.52457491057722483</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.51148861284062241</v>
+        <v>0.57255253623554458</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.57005612372500036</v>
+        <v>0.62379910825937523</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.62994387627499959</v>
+        <v>0.67620089174062459</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.68851138715937765</v>
+        <v>0.72744746376445535</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.74334295934031447</v>
+        <v>0.77542508942277499</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.79261991934572329</v>
+        <v>0.81854242942750788</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.83530370255924202</v>
+        <v>0.85589073973933671</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.87111284033873182</v>
+        <v>0.88722373529639031</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.90035731345006687</v>
+        <v>0.91281264926880845</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.92372042808071253</v>
+        <v>0.93325537457062335</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.94205881171078576</v>
+        <v>0.94930146024693762</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.95625494622724738</v>
+        <v>0.96172307794884149</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.96712697743962805</v>
+        <v>0.97123610525967452</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.97538491251428172</v>
+        <v>0.97846179844999637</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.98161810407197958</v>
+        <v>0.98391584106298202</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.98630077334741784</v>
+        <v>0.98801317667899058</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.98980612042871075</v>
+        <v>0.99108035537512174</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.99242316513444306</v>
+        <v>0.99337026949263763</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.99437313027600394</v>
+        <v>0.99507648899150336</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99582389944515337</v>
+        <v>0.99634591201450906</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99690207724746327</v>
+        <v>0.99728931759153028</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99770269667543965</v>
+        <v>0.99798985959100972</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -9244,123 +9247,123 @@
       </c>
       <c r="B3">
         <f>Data!I18</f>
-        <v>1.4975764421952546E-3</v>
+        <v>6.8051055592298947E-3</v>
       </c>
       <c r="C3">
         <f>Data!J18</f>
-        <v>1.4975764421952566E-3</v>
+        <v>6.8051055592299181E-3</v>
       </c>
       <c r="D3">
         <f>Data!K18</f>
-        <v>1.4882119094700615E-3</v>
+        <v>6.6061864151820693E-3</v>
       </c>
       <c r="E3">
         <f>Data!L18</f>
-        <v>1.4788473767448664E-3</v>
+        <v>6.4072672711342205E-3</v>
       </c>
       <c r="F3">
         <f>Data!M18</f>
-        <v>1.4694828440196712E-3</v>
+        <v>6.2083481270863716E-3</v>
       </c>
       <c r="G3">
         <f>Data!N18</f>
-        <v>1.4601183112944796E-3</v>
+        <v>6.0094289830384673E-3</v>
       </c>
       <c r="H3">
         <f>Data!O18</f>
-        <v>1.4507537785692845E-3</v>
+        <v>5.8105098389906185E-3</v>
       </c>
       <c r="I3">
         <f>Data!P18</f>
-        <v>1.4413892458440894E-3</v>
+        <v>5.6115906949427696E-3</v>
       </c>
       <c r="J3">
         <f>Data!Q18</f>
-        <v>1.4320247131188943E-3</v>
+        <v>5.4126715508949208E-3</v>
       </c>
       <c r="K3">
         <f>Data!R18</f>
-        <v>1.4226601803937027E-3</v>
+        <v>5.213752406847072E-3</v>
       </c>
       <c r="L3">
         <f>Data!S18</f>
-        <v>1.4132956476685075E-3</v>
+        <v>5.0148332627991676E-3</v>
       </c>
       <c r="M3">
         <f>Data!T18</f>
-        <v>1.4039311149433124E-3</v>
+        <v>4.8159141187513188E-3</v>
       </c>
       <c r="N3">
         <f>Data!U18</f>
-        <v>1.3945665822181173E-3</v>
+        <v>4.61699497470347E-3</v>
       </c>
       <c r="O3">
         <f>Data!V18</f>
-        <v>1.3852020494929257E-3</v>
+        <v>4.4180758306556212E-3</v>
       </c>
       <c r="P3">
         <f>Data!W18</f>
-        <v>1.3758375167677306E-3</v>
+        <v>4.2191566866077723E-3</v>
       </c>
       <c r="Q3">
         <f>Data!X18</f>
-        <v>1.3664729840425355E-3</v>
+        <v>4.020237542559868E-3</v>
       </c>
       <c r="R3">
         <f>Data!Y18</f>
-        <v>1.3571084513173404E-3</v>
+        <v>3.8213183985120192E-3</v>
       </c>
       <c r="S3">
         <f>Data!Z18</f>
-        <v>1.3477439185921487E-3</v>
+        <v>3.6223992544641703E-3</v>
       </c>
       <c r="T3">
         <f>Data!AA18</f>
-        <v>1.3383793858669536E-3</v>
+        <v>3.4234801104163215E-3</v>
       </c>
       <c r="U3">
         <f>Data!AB18</f>
-        <v>1.3290148531417585E-3</v>
+        <v>3.2245609663684727E-3</v>
       </c>
       <c r="V3">
         <f>Data!AC18</f>
-        <v>1.3196503204165634E-3</v>
+        <v>3.0256418223205683E-3</v>
       </c>
       <c r="W3">
         <f>Data!AD18</f>
-        <v>1.3102857876913718E-3</v>
+        <v>2.8267226782727195E-3</v>
       </c>
       <c r="X3">
         <f>Data!AE18</f>
-        <v>1.3009212549661767E-3</v>
+        <v>2.6278035342248707E-3</v>
       </c>
       <c r="Y3">
         <f>Data!AF18</f>
-        <v>1.2915567222409816E-3</v>
+        <v>2.4288843901770218E-3</v>
       </c>
       <c r="Z3">
         <f>Data!AG18</f>
-        <v>1.2821921895157865E-3</v>
+        <v>2.229965246129173E-3</v>
       </c>
       <c r="AA3">
         <f>Data!AH18</f>
-        <v>1.2728276567905948E-3</v>
+        <v>2.0310461020812687E-3</v>
       </c>
       <c r="AB3">
         <f>Data!AI18</f>
-        <v>1.2634631240653997E-3</v>
+        <v>1.8321269580334199E-3</v>
       </c>
       <c r="AC3">
         <f>Data!AJ18</f>
-        <v>1.2540985913402046E-3</v>
+        <v>1.633207813985571E-3</v>
       </c>
       <c r="AD3">
         <f>Data!AK18</f>
-        <v>1.2447340586150095E-3</v>
+        <v>1.4342886699377222E-3</v>
       </c>
       <c r="AE3">
         <f>Data!AL18</f>
-        <v>1.2353695258898144E-3</v>
+        <v>1.2353695258898734E-3</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -9369,123 +9372,123 @@
       </c>
       <c r="B4">
         <f>Data!I19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C4">
         <f>Data!J19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D4">
         <f>Data!K19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E4">
         <f>Data!L19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F4">
         <f>Data!M19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G4">
         <f>Data!N19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H4">
         <f>Data!O19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I4">
         <f>Data!P19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J4">
         <f>Data!Q19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K4">
         <f>Data!R19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L4">
         <f>Data!S19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M4">
         <f>Data!T19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N4">
         <f>Data!U19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O4">
         <f>Data!V19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P4">
         <f>Data!W19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q4">
         <f>Data!X19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R4">
         <f>Data!Y19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S4">
         <f>Data!Z19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T4">
         <f>Data!AA19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U4">
         <f>Data!AB19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V4">
         <f>Data!AC19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W4">
         <f>Data!AD19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X4">
         <f>Data!AE19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y4">
         <f>Data!AF19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Z4">
         <f>Data!AG19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA4">
         <f>Data!AH19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB4">
         <f>Data!AI19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC4">
         <f>Data!AJ19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AD4">
         <f>Data!AK19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE4">
         <f>Data!AL19</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -9494,123 +9497,123 @@
       </c>
       <c r="B5">
         <f>Data!I20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C5">
         <f>Data!J20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
         <f>Data!K20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E5">
         <f>Data!L20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F5">
         <f>Data!M20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G5">
         <f>Data!N20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
         <f>Data!O20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I5">
         <f>Data!P20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
         <f>Data!Q20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
         <f>Data!R20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L5">
         <f>Data!S20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M5">
         <f>Data!T20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N5">
         <f>Data!U20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O5">
         <f>Data!V20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P5">
         <f>Data!W20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q5">
         <f>Data!X20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R5">
         <f>Data!Y20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S5">
         <f>Data!Z20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T5">
         <f>Data!AA20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U5">
         <f>Data!AB20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="V5">
         <f>Data!AC20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W5">
         <f>Data!AD20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X5">
         <f>Data!AE20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y5">
         <f>Data!AF20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z5">
         <f>Data!AG20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AA5">
         <f>Data!AH20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AB5">
         <f>Data!AI20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC5">
         <f>Data!AJ20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD5">
         <f>Data!AK20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AE5">
         <f>Data!AL20</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -9619,123 +9622,123 @@
       </c>
       <c r="B6">
         <f>Data!I21</f>
-        <v>2.8156107643030772E-4</v>
+        <v>8.5732552248620857E-3</v>
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>1.0161028688271871E-3</v>
+        <v>1.5833609527091983E-2</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>1.26799010529499E-3</v>
+        <v>1.8323312087103298E-2</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>1.6039220771322887E-3</v>
+        <v>2.164372919914653E-2</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>2.0501050777206073E-3</v>
+        <v>2.605388897689399E-2</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>2.6395014554061241E-3</v>
+        <v>3.1879597698632259E-2</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>3.4124980333622964E-3</v>
+        <v>3.9520046599517591E-2</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>4.416777707171987E-3</v>
+        <v>4.9446542717040881E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>5.705684717799993E-3</v>
+        <v>6.218635093033742E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>7.3341745829285324E-3</v>
+        <v>7.8282662291795646E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>9.3514733398968458E-3</v>
+        <v>9.8222036552919223E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>1.1790147490354473E-2</v>
+        <v>0.12232636736606015</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>1.4652700575996493E-2</v>
+        <v>0.15062040022549095</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>1.7898976373295176E-2</v>
+        <v>0.18270722318791771</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>2.1439614812797877E-2</v>
+        <v>0.21770358390280897</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>2.5140780538215154E-2</v>
+        <v>0.25428662761243104</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>2.8841946263632432E-2</v>
+        <v>0.2908696713220531</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>3.2382584703135125E-2</v>
+        <v>0.32586603203694436</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>3.5628860500433818E-2</v>
+        <v>0.35795285499937113</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>3.8491413586075836E-2</v>
+        <v>0.3862468878588019</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>4.0930087736533463E-2</v>
+        <v>0.41035121867194285</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>4.2947386493501785E-2</v>
+        <v>0.43029059293306648</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>4.457587635863032E-2</v>
+        <v>0.44638690429452466</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>4.5864783369258325E-2</v>
+        <v>0.45912671250782122</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>4.6869063043068017E-2</v>
+        <v>0.4690532086253445</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>4.7642059621024191E-2</v>
+        <v>0.47669365752622989</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>4.8231455998709705E-2</v>
+        <v>0.4825193662479681</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>4.8677638999298022E-2</v>
+        <v>0.48692952602571554</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>4.9013570971135324E-2</v>
+        <v>0.49024994313775883</v>
       </c>
       <c r="AE6">
         <f>Data!AL21</f>
-        <v>4.9265458207603127E-2</v>
+        <v>0.49273964569777012</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9744,123 +9747,123 @@
       </c>
       <c r="B7">
         <f>Data!I22</f>
-        <v>5.4448944256116078E-4</v>
+        <v>1.0035197841849719E-2</v>
       </c>
       <c r="C7">
         <f>Data!J22</f>
-        <v>5.4448944256116003E-4</v>
+        <v>1.0035197841849697E-2</v>
       </c>
       <c r="D7">
         <f>Data!K22</f>
-        <v>5.558166424943084E-4</v>
+        <v>9.7075711703796808E-3</v>
       </c>
       <c r="E7">
         <f>Data!L22</f>
-        <v>5.6714384242746024E-4</v>
+        <v>9.3799444989096648E-3</v>
       </c>
       <c r="F7">
         <f>Data!M22</f>
-        <v>5.7847104236061209E-4</v>
+        <v>9.0523178274396487E-3</v>
       </c>
       <c r="G7">
         <f>Data!N22</f>
-        <v>5.8979824229376046E-4</v>
+        <v>8.7246911559696327E-3</v>
       </c>
       <c r="H7">
         <f>Data!O22</f>
-        <v>6.011254422269123E-4</v>
+        <v>8.3970644844996167E-3</v>
       </c>
       <c r="I7">
         <f>Data!P22</f>
-        <v>6.1245264216006068E-4</v>
+        <v>8.0694378130296007E-3</v>
       </c>
       <c r="J7">
         <f>Data!Q22</f>
-        <v>6.2377984209321252E-4</v>
+        <v>7.7418111415595847E-3</v>
       </c>
       <c r="K7">
         <f>Data!R22</f>
-        <v>6.351070420263609E-4</v>
+        <v>7.4141844700895687E-3</v>
       </c>
       <c r="L7">
         <f>Data!S22</f>
-        <v>6.4643424195951274E-4</v>
+        <v>7.0865577986195527E-3</v>
       </c>
       <c r="M7">
         <f>Data!T22</f>
-        <v>6.5776144189266458E-4</v>
+        <v>6.7589311271495367E-3</v>
       </c>
       <c r="N7">
         <f>Data!U22</f>
-        <v>6.6908864182581296E-4</v>
+        <v>6.4313044556795207E-3</v>
       </c>
       <c r="O7">
         <f>Data!V22</f>
-        <v>6.804158417589648E-4</v>
+        <v>6.1036777842096157E-3</v>
       </c>
       <c r="P7">
         <f>Data!W22</f>
-        <v>6.9174304169211318E-4</v>
+        <v>5.7760511127395997E-3</v>
       </c>
       <c r="Q7">
         <f>Data!X22</f>
-        <v>7.0307024162526502E-4</v>
+        <v>5.4484244412695837E-3</v>
       </c>
       <c r="R7">
         <f>Data!Y22</f>
-        <v>7.1439744155841686E-4</v>
+        <v>5.1207977697995677E-3</v>
       </c>
       <c r="S7">
         <f>Data!Z22</f>
-        <v>7.2572464149156524E-4</v>
+        <v>4.7931710983295517E-3</v>
       </c>
       <c r="T7">
         <f>Data!AA22</f>
-        <v>7.3705184142471708E-4</v>
+        <v>4.4655444268595357E-3</v>
       </c>
       <c r="U7">
         <f>Data!AB22</f>
-        <v>7.4837904135786545E-4</v>
+        <v>4.1379177553895197E-3</v>
       </c>
       <c r="V7">
         <f>Data!AC22</f>
-        <v>7.597062412910173E-4</v>
+        <v>3.8102910839195037E-3</v>
       </c>
       <c r="W7">
         <f>Data!AD22</f>
-        <v>7.7103344122416567E-4</v>
+        <v>3.4826644124494877E-3</v>
       </c>
       <c r="X7">
         <f>Data!AE22</f>
-        <v>7.8236064115731752E-4</v>
+        <v>3.1550377409794716E-3</v>
       </c>
       <c r="Y7">
         <f>Data!AF22</f>
-        <v>7.9368784109046936E-4</v>
+        <v>2.8274110695094556E-3</v>
       </c>
       <c r="Z7">
         <f>Data!AG22</f>
-        <v>8.0501504102361773E-4</v>
+        <v>2.4997843980394396E-3</v>
       </c>
       <c r="AA7">
         <f>Data!AH22</f>
-        <v>8.1634224095676958E-4</v>
+        <v>2.1721577265694236E-3</v>
       </c>
       <c r="AB7">
         <f>Data!AI22</f>
-        <v>8.2766944088991795E-4</v>
+        <v>1.8445310550994076E-3</v>
       </c>
       <c r="AC7">
         <f>Data!AJ22</f>
-        <v>8.3899664082306979E-4</v>
+        <v>1.5169043836293916E-3</v>
       </c>
       <c r="AD7">
         <f>Data!AK22</f>
-        <v>8.5032384075622164E-4</v>
+        <v>1.1892777121593756E-3</v>
       </c>
       <c r="AE7">
         <f>Data!AL22</f>
-        <v>8.6165104068937001E-4</v>
+        <v>8.616510406893596E-4</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -9869,123 +9872,123 @@
       </c>
       <c r="B8">
         <f>Data!I23</f>
-        <v>2.8265820535957225E-5</v>
+        <v>2.2546848791455014E-4</v>
       </c>
       <c r="C8">
         <f>Data!J23</f>
-        <v>3.2499418292659206E-5</v>
+        <v>2.2678860721340281E-4</v>
       </c>
       <c r="D8">
         <f>Data!K23</f>
-        <v>3.3951193059309608E-5</v>
+        <v>2.2724129922553564E-4</v>
       </c>
       <c r="E8">
         <f>Data!L23</f>
-        <v>3.5887367225430346E-5</v>
+        <v>2.2784503652641401E-4</v>
       </c>
       <c r="F8">
         <f>Data!M23</f>
-        <v>3.8458983122471971E-5</v>
+        <v>2.2864691709467225E-4</v>
       </c>
       <c r="G8">
         <f>Data!N23</f>
-        <v>4.1856022212971344E-5</v>
+        <v>2.2970618089818924E-4</v>
       </c>
       <c r="H8">
         <f>Data!O23</f>
-        <v>4.6311257588612655E-5</v>
+        <v>2.3109541117898399E-4</v>
       </c>
       <c r="I8">
         <f>Data!P23</f>
-        <v>5.2099513911331002E-5</v>
+        <v>2.3290030368825228E-4</v>
       </c>
       <c r="J8">
         <f>Data!Q23</f>
-        <v>5.9528245516902954E-5</v>
+        <v>2.352167287531956E-4</v>
       </c>
       <c r="K8">
         <f>Data!R23</f>
-        <v>6.8914193479541143E-5</v>
+        <v>2.3814345248926398E-4</v>
       </c>
       <c r="L8">
         <f>Data!S23</f>
-        <v>8.0541076497633965E-5</v>
+        <v>2.4176894398367642E-4</v>
       </c>
       <c r="M8">
         <f>Data!T23</f>
-        <v>9.4596594535641205E-5</v>
+        <v>2.4615173178820312E-4</v>
       </c>
       <c r="N8">
         <f>Data!U23</f>
-        <v>1.1109517698153481E-4</v>
+        <v>2.5129631527066952E-4</v>
       </c>
       <c r="O8">
         <f>Data!V23</f>
-        <v>1.2980537982545135E-4</v>
+        <v>2.5713052562298784E-4</v>
       </c>
       <c r="P8">
         <f>Data!W23</f>
-        <v>1.5021216826135341E-4</v>
+        <v>2.6349376483228481E-4</v>
       </c>
       <c r="Q8">
         <f>Data!X23</f>
-        <v>1.7154417016308128E-4</v>
+        <v>2.7014550385237774E-4</v>
       </c>
       <c r="R8">
         <f>Data!Y23</f>
-        <v>1.9287617206480915E-4</v>
+        <v>2.7679724287247074E-4</v>
       </c>
       <c r="S8">
         <f>Data!Z23</f>
-        <v>2.1328296050071122E-4</v>
+        <v>2.831604820817677E-4</v>
       </c>
       <c r="T8">
         <f>Data!AA23</f>
-        <v>2.3199316334462775E-4</v>
+        <v>2.8899469243408597E-4</v>
       </c>
       <c r="U8">
         <f>Data!AB23</f>
-        <v>2.4849174579052134E-4</v>
+        <v>2.9413927591655242E-4</v>
       </c>
       <c r="V8">
         <f>Data!AC23</f>
-        <v>2.625472638285286E-4</v>
+        <v>2.985220637210791E-4</v>
       </c>
       <c r="W8">
         <f>Data!AD23</f>
-        <v>2.7417414684662147E-4</v>
+        <v>3.0214755521549154E-4</v>
       </c>
       <c r="X8">
         <f>Data!AE23</f>
-        <v>2.8356009480925965E-4</v>
+        <v>3.0507427895155989E-4</v>
       </c>
       <c r="Y8">
         <f>Data!AF23</f>
-        <v>2.9098882641483164E-4</v>
+        <v>3.0739070401650324E-4</v>
       </c>
       <c r="Z8">
         <f>Data!AG23</f>
-        <v>2.9677708273754996E-4</v>
+        <v>3.0919559652577155E-4</v>
       </c>
       <c r="AA8">
         <f>Data!AH23</f>
-        <v>3.012323181131913E-4</v>
+        <v>3.1058482680656628E-4</v>
       </c>
       <c r="AB8">
         <f>Data!AI23</f>
-        <v>3.0462935720369062E-4</v>
+        <v>3.1164409061008327E-4</v>
       </c>
       <c r="AC8">
         <f>Data!AJ23</f>
-        <v>3.0720097310073225E-4</v>
+        <v>3.1244597117834148E-4</v>
       </c>
       <c r="AD8">
         <f>Data!AK23</f>
-        <v>3.0913714726685303E-4</v>
+        <v>3.1304970847921988E-4</v>
       </c>
       <c r="AE8">
         <f>Data!AL23</f>
-        <v>3.1058892203350341E-4</v>
+        <v>3.1350240049135271E-4</v>
       </c>
     </row>
   </sheetData>
@@ -10000,13 +10003,14 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
@@ -10140,123 +10144,123 @@
       </c>
       <c r="B2">
         <f>Data!I24</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.62187252688637629</v>
+        <v>1.7273406586079703</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>0.6289705941446071</v>
+        <v>1.7362132426807588</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>0.63813978595964382</v>
+        <v>1.7476747324495547</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>0.64982134327496655</v>
+        <v>1.7622766790937081</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>0.66444357983063407</v>
+        <v>1.7805544747882927</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>0.68234814872037897</v>
+        <v>1.8029351859004736</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>0.70369004032713844</v>
+        <v>1.8296125504089229</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>0.72832852032984285</v>
+        <v>1.8604106504123035</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>0.75574430642031121</v>
+        <v>1.8946803830253891</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>0.78502806186250018</v>
+        <v>1.9312850773281254</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>0.8149719381374998</v>
+        <v>1.9687149226718748</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>0.84425569357968877</v>
+        <v>2.005319616974611</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>0.87167147967015723</v>
+        <v>2.0395893495876964</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>0.89630995967286164</v>
+        <v>2.070387449591077</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>0.91765185127962101</v>
+        <v>2.0970648140995265</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>0.93555642016936591</v>
+        <v>2.1194455252117077</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>0.95017865672503343</v>
+        <v>2.137723320906292</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>0.96186021404035627</v>
+        <v>2.1523252675504456</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>0.97102940585539288</v>
+        <v>2.1637867573192411</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>0.97812747311362369</v>
+        <v>2.1726593413920297</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>0.98356348871981403</v>
+        <v>2.1794543608997676</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>0.98769245625714075</v>
+        <v>2.1846155703214261</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>0.99080905203598979</v>
+        <v>2.1885113150449875</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>0.99315038667370892</v>
+        <v>2.1914379833421362</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>0.99490306021435537</v>
+        <v>2.1936288252679446</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>0.99621158256722153</v>
+        <v>2.1952644782090269</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>0.99718656513800186</v>
+        <v>2.1964832064225028</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>0.99791194972257657</v>
+        <v>2.1973899371532211</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -10265,123 +10269,123 @@
       </c>
       <c r="B3">
         <f>Data!I25</f>
-        <v>0.29802375741500553</v>
+        <v>2.4652000233370237E-2</v>
       </c>
       <c r="C3">
         <f>Data!J25</f>
-        <v>0.29596244960239987</v>
+        <v>2.8190631841939744E-2</v>
       </c>
       <c r="D3">
         <f>Data!K25</f>
-        <v>0.29525559107671612</v>
+        <v>2.9404090553188392E-2</v>
       </c>
       <c r="E3">
         <f>Data!L25</f>
-        <v>0.29431288202296346</v>
+        <v>3.1022432090970165E-2</v>
       </c>
       <c r="F3">
         <f>Data!M25</f>
-        <v>0.2930607810336332</v>
+        <v>3.3171904436085045E-2</v>
       </c>
       <c r="G3">
         <f>Data!N25</f>
-        <v>0.29140678752282123</v>
+        <v>3.6011302648198545E-2</v>
       </c>
       <c r="H3">
         <f>Data!O25</f>
-        <v>0.28923756597307232</v>
+        <v>3.9735188957166843E-2</v>
       </c>
       <c r="I3">
         <f>Data!P25</f>
-        <v>0.28641930626464923</v>
+        <v>4.4573274188492537E-2</v>
       </c>
       <c r="J3">
         <f>Data!Q25</f>
-        <v>0.28280231112804816</v>
+        <v>5.0782542518116404E-2</v>
       </c>
       <c r="K3">
         <f>Data!R25</f>
-        <v>0.27823236164867954</v>
+        <v>5.8627740396068245E-2</v>
       </c>
       <c r="L3">
         <f>Data!S25</f>
-        <v>0.2725713172654462</v>
+        <v>6.834601268394247E-2</v>
       </c>
       <c r="M3">
         <f>Data!T25</f>
-        <v>0.26572778823718668</v>
+        <v>8.0094247462594942E-2</v>
       </c>
       <c r="N3">
         <f>Data!U25</f>
-        <v>0.25769474900033379</v>
+        <v>9.3884505464127355E-2</v>
       </c>
       <c r="O3">
         <f>Data!V25</f>
-        <v>0.24858488795211589</v>
+        <v>0.10952333536510674</v>
       </c>
       <c r="P3">
         <f>Data!W25</f>
-        <v>0.23864897177620478</v>
+        <v>0.12658024788693495</v>
       </c>
       <c r="Q3">
         <f>Data!X25</f>
-        <v>0.22826257592436899</v>
+        <v>0.14441049547812879</v>
       </c>
       <c r="R3">
         <f>Data!Y25</f>
-        <v>0.21787618007253318</v>
+        <v>0.16224074306932265</v>
       </c>
       <c r="S3">
         <f>Data!Z25</f>
-        <v>0.20794026389662207</v>
+        <v>0.17929765559115082</v>
       </c>
       <c r="T3">
         <f>Data!AA25</f>
-        <v>0.19883040284840414</v>
+        <v>0.19493648549213022</v>
       </c>
       <c r="U3">
         <f>Data!AB25</f>
-        <v>0.19079736361155128</v>
+        <v>0.20872674349366263</v>
       </c>
       <c r="V3">
         <f>Data!AC25</f>
-        <v>0.18395383458329176</v>
+        <v>0.2204749782723151</v>
       </c>
       <c r="W3">
         <f>Data!AD25</f>
-        <v>0.17829279020005839</v>
+        <v>0.23019325056018936</v>
       </c>
       <c r="X3">
         <f>Data!AE25</f>
-        <v>0.17372284072068978</v>
+        <v>0.2380384484381412</v>
       </c>
       <c r="Y3">
         <f>Data!AF25</f>
-        <v>0.17010584558408873</v>
+        <v>0.24424771676776508</v>
       </c>
       <c r="Z3">
         <f>Data!AG25</f>
-        <v>0.16728758587566564</v>
+        <v>0.24908580199909075</v>
       </c>
       <c r="AA3">
         <f>Data!AH25</f>
-        <v>0.1651183643259167</v>
+        <v>0.25280968830805906</v>
       </c>
       <c r="AB3">
         <f>Data!AI25</f>
-        <v>0.16346437081510473</v>
+        <v>0.25564908652017254</v>
       </c>
       <c r="AC3">
         <f>Data!AJ25</f>
-        <v>0.1622122698257745</v>
+        <v>0.25779855886528741</v>
       </c>
       <c r="AD3">
         <f>Data!AK25</f>
-        <v>0.16126956077202181</v>
+        <v>0.25941690040306919</v>
       </c>
       <c r="AE3">
         <f>Data!AL25</f>
-        <v>0.16056270224633809</v>
+        <v>0.26063035911431781</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -10390,123 +10394,123 @@
       </c>
       <c r="B4">
         <f>Data!I26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="C4">
         <f>Data!J26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="D4">
         <f>Data!K26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="E4">
         <f>Data!L26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="F4">
         <f>Data!M26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="G4">
         <f>Data!N26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="H4">
         <f>Data!O26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="I4">
         <f>Data!P26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="J4">
         <f>Data!Q26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="K4">
         <f>Data!R26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="L4">
         <f>Data!S26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="M4">
         <f>Data!T26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="N4">
         <f>Data!U26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="O4">
         <f>Data!V26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="P4">
         <f>Data!W26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="Q4">
         <f>Data!X26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="R4">
         <f>Data!Y26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="S4">
         <f>Data!Z26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="T4">
         <f>Data!AA26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="U4">
         <f>Data!AB26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="V4">
         <f>Data!AC26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="W4">
         <f>Data!AD26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="X4">
         <f>Data!AE26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="Y4">
         <f>Data!AF26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="Z4">
         <f>Data!AG26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AA4">
         <f>Data!AH26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AB4">
         <f>Data!AI26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AC4">
         <f>Data!AJ26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AD4">
         <f>Data!AK26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AE4">
         <f>Data!AL26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -10515,123 +10519,123 @@
       </c>
       <c r="B5">
         <f>Data!I27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
         <f>Data!J27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
         <f>Data!K27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <f>Data!L27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
         <f>Data!M27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
         <f>Data!N27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
         <f>Data!O27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
         <f>Data!P27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
         <f>Data!Q27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <f>Data!R27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <f>Data!S27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
         <f>Data!T27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N5">
         <f>Data!U27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
         <f>Data!V27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P5">
         <f>Data!W27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <f>Data!X27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
         <f>Data!Y27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
         <f>Data!Z27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T5">
         <f>Data!AA27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U5">
         <f>Data!AB27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V5">
         <f>Data!AC27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5">
         <f>Data!AD27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <f>Data!AE27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y5">
         <f>Data!AF27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z5">
         <f>Data!AG27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA5">
         <f>Data!AH27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB5">
         <f>Data!AI27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC5">
         <f>Data!AJ27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD5">
         <f>Data!AK27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE5">
         <f>Data!AL27</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -10640,123 +10644,123 @@
       </c>
       <c r="B6">
         <f>Data!I28</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C6">
         <f>Data!J28</f>
-        <v>8.8644190159638335E-5</v>
+        <v>1.985225968306727E-2</v>
       </c>
       <c r="D6">
         <f>Data!K28</f>
-        <v>1.1904183440446507E-4</v>
+        <v>1.9801596942659226E-2</v>
       </c>
       <c r="E6">
         <f>Data!L28</f>
-        <v>1.5958196146119519E-4</v>
+        <v>1.9734030064231342E-2</v>
       </c>
       <c r="F6">
         <f>Data!M28</f>
-        <v>2.1342713563581709E-4</v>
+        <v>1.9644288107273637E-2</v>
       </c>
       <c r="G6">
         <f>Data!N28</f>
-        <v>2.845552390654007E-4</v>
+        <v>1.9525741268224331E-2</v>
       </c>
       <c r="H6">
         <f>Data!O28</f>
-        <v>3.7784013634197905E-4</v>
+        <v>1.9370266439430035E-2</v>
       </c>
       <c r="I6">
         <f>Data!P28</f>
-        <v>4.9903617896353422E-4</v>
+        <v>1.9168273035060777E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q28</f>
-        <v>6.5458092717367755E-4</v>
+        <v>1.8909031788043873E-2</v>
       </c>
       <c r="K6">
         <f>Data!R28</f>
-        <v>8.5110638940292692E-4</v>
+        <v>1.8581489350995122E-2</v>
       </c>
       <c r="L6">
         <f>Data!S28</f>
-        <v>1.0945531428381381E-3</v>
+        <v>1.8175744761936438E-2</v>
       </c>
       <c r="M6">
         <f>Data!T28</f>
-        <v>1.3888512990058942E-3</v>
+        <v>1.7685247834990175E-2</v>
       </c>
       <c r="N6">
         <f>Data!U28</f>
-        <v>1.7343029842499763E-3</v>
+        <v>1.7109495026250039E-2</v>
       </c>
       <c r="O6">
         <f>Data!V28</f>
-        <v>2.1260621626452273E-3</v>
+        <v>1.6456563062257956E-2</v>
       </c>
       <c r="P6">
         <f>Data!W28</f>
-        <v>2.553344899130046E-3</v>
+        <v>1.5744425168116589E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X28</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y28</f>
-        <v>3.4466551008699542E-3</v>
+        <v>1.4255574831883409E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z28</f>
-        <v>3.8739378373547728E-3</v>
+        <v>1.3543436937742046E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA28</f>
-        <v>4.2656970157500234E-3</v>
+        <v>1.2890504973749961E-2</v>
       </c>
       <c r="U6">
         <f>Data!AB28</f>
-        <v>4.6111487009941055E-3</v>
+        <v>1.2314752165009824E-2</v>
       </c>
       <c r="V6">
         <f>Data!AC28</f>
-        <v>4.9054468571618614E-3</v>
+        <v>1.1824255238063564E-2</v>
       </c>
       <c r="W6">
         <f>Data!AD28</f>
-        <v>5.1488936105970736E-3</v>
+        <v>1.1418510649004877E-2</v>
       </c>
       <c r="X6">
         <f>Data!AE28</f>
-        <v>5.3454190728263228E-3</v>
+        <v>1.1090968211956129E-2</v>
       </c>
       <c r="Y6">
         <f>Data!AF28</f>
-        <v>5.5009638210364665E-3</v>
+        <v>1.0831726964939224E-2</v>
       </c>
       <c r="Z6">
         <f>Data!AG28</f>
-        <v>5.6221598636580217E-3</v>
+        <v>1.0629733560569964E-2</v>
       </c>
       <c r="AA6">
         <f>Data!AH28</f>
-        <v>5.7154447609346001E-3</v>
+        <v>1.0474258731775666E-2</v>
       </c>
       <c r="AB6">
         <f>Data!AI28</f>
-        <v>5.7865728643641829E-3</v>
+        <v>1.0355711892726362E-2</v>
       </c>
       <c r="AC6">
         <f>Data!AJ28</f>
-        <v>5.840418038538805E-3</v>
+        <v>1.026596993576866E-2</v>
       </c>
       <c r="AD6">
         <f>Data!AK28</f>
-        <v>5.880958165595535E-3</v>
+        <v>1.0198403057340774E-2</v>
       </c>
       <c r="AE6">
         <f>Data!AL28</f>
-        <v>5.9113558098403615E-3</v>
+        <v>1.0147740316932731E-2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -10765,123 +10769,123 @@
       </c>
       <c r="B7">
         <f>Data!I29</f>
-        <v>2.1496445375763083E-2</v>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="C7">
-        <f>Data!J29</f>
-        <v>2.1496445375760231E-2</v>
+        <f>B7</f>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="D7">
-        <f>Data!K29</f>
-        <v>3.9809241000682505E-2</v>
+        <f t="shared" ref="D7:AE7" si="0">C7</f>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="E7">
-        <f>Data!L29</f>
-        <v>5.8122036625604778E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="F7">
-        <f>Data!M29</f>
-        <v>7.6434832250534157E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="G7">
-        <f>Data!N29</f>
-        <v>9.4747627875456431E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="H7">
-        <f>Data!O29</f>
-        <v>0.1130604235003787</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="I7">
-        <f>Data!P29</f>
-        <v>0.13137321912530098</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="J7">
-        <f>Data!Q29</f>
-        <v>0.14968601475022325</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="K7">
-        <f>Data!R29</f>
-        <v>0.16799881037514552</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="L7">
-        <f>Data!S29</f>
-        <v>0.1863116060000678</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="M7">
-        <f>Data!T29</f>
-        <v>0.20462440162499007</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="N7">
-        <f>Data!U29</f>
-        <v>0.22293719724991234</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="O7">
-        <f>Data!V29</f>
-        <v>0.24124999287483462</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="P7">
-        <f>Data!W29</f>
-        <v>0.25956278849975689</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="Q7">
-        <f>Data!X29</f>
-        <v>0.27787558412467916</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="R7">
-        <f>Data!Y29</f>
-        <v>0.29618837974960144</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="S7">
-        <f>Data!Z29</f>
-        <v>0.31450117537452371</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="T7">
-        <f>Data!AA29</f>
-        <v>0.33281397099944598</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="U7">
-        <f>Data!AB29</f>
-        <v>0.35112676662436826</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="V7">
-        <f>Data!AC29</f>
-        <v>0.36943956224929764</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="W7">
-        <f>Data!AD29</f>
-        <v>0.38775235787421991</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="X7">
-        <f>Data!AE29</f>
-        <v>0.40606515349914218</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="Y7">
-        <f>Data!AF29</f>
-        <v>0.42437794912406446</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="Z7">
-        <f>Data!AG29</f>
-        <v>0.44269074474898673</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="AA7">
-        <f>Data!AH29</f>
-        <v>0.461003540373909</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="AB7">
-        <f>Data!AI29</f>
-        <v>0.47931633599883128</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="AC7">
-        <f>Data!AJ29</f>
-        <v>0.49762913162375355</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="AD7">
-        <f>Data!AK29</f>
-        <v>0.51594192724867582</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="AE7">
-        <f>Data!AL29</f>
-        <v>0.5342547228735981</v>
+        <f t="shared" si="0"/>
+        <v>1.1960398418308864E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -10890,123 +10894,123 @@
       </c>
       <c r="B8">
         <f>Data!I30</f>
-        <v>8.470448323552864E-5</v>
+        <v>2.0195858052701565E-3</v>
       </c>
       <c r="C8">
         <f>Data!J30</f>
-        <v>8.2215464117929744E-4</v>
+        <v>2.7284499652394639E-3</v>
       </c>
       <c r="D8">
         <f>Data!K30</f>
-        <v>1.0750392070949643E-3</v>
+        <v>2.9715318921412692E-3</v>
       </c>
       <c r="E8">
         <f>Data!L30</f>
-        <v>1.4123012774822749E-3</v>
+        <v>3.2957205734227501E-3</v>
       </c>
       <c r="F8">
         <f>Data!M30</f>
-        <v>1.860250907661926E-3</v>
+        <v>3.7263061999703714E-3</v>
       </c>
       <c r="G8">
         <f>Data!N30</f>
-        <v>2.4519809580343683E-3</v>
+        <v>4.2950988438765388E-3</v>
       </c>
       <c r="H8">
         <f>Data!O30</f>
-        <v>3.2280381605029394E-3</v>
+        <v>5.0410735121170485E-3</v>
       </c>
       <c r="I8">
         <f>Data!P30</f>
-        <v>4.2362942076558247E-3</v>
+        <v>6.010246232741108E-3</v>
       </c>
       <c r="J8">
         <f>Data!Q30</f>
-        <v>5.530304553154162E-3</v>
+        <v>7.2540964735640472E-3</v>
       </c>
       <c r="K8">
         <f>Data!R30</f>
-        <v>7.1652423071111148E-3</v>
+        <v>8.8256586531590669E-3</v>
       </c>
       <c r="L8">
         <f>Data!S30</f>
-        <v>9.1905284138303605E-3</v>
+        <v>1.0772437997189686E-2</v>
       </c>
       <c r="M8">
         <f>Data!T30</f>
-        <v>1.1638858319689102E-2</v>
+        <v>1.3125862568802056E-2</v>
       </c>
       <c r="N8">
         <f>Data!U30</f>
-        <v>1.4512745478976212E-2</v>
+        <v>1.5888348392515139E-2</v>
       </c>
       <c r="O8">
         <f>Data!V30</f>
-        <v>1.7771874672476845E-2</v>
+        <v>1.9021142999847009E-2</v>
       </c>
       <c r="P8">
         <f>Data!W30</f>
-        <v>2.1326532015952099E-2</v>
+        <v>2.2438010112313542E-2</v>
       </c>
       <c r="Q8">
         <f>Data!X30</f>
-        <v>2.5042352241617768E-2</v>
+        <v>2.6009792902635082E-2</v>
       </c>
       <c r="R8">
         <f>Data!Y30</f>
-        <v>2.8758172467283436E-2</v>
+        <v>2.9581575692956621E-2</v>
       </c>
       <c r="S8">
         <f>Data!Z30</f>
-        <v>3.2312829810758684E-2</v>
+        <v>3.2998442805423155E-2</v>
       </c>
       <c r="T8">
         <f>Data!AA30</f>
-        <v>3.5571959004259315E-2</v>
+        <v>3.6131237412755014E-2</v>
       </c>
       <c r="U8">
         <f>Data!AB30</f>
-        <v>3.8445846163546425E-2</v>
+        <v>3.88937232364681E-2</v>
       </c>
       <c r="V8">
         <f>Data!AC30</f>
-        <v>4.0894176069405173E-2</v>
+        <v>4.1247147808080475E-2</v>
       </c>
       <c r="W8">
         <f>Data!AD30</f>
-        <v>4.2919462176124419E-2</v>
+        <v>4.3193927152111095E-2</v>
       </c>
       <c r="X8">
         <f>Data!AE30</f>
-        <v>4.4554399930081368E-2</v>
+        <v>4.4765489331706113E-2</v>
       </c>
       <c r="Y8">
         <f>Data!AF30</f>
-        <v>4.5848410275579711E-2</v>
+        <v>4.6009339572529055E-2</v>
       </c>
       <c r="Z8">
         <f>Data!AG30</f>
-        <v>4.6856666322732596E-2</v>
+        <v>4.6978512293153113E-2</v>
       </c>
       <c r="AA8">
         <f>Data!AH30</f>
-        <v>4.7632723525201169E-2</v>
+        <v>4.7724486961393628E-2</v>
       </c>
       <c r="AB8">
         <f>Data!AI30</f>
-        <v>4.822445357557361E-2</v>
+        <v>4.8293279605299791E-2</v>
       </c>
       <c r="AC8">
         <f>Data!AJ30</f>
-        <v>4.8672403205753251E-2</v>
+        <v>4.8723865231847407E-2</v>
       </c>
       <c r="AD8">
         <f>Data!AK30</f>
-        <v>4.900966527614057E-2</v>
+        <v>4.9048053913128893E-2</v>
       </c>
       <c r="AE8">
         <f>Data!AL30</f>
-        <v>4.9262549842056233E-2</v>
+        <v>4.9291135840030698E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11021,7 +11025,7 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
@@ -11786,119 +11790,119 @@
       </c>
       <c r="B7">
         <f>Data!I36</f>
-        <v>7.4581219585064093E-4</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>Data!J36</f>
-        <v>7.4581219585068137E-4</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>Data!K36</f>
-        <v>9.3984026293869594E-4</v>
+        <v>2.2066421693983651E-4</v>
       </c>
       <c r="E7">
         <f>Data!L36</f>
-        <v>1.1338683300267105E-3</v>
+        <v>4.4132843387961751E-4</v>
       </c>
       <c r="F7">
         <f>Data!M36</f>
-        <v>1.3278963971147251E-3</v>
+        <v>6.6199265081945402E-4</v>
       </c>
       <c r="G7">
         <f>Data!N36</f>
-        <v>1.5219244642027396E-3</v>
+        <v>8.8265686775929053E-4</v>
       </c>
       <c r="H7">
         <f>Data!O36</f>
-        <v>1.7159525312907542E-3</v>
+        <v>1.103321084699127E-3</v>
       </c>
       <c r="I7">
         <f>Data!P36</f>
-        <v>1.9099805983787688E-3</v>
+        <v>1.3239853016389636E-3</v>
       </c>
       <c r="J7">
         <f>Data!Q36</f>
-        <v>2.1040086654667833E-3</v>
+        <v>1.5446495185788001E-3</v>
       </c>
       <c r="K7">
         <f>Data!R36</f>
-        <v>2.2980367325547979E-3</v>
+        <v>1.7653137355186366E-3</v>
       </c>
       <c r="L7">
         <f>Data!S36</f>
-        <v>2.4920647996428125E-3</v>
+        <v>1.9859779524584176E-3</v>
       </c>
       <c r="M7">
         <f>Data!T36</f>
-        <v>2.686092866730827E-3</v>
+        <v>2.2066421693982541E-3</v>
       </c>
       <c r="N7">
         <f>Data!U36</f>
-        <v>2.8801209338188971E-3</v>
+        <v>2.4273063863380906E-3</v>
       </c>
       <c r="O7">
         <f>Data!V36</f>
-        <v>3.0741490009069117E-3</v>
+        <v>2.6479706032779271E-3</v>
       </c>
       <c r="P7">
         <f>Data!W36</f>
-        <v>3.2681770679949262E-3</v>
+        <v>2.8686348202177636E-3</v>
       </c>
       <c r="Q7">
         <f>Data!X36</f>
-        <v>3.4622051350829408E-3</v>
+        <v>3.0892990371576001E-3</v>
       </c>
       <c r="R7">
         <f>Data!Y36</f>
-        <v>3.6562332021709554E-3</v>
+        <v>3.3099632540974366E-3</v>
       </c>
       <c r="S7">
         <f>Data!Z36</f>
-        <v>3.8502612692589699E-3</v>
+        <v>3.5306274710372176E-3</v>
       </c>
       <c r="T7">
         <f>Data!AA36</f>
-        <v>4.0442893363469845E-3</v>
+        <v>3.7512916879770541E-3</v>
       </c>
       <c r="U7">
         <f>Data!AB36</f>
-        <v>4.2383174034349991E-3</v>
+        <v>3.9719559049168907E-3</v>
       </c>
       <c r="V7">
         <f>Data!AC36</f>
-        <v>4.4323454705230136E-3</v>
+        <v>4.1926201218567272E-3</v>
       </c>
       <c r="W7">
         <f>Data!AD36</f>
-        <v>4.6263735376110282E-3</v>
+        <v>4.4132843387965637E-3</v>
       </c>
       <c r="X7">
         <f>Data!AE36</f>
-        <v>4.8204016046990983E-3</v>
+        <v>4.6339485557364002E-3</v>
       </c>
       <c r="Y7">
         <f>Data!AF36</f>
-        <v>5.0144296717871129E-3</v>
+        <v>4.8546127726762367E-3</v>
       </c>
       <c r="Z7">
         <f>Data!AG36</f>
-        <v>5.2084577388751274E-3</v>
+        <v>5.0752769896160177E-3</v>
       </c>
       <c r="AA7">
         <f>Data!AH36</f>
-        <v>5.402485805963142E-3</v>
+        <v>5.2959412065558542E-3</v>
       </c>
       <c r="AB7">
         <f>Data!AI36</f>
-        <v>5.5965138730511566E-3</v>
+        <v>5.5166054234956907E-3</v>
       </c>
       <c r="AC7">
         <f>Data!AJ36</f>
-        <v>5.7905419401391711E-3</v>
+        <v>5.7372696404355272E-3</v>
       </c>
       <c r="AD7">
         <f>Data!AK36</f>
-        <v>5.9845700072271857E-3</v>
+        <v>5.9579338573753637E-3</v>
       </c>
       <c r="AE7">
         <f>Data!AL36</f>
@@ -14224,123 +14228,123 @@
       </c>
       <c r="B2">
         <f>Data!I52</f>
-        <v>0.93664816809218165</v>
+        <v>0.87292849620408119</v>
       </c>
       <c r="C2">
         <f>Data!J52</f>
-        <v>0.93758413006461472</v>
+        <v>0.87480585462847393</v>
       </c>
       <c r="D2">
         <f>Data!K52</f>
-        <v>0.93790508780604664</v>
+        <v>0.87544963368948125</v>
       </c>
       <c r="E2">
         <f>Data!L52</f>
-        <v>0.93833313635851656</v>
+        <v>0.87630821617434396</v>
       </c>
       <c r="F2">
         <f>Data!M52</f>
-        <v>0.93890166809574294</v>
+        <v>0.87744858071676435</v>
       </c>
       <c r="G2">
         <f>Data!N52</f>
-        <v>0.93965268403780833</v>
+        <v>0.87895497322758909</v>
       </c>
       <c r="H2">
         <f>Data!O52</f>
-        <v>0.94063764555977569</v>
+        <v>0.88093061525731953</v>
       </c>
       <c r="I2">
         <f>Data!P52</f>
-        <v>0.94191731077978458</v>
+        <v>0.88349737582232546</v>
       </c>
       <c r="J2">
         <f>Data!Q52</f>
-        <v>0.94355965157024346</v>
+        <v>0.88679159333276225</v>
       </c>
       <c r="K2">
         <f>Data!R52</f>
-        <v>0.94563469291170243</v>
+        <v>0.8909537243360387</v>
       </c>
       <c r="L2">
         <f>Data!S52</f>
-        <v>0.94820515921205761</v>
+        <v>0.89610958184491307</v>
       </c>
       <c r="M2">
         <f>Data!T52</f>
-        <v>0.95131254709877777</v>
+        <v>0.90234240005634692</v>
       </c>
       <c r="N2">
         <f>Data!U52</f>
-        <v>0.95496004661475364</v>
+        <v>0.90965857757848023</v>
       </c>
       <c r="O2">
         <f>Data!V52</f>
-        <v>0.95909649021776056</v>
+        <v>0.91795548223256995</v>
       </c>
       <c r="P2">
         <f>Data!W52</f>
-        <v>0.96360801423424369</v>
+        <v>0.92700472554443014</v>
       </c>
       <c r="Q2">
         <f>Data!X52</f>
-        <v>0.96832408404609083</v>
+        <v>0.93646424810204065</v>
       </c>
       <c r="R2">
         <f>Data!Y52</f>
-        <v>0.97304015385793796</v>
+        <v>0.94592377065965105</v>
       </c>
       <c r="S2">
         <f>Data!Z52</f>
-        <v>0.9775516778744211</v>
+        <v>0.95497301397151124</v>
       </c>
       <c r="T2">
         <f>Data!AA52</f>
-        <v>0.98168812147742801</v>
+        <v>0.96326991862560096</v>
       </c>
       <c r="U2">
         <f>Data!AB52</f>
-        <v>0.98533562099340388</v>
+        <v>0.97058609614773428</v>
       </c>
       <c r="V2">
         <f>Data!AC52</f>
-        <v>0.98844300888012404</v>
+        <v>0.97681891435916812</v>
       </c>
       <c r="W2">
         <f>Data!AD52</f>
-        <v>0.99101347518047922</v>
+        <v>0.9819747718680425</v>
       </c>
       <c r="X2">
         <f>Data!AE52</f>
-        <v>0.99308851652193819</v>
+        <v>0.98613690287131894</v>
       </c>
       <c r="Y2">
         <f>Data!AF52</f>
-        <v>0.99473085731239708</v>
+        <v>0.98943112038175574</v>
       </c>
       <c r="Z2">
         <f>Data!AG52</f>
-        <v>0.99601052253240596</v>
+        <v>0.99199788094676167</v>
       </c>
       <c r="AA2">
         <f>Data!AH52</f>
-        <v>0.99699548405437333</v>
+        <v>0.99397352297649211</v>
       </c>
       <c r="AB2">
         <f>Data!AI52</f>
-        <v>0.99774649999643872</v>
+        <v>0.99547991548731685</v>
       </c>
       <c r="AC2">
         <f>Data!AJ52</f>
-        <v>0.99831503173366509</v>
+        <v>0.99662028002973724</v>
       </c>
       <c r="AD2">
         <f>Data!AK52</f>
-        <v>0.99874308028613501</v>
+        <v>0.99747886251459994</v>
       </c>
       <c r="AE2">
         <f>Data!AL52</f>
-        <v>0.99906403802756694</v>
+        <v>0.99812264157560726</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -14599,119 +14603,119 @@
       </c>
       <c r="B5">
         <f>Data!I55</f>
-        <v>6.3351831907818346E-2</v>
+        <v>0.12707150379591881</v>
       </c>
       <c r="C5">
         <f>Data!J55</f>
-        <v>6.3351831907809242E-2</v>
+        <v>0.12707150379591781</v>
       </c>
       <c r="D5">
         <f>Data!K55</f>
-        <v>9.6803552196817577E-2</v>
+        <v>0.15824752151749522</v>
       </c>
       <c r="E5">
         <f>Data!L55</f>
-        <v>0.13025527248582591</v>
+        <v>0.18942353923906552</v>
       </c>
       <c r="F5">
         <f>Data!M55</f>
-        <v>0.16370699277483425</v>
+        <v>0.22059955696064293</v>
       </c>
       <c r="G5">
         <f>Data!N55</f>
-        <v>0.19715871306384258</v>
+        <v>0.25177557468222034</v>
       </c>
       <c r="H5">
         <f>Data!O55</f>
-        <v>0.23061043335285092</v>
+        <v>0.28295159240379064</v>
       </c>
       <c r="I5">
         <f>Data!P55</f>
-        <v>0.26406215364185925</v>
+        <v>0.31412761012536805</v>
       </c>
       <c r="J5">
         <f>Data!Q55</f>
-        <v>0.29751387393085338</v>
+        <v>0.34530362784693835</v>
       </c>
       <c r="K5">
         <f>Data!R55</f>
-        <v>0.33096559421986171</v>
+        <v>0.37647964556851576</v>
       </c>
       <c r="L5">
         <f>Data!S55</f>
-        <v>0.36441731450887005</v>
+        <v>0.40765566329008607</v>
       </c>
       <c r="M5">
         <f>Data!T55</f>
-        <v>0.39786903479787838</v>
+        <v>0.43883168101166348</v>
       </c>
       <c r="N5">
         <f>Data!U55</f>
-        <v>0.43132075508688672</v>
+        <v>0.47000769873324089</v>
       </c>
       <c r="O5">
         <f>Data!V55</f>
-        <v>0.46477247537589506</v>
+        <v>0.50118371645481119</v>
       </c>
       <c r="P5">
         <f>Data!W55</f>
-        <v>0.49822419566490339</v>
+        <v>0.5323597341763886</v>
       </c>
       <c r="Q5">
         <f>Data!X55</f>
-        <v>0.53167591595391173</v>
+        <v>0.5635357518979589</v>
       </c>
       <c r="R5">
         <f>Data!Y55</f>
-        <v>0.56512763624290585</v>
+        <v>0.59471176961953631</v>
       </c>
       <c r="S5">
         <f>Data!Z55</f>
-        <v>0.59857935653191419</v>
+        <v>0.62588778734110662</v>
       </c>
       <c r="T5">
         <f>Data!AA55</f>
-        <v>0.63203107682092252</v>
+        <v>0.65706380506268403</v>
       </c>
       <c r="U5">
         <f>Data!AB55</f>
-        <v>0.66548279710993086</v>
+        <v>0.68823982278425433</v>
       </c>
       <c r="V5">
         <f>Data!AC55</f>
-        <v>0.69893451739893919</v>
+        <v>0.71941584050583174</v>
       </c>
       <c r="W5">
         <f>Data!AD55</f>
-        <v>0.73238623768794753</v>
+        <v>0.75059185822740915</v>
       </c>
       <c r="X5">
         <f>Data!AE55</f>
-        <v>0.76583795797695586</v>
+        <v>0.78176787594897945</v>
       </c>
       <c r="Y5">
         <f>Data!AF55</f>
-        <v>0.7992896782659642</v>
+        <v>0.81294389367055686</v>
       </c>
       <c r="Z5">
         <f>Data!AG55</f>
-        <v>0.83274139855495832</v>
+        <v>0.84411991139212716</v>
       </c>
       <c r="AA5">
         <f>Data!AH55</f>
-        <v>0.86619311884396666</v>
+        <v>0.87529592911370457</v>
       </c>
       <c r="AB5">
         <f>Data!AI55</f>
-        <v>0.89964483913297499</v>
+        <v>0.90647194683527488</v>
       </c>
       <c r="AC5">
         <f>Data!AJ55</f>
-        <v>0.93309655942198333</v>
+        <v>0.93764796455685229</v>
       </c>
       <c r="AD5">
         <f>Data!AK55</f>
-        <v>0.96654827971099166</v>
+        <v>0.9688239822784297</v>
       </c>
       <c r="AE5">
         <f>Data!AL55</f>
@@ -24653,125 +24657,125 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="e">
         <f>Data!I80</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2" t="e">
         <f>Data!J80</f>
-        <v>7.2426485361517731E-2</v>
-      </c>
-      <c r="D2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D2" t="e">
         <f>Data!K80</f>
-        <v>9.534946489910949E-2</v>
-      </c>
-      <c r="E2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" t="e">
         <f>Data!L80</f>
-        <v>0.12455335818741645</v>
-      </c>
-      <c r="F2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" t="e">
         <f>Data!M80</f>
-        <v>0.16110894957658525</v>
-      </c>
-      <c r="G2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
         <f>Data!N80</f>
-        <v>0.20587037180094736</v>
-      </c>
-      <c r="H2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" t="e">
         <f>Data!O80</f>
-        <v>0.259225100817846</v>
-      </c>
-      <c r="I2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
         <f>Data!P80</f>
-        <v>0.32082130082460703</v>
-      </c>
-      <c r="J2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" t="e">
         <f>Data!Q80</f>
-        <v>0.38936076605077802</v>
-      </c>
-      <c r="K2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
         <f>Data!R80</f>
-        <v>0.46257015465625045</v>
-      </c>
-      <c r="L2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" t="e">
         <f>Data!S80</f>
-        <v>0.5374298453437496</v>
-      </c>
-      <c r="M2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" t="e">
         <f>Data!T80</f>
-        <v>0.61063923394922204</v>
-      </c>
-      <c r="N2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" t="e">
         <f>Data!U80</f>
-        <v>0.67917869917539297</v>
-      </c>
-      <c r="O2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2" t="e">
         <f>Data!V80</f>
-        <v>0.740774899182154</v>
-      </c>
-      <c r="P2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2" t="e">
         <f>Data!W80</f>
-        <v>0.79412962819905253</v>
-      </c>
-      <c r="Q2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" t="e">
         <f>Data!X80</f>
-        <v>0.83889105042341472</v>
-      </c>
-      <c r="R2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R2" t="e">
         <f>Data!Y80</f>
-        <v>0.87544664181258358</v>
-      </c>
-      <c r="S2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S2" t="e">
         <f>Data!Z80</f>
-        <v>0.90465053510089055</v>
-      </c>
-      <c r="T2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T2" t="e">
         <f>Data!AA80</f>
-        <v>0.92757351463848225</v>
-      </c>
-      <c r="U2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U2" t="e">
         <f>Data!AB80</f>
-        <v>0.94531868278405917</v>
-      </c>
-      <c r="V2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V2" t="e">
         <f>Data!AC80</f>
-        <v>0.95890872179953501</v>
-      </c>
-      <c r="W2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" t="e">
         <f>Data!AD80</f>
-        <v>0.96923114064285198</v>
-      </c>
-      <c r="X2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X2" t="e">
         <f>Data!AE80</f>
-        <v>0.97702263008997436</v>
-      </c>
-      <c r="Y2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y2" t="e">
         <f>Data!AF80</f>
-        <v>0.98287596668427235</v>
-      </c>
-      <c r="Z2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z2" t="e">
         <f>Data!AG80</f>
-        <v>0.98725765053588843</v>
-      </c>
-      <c r="AA2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA2" t="e">
         <f>Data!AH80</f>
-        <v>0.99052895641805383</v>
-      </c>
-      <c r="AB2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB2" t="e">
         <f>Data!AI80</f>
-        <v>0.99296641284500486</v>
-      </c>
-      <c r="AC2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC2" t="e">
         <f>Data!AJ80</f>
-        <v>0.99477987430644166</v>
-      </c>
-      <c r="AD2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD2" t="e">
         <f>Data!AK80</f>
-        <v>0.99612759655932892</v>
-      </c>
-      <c r="AE2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE2" t="e">
         <f>Data!AL80</f>
-        <v>0.99712837084429951</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -56151,7 +56155,7 @@
         <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -56159,25 +56163,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="5">
-        <v>878899.00000000012</v>
+        <v>2420032.0429837746</v>
       </c>
       <c r="C2" s="5">
-        <v>97967</v>
+        <v>1620183</v>
       </c>
       <c r="D2" s="5">
-        <v>254657419</v>
+        <v>127778664.60652928</v>
       </c>
       <c r="E2" s="5">
-        <v>1084721</v>
+        <v>106629801.23403516</v>
       </c>
       <c r="F2" s="5">
-        <v>608975</v>
+        <v>1574062.793071161</v>
       </c>
       <c r="G2" s="5">
-        <v>82014.999999999985</v>
+        <v>7860157.4122016411</v>
       </c>
       <c r="H2" s="5">
-        <v>7638</v>
+        <v>41503</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -56186,25 +56190,25 @@
         <v>13</v>
       </c>
       <c r="B3" s="5">
-        <v>300</v>
+        <v>12371.367654201069</v>
       </c>
       <c r="C3" s="5">
-        <v>142618.8307345309</v>
+        <v>51231</v>
       </c>
       <c r="D3" s="5">
-        <v>100403.17008274974</v>
+        <v>3776</v>
       </c>
       <c r="E3" s="5">
-        <v>760039.90490723506</v>
+        <v>693869.40718235949</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>2766</v>
       </c>
       <c r="G3" s="5">
-        <v>7242.0778798241154</v>
+        <v>1832</v>
       </c>
       <c r="H3" s="5">
-        <v>85.609939732677148</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
@@ -56223,7 +56227,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>5561.7944340000004</v>
+        <v>966.35411601475391</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -56240,7 +56244,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>2563.6060360683009</v>
+        <v>21640.804377891174</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -56249,7 +56253,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>173.39396393169866</v>
+        <v>3150.2346041055721</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -56272,10 +56276,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>10280629.278619969</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>2424370.5267950557</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -56292,13 +56296,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>3519701</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>8596314</v>
+        <v>38211729.217670344</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -56331,7 +56335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56368,7 +56374,7 @@
         <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -56376,25 +56382,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="5">
-        <v>1500.7950000000001</v>
+        <v>326303.61248271773</v>
       </c>
       <c r="C2" s="5">
-        <v>15152.819</v>
+        <v>174724</v>
       </c>
       <c r="D2" s="5">
-        <v>12396598.304</v>
+        <v>2233714.5905624563</v>
       </c>
       <c r="E2" s="5">
-        <v>10118227.405999999</v>
+        <v>25675428.320581816</v>
       </c>
       <c r="F2" s="5">
-        <v>2848.8989999999999</v>
+        <v>220122</v>
       </c>
       <c r="G2" s="5">
-        <v>5509.268</v>
+        <v>257658.00287126983</v>
       </c>
       <c r="H2" s="5">
-        <v>286</v>
+        <v>5789</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
@@ -56404,25 +56410,25 @@
         <v>13</v>
       </c>
       <c r="B3" s="5">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>44406</v>
+        <v>868</v>
       </c>
       <c r="D3" s="5">
-        <v>47628</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5">
-        <v>4927361</v>
+        <v>4351103.1090955287</v>
       </c>
       <c r="F3" s="5">
-        <v>501.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -56440,7 +56446,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>1152.675293</v>
+        <v>149.19164587141501</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -56457,7 +56463,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>4644.9566484517309</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -56466,7 +56472,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>24937.136094674559</v>
+        <v>1442.0426699177081</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -56492,7 +56498,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>10524</v>
+        <v>1904.6345135866668</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -56539,8 +56545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD138"/>
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63339,8 +63345,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63648,10 +63654,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.7999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="22">
-        <v>4.8000000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -63662,123 +63668,123 @@
       </c>
       <c r="I10">
         <f>D10</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="22">
         <f>E10</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K10" s="22">
-        <f>O6</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.3</v>
+      </c>
+      <c r="K10">
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
+        <v>0.3382769220511585</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.11695001406416487</v>
+        <v>0.35069853975306242</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.13877269058395222</v>
+        <v>0.36674462542937664</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.16657479699442046</v>
+        <v>0.38718735073119148</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.20137571999690912</v>
+        <v>0.41277626470360962</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.2439885939545019</v>
+        <v>0.44410926026066311</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.2947822959785894</v>
+        <v>0.48145757057249217</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.35342187838502587</v>
+        <v>0.52457491057722483</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.41867144928034067</v>
+        <v>0.57255253623554458</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.4883667872327504</v>
+        <v>0.62379910825937523</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.55963321276724964</v>
+        <v>0.67620089174062459</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.62932855071965943</v>
+        <v>0.72744746376445535</v>
       </c>
       <c r="W10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.69457812161497412</v>
+        <v>0.77542508942277499</v>
       </c>
       <c r="X10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.75321770402141064</v>
+        <v>0.81854242942750788</v>
       </c>
       <c r="Y10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.80401140604549803</v>
+        <v>0.85589073973933671</v>
       </c>
       <c r="Z10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.84662428000309087</v>
+        <v>0.88722373529639031</v>
       </c>
       <c r="AA10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.88142520300557958</v>
+        <v>0.91281264926880845</v>
       </c>
       <c r="AB10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.90922730941604779</v>
+        <v>0.93325537457062335</v>
       </c>
       <c r="AC10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.9310499859358351</v>
+        <v>0.94930146024693762</v>
       </c>
       <c r="AD10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.94794338601042438</v>
+        <v>0.96172307794884149</v>
       </c>
       <c r="AE10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.96088110315315733</v>
+        <v>0.97123610525967452</v>
       </c>
       <c r="AF10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.97070804589199511</v>
+        <v>0.97846179844999637</v>
       </c>
       <c r="AG10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.97812554384565553</v>
+        <v>0.98391584106298202</v>
       </c>
       <c r="AH10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.98369792028342729</v>
+        <v>0.98801317667899058</v>
       </c>
       <c r="AI10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.98786928331016577</v>
+        <v>0.99108035537512174</v>
       </c>
       <c r="AJ10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.9909835665099872</v>
+        <v>0.99337026949263763</v>
       </c>
       <c r="AK10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99330402502844461</v>
+        <v>0.99507648899150336</v>
       </c>
       <c r="AL10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
-        <v>0.99503044033973242</v>
+        <v>0.99634591201450906</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -63923,134 +63929,134 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>IF(E12=F12,"n/a",IF(OR(C12="battery electric vehicle",C12="natural gas vehicle",C12="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <v>linear</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,J$9))</f>
-        <v>1</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="K12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,K$9))</f>
-        <v>1</v>
+        <v>0.60714285714285587</v>
       </c>
       <c r="L12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,L$9))</f>
-        <v>1</v>
+        <v>0.61428571428571388</v>
       </c>
       <c r="M12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,M$9))</f>
-        <v>1</v>
+        <v>0.62142857142857011</v>
       </c>
       <c r="N12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,N$9))</f>
-        <v>1</v>
+        <v>0.62857142857142811</v>
       </c>
       <c r="O12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,O$9))</f>
-        <v>1</v>
+        <v>0.63571428571428434</v>
       </c>
       <c r="P12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,P$9))</f>
-        <v>1</v>
+        <v>0.64285714285714235</v>
       </c>
       <c r="Q12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,Q$9))</f>
-        <v>1</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="R12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,R$9))</f>
-        <v>1</v>
+        <v>0.65714285714285658</v>
       </c>
       <c r="S12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,S$9))</f>
-        <v>1</v>
+        <v>0.66428571428571281</v>
       </c>
       <c r="T12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,T$9))</f>
-        <v>1</v>
+        <v>0.67142857142857082</v>
       </c>
       <c r="U12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,U$9))</f>
-        <v>1</v>
+        <v>0.67857142857142705</v>
       </c>
       <c r="V12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,V$9))</f>
-        <v>1</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="W12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,W$9))</f>
-        <v>1</v>
+        <v>0.69285714285714128</v>
       </c>
       <c r="X12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,X$9))</f>
-        <v>1</v>
+        <v>0.69999999999999929</v>
       </c>
       <c r="Y12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,Y$9))</f>
-        <v>1</v>
+        <v>0.70714285714285552</v>
       </c>
       <c r="Z12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,Z$9))</f>
-        <v>1</v>
+        <v>0.71428571428571352</v>
       </c>
       <c r="AA12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AA$9))</f>
-        <v>1</v>
+        <v>0.72142857142856975</v>
       </c>
       <c r="AB12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AB$9))</f>
-        <v>1</v>
+        <v>0.72857142857142776</v>
       </c>
       <c r="AC12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AC$9))</f>
-        <v>1</v>
+        <v>0.73571428571428399</v>
       </c>
       <c r="AD12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AD$9))</f>
-        <v>1</v>
+        <v>0.74285714285714199</v>
       </c>
       <c r="AE12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AE$9))</f>
-        <v>1</v>
+        <v>0.74999999999999822</v>
       </c>
       <c r="AF12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AF$9))</f>
-        <v>1</v>
+        <v>0.75714285714285623</v>
       </c>
       <c r="AG12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AG$9))</f>
-        <v>1</v>
+        <v>0.76428571428571246</v>
       </c>
       <c r="AH12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AH$9))</f>
-        <v>1</v>
+        <v>0.77142857142857046</v>
       </c>
       <c r="AI12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AI$9))</f>
-        <v>1</v>
+        <v>0.77857142857142669</v>
       </c>
       <c r="AJ12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AJ$9))</f>
-        <v>1</v>
+        <v>0.7857142857142847</v>
       </c>
       <c r="AK12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AK$9))</f>
-        <v>1</v>
+        <v>0.7928571428571427</v>
       </c>
       <c r="AL12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
+        <v>0.79999999999999893</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -64058,12 +64064,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="22">
-        <f>SUM(INDEX('AEO 39'!$18:$18,MATCH(E$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$27:$27,MATCH(E$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$40:$40,MATCH(E$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$49:$49,MATCH(E$9,'AEO 39'!$1:$1,0)))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))</f>
-        <v>4.6260368305253595E-3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F13" s="22">
-        <f>SUM(INDEX('AEO 39'!$18:$18,MATCH(F$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$27:$27,MATCH(F$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$40:$40,MATCH(F$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$49:$49,MATCH(F$9,'AEO 39'!$1:$1,0)))/INDEX('AEO 39'!$59:$59,MATCH(F$9,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
-        <v>3.0818463927506295E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>IF(E13=F13,"n/a",IF(OR(C13="battery electric vehicle",C13="natural gas vehicle",C13="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -64071,137 +64075,137 @@
       </c>
       <c r="I13" s="22">
         <f t="shared" si="1"/>
-        <v>4.6260368305253595E-3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,J$9))</f>
-        <v>4.6260368305253152E-3</v>
+        <v>0.28000000000000025</v>
       </c>
       <c r="K13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,K$9))</f>
-        <v>5.5614806554173946E-3</v>
+        <v>0.27714285714285669</v>
       </c>
       <c r="L13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,L$9))</f>
-        <v>6.4969244803096959E-3</v>
+        <v>0.27428571428571402</v>
       </c>
       <c r="M13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,M$9))</f>
-        <v>7.4323683052017753E-3</v>
+        <v>0.27142857142857135</v>
       </c>
       <c r="N13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,N$9))</f>
-        <v>8.3678121300938546E-3</v>
+        <v>0.26857142857142868</v>
       </c>
       <c r="O13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,O$9))</f>
-        <v>9.303255954986156E-3</v>
+        <v>0.26571428571428513</v>
       </c>
       <c r="P13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,P$9))</f>
-        <v>1.0238699779878235E-2</v>
+        <v>0.26285714285714246</v>
       </c>
       <c r="Q13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,Q$9))</f>
-        <v>1.1174143604770537E-2</v>
+        <v>0.25999999999999979</v>
       </c>
       <c r="R13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,R$9))</f>
-        <v>1.2109587429662616E-2</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="S13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,S$9))</f>
-        <v>1.3045031254554917E-2</v>
+        <v>0.25428571428571445</v>
       </c>
       <c r="T13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,T$9))</f>
-        <v>1.3980475079446997E-2</v>
+        <v>0.25142857142857089</v>
       </c>
       <c r="U13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,U$9))</f>
-        <v>1.4915918904339076E-2</v>
+        <v>0.24857142857142822</v>
       </c>
       <c r="V13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,V$9))</f>
-        <v>1.5851362729231377E-2</v>
+        <v>0.24571428571428555</v>
       </c>
       <c r="W13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,W$9))</f>
-        <v>1.6786806554123457E-2</v>
+        <v>0.24285714285714288</v>
       </c>
       <c r="X13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,X$9))</f>
-        <v>1.7722250379015758E-2</v>
+        <v>0.24000000000000021</v>
       </c>
       <c r="Y13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,Y$9))</f>
-        <v>1.8657694203907838E-2</v>
+        <v>0.23714285714285666</v>
       </c>
       <c r="Z13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,Z$9))</f>
-        <v>1.9593138028800139E-2</v>
+        <v>0.23428571428571399</v>
       </c>
       <c r="AA13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AA$9))</f>
-        <v>2.0528581853692218E-2</v>
+        <v>0.23142857142857132</v>
       </c>
       <c r="AB13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AB$9))</f>
-        <v>2.146402567858452E-2</v>
+        <v>0.22857142857142865</v>
       </c>
       <c r="AC13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AC$9))</f>
-        <v>2.2399469503476599E-2</v>
+        <v>0.22571428571428509</v>
       </c>
       <c r="AD13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AD$9))</f>
-        <v>2.3334913328368678E-2</v>
+        <v>0.22285714285714242</v>
       </c>
       <c r="AE13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AE$9))</f>
-        <v>2.427035715326098E-2</v>
+        <v>0.21999999999999975</v>
       </c>
       <c r="AF13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AF$9))</f>
-        <v>2.5205800978153059E-2</v>
+        <v>0.21714285714285708</v>
       </c>
       <c r="AG13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AG$9))</f>
-        <v>2.614124480304536E-2</v>
+        <v>0.21428571428571441</v>
       </c>
       <c r="AH13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AH$9))</f>
-        <v>2.707668862793744E-2</v>
+        <v>0.21142857142857086</v>
       </c>
       <c r="AI13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AI$9))</f>
-        <v>2.8012132452829741E-2</v>
+        <v>0.20857142857142819</v>
       </c>
       <c r="AJ13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AJ$9))</f>
-        <v>2.894757627772182E-2</v>
+        <v>0.20571428571428552</v>
       </c>
       <c r="AK13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AK$9))</f>
-        <v>2.98830201026139E-2</v>
+        <v>0.20285714285714285</v>
       </c>
       <c r="AL13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AL$9))</f>
-        <v>3.0818463927506201E-2</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>4.1999999999999997E-3</v>
+      <c r="D14" s="22">
+        <v>0.1</v>
       </c>
       <c r="E14" s="22">
-        <v>8.0000000000000002E-3</v>
+        <v>0.15</v>
       </c>
       <c r="F14" s="41">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -64209,123 +64213,123 @@
       </c>
       <c r="I14">
         <f>D14</f>
-        <v>4.1999999999999997E-3</v>
+        <v>0.1</v>
       </c>
       <c r="J14">
         <f>E14</f>
-        <v>8.0000000000000002E-3</v>
+        <v>0.15</v>
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>1.2004677525762598E-2</v>
+        <v>0.18337231271468832</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>1.3231241043871491E-2</v>
+        <v>0.19359367536559574</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>1.4766575882216582E-2</v>
+        <v>0.20638813235180481</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>1.664655561563979E-2</v>
+        <v>0.22205463013033155</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>1.8887454234349531E-2</v>
+        <v>0.24072878528624608</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>2.1474494634633495E-2</v>
+        <v>0.26228745528861241</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>2.435315217413268E-2</v>
+        <v>0.28627626811777229</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>2.742794649556252E-2</v>
+        <v>0.31189955412968762</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>3.0572053504437483E-2</v>
+        <v>0.33810044587031229</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>3.3646847825867326E-2</v>
+        <v>0.36372373188222767</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>3.6525505365366501E-2</v>
+        <v>0.3877125447113875</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>3.9112545765650472E-2</v>
+        <v>0.40927121471375394</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>4.1353444384360213E-2</v>
+        <v>0.42794536986966836</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>4.3233424117783421E-2</v>
+        <v>0.44361186764819516</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>4.4768758956128508E-2</v>
+        <v>0.45640632463440423</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>4.5995322474237404E-2</v>
+        <v>0.46662768728531168</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>4.6958087614816256E-2</v>
+        <v>0.47465073012346881</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>4.7703384676930492E-2</v>
+        <v>0.48086153897442074</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>4.8274166315580479E-2</v>
+        <v>0.48561805262983726</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>4.8707707906999784E-2</v>
+        <v>0.48923089922499818</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>4.9034950463778926E-2</v>
+        <v>0.49195792053149101</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>4.9280790600739442E-2</v>
+        <v>0.49400658833949529</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>4.9464821322507319E-2</v>
+        <v>0.49554017768756087</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>4.9602216169558261E-2</v>
+        <v>0.49668513474631881</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>4.9704589339490207E-2</v>
+        <v>0.49753824449575168</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>4.9780754720870554E-2</v>
+        <v>0.49817295600725453</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>4.9837359055491817E-2</v>
+        <v>0.49864465879576514</v>
       </c>
       <c r="AL14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>4.9879391575460584E-2</v>
+        <v>0.49899492979550486</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -64616,7 +64620,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
         <f>F10</f>
@@ -64628,123 +64632,123 @@
       </c>
       <c r="I17" s="22">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.2579411882892142</v>
+        <v>0.35069853975306242</v>
       </c>
       <c r="K17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.27627957191928759</v>
+        <v>0.36674462542937664</v>
       </c>
       <c r="L17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.2996426865499332</v>
+        <v>0.38718735073119148</v>
       </c>
       <c r="M17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.32888715966126825</v>
+        <v>0.41277626470360962</v>
       </c>
       <c r="N17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.36469629744075793</v>
+        <v>0.44410926026066311</v>
       </c>
       <c r="O17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.40738008065427683</v>
+        <v>0.48145757057249217</v>
       </c>
       <c r="P17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.45665704065968565</v>
+        <v>0.52457491057722483</v>
       </c>
       <c r="Q17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.51148861284062241</v>
+        <v>0.57255253623554458</v>
       </c>
       <c r="R17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.57005612372500036</v>
+        <v>0.62379910825937523</v>
       </c>
       <c r="S17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.62994387627499959</v>
+        <v>0.67620089174062459</v>
       </c>
       <c r="T17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.68851138715937765</v>
+        <v>0.72744746376445535</v>
       </c>
       <c r="U17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.74334295934031447</v>
+        <v>0.77542508942277499</v>
       </c>
       <c r="V17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.79261991934572329</v>
+        <v>0.81854242942750788</v>
       </c>
       <c r="W17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.83530370255924202</v>
+        <v>0.85589073973933671</v>
       </c>
       <c r="X17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.87111284033873182</v>
+        <v>0.88722373529639031</v>
       </c>
       <c r="Y17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.90035731345006687</v>
+        <v>0.91281264926880845</v>
       </c>
       <c r="Z17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.92372042808071253</v>
+        <v>0.93325537457062335</v>
       </c>
       <c r="AA17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.94205881171078576</v>
+        <v>0.94930146024693762</v>
       </c>
       <c r="AB17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.95625494622724738</v>
+        <v>0.96172307794884149</v>
       </c>
       <c r="AC17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.96712697743962805</v>
+        <v>0.97123610525967452</v>
       </c>
       <c r="AD17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.97538491251428172</v>
+        <v>0.97846179844999637</v>
       </c>
       <c r="AE17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.98161810407197958</v>
+        <v>0.98391584106298202</v>
       </c>
       <c r="AF17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.98630077334741784</v>
+        <v>0.98801317667899058</v>
       </c>
       <c r="AG17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.98980612042871075</v>
+        <v>0.99108035537512174</v>
       </c>
       <c r="AH17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.99242316513444306</v>
+        <v>0.99337026949263763</v>
       </c>
       <c r="AI17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.99437313027600394</v>
+        <v>0.99507648899150336</v>
       </c>
       <c r="AJ17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99582389944515337</v>
+        <v>0.99634591201450906</v>
       </c>
       <c r="AK17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99690207724746327</v>
+        <v>0.99728931759153028</v>
       </c>
       <c r="AL17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99770269667543965</v>
+        <v>0.99798985959100972</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -64753,7 +64757,7 @@
       </c>
       <c r="E18" s="22">
         <f>'SYVbT-freight'!C$2/'SYVbT-freight'!$2:$2</f>
-        <v>1.4975764421952546E-3</v>
+        <v>6.8051055592298947E-3</v>
       </c>
       <c r="F18" s="22">
         <f>F11</f>
@@ -64764,123 +64768,123 @@
       </c>
       <c r="I18" s="22">
         <f t="shared" si="1"/>
-        <v>1.4975764421952546E-3</v>
+        <v>6.8051055592298947E-3</v>
       </c>
       <c r="J18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,J$9))</f>
-        <v>1.4975764421952566E-3</v>
+        <v>6.8051055592299181E-3</v>
       </c>
       <c r="K18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,K$9))</f>
-        <v>1.4882119094700615E-3</v>
+        <v>6.6061864151820693E-3</v>
       </c>
       <c r="L18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,L$9))</f>
-        <v>1.4788473767448664E-3</v>
+        <v>6.4072672711342205E-3</v>
       </c>
       <c r="M18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,M$9))</f>
-        <v>1.4694828440196712E-3</v>
+        <v>6.2083481270863716E-3</v>
       </c>
       <c r="N18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,N$9))</f>
-        <v>1.4601183112944796E-3</v>
+        <v>6.0094289830384673E-3</v>
       </c>
       <c r="O18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,O$9))</f>
-        <v>1.4507537785692845E-3</v>
+        <v>5.8105098389906185E-3</v>
       </c>
       <c r="P18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,P$9))</f>
-        <v>1.4413892458440894E-3</v>
+        <v>5.6115906949427696E-3</v>
       </c>
       <c r="Q18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,Q$9))</f>
-        <v>1.4320247131188943E-3</v>
+        <v>5.4126715508949208E-3</v>
       </c>
       <c r="R18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,R$9))</f>
-        <v>1.4226601803937027E-3</v>
+        <v>5.213752406847072E-3</v>
       </c>
       <c r="S18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,S$9))</f>
-        <v>1.4132956476685075E-3</v>
+        <v>5.0148332627991676E-3</v>
       </c>
       <c r="T18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,T$9))</f>
-        <v>1.4039311149433124E-3</v>
+        <v>4.8159141187513188E-3</v>
       </c>
       <c r="U18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,U$9))</f>
-        <v>1.3945665822181173E-3</v>
+        <v>4.61699497470347E-3</v>
       </c>
       <c r="V18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,V$9))</f>
-        <v>1.3852020494929257E-3</v>
+        <v>4.4180758306556212E-3</v>
       </c>
       <c r="W18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,W$9))</f>
-        <v>1.3758375167677306E-3</v>
+        <v>4.2191566866077723E-3</v>
       </c>
       <c r="X18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,X$9))</f>
-        <v>1.3664729840425355E-3</v>
+        <v>4.020237542559868E-3</v>
       </c>
       <c r="Y18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,Y$9))</f>
-        <v>1.3571084513173404E-3</v>
+        <v>3.8213183985120192E-3</v>
       </c>
       <c r="Z18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,Z$9))</f>
-        <v>1.3477439185921487E-3</v>
+        <v>3.6223992544641703E-3</v>
       </c>
       <c r="AA18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AA$9))</f>
-        <v>1.3383793858669536E-3</v>
+        <v>3.4234801104163215E-3</v>
       </c>
       <c r="AB18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AB$9))</f>
-        <v>1.3290148531417585E-3</v>
+        <v>3.2245609663684727E-3</v>
       </c>
       <c r="AC18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AC$9))</f>
-        <v>1.3196503204165634E-3</v>
+        <v>3.0256418223205683E-3</v>
       </c>
       <c r="AD18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AD$9))</f>
-        <v>1.3102857876913718E-3</v>
+        <v>2.8267226782727195E-3</v>
       </c>
       <c r="AE18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AE$9))</f>
-        <v>1.3009212549661767E-3</v>
+        <v>2.6278035342248707E-3</v>
       </c>
       <c r="AF18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AF$9))</f>
-        <v>1.2915567222409816E-3</v>
+        <v>2.4288843901770218E-3</v>
       </c>
       <c r="AG18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AG$9))</f>
-        <v>1.2821921895157865E-3</v>
+        <v>2.229965246129173E-3</v>
       </c>
       <c r="AH18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AH$9))</f>
-        <v>1.2728276567905948E-3</v>
+        <v>2.0310461020812687E-3</v>
       </c>
       <c r="AI18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AI$9))</f>
-        <v>1.2634631240653997E-3</v>
+        <v>1.8321269580334199E-3</v>
       </c>
       <c r="AJ18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AJ$9))</f>
-        <v>1.2540985913402046E-3</v>
+        <v>1.633207813985571E-3</v>
       </c>
       <c r="AK18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AK$9))</f>
-        <v>1.2447340586150095E-3</v>
+        <v>1.4342886699377222E-3</v>
       </c>
       <c r="AL18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AL$9))</f>
-        <v>1.2353695258898144E-3</v>
+        <v>1.2353695258898734E-3</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
@@ -64888,10 +64892,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="22">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>IF(E19=F19,"n/a",IF(OR(C19="battery electric vehicle",C19="natural gas vehicle",C19="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -64899,123 +64903,123 @@
       </c>
       <c r="I19" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,J$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,K$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,L$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,M$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,N$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,O$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,P$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,Q$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,R$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,S$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,T$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,U$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,V$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,W$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,X$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,Y$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Z19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,Z$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AA$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AB$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AC$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AD19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AD$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AE$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AF$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AG$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AH$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AI$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AJ19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AJ$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AK19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AK$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AL19">
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
@@ -65023,10 +65027,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="22">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>IF(E20=F20,"n/a",IF(OR(C20="battery electric vehicle",C20="natural gas vehicle",C20="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65034,123 +65038,123 @@
       </c>
       <c r="I20" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,J$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,K$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,L$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,M$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,N$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,O$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,P$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,Q$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,R$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,S$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,T$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,U$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="V20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,V$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,W$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,X$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,Y$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,Z$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AA20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AA$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AB20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AB$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AC$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AD$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AE20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AE$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AF20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AF$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AG20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AG$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AH20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AH$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AI20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AI$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AJ20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AJ$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AK20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AK$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AL20">
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
@@ -65159,11 +65163,11 @@
       </c>
       <c r="E21" s="22">
         <f>'SYVbT-freight'!F$2/'SYVbT-freight'!$2:$2</f>
-        <v>2.8156107643030772E-4</v>
+        <v>8.5732552248620857E-3</v>
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65171,123 +65175,123 @@
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>2.8156107643030772E-4</v>
+        <v>8.5732552248620857E-3</v>
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>1.0161028688271871E-3</v>
+        <v>1.5833609527091983E-2</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>1.26799010529499E-3</v>
+        <v>1.8323312087103298E-2</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>1.6039220771322887E-3</v>
+        <v>2.164372919914653E-2</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>2.0501050777206073E-3</v>
+        <v>2.605388897689399E-2</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>2.6395014554061241E-3</v>
+        <v>3.1879597698632259E-2</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>3.4124980333622964E-3</v>
+        <v>3.9520046599517591E-2</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>4.416777707171987E-3</v>
+        <v>4.9446542717040881E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>5.705684717799993E-3</v>
+        <v>6.218635093033742E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>7.3341745829285324E-3</v>
+        <v>7.8282662291795646E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>9.3514733398968458E-3</v>
+        <v>9.8222036552919223E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>1.1790147490354473E-2</v>
+        <v>0.12232636736606015</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>1.4652700575996493E-2</v>
+        <v>0.15062040022549095</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>1.7898976373295176E-2</v>
+        <v>0.18270722318791771</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>2.1439614812797877E-2</v>
+        <v>0.21770358390280897</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>2.5140780538215154E-2</v>
+        <v>0.25428662761243104</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>2.8841946263632432E-2</v>
+        <v>0.2908696713220531</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>3.2382584703135125E-2</v>
+        <v>0.32586603203694436</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>3.5628860500433818E-2</v>
+        <v>0.35795285499937113</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>3.8491413586075836E-2</v>
+        <v>0.3862468878588019</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>4.0930087736533463E-2</v>
+        <v>0.41035121867194285</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>4.2947386493501785E-2</v>
+        <v>0.43029059293306648</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>4.457587635863032E-2</v>
+        <v>0.44638690429452466</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>4.5864783369258325E-2</v>
+        <v>0.45912671250782122</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>4.6869063043068017E-2</v>
+        <v>0.4690532086253445</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>4.7642059621024191E-2</v>
+        <v>0.47669365752622989</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>4.8231455998709705E-2</v>
+        <v>0.4825193662479681</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>4.8677638999298022E-2</v>
+        <v>0.48692952602571554</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>4.9013570971135324E-2</v>
+        <v>0.49024994313775883</v>
       </c>
       <c r="AL21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>4.9265458207603127E-2</v>
+        <v>0.49273964569777012</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -65296,7 +65300,7 @@
       </c>
       <c r="E22" s="22">
         <f>'SYVbT-freight'!G$2/'SYVbT-freight'!$2:$2</f>
-        <v>5.4448944256116078E-4</v>
+        <v>1.0035197841849719E-2</v>
       </c>
       <c r="F22" s="22">
         <f>F15</f>
@@ -65308,123 +65312,123 @@
       </c>
       <c r="I22" s="22">
         <f t="shared" si="1"/>
-        <v>5.4448944256116078E-4</v>
+        <v>1.0035197841849719E-2</v>
       </c>
       <c r="J22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,J$9))</f>
-        <v>5.4448944256116003E-4</v>
+        <v>1.0035197841849697E-2</v>
       </c>
       <c r="K22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,K$9))</f>
-        <v>5.558166424943084E-4</v>
+        <v>9.7075711703796808E-3</v>
       </c>
       <c r="L22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,L$9))</f>
-        <v>5.6714384242746024E-4</v>
+        <v>9.3799444989096648E-3</v>
       </c>
       <c r="M22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,M$9))</f>
-        <v>5.7847104236061209E-4</v>
+        <v>9.0523178274396487E-3</v>
       </c>
       <c r="N22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,N$9))</f>
-        <v>5.8979824229376046E-4</v>
+        <v>8.7246911559696327E-3</v>
       </c>
       <c r="O22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,O$9))</f>
-        <v>6.011254422269123E-4</v>
+        <v>8.3970644844996167E-3</v>
       </c>
       <c r="P22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,P$9))</f>
-        <v>6.1245264216006068E-4</v>
+        <v>8.0694378130296007E-3</v>
       </c>
       <c r="Q22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,Q$9))</f>
-        <v>6.2377984209321252E-4</v>
+        <v>7.7418111415595847E-3</v>
       </c>
       <c r="R22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,R$9))</f>
-        <v>6.351070420263609E-4</v>
+        <v>7.4141844700895687E-3</v>
       </c>
       <c r="S22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,S$9))</f>
-        <v>6.4643424195951274E-4</v>
+        <v>7.0865577986195527E-3</v>
       </c>
       <c r="T22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,T$9))</f>
-        <v>6.5776144189266458E-4</v>
+        <v>6.7589311271495367E-3</v>
       </c>
       <c r="U22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,U$9))</f>
-        <v>6.6908864182581296E-4</v>
+        <v>6.4313044556795207E-3</v>
       </c>
       <c r="V22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,V$9))</f>
-        <v>6.804158417589648E-4</v>
+        <v>6.1036777842096157E-3</v>
       </c>
       <c r="W22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,W$9))</f>
-        <v>6.9174304169211318E-4</v>
+        <v>5.7760511127395997E-3</v>
       </c>
       <c r="X22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,X$9))</f>
-        <v>7.0307024162526502E-4</v>
+        <v>5.4484244412695837E-3</v>
       </c>
       <c r="Y22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,Y$9))</f>
-        <v>7.1439744155841686E-4</v>
+        <v>5.1207977697995677E-3</v>
       </c>
       <c r="Z22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,Z$9))</f>
-        <v>7.2572464149156524E-4</v>
+        <v>4.7931710983295517E-3</v>
       </c>
       <c r="AA22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AA$9))</f>
-        <v>7.3705184142471708E-4</v>
+        <v>4.4655444268595357E-3</v>
       </c>
       <c r="AB22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AB$9))</f>
-        <v>7.4837904135786545E-4</v>
+        <v>4.1379177553895197E-3</v>
       </c>
       <c r="AC22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AC$9))</f>
-        <v>7.597062412910173E-4</v>
+        <v>3.8102910839195037E-3</v>
       </c>
       <c r="AD22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AD$9))</f>
-        <v>7.7103344122416567E-4</v>
+        <v>3.4826644124494877E-3</v>
       </c>
       <c r="AE22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AE$9))</f>
-        <v>7.8236064115731752E-4</v>
+        <v>3.1550377409794716E-3</v>
       </c>
       <c r="AF22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AF$9))</f>
-        <v>7.9368784109046936E-4</v>
+        <v>2.8274110695094556E-3</v>
       </c>
       <c r="AG22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AG$9))</f>
-        <v>8.0501504102361773E-4</v>
+        <v>2.4997843980394396E-3</v>
       </c>
       <c r="AH22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AH$9))</f>
-        <v>8.1634224095676958E-4</v>
+        <v>2.1721577265694236E-3</v>
       </c>
       <c r="AI22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AI$9))</f>
-        <v>8.2766944088991795E-4</v>
+        <v>1.8445310550994076E-3</v>
       </c>
       <c r="AJ22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AJ$9))</f>
-        <v>8.3899664082306979E-4</v>
+        <v>1.5169043836293916E-3</v>
       </c>
       <c r="AK22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AK$9))</f>
-        <v>8.5032384075622164E-4</v>
+        <v>1.1892777121593756E-3</v>
       </c>
       <c r="AL22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AL$9))</f>
-        <v>8.6165104068937001E-4</v>
+        <v>8.616510406893596E-4</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -65436,7 +65440,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="26">
         <f>'SYVbT-freight'!H$2/'SYVbT-freight'!$2:$2</f>
-        <v>2.8265820535957225E-5</v>
+        <v>2.2546848791455014E-4</v>
       </c>
       <c r="F23" s="26">
         <f>F16</f>
@@ -65448,123 +65452,123 @@
       </c>
       <c r="I23" s="22">
         <f t="shared" si="1"/>
-        <v>2.8265820535957225E-5</v>
+        <v>2.2546848791455014E-4</v>
       </c>
       <c r="J23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,J$9))</f>
-        <v>3.2499418292659206E-5</v>
+        <v>2.2678860721340281E-4</v>
       </c>
       <c r="K23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,K$9))</f>
-        <v>3.3951193059309608E-5</v>
+        <v>2.2724129922553564E-4</v>
       </c>
       <c r="L23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,L$9))</f>
-        <v>3.5887367225430346E-5</v>
+        <v>2.2784503652641401E-4</v>
       </c>
       <c r="M23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,M$9))</f>
-        <v>3.8458983122471971E-5</v>
+        <v>2.2864691709467225E-4</v>
       </c>
       <c r="N23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,N$9))</f>
-        <v>4.1856022212971344E-5</v>
+        <v>2.2970618089818924E-4</v>
       </c>
       <c r="O23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,O$9))</f>
-        <v>4.6311257588612655E-5</v>
+        <v>2.3109541117898399E-4</v>
       </c>
       <c r="P23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,P$9))</f>
-        <v>5.2099513911331002E-5</v>
+        <v>2.3290030368825228E-4</v>
       </c>
       <c r="Q23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,Q$9))</f>
-        <v>5.9528245516902954E-5</v>
+        <v>2.352167287531956E-4</v>
       </c>
       <c r="R23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,R$9))</f>
-        <v>6.8914193479541143E-5</v>
+        <v>2.3814345248926398E-4</v>
       </c>
       <c r="S23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,S$9))</f>
-        <v>8.0541076497633965E-5</v>
+        <v>2.4176894398367642E-4</v>
       </c>
       <c r="T23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,T$9))</f>
-        <v>9.4596594535641205E-5</v>
+        <v>2.4615173178820312E-4</v>
       </c>
       <c r="U23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,U$9))</f>
-        <v>1.1109517698153481E-4</v>
+        <v>2.5129631527066952E-4</v>
       </c>
       <c r="V23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,V$9))</f>
-        <v>1.2980537982545135E-4</v>
+        <v>2.5713052562298784E-4</v>
       </c>
       <c r="W23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,W$9))</f>
-        <v>1.5021216826135341E-4</v>
+        <v>2.6349376483228481E-4</v>
       </c>
       <c r="X23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,X$9))</f>
-        <v>1.7154417016308128E-4</v>
+        <v>2.7014550385237774E-4</v>
       </c>
       <c r="Y23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,Y$9))</f>
-        <v>1.9287617206480915E-4</v>
+        <v>2.7679724287247074E-4</v>
       </c>
       <c r="Z23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,Z$9))</f>
-        <v>2.1328296050071122E-4</v>
+        <v>2.831604820817677E-4</v>
       </c>
       <c r="AA23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AA$9))</f>
-        <v>2.3199316334462775E-4</v>
+        <v>2.8899469243408597E-4</v>
       </c>
       <c r="AB23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AB$9))</f>
-        <v>2.4849174579052134E-4</v>
+        <v>2.9413927591655242E-4</v>
       </c>
       <c r="AC23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AC$9))</f>
-        <v>2.625472638285286E-4</v>
+        <v>2.985220637210791E-4</v>
       </c>
       <c r="AD23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AD$9))</f>
-        <v>2.7417414684662147E-4</v>
+        <v>3.0214755521549154E-4</v>
       </c>
       <c r="AE23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AE$9))</f>
-        <v>2.8356009480925965E-4</v>
+        <v>3.0507427895155989E-4</v>
       </c>
       <c r="AF23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AF$9))</f>
-        <v>2.9098882641483164E-4</v>
+        <v>3.0739070401650324E-4</v>
       </c>
       <c r="AG23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AG$9))</f>
-        <v>2.9677708273754996E-4</v>
+        <v>3.0919559652577155E-4</v>
       </c>
       <c r="AH23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AH$9))</f>
-        <v>3.012323181131913E-4</v>
+        <v>3.1058482680656628E-4</v>
       </c>
       <c r="AI23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AI$9))</f>
-        <v>3.0462935720369062E-4</v>
+        <v>3.1164409061008327E-4</v>
       </c>
       <c r="AJ23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AJ$9))</f>
-        <v>3.0720097310073225E-4</v>
+        <v>3.1244597117834148E-4</v>
       </c>
       <c r="AK23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AK$9))</f>
-        <v>3.0913714726685303E-4</v>
+        <v>3.1304970847921988E-4</v>
       </c>
       <c r="AL23">
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AL$9))</f>
-        <v>3.1058892203350341E-4</v>
+        <v>3.1350240049135271E-4</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
@@ -65578,13 +65582,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="22">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="F24" s="29">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65592,123 +65596,123 @@
       </c>
       <c r="I24" s="22">
         <f>D24</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J24" s="22">
         <f>E24</f>
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="K24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.62187252688637629</v>
+        <v>1.7273406586079703</v>
       </c>
       <c r="L24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>0.6289705941446071</v>
+        <v>1.7362132426807588</v>
       </c>
       <c r="M24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>0.63813978595964382</v>
+        <v>1.7476747324495547</v>
       </c>
       <c r="N24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>0.64982134327496655</v>
+        <v>1.7622766790937081</v>
       </c>
       <c r="O24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>0.66444357983063407</v>
+        <v>1.7805544747882927</v>
       </c>
       <c r="P24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>0.68234814872037897</v>
+        <v>1.8029351859004736</v>
       </c>
       <c r="Q24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>0.70369004032713844</v>
+        <v>1.8296125504089229</v>
       </c>
       <c r="R24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>0.72832852032984285</v>
+        <v>1.8604106504123035</v>
       </c>
       <c r="S24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>0.75574430642031121</v>
+        <v>1.8946803830253891</v>
       </c>
       <c r="T24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>0.78502806186250018</v>
+        <v>1.9312850773281254</v>
       </c>
       <c r="U24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>0.8149719381374998</v>
+        <v>1.9687149226718748</v>
       </c>
       <c r="V24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>0.84425569357968877</v>
+        <v>2.005319616974611</v>
       </c>
       <c r="W24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>0.87167147967015723</v>
+        <v>2.0395893495876964</v>
       </c>
       <c r="X24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>0.89630995967286164</v>
+        <v>2.070387449591077</v>
       </c>
       <c r="Y24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>0.91765185127962101</v>
+        <v>2.0970648140995265</v>
       </c>
       <c r="Z24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>0.93555642016936591</v>
+        <v>2.1194455252117077</v>
       </c>
       <c r="AA24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>0.95017865672503343</v>
+        <v>2.137723320906292</v>
       </c>
       <c r="AB24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>0.96186021404035627</v>
+        <v>2.1523252675504456</v>
       </c>
       <c r="AC24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>0.97102940585539288</v>
+        <v>2.1637867573192411</v>
       </c>
       <c r="AD24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>0.97812747311362369</v>
+        <v>2.1726593413920297</v>
       </c>
       <c r="AE24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>0.98356348871981403</v>
+        <v>2.1794543608997676</v>
       </c>
       <c r="AF24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>0.98769245625714075</v>
+        <v>2.1846155703214261</v>
       </c>
       <c r="AG24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>0.99080905203598979</v>
+        <v>2.1885113150449875</v>
       </c>
       <c r="AH24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>0.99315038667370892</v>
+        <v>2.1914379833421362</v>
       </c>
       <c r="AI24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>0.99490306021435537</v>
+        <v>2.1936288252679446</v>
       </c>
       <c r="AJ24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>0.99621158256722153</v>
+        <v>2.1952644782090269</v>
       </c>
       <c r="AK24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>0.99718656513800186</v>
+        <v>2.1964832064225028</v>
       </c>
       <c r="AL24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>0.99791194972257657</v>
+        <v>2.1973899371532211</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
@@ -65716,12 +65720,12 @@
         <v>2</v>
       </c>
       <c r="E25" s="22">
-        <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>0.29802375741500553</v>
+        <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)*5</f>
+        <v>2.4652000233370237E-2</v>
       </c>
       <c r="F25" s="22">
-        <f>F32*3</f>
-        <v>0.15850139443373243</v>
+        <f>F32*5</f>
+        <v>0.26416899072288735</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>IF(E25=F25,"n/a",IF(OR(C25="battery electric vehicle",C25="natural gas vehicle",C25="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65729,123 +65733,123 @@
       </c>
       <c r="I25" s="22">
         <f t="shared" si="1"/>
-        <v>0.29802375741500553</v>
+        <v>2.4652000233370237E-2</v>
       </c>
       <c r="J25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,J$9))</f>
-        <v>0.29596244960239987</v>
+        <v>2.8190631841939744E-2</v>
       </c>
       <c r="K25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,K$9))</f>
-        <v>0.29525559107671612</v>
+        <v>2.9404090553188392E-2</v>
       </c>
       <c r="L25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,L$9))</f>
-        <v>0.29431288202296346</v>
+        <v>3.1022432090970165E-2</v>
       </c>
       <c r="M25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,M$9))</f>
-        <v>0.2930607810336332</v>
+        <v>3.3171904436085045E-2</v>
       </c>
       <c r="N25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,N$9))</f>
-        <v>0.29140678752282123</v>
+        <v>3.6011302648198545E-2</v>
       </c>
       <c r="O25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,O$9))</f>
-        <v>0.28923756597307232</v>
+        <v>3.9735188957166843E-2</v>
       </c>
       <c r="P25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,P$9))</f>
-        <v>0.28641930626464923</v>
+        <v>4.4573274188492537E-2</v>
       </c>
       <c r="Q25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Q$9))</f>
-        <v>0.28280231112804816</v>
+        <v>5.0782542518116404E-2</v>
       </c>
       <c r="R25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,R$9))</f>
-        <v>0.27823236164867954</v>
+        <v>5.8627740396068245E-2</v>
       </c>
       <c r="S25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,S$9))</f>
-        <v>0.2725713172654462</v>
+        <v>6.834601268394247E-2</v>
       </c>
       <c r="T25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,T$9))</f>
-        <v>0.26572778823718668</v>
+        <v>8.0094247462594942E-2</v>
       </c>
       <c r="U25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,U$9))</f>
-        <v>0.25769474900033379</v>
+        <v>9.3884505464127355E-2</v>
       </c>
       <c r="V25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,V$9))</f>
-        <v>0.24858488795211589</v>
+        <v>0.10952333536510674</v>
       </c>
       <c r="W25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,W$9))</f>
-        <v>0.23864897177620478</v>
+        <v>0.12658024788693495</v>
       </c>
       <c r="X25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,X$9))</f>
-        <v>0.22826257592436899</v>
+        <v>0.14441049547812879</v>
       </c>
       <c r="Y25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Y$9))</f>
-        <v>0.21787618007253318</v>
+        <v>0.16224074306932265</v>
       </c>
       <c r="Z25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Z$9))</f>
-        <v>0.20794026389662207</v>
+        <v>0.17929765559115082</v>
       </c>
       <c r="AA25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AA$9))</f>
-        <v>0.19883040284840414</v>
+        <v>0.19493648549213022</v>
       </c>
       <c r="AB25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AB$9))</f>
-        <v>0.19079736361155128</v>
+        <v>0.20872674349366263</v>
       </c>
       <c r="AC25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AC$9))</f>
-        <v>0.18395383458329176</v>
+        <v>0.2204749782723151</v>
       </c>
       <c r="AD25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AD$9))</f>
-        <v>0.17829279020005839</v>
+        <v>0.23019325056018936</v>
       </c>
       <c r="AE25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AE$9))</f>
-        <v>0.17372284072068978</v>
+        <v>0.2380384484381412</v>
       </c>
       <c r="AF25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AF$9))</f>
-        <v>0.17010584558408873</v>
+        <v>0.24424771676776508</v>
       </c>
       <c r="AG25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AG$9))</f>
-        <v>0.16728758587566564</v>
+        <v>0.24908580199909075</v>
       </c>
       <c r="AH25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AH$9))</f>
-        <v>0.1651183643259167</v>
+        <v>0.25280968830805906</v>
       </c>
       <c r="AI25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AI$9))</f>
-        <v>0.16346437081510473</v>
+        <v>0.25564908652017254</v>
       </c>
       <c r="AJ25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AJ$9))</f>
-        <v>0.1622122698257745</v>
+        <v>0.25779855886528741</v>
       </c>
       <c r="AK25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AK$9))</f>
-        <v>0.16126956077202181</v>
+        <v>0.25941690040306919</v>
       </c>
       <c r="AL25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AL$9))</f>
-        <v>0.16056270224633809</v>
+        <v>0.26063035911431781</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
@@ -65853,12 +65857,11 @@
         <v>3</v>
       </c>
       <c r="E26" s="22">
-        <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="F26" s="22">
         <f>E26</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>IF(E26=F26,"n/a",IF(OR(C26="battery electric vehicle",C26="natural gas vehicle",C26="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65866,123 +65869,123 @@
       </c>
       <c r="I26" s="22">
         <f t="shared" si="1"/>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="J26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,J$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="K26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,K$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="L26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,L$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="M26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,M$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="N26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,N$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="O26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,O$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="P26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,P$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="Q26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Q$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="R26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,R$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="S26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,S$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="T26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,T$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="U26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,U$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="V26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,V$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="W26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,W$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="X26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,X$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="Y26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Y$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="Z26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Z$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AA26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AA$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AB26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AB$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AC26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AC$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AD26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AD$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AE26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AE$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AF26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AF$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AG26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AG$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AH26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AH$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AI26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AI$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AJ26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AJ$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AK26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AK$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
       <c r="AL26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AL$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2.1762390509853201E-3</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
@@ -65990,10 +65993,10 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>IF(E27=F27,"n/a",IF(OR(C27="battery electric vehicle",C27="natural gas vehicle",C27="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66001,123 +66004,123 @@
       </c>
       <c r="I27" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,J$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,K$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,L$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,M$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,N$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,O$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,P$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Q$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,R$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,S$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,T$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,U$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,V$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,W$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,X$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Y$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Z$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AA$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AB$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AC$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AD$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AE$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AF$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AG$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AH$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AI$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AJ$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AK$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
@@ -66125,12 +66128,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="22">
-        <f>'SYVbT-passenger'!F3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28" s="22">
-        <f>F35*3</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G28" s="7" t="str">
         <f>IF(E28=F28,"n/a",IF(OR(C28="battery electric vehicle",C28="natural gas vehicle",C28="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66138,123 +66139,123 @@
       </c>
       <c r="I28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,J$9))</f>
-        <v>8.8644190159638335E-5</v>
+        <v>1.985225968306727E-2</v>
       </c>
       <c r="K28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,K$9))</f>
-        <v>1.1904183440446507E-4</v>
+        <v>1.9801596942659226E-2</v>
       </c>
       <c r="L28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,L$9))</f>
-        <v>1.5958196146119519E-4</v>
+        <v>1.9734030064231342E-2</v>
       </c>
       <c r="M28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,M$9))</f>
-        <v>2.1342713563581709E-4</v>
+        <v>1.9644288107273637E-2</v>
       </c>
       <c r="N28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,N$9))</f>
-        <v>2.845552390654007E-4</v>
+        <v>1.9525741268224331E-2</v>
       </c>
       <c r="O28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,O$9))</f>
-        <v>3.7784013634197905E-4</v>
+        <v>1.9370266439430035E-2</v>
       </c>
       <c r="P28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,P$9))</f>
-        <v>4.9903617896353422E-4</v>
+        <v>1.9168273035060777E-2</v>
       </c>
       <c r="Q28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,Q$9))</f>
-        <v>6.5458092717367755E-4</v>
+        <v>1.8909031788043873E-2</v>
       </c>
       <c r="R28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,R$9))</f>
-        <v>8.5110638940292692E-4</v>
+        <v>1.8581489350995122E-2</v>
       </c>
       <c r="S28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,S$9))</f>
-        <v>1.0945531428381381E-3</v>
+        <v>1.8175744761936438E-2</v>
       </c>
       <c r="T28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,T$9))</f>
-        <v>1.3888512990058942E-3</v>
+        <v>1.7685247834990175E-2</v>
       </c>
       <c r="U28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,U$9))</f>
-        <v>1.7343029842499763E-3</v>
+        <v>1.7109495026250039E-2</v>
       </c>
       <c r="V28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,V$9))</f>
-        <v>2.1260621626452273E-3</v>
+        <v>1.6456563062257956E-2</v>
       </c>
       <c r="W28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,W$9))</f>
-        <v>2.553344899130046E-3</v>
+        <v>1.5744425168116589E-2</v>
       </c>
       <c r="X28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,X$9))</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,Y$9))</f>
-        <v>3.4466551008699542E-3</v>
+        <v>1.4255574831883409E-2</v>
       </c>
       <c r="Z28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,Z$9))</f>
-        <v>3.8739378373547728E-3</v>
+        <v>1.3543436937742046E-2</v>
       </c>
       <c r="AA28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AA$9))</f>
-        <v>4.2656970157500234E-3</v>
+        <v>1.2890504973749961E-2</v>
       </c>
       <c r="AB28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AB$9))</f>
-        <v>4.6111487009941055E-3</v>
+        <v>1.2314752165009824E-2</v>
       </c>
       <c r="AC28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AC$9))</f>
-        <v>4.9054468571618614E-3</v>
+        <v>1.1824255238063564E-2</v>
       </c>
       <c r="AD28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AD$9))</f>
-        <v>5.1488936105970736E-3</v>
+        <v>1.1418510649004877E-2</v>
       </c>
       <c r="AE28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AE$9))</f>
-        <v>5.3454190728263228E-3</v>
+        <v>1.1090968211956129E-2</v>
       </c>
       <c r="AF28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AF$9))</f>
-        <v>5.5009638210364665E-3</v>
+        <v>1.0831726964939224E-2</v>
       </c>
       <c r="AG28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AG$9))</f>
-        <v>5.6221598636580217E-3</v>
+        <v>1.0629733560569964E-2</v>
       </c>
       <c r="AH28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AH$9))</f>
-        <v>5.7154447609346001E-3</v>
+        <v>1.0474258731775666E-2</v>
       </c>
       <c r="AI28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AI$9))</f>
-        <v>5.7865728643641829E-3</v>
+        <v>1.0355711892726362E-2</v>
       </c>
       <c r="AJ28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AJ$9))</f>
-        <v>5.840418038538805E-3</v>
+        <v>1.026596993576866E-2</v>
       </c>
       <c r="AK28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AK$9))</f>
-        <v>5.880958165595535E-3</v>
+        <v>1.0198403057340774E-2</v>
       </c>
       <c r="AL28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AL$9))</f>
-        <v>5.9113558098403615E-3</v>
+        <v>1.0147740316932731E-2</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
@@ -66262,12 +66263,11 @@
         <v>124</v>
       </c>
       <c r="E29" s="22">
-        <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>2.1496445375763083E-2</v>
+        <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)*5</f>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="F29" s="22">
-        <f>F36*($E$29/$E$36)*3</f>
-        <v>0.53425472287359943</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>IF(E29=F29,"n/a",IF(OR(C29="battery electric vehicle",C29="natural gas vehicle",C29="plugin hybrid vehicle",C29="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -66275,123 +66275,123 @@
       </c>
       <c r="I29" s="22">
         <f t="shared" si="1"/>
-        <v>2.1496445375763083E-2</v>
+        <v>1.1960398418308864E-2</v>
       </c>
       <c r="J29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,J$9))</f>
-        <v>2.1496445375760231E-2</v>
+        <v>1.1960398418308871E-2</v>
       </c>
       <c r="K29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,K$9))</f>
-        <v>3.9809241000682505E-2</v>
+        <v>1.2068955617654975E-2</v>
       </c>
       <c r="L29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,L$9))</f>
-        <v>5.8122036625604778E-2</v>
+        <v>1.2177512817001079E-2</v>
       </c>
       <c r="M29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,M$9))</f>
-        <v>7.6434832250534157E-2</v>
+        <v>1.2286070016347211E-2</v>
       </c>
       <c r="N29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,N$9))</f>
-        <v>9.4747627875456431E-2</v>
+        <v>1.2394627215693316E-2</v>
       </c>
       <c r="O29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,O$9))</f>
-        <v>0.1130604235003787</v>
+        <v>1.250318441503942E-2</v>
       </c>
       <c r="P29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,P$9))</f>
-        <v>0.13137321912530098</v>
+        <v>1.2611741614385524E-2</v>
       </c>
       <c r="Q29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Q$9))</f>
-        <v>0.14968601475022325</v>
+        <v>1.2720298813731656E-2</v>
       </c>
       <c r="R29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,R$9))</f>
-        <v>0.16799881037514552</v>
+        <v>1.2828856013077761E-2</v>
       </c>
       <c r="S29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,S$9))</f>
-        <v>0.1863116060000678</v>
+        <v>1.2937413212423865E-2</v>
       </c>
       <c r="T29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,T$9))</f>
-        <v>0.20462440162499007</v>
+        <v>1.3045970411769997E-2</v>
       </c>
       <c r="U29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,U$9))</f>
-        <v>0.22293719724991234</v>
+        <v>1.3154527611116101E-2</v>
       </c>
       <c r="V29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,V$9))</f>
-        <v>0.24124999287483462</v>
+        <v>1.3263084810462206E-2</v>
       </c>
       <c r="W29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,W$9))</f>
-        <v>0.25956278849975689</v>
+        <v>1.337164200980831E-2</v>
       </c>
       <c r="X29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,X$9))</f>
-        <v>0.27787558412467916</v>
+        <v>1.3480199209154442E-2</v>
       </c>
       <c r="Y29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Y$9))</f>
-        <v>0.29618837974960144</v>
+        <v>1.3588756408500546E-2</v>
       </c>
       <c r="Z29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Z$9))</f>
-        <v>0.31450117537452371</v>
+        <v>1.3697313607846651E-2</v>
       </c>
       <c r="AA29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AA$9))</f>
-        <v>0.33281397099944598</v>
+        <v>1.3805870807192783E-2</v>
       </c>
       <c r="AB29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AB$9))</f>
-        <v>0.35112676662436826</v>
+        <v>1.3914428006538887E-2</v>
       </c>
       <c r="AC29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AC$9))</f>
-        <v>0.36943956224929764</v>
+        <v>1.4022985205884991E-2</v>
       </c>
       <c r="AD29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AD$9))</f>
-        <v>0.38775235787421991</v>
+        <v>1.4131542405231096E-2</v>
       </c>
       <c r="AE29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AE$9))</f>
-        <v>0.40606515349914218</v>
+        <v>1.4240099604577228E-2</v>
       </c>
       <c r="AF29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AF$9))</f>
-        <v>0.42437794912406446</v>
+        <v>1.4348656803923332E-2</v>
       </c>
       <c r="AG29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AG$9))</f>
-        <v>0.44269074474898673</v>
+        <v>1.4457214003269436E-2</v>
       </c>
       <c r="AH29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AH$9))</f>
-        <v>0.461003540373909</v>
+        <v>1.4565771202615541E-2</v>
       </c>
       <c r="AI29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AI$9))</f>
-        <v>0.47931633599883128</v>
+        <v>1.4674328401961673E-2</v>
       </c>
       <c r="AJ29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AJ$9))</f>
-        <v>0.49762913162375355</v>
+        <v>1.4782885601307777E-2</v>
       </c>
       <c r="AK29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AK$9))</f>
-        <v>0.51594192724867582</v>
+        <v>1.4891442800653881E-2</v>
       </c>
       <c r="AL29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AL$9))</f>
-        <v>0.5342547228735981</v>
+        <v>1.5000000000000013E-2</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66402,8 +66402,8 @@
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="26">
-        <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>8.470448323552864E-5</v>
+        <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)+0.002</f>
+        <v>2.0195858052701565E-3</v>
       </c>
       <c r="F30" s="26">
         <v>0.05</v>
@@ -66414,123 +66414,123 @@
       </c>
       <c r="I30" s="22">
         <f t="shared" si="1"/>
-        <v>8.470448323552864E-5</v>
+        <v>2.0195858052701565E-3</v>
       </c>
       <c r="J30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,J$9))</f>
-        <v>8.2215464117929744E-4</v>
+        <v>2.7284499652394639E-3</v>
       </c>
       <c r="K30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,K$9))</f>
-        <v>1.0750392070949643E-3</v>
+        <v>2.9715318921412692E-3</v>
       </c>
       <c r="L30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,L$9))</f>
-        <v>1.4123012774822749E-3</v>
+        <v>3.2957205734227501E-3</v>
       </c>
       <c r="M30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,M$9))</f>
-        <v>1.860250907661926E-3</v>
+        <v>3.7263061999703714E-3</v>
       </c>
       <c r="N30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,N$9))</f>
-        <v>2.4519809580343683E-3</v>
+        <v>4.2950988438765388E-3</v>
       </c>
       <c r="O30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,O$9))</f>
-        <v>3.2280381605029394E-3</v>
+        <v>5.0410735121170485E-3</v>
       </c>
       <c r="P30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,P$9))</f>
-        <v>4.2362942076558247E-3</v>
+        <v>6.010246232741108E-3</v>
       </c>
       <c r="Q30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Q$9))</f>
-        <v>5.530304553154162E-3</v>
+        <v>7.2540964735640472E-3</v>
       </c>
       <c r="R30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,R$9))</f>
-        <v>7.1652423071111148E-3</v>
+        <v>8.8256586531590669E-3</v>
       </c>
       <c r="S30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,S$9))</f>
-        <v>9.1905284138303605E-3</v>
+        <v>1.0772437997189686E-2</v>
       </c>
       <c r="T30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,T$9))</f>
-        <v>1.1638858319689102E-2</v>
+        <v>1.3125862568802056E-2</v>
       </c>
       <c r="U30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,U$9))</f>
-        <v>1.4512745478976212E-2</v>
+        <v>1.5888348392515139E-2</v>
       </c>
       <c r="V30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,V$9))</f>
-        <v>1.7771874672476845E-2</v>
+        <v>1.9021142999847009E-2</v>
       </c>
       <c r="W30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,W$9))</f>
-        <v>2.1326532015952099E-2</v>
+        <v>2.2438010112313542E-2</v>
       </c>
       <c r="X30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,X$9))</f>
-        <v>2.5042352241617768E-2</v>
+        <v>2.6009792902635082E-2</v>
       </c>
       <c r="Y30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Y$9))</f>
-        <v>2.8758172467283436E-2</v>
+        <v>2.9581575692956621E-2</v>
       </c>
       <c r="Z30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Z$9))</f>
-        <v>3.2312829810758684E-2</v>
+        <v>3.2998442805423155E-2</v>
       </c>
       <c r="AA30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AA$9))</f>
-        <v>3.5571959004259315E-2</v>
+        <v>3.6131237412755014E-2</v>
       </c>
       <c r="AB30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AB$9))</f>
-        <v>3.8445846163546425E-2</v>
+        <v>3.88937232364681E-2</v>
       </c>
       <c r="AC30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AC$9))</f>
-        <v>4.0894176069405173E-2</v>
+        <v>4.1247147808080475E-2</v>
       </c>
       <c r="AD30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AD$9))</f>
-        <v>4.2919462176124419E-2</v>
+        <v>4.3193927152111095E-2</v>
       </c>
       <c r="AE30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AE$9))</f>
-        <v>4.4554399930081368E-2</v>
+        <v>4.4765489331706113E-2</v>
       </c>
       <c r="AF30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AF$9))</f>
-        <v>4.5848410275579711E-2</v>
+        <v>4.6009339572529055E-2</v>
       </c>
       <c r="AG30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AG$9))</f>
-        <v>4.6856666322732596E-2</v>
+        <v>4.6978512293153113E-2</v>
       </c>
       <c r="AH30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AH$9))</f>
-        <v>4.7632723525201169E-2</v>
+        <v>4.7724486961393628E-2</v>
       </c>
       <c r="AI30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AI$9))</f>
-        <v>4.822445357557361E-2</v>
+        <v>4.8293279605299791E-2</v>
       </c>
       <c r="AJ30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AJ$9))</f>
-        <v>4.8672403205753251E-2</v>
+        <v>4.8723865231847407E-2</v>
       </c>
       <c r="AK30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AK$9))</f>
-        <v>4.900966527614057E-2</v>
+        <v>4.9048053913128893E-2</v>
       </c>
       <c r="AL30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AL$9))</f>
-        <v>4.9262549842056233E-2</v>
+        <v>4.9291135840030698E-2</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
@@ -67222,7 +67222,7 @@
       </c>
       <c r="E36" s="22">
         <f>'SYVbT-freight'!G3/SUM('SYVbT-freight'!3:3)</f>
-        <v>7.4581219585064093E-4</v>
+        <v>0</v>
       </c>
       <c r="F36" s="22">
         <f>SUM(SUM(INDEX('AEO 49'!136:136,0,MATCH(F$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!147:147,0,MATCH(F$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!158:158,0,MATCH(F$9,'AEO 49'!$1:$1,0))))/INDEX('AEO 49'!$166:$166,MATCH(F$9,'AEO 49'!$1:$1,0))*Assumptions!A11</f>
@@ -67234,119 +67234,119 @@
       </c>
       <c r="I36" s="22">
         <f t="shared" si="1"/>
-        <v>7.4581219585064093E-4</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,J$9))</f>
-        <v>7.4581219585068137E-4</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,K$9))</f>
-        <v>9.3984026293869594E-4</v>
+        <v>2.2066421693983651E-4</v>
       </c>
       <c r="L36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,L$9))</f>
-        <v>1.1338683300267105E-3</v>
+        <v>4.4132843387961751E-4</v>
       </c>
       <c r="M36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,M$9))</f>
-        <v>1.3278963971147251E-3</v>
+        <v>6.6199265081945402E-4</v>
       </c>
       <c r="N36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,N$9))</f>
-        <v>1.5219244642027396E-3</v>
+        <v>8.8265686775929053E-4</v>
       </c>
       <c r="O36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,O$9))</f>
-        <v>1.7159525312907542E-3</v>
+        <v>1.103321084699127E-3</v>
       </c>
       <c r="P36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,P$9))</f>
-        <v>1.9099805983787688E-3</v>
+        <v>1.3239853016389636E-3</v>
       </c>
       <c r="Q36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Q$9))</f>
-        <v>2.1040086654667833E-3</v>
+        <v>1.5446495185788001E-3</v>
       </c>
       <c r="R36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,R$9))</f>
-        <v>2.2980367325547979E-3</v>
+        <v>1.7653137355186366E-3</v>
       </c>
       <c r="S36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,S$9))</f>
-        <v>2.4920647996428125E-3</v>
+        <v>1.9859779524584176E-3</v>
       </c>
       <c r="T36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,T$9))</f>
-        <v>2.686092866730827E-3</v>
+        <v>2.2066421693982541E-3</v>
       </c>
       <c r="U36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,U$9))</f>
-        <v>2.8801209338188971E-3</v>
+        <v>2.4273063863380906E-3</v>
       </c>
       <c r="V36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,V$9))</f>
-        <v>3.0741490009069117E-3</v>
+        <v>2.6479706032779271E-3</v>
       </c>
       <c r="W36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,W$9))</f>
-        <v>3.2681770679949262E-3</v>
+        <v>2.8686348202177636E-3</v>
       </c>
       <c r="X36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,X$9))</f>
-        <v>3.4622051350829408E-3</v>
+        <v>3.0892990371576001E-3</v>
       </c>
       <c r="Y36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Y$9))</f>
-        <v>3.6562332021709554E-3</v>
+        <v>3.3099632540974366E-3</v>
       </c>
       <c r="Z36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Z$9))</f>
-        <v>3.8502612692589699E-3</v>
+        <v>3.5306274710372176E-3</v>
       </c>
       <c r="AA36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AA$9))</f>
-        <v>4.0442893363469845E-3</v>
+        <v>3.7512916879770541E-3</v>
       </c>
       <c r="AB36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AB$9))</f>
-        <v>4.2383174034349991E-3</v>
+        <v>3.9719559049168907E-3</v>
       </c>
       <c r="AC36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AC$9))</f>
-        <v>4.4323454705230136E-3</v>
+        <v>4.1926201218567272E-3</v>
       </c>
       <c r="AD36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AD$9))</f>
-        <v>4.6263735376110282E-3</v>
+        <v>4.4132843387965637E-3</v>
       </c>
       <c r="AE36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AE$9))</f>
-        <v>4.8204016046990983E-3</v>
+        <v>4.6339485557364002E-3</v>
       </c>
       <c r="AF36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AF$9))</f>
-        <v>5.0144296717871129E-3</v>
+        <v>4.8546127726762367E-3</v>
       </c>
       <c r="AG36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AG$9))</f>
-        <v>5.2084577388751274E-3</v>
+        <v>5.0752769896160177E-3</v>
       </c>
       <c r="AH36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AH$9))</f>
-        <v>5.402485805963142E-3</v>
+        <v>5.2959412065558542E-3</v>
       </c>
       <c r="AI36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AI$9))</f>
-        <v>5.5965138730511566E-3</v>
+        <v>5.5166054234956907E-3</v>
       </c>
       <c r="AJ36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AJ$9))</f>
-        <v>5.7905419401391711E-3</v>
+        <v>5.7372696404355272E-3</v>
       </c>
       <c r="AK36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AK$9))</f>
-        <v>5.9845700072271857E-3</v>
+        <v>5.9579338573753637E-3</v>
       </c>
       <c r="AL36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AL$9))</f>
@@ -69411,7 +69411,7 @@
       </c>
       <c r="E52" s="22">
         <f>'SYVbT-passenger'!B5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.93664816809218165</v>
+        <v>0.87292849620408119</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -69422,123 +69422,123 @@
       </c>
       <c r="I52" s="22">
         <f t="shared" si="2"/>
-        <v>0.93664816809218165</v>
+        <v>0.87292849620408119</v>
       </c>
       <c r="J52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,J$9))</f>
-        <v>0.93758413006461472</v>
+        <v>0.87480585462847393</v>
       </c>
       <c r="K52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,K$9))</f>
-        <v>0.93790508780604664</v>
+        <v>0.87544963368948125</v>
       </c>
       <c r="L52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,L$9))</f>
-        <v>0.93833313635851656</v>
+        <v>0.87630821617434396</v>
       </c>
       <c r="M52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,M$9))</f>
-        <v>0.93890166809574294</v>
+        <v>0.87744858071676435</v>
       </c>
       <c r="N52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,N$9))</f>
-        <v>0.93965268403780833</v>
+        <v>0.87895497322758909</v>
       </c>
       <c r="O52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,O$9))</f>
-        <v>0.94063764555977569</v>
+        <v>0.88093061525731953</v>
       </c>
       <c r="P52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,P$9))</f>
-        <v>0.94191731077978458</v>
+        <v>0.88349737582232546</v>
       </c>
       <c r="Q52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,Q$9))</f>
-        <v>0.94355965157024346</v>
+        <v>0.88679159333276225</v>
       </c>
       <c r="R52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,R$9))</f>
-        <v>0.94563469291170243</v>
+        <v>0.8909537243360387</v>
       </c>
       <c r="S52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,S$9))</f>
-        <v>0.94820515921205761</v>
+        <v>0.89610958184491307</v>
       </c>
       <c r="T52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,T$9))</f>
-        <v>0.95131254709877777</v>
+        <v>0.90234240005634692</v>
       </c>
       <c r="U52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,U$9))</f>
-        <v>0.95496004661475364</v>
+        <v>0.90965857757848023</v>
       </c>
       <c r="V52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,V$9))</f>
-        <v>0.95909649021776056</v>
+        <v>0.91795548223256995</v>
       </c>
       <c r="W52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,W$9))</f>
-        <v>0.96360801423424369</v>
+        <v>0.92700472554443014</v>
       </c>
       <c r="X52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,X$9))</f>
-        <v>0.96832408404609083</v>
+        <v>0.93646424810204065</v>
       </c>
       <c r="Y52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,Y$9))</f>
-        <v>0.97304015385793796</v>
+        <v>0.94592377065965105</v>
       </c>
       <c r="Z52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,Z$9))</f>
-        <v>0.9775516778744211</v>
+        <v>0.95497301397151124</v>
       </c>
       <c r="AA52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AA$9))</f>
-        <v>0.98168812147742801</v>
+        <v>0.96326991862560096</v>
       </c>
       <c r="AB52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AB$9))</f>
-        <v>0.98533562099340388</v>
+        <v>0.97058609614773428</v>
       </c>
       <c r="AC52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AC$9))</f>
-        <v>0.98844300888012404</v>
+        <v>0.97681891435916812</v>
       </c>
       <c r="AD52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AD$9))</f>
-        <v>0.99101347518047922</v>
+        <v>0.9819747718680425</v>
       </c>
       <c r="AE52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AE$9))</f>
-        <v>0.99308851652193819</v>
+        <v>0.98613690287131894</v>
       </c>
       <c r="AF52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AF$9))</f>
-        <v>0.99473085731239708</v>
+        <v>0.98943112038175574</v>
       </c>
       <c r="AG52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AG$9))</f>
-        <v>0.99601052253240596</v>
+        <v>0.99199788094676167</v>
       </c>
       <c r="AH52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AH$9))</f>
-        <v>0.99699548405437333</v>
+        <v>0.99397352297649211</v>
       </c>
       <c r="AI52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AI$9))</f>
-        <v>0.99774649999643872</v>
+        <v>0.99547991548731685</v>
       </c>
       <c r="AJ52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AJ$9))</f>
-        <v>0.99831503173366509</v>
+        <v>0.99662028002973724</v>
       </c>
       <c r="AK52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AK$9))</f>
-        <v>0.99874308028613501</v>
+        <v>0.99747886251459994</v>
       </c>
       <c r="AL52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AL$9))</f>
-        <v>0.99906403802756694</v>
+        <v>0.99812264157560726</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
@@ -69817,7 +69817,7 @@
       </c>
       <c r="E55" s="22">
         <f>1-E52</f>
-        <v>6.3351831907818346E-2</v>
+        <v>0.12707150379591881</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -69828,119 +69828,119 @@
       </c>
       <c r="I55" s="22">
         <f t="shared" si="2"/>
-        <v>6.3351831907818346E-2</v>
+        <v>0.12707150379591881</v>
       </c>
       <c r="J55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,J$9))</f>
-        <v>6.3351831907809242E-2</v>
+        <v>0.12707150379591781</v>
       </c>
       <c r="K55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,K$9))</f>
-        <v>9.6803552196817577E-2</v>
+        <v>0.15824752151749522</v>
       </c>
       <c r="L55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,L$9))</f>
-        <v>0.13025527248582591</v>
+        <v>0.18942353923906552</v>
       </c>
       <c r="M55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,M$9))</f>
-        <v>0.16370699277483425</v>
+        <v>0.22059955696064293</v>
       </c>
       <c r="N55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,N$9))</f>
-        <v>0.19715871306384258</v>
+        <v>0.25177557468222034</v>
       </c>
       <c r="O55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,O$9))</f>
-        <v>0.23061043335285092</v>
+        <v>0.28295159240379064</v>
       </c>
       <c r="P55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,P$9))</f>
-        <v>0.26406215364185925</v>
+        <v>0.31412761012536805</v>
       </c>
       <c r="Q55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Q$9))</f>
-        <v>0.29751387393085338</v>
+        <v>0.34530362784693835</v>
       </c>
       <c r="R55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,R$9))</f>
-        <v>0.33096559421986171</v>
+        <v>0.37647964556851576</v>
       </c>
       <c r="S55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,S$9))</f>
-        <v>0.36441731450887005</v>
+        <v>0.40765566329008607</v>
       </c>
       <c r="T55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,T$9))</f>
-        <v>0.39786903479787838</v>
+        <v>0.43883168101166348</v>
       </c>
       <c r="U55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,U$9))</f>
-        <v>0.43132075508688672</v>
+        <v>0.47000769873324089</v>
       </c>
       <c r="V55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,V$9))</f>
-        <v>0.46477247537589506</v>
+        <v>0.50118371645481119</v>
       </c>
       <c r="W55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,W$9))</f>
-        <v>0.49822419566490339</v>
+        <v>0.5323597341763886</v>
       </c>
       <c r="X55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,X$9))</f>
-        <v>0.53167591595391173</v>
+        <v>0.5635357518979589</v>
       </c>
       <c r="Y55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Y$9))</f>
-        <v>0.56512763624290585</v>
+        <v>0.59471176961953631</v>
       </c>
       <c r="Z55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Z$9))</f>
-        <v>0.59857935653191419</v>
+        <v>0.62588778734110662</v>
       </c>
       <c r="AA55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AA$9))</f>
-        <v>0.63203107682092252</v>
+        <v>0.65706380506268403</v>
       </c>
       <c r="AB55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AB$9))</f>
-        <v>0.66548279710993086</v>
+        <v>0.68823982278425433</v>
       </c>
       <c r="AC55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AC$9))</f>
-        <v>0.69893451739893919</v>
+        <v>0.71941584050583174</v>
       </c>
       <c r="AD55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AD$9))</f>
-        <v>0.73238623768794753</v>
+        <v>0.75059185822740915</v>
       </c>
       <c r="AE55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AE$9))</f>
-        <v>0.76583795797695586</v>
+        <v>0.78176787594897945</v>
       </c>
       <c r="AF55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AF$9))</f>
-        <v>0.7992896782659642</v>
+        <v>0.81294389367055686</v>
       </c>
       <c r="AG55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AG$9))</f>
-        <v>0.83274139855495832</v>
+        <v>0.84411991139212716</v>
       </c>
       <c r="AH55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AH$9))</f>
-        <v>0.86619311884396666</v>
+        <v>0.87529592911370457</v>
       </c>
       <c r="AI55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AI$9))</f>
-        <v>0.89964483913297499</v>
+        <v>0.90647194683527488</v>
       </c>
       <c r="AJ55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AJ$9))</f>
-        <v>0.93309655942198333</v>
+        <v>0.93764796455685229</v>
       </c>
       <c r="AK55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AK$9))</f>
-        <v>0.96654827971099166</v>
+        <v>0.9688239822784297</v>
       </c>
       <c r="AL55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AL$9))</f>
@@ -73227,136 +73227,136 @@
       <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="22" t="e">
         <f>'SYVbT-passenger'!C6/SUM('SYVbT-passenger'!6:6)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" s="7" t="str">
+      <c r="G80" s="7" t="e">
         <f>IF(E80=F80,"n/a",IF(OR(C80="battery electric vehicle",C80="natural gas vehicle",C80="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
-      </c>
-      <c r="I80" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" s="22" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,J$9))</f>
-        <v>7.2426485361517731E-2</v>
-      </c>
-      <c r="K80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,K$9))</f>
-        <v>9.534946489910949E-2</v>
-      </c>
-      <c r="L80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,L$9))</f>
-        <v>0.12455335818741645</v>
-      </c>
-      <c r="M80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,M$9))</f>
-        <v>0.16110894957658525</v>
-      </c>
-      <c r="N80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,N$9))</f>
-        <v>0.20587037180094736</v>
-      </c>
-      <c r="O80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,O$9))</f>
-        <v>0.259225100817846</v>
-      </c>
-      <c r="P80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,P$9))</f>
-        <v>0.32082130082460703</v>
-      </c>
-      <c r="Q80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Q$9))</f>
-        <v>0.38936076605077802</v>
-      </c>
-      <c r="R80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,R$9))</f>
-        <v>0.46257015465625045</v>
-      </c>
-      <c r="S80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,S$9))</f>
-        <v>0.5374298453437496</v>
-      </c>
-      <c r="T80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,T$9))</f>
-        <v>0.61063923394922204</v>
-      </c>
-      <c r="U80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,U$9))</f>
-        <v>0.67917869917539297</v>
-      </c>
-      <c r="V80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,V$9))</f>
-        <v>0.740774899182154</v>
-      </c>
-      <c r="W80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,W$9))</f>
-        <v>0.79412962819905253</v>
-      </c>
-      <c r="X80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,X$9))</f>
-        <v>0.83889105042341472</v>
-      </c>
-      <c r="Y80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Y$9))</f>
-        <v>0.87544664181258358</v>
-      </c>
-      <c r="Z80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Z$9))</f>
-        <v>0.90465053510089055</v>
-      </c>
-      <c r="AA80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AA$9))</f>
-        <v>0.92757351463848225</v>
-      </c>
-      <c r="AB80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AB$9))</f>
-        <v>0.94531868278405917</v>
-      </c>
-      <c r="AC80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AC$9))</f>
-        <v>0.95890872179953501</v>
-      </c>
-      <c r="AD80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AD$9))</f>
-        <v>0.96923114064285198</v>
-      </c>
-      <c r="AE80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AE$9))</f>
-        <v>0.97702263008997436</v>
-      </c>
-      <c r="AF80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AF$9))</f>
-        <v>0.98287596668427235</v>
-      </c>
-      <c r="AG80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AG$9))</f>
-        <v>0.98725765053588843</v>
-      </c>
-      <c r="AH80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AH$9))</f>
-        <v>0.99052895641805383</v>
-      </c>
-      <c r="AI80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AI$9))</f>
-        <v>0.99296641284500486</v>
-      </c>
-      <c r="AJ80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AJ$9))</f>
-        <v>0.99477987430644166</v>
-      </c>
-      <c r="AK80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AK$9))</f>
-        <v>0.99612759655932892</v>
-      </c>
-      <c r="AL80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL80" t="e">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AL$9))</f>
-        <v>0.99712837084429951</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F4EE3-3B24-454E-B705-B052185DC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DA58C-1CDC-499B-871C-AD50829BA5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37890" yWindow="-2190" windowWidth="19275" windowHeight="15570" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12645" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24519,8 +24519,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24657,125 +24657,125 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="e">
+      <c r="B2">
         <f>Data!I80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C2" t="e">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <f>Data!J80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" t="e">
+        <v>7.2426485361517731E-2</v>
+      </c>
+      <c r="D2">
         <f>Data!K80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" t="e">
+        <v>9.534946489910949E-2</v>
+      </c>
+      <c r="E2">
         <f>Data!L80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" t="e">
+        <v>0.12455335818741645</v>
+      </c>
+      <c r="F2">
         <f>Data!M80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" t="e">
+        <v>0.16110894957658525</v>
+      </c>
+      <c r="G2">
         <f>Data!N80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" t="e">
+        <v>0.20587037180094736</v>
+      </c>
+      <c r="H2">
         <f>Data!O80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" t="e">
+        <v>0.259225100817846</v>
+      </c>
+      <c r="I2">
         <f>Data!P80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" t="e">
+        <v>0.32082130082460703</v>
+      </c>
+      <c r="J2">
         <f>Data!Q80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" t="e">
+        <v>0.38936076605077802</v>
+      </c>
+      <c r="K2">
         <f>Data!R80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" t="e">
+        <v>0.46257015465625045</v>
+      </c>
+      <c r="L2">
         <f>Data!S80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="e">
+        <v>0.5374298453437496</v>
+      </c>
+      <c r="M2">
         <f>Data!T80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" t="e">
+        <v>0.61063923394922204</v>
+      </c>
+      <c r="N2">
         <f>Data!U80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O2" t="e">
+        <v>0.67917869917539297</v>
+      </c>
+      <c r="O2">
         <f>Data!V80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P2" t="e">
+        <v>0.740774899182154</v>
+      </c>
+      <c r="P2">
         <f>Data!W80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q2" t="e">
+        <v>0.79412962819905253</v>
+      </c>
+      <c r="Q2">
         <f>Data!X80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R2" t="e">
+        <v>0.83889105042341472</v>
+      </c>
+      <c r="R2">
         <f>Data!Y80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S2" t="e">
+        <v>0.87544664181258358</v>
+      </c>
+      <c r="S2">
         <f>Data!Z80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" t="e">
+        <v>0.90465053510089055</v>
+      </c>
+      <c r="T2">
         <f>Data!AA80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U2" t="e">
+        <v>0.92757351463848225</v>
+      </c>
+      <c r="U2">
         <f>Data!AB80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V2" t="e">
+        <v>0.94531868278405917</v>
+      </c>
+      <c r="V2">
         <f>Data!AC80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W2" t="e">
+        <v>0.95890872179953501</v>
+      </c>
+      <c r="W2">
         <f>Data!AD80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X2" t="e">
+        <v>0.96923114064285198</v>
+      </c>
+      <c r="X2">
         <f>Data!AE80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y2" t="e">
+        <v>0.97702263008997436</v>
+      </c>
+      <c r="Y2">
         <f>Data!AF80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z2" t="e">
+        <v>0.98287596668427235</v>
+      </c>
+      <c r="Z2">
         <f>Data!AG80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA2" t="e">
+        <v>0.98725765053588843</v>
+      </c>
+      <c r="AA2">
         <f>Data!AH80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB2" t="e">
+        <v>0.99052895641805383</v>
+      </c>
+      <c r="AB2">
         <f>Data!AI80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC2" t="e">
+        <v>0.99296641284500486</v>
+      </c>
+      <c r="AC2">
         <f>Data!AJ80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD2" t="e">
+        <v>0.99477987430644166</v>
+      </c>
+      <c r="AD2">
         <f>Data!AK80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE2" t="e">
+        <v>0.99612759655932892</v>
+      </c>
+      <c r="AE2">
         <f>Data!AL80</f>
-        <v>#DIV/0!</v>
+        <v>0.99712837084429951</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -25540,7 +25540,7 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
@@ -56118,7 +56118,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63345,8 +63345,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73227,136 +73227,136 @@
       <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="22" t="e">
-        <f>'SYVbT-passenger'!C6/SUM('SYVbT-passenger'!6:6)</f>
-        <v>#DIV/0!</v>
+      <c r="E80" s="22">
+        <f>'SYVbT-passenger'!C7/SUM('SYVbT-passenger'!7:7)</f>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" s="7" t="e">
+      <c r="G80" s="7" t="str">
         <f>IF(E80=F80,"n/a",IF(OR(C80="battery electric vehicle",C80="natural gas vehicle",C80="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I80" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J80" t="e">
+        <v>s-curve</v>
+      </c>
+      <c r="I80" s="22">
+        <f>E80</f>
+        <v>0</v>
+      </c>
+      <c r="J80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,J$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K80" t="e">
+        <v>7.2426485361517731E-2</v>
+      </c>
+      <c r="K80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,K$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L80" t="e">
+        <v>9.534946489910949E-2</v>
+      </c>
+      <c r="L80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,L$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M80" t="e">
+        <v>0.12455335818741645</v>
+      </c>
+      <c r="M80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,M$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N80" t="e">
+        <v>0.16110894957658525</v>
+      </c>
+      <c r="N80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,N$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O80" t="e">
+        <v>0.20587037180094736</v>
+      </c>
+      <c r="O80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,O$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P80" t="e">
+        <v>0.259225100817846</v>
+      </c>
+      <c r="P80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,P$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q80" t="e">
+        <v>0.32082130082460703</v>
+      </c>
+      <c r="Q80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Q$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R80" t="e">
+        <v>0.38936076605077802</v>
+      </c>
+      <c r="R80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,R$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S80" t="e">
+        <v>0.46257015465625045</v>
+      </c>
+      <c r="S80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,S$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T80" t="e">
+        <v>0.5374298453437496</v>
+      </c>
+      <c r="T80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,T$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U80" t="e">
+        <v>0.61063923394922204</v>
+      </c>
+      <c r="U80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,U$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V80" t="e">
+        <v>0.67917869917539297</v>
+      </c>
+      <c r="V80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,V$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W80" t="e">
+        <v>0.740774899182154</v>
+      </c>
+      <c r="W80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,W$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X80" t="e">
+        <v>0.79412962819905253</v>
+      </c>
+      <c r="X80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,X$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y80" t="e">
+        <v>0.83889105042341472</v>
+      </c>
+      <c r="Y80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Y$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z80" t="e">
+        <v>0.87544664181258358</v>
+      </c>
+      <c r="Z80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Z$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA80" t="e">
+        <v>0.90465053510089055</v>
+      </c>
+      <c r="AA80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AA$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB80" t="e">
+        <v>0.92757351463848225</v>
+      </c>
+      <c r="AB80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AB$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC80" t="e">
+        <v>0.94531868278405917</v>
+      </c>
+      <c r="AC80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AC$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD80" t="e">
+        <v>0.95890872179953501</v>
+      </c>
+      <c r="AD80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AD$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE80" t="e">
+        <v>0.96923114064285198</v>
+      </c>
+      <c r="AE80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AE$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF80" t="e">
+        <v>0.97702263008997436</v>
+      </c>
+      <c r="AF80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AF$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG80" t="e">
+        <v>0.98287596668427235</v>
+      </c>
+      <c r="AG80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AG$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH80" t="e">
+        <v>0.98725765053588843</v>
+      </c>
+      <c r="AH80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AH$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI80" t="e">
+        <v>0.99052895641805383</v>
+      </c>
+      <c r="AI80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AI$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ80" t="e">
+        <v>0.99296641284500486</v>
+      </c>
+      <c r="AJ80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AJ$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK80" t="e">
+        <v>0.99477987430644166</v>
+      </c>
+      <c r="AK80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AK$9))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL80" t="e">
+        <v>0.99612759655932892</v>
+      </c>
+      <c r="AL80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AL$9))</f>
-        <v>#DIV/0!</v>
+        <v>0.99712837084429951</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DA58C-1CDC-499B-871C-AD50829BA5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F794058-BCE9-4C15-AE16-1BC82961E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12645" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1300" windowWidth="19110" windowHeight="10000" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4723,99 +4723,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$17:$AL$17</c:f>
+              <c:f>Data!$I$34:$AL$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35069853975306242</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36674462542937664</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38718735073119148</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41277626470360962</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44410926026066311</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48145757057249217</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52457491057722483</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57255253623554458</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62379910825937523</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67620089174062459</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72744746376445535</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77542508942277499</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81854242942750788</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85589073973933671</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88722373529639031</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91281264926880845</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93325537457062335</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94930146024693762</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96172307794884149</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97123610525967452</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97846179844999637</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98391584106298202</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98801317667899058</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99108035537512174</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99337026949263763</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99507648899150336</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99634591201450906</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99728931759153028</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99798985959100972</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5066,97 +5066,97 @@
             <c:numRef>
               <c:f>Data!$I$10:$AL$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.1</c:v>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.3382769220511585</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
                   <c:v>0.35069853975306242</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.36674462542937664</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.38718735073119148</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="4">
                   <c:v>0.41277626470360962</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="5">
                   <c:v>0.44410926026066311</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="6">
                   <c:v>0.48145757057249217</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="7">
                   <c:v>0.52457491057722483</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="8">
                   <c:v>0.57255253623554458</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="9">
                   <c:v>0.62379910825937523</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.67620089174062459</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.72744746376445535</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.77542508942277499</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.81854242942750788</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.85589073973933671</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="15">
                   <c:v>0.88722373529639031</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="16">
                   <c:v>0.91281264926880845</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="17">
                   <c:v>0.93325537457062335</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="18">
                   <c:v>0.94930146024693762</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="19">
                   <c:v>0.96172307794884149</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="20">
                   <c:v>0.97123610525967452</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="21">
                   <c:v>0.97846179844999637</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="22">
                   <c:v>0.98391584106298202</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="23">
                   <c:v>0.98801317667899058</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="General">
+                <c:pt idx="24">
                   <c:v>0.99108035537512174</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="General">
+                <c:pt idx="25">
                   <c:v>0.99337026949263763</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="General">
+                <c:pt idx="26">
                   <c:v>0.99507648899150336</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="General">
+                <c:pt idx="27">
                   <c:v>0.99634591201450906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99728931759153028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99798985959100972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5251,7 +5251,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8101,123 +8101,123 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>0.3</v>
+        <v>0.35069853975306242</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>0.3382769220511585</v>
+        <v>0.36674462542937664</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.35069853975306242</v>
+        <v>0.38718735073119148</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.36674462542937664</v>
+        <v>0.41277626470360962</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.38718735073119148</v>
+        <v>0.44410926026066311</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.41277626470360962</v>
+        <v>0.48145757057249217</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.44410926026066311</v>
+        <v>0.52457491057722483</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.48145757057249217</v>
+        <v>0.57255253623554458</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.52457491057722483</v>
+        <v>0.62379910825937523</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.57255253623554458</v>
+        <v>0.67620089174062459</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.62379910825937523</v>
+        <v>0.72744746376445535</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.67620089174062459</v>
+        <v>0.77542508942277499</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.72744746376445535</v>
+        <v>0.81854242942750788</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.77542508942277499</v>
+        <v>0.85589073973933671</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.81854242942750788</v>
+        <v>0.88722373529639031</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.85589073973933671</v>
+        <v>0.91281264926880845</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.88722373529639031</v>
+        <v>0.93325537457062335</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.91281264926880845</v>
+        <v>0.94930146024693762</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.93325537457062335</v>
+        <v>0.96172307794884149</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.94930146024693762</v>
+        <v>0.97123610525967452</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.96172307794884149</v>
+        <v>0.97846179844999637</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.97123610525967452</v>
+        <v>0.98391584106298202</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.97846179844999637</v>
+        <v>0.98801317667899058</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.98391584106298202</v>
+        <v>0.99108035537512174</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.98801317667899058</v>
+        <v>0.99337026949263763</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.99108035537512174</v>
+        <v>0.99507648899150336</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.99337026949263763</v>
+        <v>0.99634591201450906</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99507648899150336</v>
+        <v>0.99728931759153028</v>
       </c>
       <c r="AE2">
         <f>Data!AL10</f>
-        <v>0.99634591201450906</v>
+        <v>0.99798985959100972</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8601,11 +8601,11 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
-        <v>0.15</v>
+        <v>0.17534926987653121</v>
       </c>
       <c r="D6">
         <f>Data!K14</f>
@@ -10003,14 +10003,14 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
@@ -10148,119 +10148,119 @@
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>1.7</v>
+        <v>0.92312502511458017</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>1.7273406586079703</v>
+        <v>0.96209409032848614</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>1.7362132426807588</v>
+        <v>1.0117407089186079</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>1.7476747324495547</v>
+        <v>1.0738852142801949</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>1.7622766790937081</v>
+        <v>1.1499796320616105</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>1.7805544747882927</v>
+        <v>1.2406826713903383</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>1.8029351859004736</v>
+        <v>1.3453962114018321</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>1.8296125504089229</v>
+        <v>1.4619133022863227</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>1.8604106504123035</v>
+        <v>1.5863692629156259</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>1.8946803830253891</v>
+        <v>1.7136307370843742</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>1.9312850773281254</v>
+        <v>1.8380866977136774</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>1.9687149226718748</v>
+        <v>1.954603788598168</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>2.005319616974611</v>
+        <v>2.0593173286096618</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>2.0395893495876964</v>
+        <v>2.1500203679383896</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>2.070387449591077</v>
+        <v>2.2261147857198051</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>2.0970648140995265</v>
+        <v>2.2882592910813919</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>2.1194455252117077</v>
+        <v>2.3379059096715142</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>2.137723320906292</v>
+        <v>2.3768749748854199</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>2.1523252675504456</v>
+        <v>2.4070417607329007</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>2.1637867573192411</v>
+        <v>2.4301448270592099</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>2.1726593413920297</v>
+        <v>2.4476929390928484</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>2.1794543608997676</v>
+        <v>2.4609384711529563</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>2.1846155703214261</v>
+        <v>2.4708891433632632</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>2.1885113150449875</v>
+        <v>2.4783380059110103</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>2.1914379833421362</v>
+        <v>2.4838992259106916</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>2.1936288252679446</v>
+        <v>2.4880429018365082</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>2.1952644782090269</v>
+        <v>2.4911257863209508</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>2.1964832064225028</v>
+        <v>2.4934169141508589</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>2.1973899371532211</v>
+        <v>2.4951182304353092</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56118,7 +56118,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56318,7 +56318,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="44">
+        <f>B3/SUM(B3:H3)</f>
+        <v>1.6153546520046278E-2</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -63343,10 +63346,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AL93"/>
+  <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63359,6 +63362,7 @@
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -63654,7 +63658,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E10" s="22">
         <v>0.3</v>
@@ -63666,125 +63670,125 @@
         <f>IF(E10=F10,"n/a",IF(OR(C10="battery electric vehicle",C10="natural gas vehicle",C10="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I10">
-        <f>D10</f>
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="22">
-        <f>E10</f>
+      <c r="I10" s="22">
+        <f t="shared" ref="I10:I40" si="1">E10</f>
         <v>0.3</v>
       </c>
+      <c r="J10">
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,J$9))</f>
+        <v>0.35069853975306242</v>
+      </c>
       <c r="K10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
-        <v>0.3382769220511585</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
+        <v>0.36674462542937664</v>
       </c>
       <c r="L10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.35069853975306242</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
+        <v>0.38718735073119148</v>
       </c>
       <c r="M10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.36674462542937664</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
+        <v>0.41277626470360962</v>
       </c>
       <c r="N10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.38718735073119148</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
+        <v>0.44410926026066311</v>
       </c>
       <c r="O10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.41277626470360962</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
+        <v>0.48145757057249217</v>
       </c>
       <c r="P10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.44410926026066311</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
+        <v>0.52457491057722483</v>
       </c>
       <c r="Q10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.48145757057249217</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
+        <v>0.57255253623554458</v>
       </c>
       <c r="R10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.52457491057722483</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
+        <v>0.62379910825937523</v>
       </c>
       <c r="S10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.57255253623554458</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
+        <v>0.67620089174062459</v>
       </c>
       <c r="T10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.62379910825937523</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
+        <v>0.72744746376445535</v>
       </c>
       <c r="U10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.67620089174062459</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
+        <v>0.77542508942277499</v>
       </c>
       <c r="V10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.72744746376445535</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
+        <v>0.81854242942750788</v>
       </c>
       <c r="W10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.77542508942277499</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
+        <v>0.85589073973933671</v>
       </c>
       <c r="X10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.81854242942750788</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
+        <v>0.88722373529639031</v>
       </c>
       <c r="Y10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.85589073973933671</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
+        <v>0.91281264926880845</v>
       </c>
       <c r="Z10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.88722373529639031</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
+        <v>0.93325537457062335</v>
       </c>
       <c r="AA10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.91281264926880845</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
+        <v>0.94930146024693762</v>
       </c>
       <c r="AB10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.93325537457062335</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
+        <v>0.96172307794884149</v>
       </c>
       <c r="AC10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.94930146024693762</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
+        <v>0.97123610525967452</v>
       </c>
       <c r="AD10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.96172307794884149</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
+        <v>0.97846179844999637</v>
       </c>
       <c r="AE10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.97123610525967452</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
+        <v>0.98391584106298202</v>
       </c>
       <c r="AF10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.97846179844999637</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
+        <v>0.98801317667899058</v>
       </c>
       <c r="AG10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.98391584106298202</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
+        <v>0.99108035537512174</v>
       </c>
       <c r="AH10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.98801317667899058</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
+        <v>0.99337026949263763</v>
       </c>
       <c r="AI10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.99108035537512174</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
+        <v>0.99507648899150336</v>
       </c>
       <c r="AJ10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.99337026949263763</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
+        <v>0.99634591201450906</v>
       </c>
       <c r="AK10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99507648899150336</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
+        <v>0.99728931759153028</v>
       </c>
       <c r="AL10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
-        <v>0.99634591201450906</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
+        <v>0.99798985959100972</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -63804,7 +63808,7 @@
         <v>s-curve</v>
       </c>
       <c r="I11" s="22">
-        <f t="shared" ref="I11:I40" si="1">E11</f>
+        <f t="shared" si="1"/>
         <v>3.7087168441147616E-4</v>
       </c>
       <c r="J11">
@@ -64211,13 +64215,13 @@
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I14">
-        <f>D14</f>
-        <v>0.1</v>
+      <c r="I14" s="22">
+        <f t="shared" ref="I14" si="2">E14</f>
+        <v>0.15</v>
       </c>
       <c r="J14">
-        <f>E14</f>
-        <v>0.15</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,J$9))</f>
+        <v>0.17534926987653121</v>
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
@@ -65582,137 +65586,137 @@
         <v>1</v>
       </c>
       <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="22">
         <v>0.8</v>
       </c>
-      <c r="E24" s="22">
-        <v>1.7</v>
-      </c>
       <c r="F24" s="29">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
       <c r="I24" s="22">
-        <f>D24</f>
+        <f t="shared" ref="I24" si="3">E24</f>
         <v>0.8</v>
       </c>
-      <c r="J24" s="22">
-        <f>E24</f>
-        <v>1.7</v>
+      <c r="J24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
+        <v>0.92312502511458017</v>
       </c>
       <c r="K24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>1.7273406586079703</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
+        <v>0.96209409032848614</v>
       </c>
       <c r="L24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>1.7362132426807588</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
+        <v>1.0117407089186079</v>
       </c>
       <c r="M24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>1.7476747324495547</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
+        <v>1.0738852142801949</v>
       </c>
       <c r="N24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>1.7622766790937081</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
+        <v>1.1499796320616105</v>
       </c>
       <c r="O24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>1.7805544747882927</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
+        <v>1.2406826713903383</v>
       </c>
       <c r="P24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>1.8029351859004736</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
+        <v>1.3453962114018321</v>
       </c>
       <c r="Q24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>1.8296125504089229</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
+        <v>1.4619133022863227</v>
       </c>
       <c r="R24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>1.8604106504123035</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
+        <v>1.5863692629156259</v>
       </c>
       <c r="S24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>1.8946803830253891</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
+        <v>1.7136307370843742</v>
       </c>
       <c r="T24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>1.9312850773281254</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
+        <v>1.8380866977136774</v>
       </c>
       <c r="U24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>1.9687149226718748</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
+        <v>1.954603788598168</v>
       </c>
       <c r="V24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>2.005319616974611</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
+        <v>2.0593173286096618</v>
       </c>
       <c r="W24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>2.0395893495876964</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
+        <v>2.1500203679383896</v>
       </c>
       <c r="X24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>2.070387449591077</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
+        <v>2.2261147857198051</v>
       </c>
       <c r="Y24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>2.0970648140995265</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
+        <v>2.2882592910813919</v>
       </c>
       <c r="Z24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>2.1194455252117077</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
+        <v>2.3379059096715142</v>
       </c>
       <c r="AA24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>2.137723320906292</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
+        <v>2.3768749748854199</v>
       </c>
       <c r="AB24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>2.1523252675504456</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
+        <v>2.4070417607329007</v>
       </c>
       <c r="AC24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>2.1637867573192411</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
+        <v>2.4301448270592099</v>
       </c>
       <c r="AD24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>2.1726593413920297</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
+        <v>2.4476929390928484</v>
       </c>
       <c r="AE24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>2.1794543608997676</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
+        <v>2.4609384711529563</v>
       </c>
       <c r="AF24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>2.1846155703214261</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
+        <v>2.4708891433632632</v>
       </c>
       <c r="AG24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>2.1885113150449875</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
+        <v>2.4783380059110103</v>
       </c>
       <c r="AH24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>2.1914379833421362</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
+        <v>2.4838992259106916</v>
       </c>
       <c r="AI24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>2.1936288252679446</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
+        <v>2.4880429018365082</v>
       </c>
       <c r="AJ24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>2.1952644782090269</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
+        <v>2.4911257863209508</v>
       </c>
       <c r="AK24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>2.1964832064225028</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
+        <v>2.4934169141508589</v>
       </c>
       <c r="AL24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>2.1973899371532211</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
+        <v>2.4951182304353092</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
@@ -67917,7 +67921,7 @@
         <v>n/a</v>
       </c>
       <c r="I41" s="22">
-        <f t="shared" ref="I41:I72" si="2">E41</f>
+        <f t="shared" ref="I41:I72" si="4">E41</f>
         <v>1</v>
       </c>
       <c r="J41">
@@ -68052,7 +68056,7 @@
         <v>n/a</v>
       </c>
       <c r="I42" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -68187,7 +68191,7 @@
         <v>n/a</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -68325,7 +68329,7 @@
         <v>n/a</v>
       </c>
       <c r="I44" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -68466,7 +68470,7 @@
         <v>n/a</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -68601,7 +68605,7 @@
         <v>n/a</v>
       </c>
       <c r="I46" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J46">
@@ -68736,7 +68740,7 @@
         <v>n/a</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -68871,7 +68875,7 @@
         <v>n/a</v>
       </c>
       <c r="I48" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J48">
@@ -69006,7 +69010,7 @@
         <v>n/a</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -69141,7 +69145,7 @@
         <v>n/a</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -69279,7 +69283,7 @@
         <v>n/a</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -69421,7 +69425,7 @@
         <v>s-curve</v>
       </c>
       <c r="I52" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87292849620408119</v>
       </c>
       <c r="J52">
@@ -69556,7 +69560,7 @@
         <v>n/a</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -69691,7 +69695,7 @@
         <v>n/a</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -69827,7 +69831,7 @@
         <v>linear</v>
       </c>
       <c r="I55" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12707150379591881</v>
       </c>
       <c r="J55">
@@ -69962,7 +69966,7 @@
         <v>n/a</v>
       </c>
       <c r="I56" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -70097,7 +70101,7 @@
         <v>n/a</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J57">
@@ -70235,7 +70239,7 @@
         <v>n/a</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -70376,7 +70380,7 @@
         <v>n/a</v>
       </c>
       <c r="I59" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -70511,7 +70515,7 @@
         <v>n/a</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -70646,7 +70650,7 @@
         <v>n/a</v>
       </c>
       <c r="I61" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -70781,7 +70785,7 @@
         <v>n/a</v>
       </c>
       <c r="I62" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J62">
@@ -70916,7 +70920,7 @@
         <v>n/a</v>
       </c>
       <c r="I63" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -71051,7 +71055,7 @@
         <v>n/a</v>
       </c>
       <c r="I64" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -71189,7 +71193,7 @@
         <v>n/a</v>
       </c>
       <c r="I65" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -71330,7 +71334,7 @@
         <v>n/a</v>
       </c>
       <c r="I66" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J66">
@@ -71465,7 +71469,7 @@
         <v>n/a</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -71600,7 +71604,7 @@
         <v>n/a</v>
       </c>
       <c r="I68" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -71735,7 +71739,7 @@
         <v>n/a</v>
       </c>
       <c r="I69" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J69">
@@ -71870,7 +71874,7 @@
         <v>n/a</v>
       </c>
       <c r="I70" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -72005,7 +72009,7 @@
         <v>n/a</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -72143,7 +72147,7 @@
         <v>n/a</v>
       </c>
       <c r="I72" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -72284,7 +72288,7 @@
         <v>n/a</v>
       </c>
       <c r="I73" s="22">
-        <f t="shared" ref="I73:I93" si="3">E73</f>
+        <f t="shared" ref="I73:I93" si="5">E73</f>
         <v>0</v>
       </c>
       <c r="J73">
@@ -72419,7 +72423,7 @@
         <v>n/a</v>
       </c>
       <c r="I74" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -72554,7 +72558,7 @@
         <v>n/a</v>
       </c>
       <c r="I75" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -72689,7 +72693,7 @@
         <v>n/a</v>
       </c>
       <c r="I76" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J76">
@@ -72824,7 +72828,7 @@
         <v>n/a</v>
       </c>
       <c r="I77" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -72959,7 +72963,7 @@
         <v>n/a</v>
       </c>
       <c r="I78" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -73097,7 +73101,7 @@
         <v>n/a</v>
       </c>
       <c r="I79" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -73375,7 +73379,7 @@
         <v>n/a</v>
       </c>
       <c r="I81" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -73510,7 +73514,7 @@
         <v>n/a</v>
       </c>
       <c r="I82" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J82">
@@ -73646,7 +73650,7 @@
         <v>n/a</v>
       </c>
       <c r="I83" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -73782,7 +73786,7 @@
         <v>n/a</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -73918,7 +73922,7 @@
         <v>n/a</v>
       </c>
       <c r="I85" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -74057,7 +74061,7 @@
         <v>n/a</v>
       </c>
       <c r="I86" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -74198,7 +74202,7 @@
         <v>n/a</v>
       </c>
       <c r="I87" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J87">
@@ -74333,7 +74337,7 @@
         <v>n/a</v>
       </c>
       <c r="I88" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -74468,7 +74472,7 @@
         <v>n/a</v>
       </c>
       <c r="I89" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -74603,7 +74607,7 @@
         <v>n/a</v>
       </c>
       <c r="I90" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -74738,7 +74742,7 @@
         <v>n/a</v>
       </c>
       <c r="I91" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J91">
@@ -74873,7 +74877,7 @@
         <v>n/a</v>
       </c>
       <c r="I92" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J92">
@@ -75011,7 +75015,7 @@
         <v>n/a</v>
       </c>
       <c r="I93" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J93">
@@ -75130,6 +75134,38 @@
         <f>IF($G93="s-curve",$E93+($F93-$E93)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E93:$F93,$E$9:$F$9,AL$9))</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="22"/>
+      <c r="X95" s="22"/>
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="22"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="22"/>
+      <c r="AC95" s="22"/>
+      <c r="AD95" s="22"/>
+      <c r="AE95" s="22"/>
+      <c r="AF95" s="22"/>
+      <c r="AG95" s="22"/>
+      <c r="AH95" s="22"/>
+      <c r="AI95" s="22"/>
+      <c r="AJ95" s="22"/>
+      <c r="AK95" s="22"/>
+      <c r="AL95" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE303B-A634-4BFD-8D3E-1A435B9313D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADFAEA9-4DE2-4E51-8EC4-8481039509F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -5066,94 +5066,94 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.11695001406416487</c:v>
+                  <c:v>0.13550148435693454</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.13877269058395222</c:v>
+                  <c:v>0.15686570128597005</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.16657479699442046</c:v>
+                  <c:v>0.18408372983067212</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.20137571999690912</c:v>
+                  <c:v>0.21815354100537743</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.2439885939545019</c:v>
+                  <c:v>0.25987118651848296</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.2947822959785894</c:v>
+                  <c:v>0.30959779396223247</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.35342187838502587</c:v>
+                  <c:v>0.36700545236853371</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.41867144928034067</c:v>
+                  <c:v>0.43088423395932512</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.4883667872327504</c:v>
+                  <c:v>0.49911538413962542</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.55963321276724964</c:v>
+                  <c:v>0.56888461586037464</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.62932855071965943</c:v>
+                  <c:v>0.63711576604067499</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.69457812161497412</c:v>
+                  <c:v>0.70099454763146607</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.75321770402141064</c:v>
+                  <c:v>0.75840220603776753</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.80401140604549803</c:v>
+                  <c:v>0.80812881348151699</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.84662428000309087</c:v>
+                  <c:v>0.84984645899462241</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.88142520300557958</c:v>
+                  <c:v>0.88391627016932772</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.90922730941604779</c:v>
+                  <c:v>0.91113429871403007</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.9310499859358351</c:v>
+                  <c:v>0.93249851564306541</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.94794338601042438</c:v>
+                  <c:v>0.94903701235474314</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.96088110315315733</c:v>
+                  <c:v>0.96170292871716656</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.97070804589199511</c:v>
+                  <c:v>0.9713234230791381</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.97812554384565553</c:v>
+                  <c:v>0.97858509124385606</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.98369792028342729</c:v>
+                  <c:v>0.98404040094974166</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.98786928331016577</c:v>
+                  <c:v>0.9881241302994479</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.9909835665099872</c:v>
+                  <c:v>0.99117298738162618</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.99330402502844461</c:v>
+                  <c:v>0.99344469677154446</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.99503044033973242</c:v>
+                  <c:v>0.99513484285360354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8098,11 +8098,11 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
@@ -8110,111 +8110,111 @@
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.11695001406416487</v>
+        <v>0.13550148435693454</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.13877269058395222</v>
+        <v>0.15686570128597005</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.16657479699442046</v>
+        <v>0.18408372983067212</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.20137571999690912</v>
+        <v>0.21815354100537743</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.2439885939545019</v>
+        <v>0.25987118651848296</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.2947822959785894</v>
+        <v>0.30959779396223247</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.35342187838502587</v>
+        <v>0.36700545236853371</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.41867144928034067</v>
+        <v>0.43088423395932512</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.4883667872327504</v>
+        <v>0.49911538413962542</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.55963321276724964</v>
+        <v>0.56888461586037464</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.62932855071965943</v>
+        <v>0.63711576604067499</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.69457812161497412</v>
+        <v>0.70099454763146607</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.75321770402141064</v>
+        <v>0.75840220603776753</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.80401140604549803</v>
+        <v>0.80812881348151699</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.84662428000309087</v>
+        <v>0.84984645899462241</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.88142520300557958</v>
+        <v>0.88391627016932772</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.90922730941604779</v>
+        <v>0.91113429871403007</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.9310499859358351</v>
+        <v>0.93249851564306541</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.94794338601042438</v>
+        <v>0.94903701235474314</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.96088110315315733</v>
+        <v>0.96170292871716656</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.97070804589199511</v>
+        <v>0.9713234230791381</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.97812554384565553</v>
+        <v>0.97858509124385606</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.98369792028342729</v>
+        <v>0.98404040094974166</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.98786928331016577</v>
+        <v>0.9881241302994479</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.9909835665099872</v>
+        <v>0.99117298738162618</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99330402502844461</v>
+        <v>0.99344469677154446</v>
       </c>
       <c r="AE2">
         <f>Data!AL10</f>
-        <v>0.99503044033973242</v>
+        <v>0.99513484285360354</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>4.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
@@ -8606,115 +8606,115 @@
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>1.2004677525762598E-2</v>
+        <v>1.8679140068700261E-2</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>1.3231241043871491E-2</v>
+        <v>2.1949976116990642E-2</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>1.4766575882216582E-2</v>
+        <v>2.6044202352577546E-2</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>1.664655561563979E-2</v>
+        <v>3.1057481641706103E-2</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>1.8887454234349531E-2</v>
+        <v>3.7033211291598749E-2</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>2.1474494634633495E-2</v>
+        <v>4.3931985692355985E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>2.435315217413268E-2</v>
+        <v>5.1608405797687135E-2</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>2.742794649556252E-2</v>
+        <v>5.9807857321500048E-2</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>3.0572053504437483E-2</v>
+        <v>6.8192142678499934E-2</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>3.3646847825867326E-2</v>
+        <v>7.6391594202312868E-2</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>3.6525505365366501E-2</v>
+        <v>8.406801430764399E-2</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>3.9112545765650472E-2</v>
+        <v>9.0966788708401247E-2</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>4.1353444384360213E-2</v>
+        <v>9.6942518358293872E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>4.3233424117783421E-2</v>
+        <v>0.10195579764742244</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>4.4768758956128508E-2</v>
+        <v>0.10605002388300935</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>4.5995322474237404E-2</v>
+        <v>0.10932085993129972</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>4.6958087614816256E-2</v>
+        <v>0.11188823363951</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>4.7703384676930492E-2</v>
+        <v>0.11387569247181462</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>4.8274166315580479E-2</v>
+        <v>0.11539777684154792</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>4.8707707906999784E-2</v>
+        <v>0.1165538877519994</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>4.9034950463778926E-2</v>
+        <v>0.11742653457007712</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>4.9280790600739442E-2</v>
+        <v>0.11808210826863849</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>4.9464821322507319E-2</v>
+        <v>0.11857285686001948</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>4.9602216169558261E-2</v>
+        <v>0.11893924311882201</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>4.9704589339490207E-2</v>
+        <v>0.11921223823864052</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>4.9780754720870554E-2</v>
+        <v>0.11941534592232145</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>4.9837359055491817E-2</v>
+        <v>0.11956629081464482</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>4.9879391575460584E-2</v>
+        <v>0.11967837753456154</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9623,119 +9623,119 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>1.0161028688271871E-3</v>
+        <v>2.0502850873563008E-3</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>1.26799010529499E-3</v>
+        <v>2.6568115066804157E-3</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>1.6039220771322887E-3</v>
+        <v>3.4657116275128991E-3</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>2.0501050777206073E-3</v>
+        <v>4.5400883268051397E-3</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>2.6395014554061241E-3</v>
+        <v>5.9593125778357988E-3</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>3.4124980333622964E-3</v>
+        <v>7.820632957352051E-3</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>4.416777707171987E-3</v>
+        <v>1.0238866461746552E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>5.705684717799993E-3</v>
+        <v>1.3342462201492896E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>7.3341745829285324E-3</v>
+        <v>1.7263749125962676E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>9.3514733398968458E-3</v>
+        <v>2.2121260006341788E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>1.1790147490354473E-2</v>
+        <v>2.7993412645423234E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>1.4652700575996493E-2</v>
+        <v>3.4886235392246209E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>1.7898976373295176E-2</v>
+        <v>4.270303493748949E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>2.1439614812797877E-2</v>
+        <v>5.1228638635981739E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>2.5140780538215154E-2</v>
+        <v>6.0140780538215151E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>2.8841946263632432E-2</v>
+        <v>6.9052922440448555E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>3.2382584703135125E-2</v>
+        <v>7.7578526138940798E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>3.5628860500433818E-2</v>
+        <v>8.5395325684184079E-2</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>3.8491413586075836E-2</v>
+        <v>9.2288148431007064E-2</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>4.0930087736533463E-2</v>
+        <v>9.816030107008851E-2</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>4.2947386493501785E-2</v>
+        <v>0.10301781195046764</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>4.457587635863032E-2</v>
+        <v>0.10693909887493741</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>4.5864783369258325E-2</v>
+        <v>0.11004269461468376</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>4.6869063043068017E-2</v>
+        <v>0.11246092811907826</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>4.7642059621024191E-2</v>
+        <v>0.11432224849859451</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>4.8231455998709705E-2</v>
+        <v>0.11574147274962517</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>4.8677638999298022E-2</v>
+        <v>0.1168158494489174</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>4.9013570971135324E-2</v>
+        <v>0.1176247495697499</v>
       </c>
       <c r="AE6">
         <f>Data!AL21</f>
-        <v>4.9265458207603127E-2</v>
+        <v>0.118231275989074</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -63339,8 +63339,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63648,10 +63648,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="22">
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="I10">
         <f>D10</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J10" s="22">
         <f>E10</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K10" s="22">
         <f>O6</f>
@@ -63674,111 +63674,111 @@
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.11695001406416487</v>
+        <v>0.13550148435693454</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.13877269058395222</v>
+        <v>0.15686570128597005</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.16657479699442046</v>
+        <v>0.18408372983067212</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.20137571999690912</v>
+        <v>0.21815354100537743</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.2439885939545019</v>
+        <v>0.25987118651848296</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.2947822959785894</v>
+        <v>0.30959779396223247</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.35342187838502587</v>
+        <v>0.36700545236853371</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.41867144928034067</v>
+        <v>0.43088423395932512</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.4883667872327504</v>
+        <v>0.49911538413962542</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.55963321276724964</v>
+        <v>0.56888461586037464</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.62932855071965943</v>
+        <v>0.63711576604067499</v>
       </c>
       <c r="W10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.69457812161497412</v>
+        <v>0.70099454763146607</v>
       </c>
       <c r="X10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.75321770402141064</v>
+        <v>0.75840220603776753</v>
       </c>
       <c r="Y10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.80401140604549803</v>
+        <v>0.80812881348151699</v>
       </c>
       <c r="Z10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.84662428000309087</v>
+        <v>0.84984645899462241</v>
       </c>
       <c r="AA10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.88142520300557958</v>
+        <v>0.88391627016932772</v>
       </c>
       <c r="AB10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.90922730941604779</v>
+        <v>0.91113429871403007</v>
       </c>
       <c r="AC10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.9310499859358351</v>
+        <v>0.93249851564306541</v>
       </c>
       <c r="AD10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.94794338601042438</v>
+        <v>0.94903701235474314</v>
       </c>
       <c r="AE10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.96088110315315733</v>
+        <v>0.96170292871716656</v>
       </c>
       <c r="AF10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.97070804589199511</v>
+        <v>0.9713234230791381</v>
       </c>
       <c r="AG10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.97812554384565553</v>
+        <v>0.97858509124385606</v>
       </c>
       <c r="AH10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.98369792028342729</v>
+        <v>0.98404040094974166</v>
       </c>
       <c r="AI10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.98786928331016577</v>
+        <v>0.9881241302994479</v>
       </c>
       <c r="AJ10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.9909835665099872</v>
+        <v>0.99117298738162618</v>
       </c>
       <c r="AK10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99330402502844461</v>
+        <v>0.99344469677154446</v>
       </c>
       <c r="AL10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
-        <v>0.99503044033973242</v>
+        <v>0.99513484285360354</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -64195,13 +64195,13 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>4.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E14" s="22">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F14" s="41">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -64209,7 +64209,7 @@
       </c>
       <c r="I14">
         <f>D14</f>
-        <v>4.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J14">
         <f>E14</f>
@@ -64217,115 +64217,115 @@
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>1.2004677525762598E-2</v>
+        <v>1.8679140068700261E-2</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>1.3231241043871491E-2</v>
+        <v>2.1949976116990642E-2</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>1.4766575882216582E-2</v>
+        <v>2.6044202352577546E-2</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>1.664655561563979E-2</v>
+        <v>3.1057481641706103E-2</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>1.8887454234349531E-2</v>
+        <v>3.7033211291598749E-2</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>2.1474494634633495E-2</v>
+        <v>4.3931985692355985E-2</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>2.435315217413268E-2</v>
+        <v>5.1608405797687135E-2</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>2.742794649556252E-2</v>
+        <v>5.9807857321500048E-2</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>3.0572053504437483E-2</v>
+        <v>6.8192142678499934E-2</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>3.3646847825867326E-2</v>
+        <v>7.6391594202312868E-2</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>3.6525505365366501E-2</v>
+        <v>8.406801430764399E-2</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>3.9112545765650472E-2</v>
+        <v>9.0966788708401247E-2</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>4.1353444384360213E-2</v>
+        <v>9.6942518358293872E-2</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>4.3233424117783421E-2</v>
+        <v>0.10195579764742244</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>4.4768758956128508E-2</v>
+        <v>0.10605002388300935</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>4.5995322474237404E-2</v>
+        <v>0.10932085993129972</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>4.6958087614816256E-2</v>
+        <v>0.11188823363951</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>4.7703384676930492E-2</v>
+        <v>0.11387569247181462</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>4.8274166315580479E-2</v>
+        <v>0.11539777684154792</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>4.8707707906999784E-2</v>
+        <v>0.1165538877519994</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>4.9034950463778926E-2</v>
+        <v>0.11742653457007712</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>4.9280790600739442E-2</v>
+        <v>0.11808210826863849</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>4.9464821322507319E-2</v>
+        <v>0.11857285686001948</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>4.9602216169558261E-2</v>
+        <v>0.11893924311882201</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>4.9704589339490207E-2</v>
+        <v>0.11921223823864052</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>4.9780754720870554E-2</v>
+        <v>0.11941534592232145</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>4.9837359055491817E-2</v>
+        <v>0.11956629081464482</v>
       </c>
       <c r="AL14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>4.9879391575460584E-2</v>
+        <v>0.11967837753456154</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -65163,7 +65163,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65175,119 +65175,119 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>1.0161028688271871E-3</v>
+        <v>2.0502850873563008E-3</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>1.26799010529499E-3</v>
+        <v>2.6568115066804157E-3</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>1.6039220771322887E-3</v>
+        <v>3.4657116275128991E-3</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>2.0501050777206073E-3</v>
+        <v>4.5400883268051397E-3</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>2.6395014554061241E-3</v>
+        <v>5.9593125778357988E-3</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>3.4124980333622964E-3</v>
+        <v>7.820632957352051E-3</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>4.416777707171987E-3</v>
+        <v>1.0238866461746552E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>5.705684717799993E-3</v>
+        <v>1.3342462201492896E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>7.3341745829285324E-3</v>
+        <v>1.7263749125962676E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>9.3514733398968458E-3</v>
+        <v>2.2121260006341788E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>1.1790147490354473E-2</v>
+        <v>2.7993412645423234E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>1.4652700575996493E-2</v>
+        <v>3.4886235392246209E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>1.7898976373295176E-2</v>
+        <v>4.270303493748949E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>2.1439614812797877E-2</v>
+        <v>5.1228638635981739E-2</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>2.5140780538215154E-2</v>
+        <v>6.0140780538215151E-2</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>2.8841946263632432E-2</v>
+        <v>6.9052922440448555E-2</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>3.2382584703135125E-2</v>
+        <v>7.7578526138940798E-2</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>3.5628860500433818E-2</v>
+        <v>8.5395325684184079E-2</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>3.8491413586075836E-2</v>
+        <v>9.2288148431007064E-2</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>4.0930087736533463E-2</v>
+        <v>9.816030107008851E-2</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>4.2947386493501785E-2</v>
+        <v>0.10301781195046764</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>4.457587635863032E-2</v>
+        <v>0.10693909887493741</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>4.5864783369258325E-2</v>
+        <v>0.11004269461468376</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>4.6869063043068017E-2</v>
+        <v>0.11246092811907826</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>4.7642059621024191E-2</v>
+        <v>0.11432224849859451</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>4.8231455998709705E-2</v>
+        <v>0.11574147274962517</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>4.8677638999298022E-2</v>
+        <v>0.1168158494489174</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>4.9013570971135324E-2</v>
+        <v>0.1176247495697499</v>
       </c>
       <c r="AL21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>4.9265458207603127E-2</v>
+        <v>0.118231275989074</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADFAEA9-4DE2-4E51-8EC4-8481039509F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE303B-A634-4BFD-8D3E-1A435B9313D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -5066,94 +5066,94 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.02</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8000000000000005E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.13550148435693454</c:v>
+                  <c:v>0.11695001406416487</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.15686570128597005</c:v>
+                  <c:v>0.13877269058395222</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.18408372983067212</c:v>
+                  <c:v>0.16657479699442046</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.21815354100537743</c:v>
+                  <c:v>0.20137571999690912</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.25987118651848296</c:v>
+                  <c:v>0.2439885939545019</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.30959779396223247</c:v>
+                  <c:v>0.2947822959785894</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.36700545236853371</c:v>
+                  <c:v>0.35342187838502587</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.43088423395932512</c:v>
+                  <c:v>0.41867144928034067</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.49911538413962542</c:v>
+                  <c:v>0.4883667872327504</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.56888461586037464</c:v>
+                  <c:v>0.55963321276724964</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.63711576604067499</c:v>
+                  <c:v>0.62932855071965943</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.70099454763146607</c:v>
+                  <c:v>0.69457812161497412</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.75840220603776753</c:v>
+                  <c:v>0.75321770402141064</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.80812881348151699</c:v>
+                  <c:v>0.80401140604549803</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.84984645899462241</c:v>
+                  <c:v>0.84662428000309087</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.88391627016932772</c:v>
+                  <c:v>0.88142520300557958</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.91113429871403007</c:v>
+                  <c:v>0.90922730941604779</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.93249851564306541</c:v>
+                  <c:v>0.9310499859358351</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.94903701235474314</c:v>
+                  <c:v>0.94794338601042438</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.96170292871716656</c:v>
+                  <c:v>0.96088110315315733</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.9713234230791381</c:v>
+                  <c:v>0.97070804589199511</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.97858509124385606</c:v>
+                  <c:v>0.97812554384565553</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.98404040094974166</c:v>
+                  <c:v>0.98369792028342729</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.9881241302994479</c:v>
+                  <c:v>0.98786928331016577</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.99117298738162618</c:v>
+                  <c:v>0.9909835665099872</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.99344469677154446</c:v>
+                  <c:v>0.99330402502844461</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.99513484285360354</c:v>
+                  <c:v>0.99503044033973242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8098,11 +8098,11 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>6.8000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
@@ -8110,111 +8110,111 @@
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.13550148435693454</v>
+        <v>0.11695001406416487</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.15686570128597005</v>
+        <v>0.13877269058395222</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.18408372983067212</v>
+        <v>0.16657479699442046</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.21815354100537743</v>
+        <v>0.20137571999690912</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.25987118651848296</v>
+        <v>0.2439885939545019</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.30959779396223247</v>
+        <v>0.2947822959785894</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.36700545236853371</v>
+        <v>0.35342187838502587</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.43088423395932512</v>
+        <v>0.41867144928034067</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.49911538413962542</v>
+        <v>0.4883667872327504</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.56888461586037464</v>
+        <v>0.55963321276724964</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.63711576604067499</v>
+        <v>0.62932855071965943</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.70099454763146607</v>
+        <v>0.69457812161497412</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.75840220603776753</v>
+        <v>0.75321770402141064</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.80812881348151699</v>
+        <v>0.80401140604549803</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.84984645899462241</v>
+        <v>0.84662428000309087</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.88391627016932772</v>
+        <v>0.88142520300557958</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.91113429871403007</v>
+        <v>0.90922730941604779</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.93249851564306541</v>
+        <v>0.9310499859358351</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.94903701235474314</v>
+        <v>0.94794338601042438</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.96170292871716656</v>
+        <v>0.96088110315315733</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.9713234230791381</v>
+        <v>0.97070804589199511</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.97858509124385606</v>
+        <v>0.97812554384565553</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.98404040094974166</v>
+        <v>0.98369792028342729</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.9881241302994479</v>
+        <v>0.98786928331016577</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.99117298738162618</v>
+        <v>0.9909835665099872</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99344469677154446</v>
+        <v>0.99330402502844461</v>
       </c>
       <c r="AE2">
         <f>Data!AL10</f>
-        <v>0.99513484285360354</v>
+        <v>0.99503044033973242</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>2.5000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
@@ -8606,115 +8606,115 @@
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>1.8679140068700261E-2</v>
+        <v>1.2004677525762598E-2</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>2.1949976116990642E-2</v>
+        <v>1.3231241043871491E-2</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>2.6044202352577546E-2</v>
+        <v>1.4766575882216582E-2</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>3.1057481641706103E-2</v>
+        <v>1.664655561563979E-2</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>3.7033211291598749E-2</v>
+        <v>1.8887454234349531E-2</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>4.3931985692355985E-2</v>
+        <v>2.1474494634633495E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>5.1608405797687135E-2</v>
+        <v>2.435315217413268E-2</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>5.9807857321500048E-2</v>
+        <v>2.742794649556252E-2</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>6.8192142678499934E-2</v>
+        <v>3.0572053504437483E-2</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>7.6391594202312868E-2</v>
+        <v>3.3646847825867326E-2</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>8.406801430764399E-2</v>
+        <v>3.6525505365366501E-2</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>9.0966788708401247E-2</v>
+        <v>3.9112545765650472E-2</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>9.6942518358293872E-2</v>
+        <v>4.1353444384360213E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>0.10195579764742244</v>
+        <v>4.3233424117783421E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>0.10605002388300935</v>
+        <v>4.4768758956128508E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>0.10932085993129972</v>
+        <v>4.5995322474237404E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>0.11188823363951</v>
+        <v>4.6958087614816256E-2</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>0.11387569247181462</v>
+        <v>4.7703384676930492E-2</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>0.11539777684154792</v>
+        <v>4.8274166315580479E-2</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>0.1165538877519994</v>
+        <v>4.8707707906999784E-2</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>0.11742653457007712</v>
+        <v>4.9034950463778926E-2</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>0.11808210826863849</v>
+        <v>4.9280790600739442E-2</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>0.11857285686001948</v>
+        <v>4.9464821322507319E-2</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>0.11893924311882201</v>
+        <v>4.9602216169558261E-2</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>0.11921223823864052</v>
+        <v>4.9704589339490207E-2</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>0.11941534592232145</v>
+        <v>4.9780754720870554E-2</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>0.11956629081464482</v>
+        <v>4.9837359055491817E-2</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>0.11967837753456154</v>
+        <v>4.9879391575460584E-2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9623,119 +9623,119 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>2.0502850873563008E-3</v>
+        <v>1.0161028688271871E-3</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>2.6568115066804157E-3</v>
+        <v>1.26799010529499E-3</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>3.4657116275128991E-3</v>
+        <v>1.6039220771322887E-3</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>4.5400883268051397E-3</v>
+        <v>2.0501050777206073E-3</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>5.9593125778357988E-3</v>
+        <v>2.6395014554061241E-3</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>7.820632957352051E-3</v>
+        <v>3.4124980333622964E-3</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>1.0238866461746552E-2</v>
+        <v>4.416777707171987E-3</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>1.3342462201492896E-2</v>
+        <v>5.705684717799993E-3</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>1.7263749125962676E-2</v>
+        <v>7.3341745829285324E-3</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>2.2121260006341788E-2</v>
+        <v>9.3514733398968458E-3</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>2.7993412645423234E-2</v>
+        <v>1.1790147490354473E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>3.4886235392246209E-2</v>
+        <v>1.4652700575996493E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>4.270303493748949E-2</v>
+        <v>1.7898976373295176E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>5.1228638635981739E-2</v>
+        <v>2.1439614812797877E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>6.0140780538215151E-2</v>
+        <v>2.5140780538215154E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>6.9052922440448555E-2</v>
+        <v>2.8841946263632432E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>7.7578526138940798E-2</v>
+        <v>3.2382584703135125E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>8.5395325684184079E-2</v>
+        <v>3.5628860500433818E-2</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>9.2288148431007064E-2</v>
+        <v>3.8491413586075836E-2</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>9.816030107008851E-2</v>
+        <v>4.0930087736533463E-2</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>0.10301781195046764</v>
+        <v>4.2947386493501785E-2</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>0.10693909887493741</v>
+        <v>4.457587635863032E-2</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>0.11004269461468376</v>
+        <v>4.5864783369258325E-2</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>0.11246092811907826</v>
+        <v>4.6869063043068017E-2</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>0.11432224849859451</v>
+        <v>4.7642059621024191E-2</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>0.11574147274962517</v>
+        <v>4.8231455998709705E-2</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>0.1168158494489174</v>
+        <v>4.8677638999298022E-2</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>0.1176247495697499</v>
+        <v>4.9013570971135324E-2</v>
       </c>
       <c r="AE6">
         <f>Data!AL21</f>
-        <v>0.118231275989074</v>
+        <v>4.9265458207603127E-2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -63339,8 +63339,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63648,10 +63648,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E10" s="22">
-        <v>6.8000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="I10">
         <f>D10</f>
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J10" s="22">
         <f>E10</f>
-        <v>6.8000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K10" s="22">
         <f>O6</f>
@@ -63674,111 +63674,111 @@
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.13550148435693454</v>
+        <v>0.11695001406416487</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.15686570128597005</v>
+        <v>0.13877269058395222</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.18408372983067212</v>
+        <v>0.16657479699442046</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.21815354100537743</v>
+        <v>0.20137571999690912</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.25987118651848296</v>
+        <v>0.2439885939545019</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.30959779396223247</v>
+        <v>0.2947822959785894</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.36700545236853371</v>
+        <v>0.35342187838502587</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.43088423395932512</v>
+        <v>0.41867144928034067</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.49911538413962542</v>
+        <v>0.4883667872327504</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.56888461586037464</v>
+        <v>0.55963321276724964</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.63711576604067499</v>
+        <v>0.62932855071965943</v>
       </c>
       <c r="W10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.70099454763146607</v>
+        <v>0.69457812161497412</v>
       </c>
       <c r="X10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.75840220603776753</v>
+        <v>0.75321770402141064</v>
       </c>
       <c r="Y10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.80812881348151699</v>
+        <v>0.80401140604549803</v>
       </c>
       <c r="Z10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.84984645899462241</v>
+        <v>0.84662428000309087</v>
       </c>
       <c r="AA10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.88391627016932772</v>
+        <v>0.88142520300557958</v>
       </c>
       <c r="AB10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.91113429871403007</v>
+        <v>0.90922730941604779</v>
       </c>
       <c r="AC10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.93249851564306541</v>
+        <v>0.9310499859358351</v>
       </c>
       <c r="AD10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.94903701235474314</v>
+        <v>0.94794338601042438</v>
       </c>
       <c r="AE10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.96170292871716656</v>
+        <v>0.96088110315315733</v>
       </c>
       <c r="AF10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.9713234230791381</v>
+        <v>0.97070804589199511</v>
       </c>
       <c r="AG10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.97858509124385606</v>
+        <v>0.97812554384565553</v>
       </c>
       <c r="AH10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.98404040094974166</v>
+        <v>0.98369792028342729</v>
       </c>
       <c r="AI10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.9881241302994479</v>
+        <v>0.98786928331016577</v>
       </c>
       <c r="AJ10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.99117298738162618</v>
+        <v>0.9909835665099872</v>
       </c>
       <c r="AK10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99344469677154446</v>
+        <v>0.99330402502844461</v>
       </c>
       <c r="AL10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
-        <v>0.99513484285360354</v>
+        <v>0.99503044033973242</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -64195,13 +64195,13 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>2.5000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="E14" s="22">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F14" s="41">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -64209,7 +64209,7 @@
       </c>
       <c r="I14">
         <f>D14</f>
-        <v>2.5000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J14">
         <f>E14</f>
@@ -64217,115 +64217,115 @@
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>1.8679140068700261E-2</v>
+        <v>1.2004677525762598E-2</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>2.1949976116990642E-2</v>
+        <v>1.3231241043871491E-2</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>2.6044202352577546E-2</v>
+        <v>1.4766575882216582E-2</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>3.1057481641706103E-2</v>
+        <v>1.664655561563979E-2</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>3.7033211291598749E-2</v>
+        <v>1.8887454234349531E-2</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>4.3931985692355985E-2</v>
+        <v>2.1474494634633495E-2</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>5.1608405797687135E-2</v>
+        <v>2.435315217413268E-2</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>5.9807857321500048E-2</v>
+        <v>2.742794649556252E-2</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>6.8192142678499934E-2</v>
+        <v>3.0572053504437483E-2</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>7.6391594202312868E-2</v>
+        <v>3.3646847825867326E-2</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>8.406801430764399E-2</v>
+        <v>3.6525505365366501E-2</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>9.0966788708401247E-2</v>
+        <v>3.9112545765650472E-2</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>9.6942518358293872E-2</v>
+        <v>4.1353444384360213E-2</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>0.10195579764742244</v>
+        <v>4.3233424117783421E-2</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>0.10605002388300935</v>
+        <v>4.4768758956128508E-2</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>0.10932085993129972</v>
+        <v>4.5995322474237404E-2</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>0.11188823363951</v>
+        <v>4.6958087614816256E-2</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>0.11387569247181462</v>
+        <v>4.7703384676930492E-2</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>0.11539777684154792</v>
+        <v>4.8274166315580479E-2</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>0.1165538877519994</v>
+        <v>4.8707707906999784E-2</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>0.11742653457007712</v>
+        <v>4.9034950463778926E-2</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>0.11808210826863849</v>
+        <v>4.9280790600739442E-2</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>0.11857285686001948</v>
+        <v>4.9464821322507319E-2</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>0.11893924311882201</v>
+        <v>4.9602216169558261E-2</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>0.11921223823864052</v>
+        <v>4.9704589339490207E-2</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>0.11941534592232145</v>
+        <v>4.9780754720870554E-2</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>0.11956629081464482</v>
+        <v>4.9837359055491817E-2</v>
       </c>
       <c r="AL14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>0.11967837753456154</v>
+        <v>4.9879391575460584E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -65163,7 +65163,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65175,119 +65175,119 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>2.0502850873563008E-3</v>
+        <v>1.0161028688271871E-3</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>2.6568115066804157E-3</v>
+        <v>1.26799010529499E-3</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>3.4657116275128991E-3</v>
+        <v>1.6039220771322887E-3</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>4.5400883268051397E-3</v>
+        <v>2.0501050777206073E-3</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>5.9593125778357988E-3</v>
+        <v>2.6395014554061241E-3</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>7.820632957352051E-3</v>
+        <v>3.4124980333622964E-3</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>1.0238866461746552E-2</v>
+        <v>4.416777707171987E-3</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>1.3342462201492896E-2</v>
+        <v>5.705684717799993E-3</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>1.7263749125962676E-2</v>
+        <v>7.3341745829285324E-3</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>2.2121260006341788E-2</v>
+        <v>9.3514733398968458E-3</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>2.7993412645423234E-2</v>
+        <v>1.1790147490354473E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>3.4886235392246209E-2</v>
+        <v>1.4652700575996493E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>4.270303493748949E-2</v>
+        <v>1.7898976373295176E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>5.1228638635981739E-2</v>
+        <v>2.1439614812797877E-2</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>6.0140780538215151E-2</v>
+        <v>2.5140780538215154E-2</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>6.9052922440448555E-2</v>
+        <v>2.8841946263632432E-2</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>7.7578526138940798E-2</v>
+        <v>3.2382584703135125E-2</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>8.5395325684184079E-2</v>
+        <v>3.5628860500433818E-2</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>9.2288148431007064E-2</v>
+        <v>3.8491413586075836E-2</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>9.816030107008851E-2</v>
+        <v>4.0930087736533463E-2</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>0.10301781195046764</v>
+        <v>4.2947386493501785E-2</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>0.10693909887493741</v>
+        <v>4.457587635863032E-2</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>0.11004269461468376</v>
+        <v>4.5864783369258325E-2</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>0.11246092811907826</v>
+        <v>4.6869063043068017E-2</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>0.11432224849859451</v>
+        <v>4.7642059621024191E-2</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>0.11574147274962517</v>
+        <v>4.8231455998709705E-2</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>0.1168158494489174</v>
+        <v>4.8677638999298022E-2</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>0.1176247495697499</v>
+        <v>4.9013570971135324E-2</v>
       </c>
       <c r="AL21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>0.118231275989074</v>
+        <v>4.9265458207603127E-2</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE303B-A634-4BFD-8D3E-1A435B9313D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE2570-F505-44B1-9FF4-BC2CA26D0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1005">
   <si>
     <t>Source:</t>
   </si>
@@ -3051,6 +3051,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Sigmoidal Curve Values for PHEV passenger LDV Technologies</t>
+  </si>
+  <si>
+    <t>2027-2032, LDV PHEVs</t>
+  </si>
+  <si>
+    <t>2023, LDV BEVs</t>
+  </si>
+  <si>
+    <t>2033, LDV PHEVs</t>
+  </si>
+  <si>
+    <t>2023, freight LDV BEVs</t>
   </si>
 </sst>
 </file>
@@ -3849,7 +3864,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3925,6 +3940,10 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -4725,94 +4744,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2579411882892142</c:v>
+                  <c:v>0.17745114499368292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27627957191928759</c:v>
+                  <c:v>0.19031199220093176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2996426865499332</c:v>
+                  <c:v>0.20876765729184479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32888715966126825</c:v>
+                  <c:v>0.23478791575173236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36469629744075793</c:v>
+                  <c:v>0.27057340516541462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40738008065427683</c:v>
+                  <c:v>0.31814369472520548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45665704065968565</c:v>
+                  <c:v>0.37860020816449586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51148861284062241</c:v>
+                  <c:v>0.45119213970807381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57005612372500036</c:v>
+                  <c:v>0.53264110228439376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62994387627499959</c:v>
+                  <c:v>0.61735889771560626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68851138715937765</c:v>
+                  <c:v>0.6988078602919261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74334295934031447</c:v>
+                  <c:v>0.77139979183550411</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79261991934572329</c:v>
+                  <c:v>0.83185630527479459</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83530370255924202</c:v>
+                  <c:v>0.87942659483458541</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87111284033873182</c:v>
+                  <c:v>0.91521208424826761</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90035731345006687</c:v>
+                  <c:v>0.94123234270815526</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92372042808071253</c:v>
+                  <c:v>0.95968800779906827</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94205881171078576</c:v>
+                  <c:v>0.97254885500631716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95625494622724738</c:v>
+                  <c:v>0.981400919704289</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96712697743962805</c:v>
+                  <c:v>0.98744207306071796</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97538491251428172</c:v>
+                  <c:v>0.99154096841313133</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98161810407197958</c:v>
+                  <c:v>0.99431107671435792</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98630077334741784</c:v>
+                  <c:v>0.99617816781320001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98980612042871075</c:v>
+                  <c:v>0.99743434612399795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99242316513444306</c:v>
+                  <c:v>0.99827847766930755</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99437313027600394</c:v>
+                  <c:v>0.99884525804213542</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99582389944515337</c:v>
+                  <c:v>0.99922560648475944</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99690207724746327</c:v>
+                  <c:v>0.99948075254448077</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99770269667543965</c:v>
+                  <c:v>0.9996518679097619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,99 +5080,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$10:$AL$10</c:f>
+              <c:f>Data!$I$10:$AM$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.11695001406416487</c:v>
+                  <c:v>0.13550148435693454</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.13877269058395222</c:v>
+                  <c:v>0.15686570128597005</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.16657479699442046</c:v>
+                  <c:v>0.18408372983067212</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.20137571999690912</c:v>
+                  <c:v>0.21815354100537743</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.2439885939545019</c:v>
+                  <c:v>0.25987118651848296</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.2947822959785894</c:v>
+                  <c:v>0.30959779396223247</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.35342187838502587</c:v>
+                  <c:v>0.36700545236853371</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.41867144928034067</c:v>
+                  <c:v>0.43088423395932512</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.4883667872327504</c:v>
+                  <c:v>0.49911538413962542</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.55963321276724964</c:v>
+                  <c:v>0.56888461586037464</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.62932855071965943</c:v>
+                  <c:v>0.63711576604067499</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.69457812161497412</c:v>
+                  <c:v>0.70099454763146607</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.75321770402141064</c:v>
+                  <c:v>0.75840220603776753</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.80401140604549803</c:v>
+                  <c:v>0.80812881348151699</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.84662428000309087</c:v>
+                  <c:v>0.84984645899462241</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.88142520300557958</c:v>
+                  <c:v>0.88391627016932772</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.90922730941604779</c:v>
+                  <c:v>0.91113429871403007</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.9310499859358351</c:v>
+                  <c:v>0.93249851564306541</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.94794338601042438</c:v>
+                  <c:v>0.94903701235474314</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.96088110315315733</c:v>
+                  <c:v>0.96170292871716656</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.97070804589199511</c:v>
+                  <c:v>0.9713234230791381</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.97812554384565553</c:v>
+                  <c:v>0.97858509124385606</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.98369792028342729</c:v>
+                  <c:v>0.98404040094974166</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.98786928331016577</c:v>
+                  <c:v>0.9881241302994479</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.9909835665099872</c:v>
+                  <c:v>0.99117298738162618</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.99330402502844461</c:v>
+                  <c:v>0.99344469677154446</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.99503044033973242</c:v>
+                  <c:v>0.99513484285360354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5161,7 +5180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CD7-4B7A-BC10-BFBD94963D9F}"/>
+              <c16:uniqueId val="{00000000-64A9-40DF-B5F6-DC2BB01C190E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5174,11 +5193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="584510703"/>
-        <c:axId val="589151247"/>
+        <c:axId val="145905919"/>
+        <c:axId val="145909759"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="584510703"/>
+        <c:axId val="145905919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +5239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589151247"/>
+        <c:crossAx val="145909759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5228,7 +5247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589151247"/>
+        <c:axId val="145909759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5298,689 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584510703"/>
+        <c:crossAx val="145905919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$14:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8679140068700261E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0151128112044503E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6021242730178792E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4401430729338323E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17702858227261439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19652431808271453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21198289652972047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22359856927066168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2319787572698212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23784887188795553</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24187624796588125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24460014783483416</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24642468433022793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2476388869188586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24844342975100567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24897499940691589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24932554691499179</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24955642877591674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24970836961542547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.24980830595850836</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24987401381406515</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24991720639498693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D32E-4CC5-851D-14400ED7F077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144440415"/>
+        <c:axId val="144438495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144440415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144438495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144438495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144440415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$17:$AL$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17745114499368292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19031199220093176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20876765729184479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23478791575173236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27057340516541462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31814369472520548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37860020816449586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45119213970807381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53264110228439376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61735889771560626</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6988078602919261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77139979183550411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83185630527479459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87942659483458541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91521208424826761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94123234270815526</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95968800779906827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97254885500631716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.981400919704289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98744207306071796</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99154096841313133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99431107671435792</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99617816781320001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99743434612399795</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99827847766930755</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99884525804213542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99922560648475944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99948075254448077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9996518679097619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B905-4226-A18C-07289D02ECCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1637983919"/>
+        <c:axId val="1637988239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1637983919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637988239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1637988239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637983919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5416,6 +6117,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7003,6 +7784,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7084,23 +8897,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37611677-E89A-3C1B-D779-903087F49626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA4F8C5-6199-A6FD-10AB-7EDD21735E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7113,6 +8926,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FEF526-BD1E-EFFF-D20B-034FBCB5C98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7531E0B0-E8D0-FDE4-AA2E-6B666C6B162E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8098,11 +9983,11 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
@@ -8110,111 +9995,111 @@
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.11695001406416487</v>
+        <v>0.13550148435693454</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.13877269058395222</v>
+        <v>0.15686570128597005</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.16657479699442046</v>
+        <v>0.18408372983067212</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.20137571999690912</v>
+        <v>0.21815354100537743</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.2439885939545019</v>
+        <v>0.25987118651848296</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.2947822959785894</v>
+        <v>0.30959779396223247</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.35342187838502587</v>
+        <v>0.36700545236853371</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.41867144928034067</v>
+        <v>0.43088423395932512</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.4883667872327504</v>
+        <v>0.49911538413962542</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.55963321276724964</v>
+        <v>0.56888461586037464</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.62932855071965943</v>
+        <v>0.63711576604067499</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.69457812161497412</v>
+        <v>0.70099454763146607</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.75321770402141064</v>
+        <v>0.75840220603776753</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.80401140604549803</v>
+        <v>0.80812881348151699</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.84662428000309087</v>
+        <v>0.84984645899462241</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.88142520300557958</v>
+        <v>0.88391627016932772</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.90922730941604779</v>
+        <v>0.91113429871403007</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.9310499859358351</v>
+        <v>0.93249851564306541</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.94794338601042438</v>
+        <v>0.94903701235474314</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.96088110315315733</v>
+        <v>0.96170292871716656</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.97070804589199511</v>
+        <v>0.9713234230791381</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.97812554384565553</v>
+        <v>0.97858509124385606</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.98369792028342729</v>
+        <v>0.98404040094974166</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.98786928331016577</v>
+        <v>0.9881241302994479</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.9909835665099872</v>
+        <v>0.99117298738162618</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99330402502844461</v>
+        <v>0.99344469677154446</v>
       </c>
       <c r="AE2">
         <f>Data!AL10</f>
-        <v>0.99503044033973242</v>
+        <v>0.99513484285360354</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8598,7 +10483,7 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>4.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
@@ -8606,115 +10491,115 @@
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>1.2004677525762598E-2</v>
+        <v>1.8679140068700261E-2</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>1.3231241043871491E-2</v>
+        <v>2.0151128112044503E-2</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>1.4766575882216582E-2</v>
+        <v>2.6021242730178792E-2</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>1.664655561563979E-2</v>
+        <v>3.4401430729338323E-2</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>1.8887454234349531E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>2.1474494634633495E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>2.435315217413268E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>2.742794649556252E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>3.0572053504437483E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>3.3646847825867326E-2</v>
+        <v>0.15</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>3.6525505365366501E-2</v>
+        <v>0.17702858227261439</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>3.9112545765650472E-2</v>
+        <v>0.19652431808271453</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>4.1353444384360213E-2</v>
+        <v>0.21198289652972047</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>4.3233424117783421E-2</v>
+        <v>0.22359856927066168</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>4.4768758956128508E-2</v>
+        <v>0.2319787572698212</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>4.5995322474237404E-2</v>
+        <v>0.23784887188795553</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>4.6958087614816256E-2</v>
+        <v>0.24187624796588125</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>4.7703384676930492E-2</v>
+        <v>0.24460014783483416</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>4.8274166315580479E-2</v>
+        <v>0.24642468433022793</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>4.8707707906999784E-2</v>
+        <v>0.2476388869188586</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>4.9034950463778926E-2</v>
+        <v>0.24844342975100567</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>4.9280790600739442E-2</v>
+        <v>0.24897499940691589</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>4.9464821322507319E-2</v>
+        <v>0.24932554691499179</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>4.9602216169558261E-2</v>
+        <v>0.24955642877591674</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>4.9704589339490207E-2</v>
+        <v>0.24970836961542547</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>4.9780754720870554E-2</v>
+        <v>0.24980830595850836</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>4.9837359055491817E-2</v>
+        <v>0.24987401381406515</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>4.9879391575460584E-2</v>
+        <v>0.24991720639498693</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9119,123 +11004,123 @@
       </c>
       <c r="B2">
         <f>Data!I17</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.2579411882892142</v>
+        <v>0.17745114499368292</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.27627957191928759</v>
+        <v>0.19031199220093176</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.2996426865499332</v>
+        <v>0.20876765729184479</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.32888715966126825</v>
+        <v>0.23478791575173236</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.36469629744075793</v>
+        <v>0.27057340516541462</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.40738008065427683</v>
+        <v>0.31814369472520548</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.45665704065968565</v>
+        <v>0.37860020816449586</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.51148861284062241</v>
+        <v>0.45119213970807381</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.57005612372500036</v>
+        <v>0.53264110228439376</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.62994387627499959</v>
+        <v>0.61735889771560626</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.68851138715937765</v>
+        <v>0.6988078602919261</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.74334295934031447</v>
+        <v>0.77139979183550411</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.79261991934572329</v>
+        <v>0.83185630527479459</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.83530370255924202</v>
+        <v>0.87942659483458541</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.87111284033873182</v>
+        <v>0.91521208424826761</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.90035731345006687</v>
+        <v>0.94123234270815526</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.92372042808071253</v>
+        <v>0.95968800779906827</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.94205881171078576</v>
+        <v>0.97254885500631716</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.95625494622724738</v>
+        <v>0.981400919704289</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.96712697743962805</v>
+        <v>0.98744207306071796</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.97538491251428172</v>
+        <v>0.99154096841313133</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.98161810407197958</v>
+        <v>0.99431107671435792</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.98630077334741784</v>
+        <v>0.99617816781320001</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.98980612042871075</v>
+        <v>0.99743434612399795</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.99242316513444306</v>
+        <v>0.99827847766930755</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.99437313027600394</v>
+        <v>0.99884525804213542</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99582389944515337</v>
+        <v>0.99922560648475944</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99690207724746327</v>
+        <v>0.99948075254448077</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99770269667543965</v>
+        <v>0.9996518679097619</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -9623,119 +11508,119 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>1.0161028688271871E-3</v>
+        <v>3.9709092074817981E-3</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>1.26799010529499E-3</v>
+        <v>5.2360512521104916E-3</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>1.6039220771322887E-3</v>
+        <v>6.9233207925054616E-3</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>2.0501050777206073E-3</v>
+        <v>9.1643429322478421E-3</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>2.6395014554061241E-3</v>
+        <v>1.2124676090919479E-2</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>3.4124980333622964E-3</v>
+        <v>1.6007169244761595E-2</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>4.416777707171987E-3</v>
+        <v>2.1051317005956457E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>5.705684717799993E-3</v>
+        <v>2.7525048956922572E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>7.3341745829285324E-3</v>
+        <v>3.5704387563026088E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>9.3514733398968458E-3</v>
+        <v>4.5836578101168111E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>1.1790147490354473E-2</v>
+        <v>5.8085190790550939E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>1.4652700575996493E-2</v>
+        <v>7.2462800050995702E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>1.7898976373295176E-2</v>
+        <v>8.8767715128136082E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>2.1439614812797877E-2</v>
+        <v>0.10655111145046607</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>2.5140780538215154E-2</v>
+        <v>0.12514078053821515</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>2.8841946263632432E-2</v>
+        <v>0.14373044962596424</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>3.2382584703135125E-2</v>
+        <v>0.16151384594829421</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>3.5628860500433818E-2</v>
+        <v>0.17781876102543459</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>3.8491413586075836E-2</v>
+        <v>0.19219637028587935</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>4.0930087736533463E-2</v>
+        <v>0.20444498297526217</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>4.2947386493501785E-2</v>
+        <v>0.21457717351340425</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>4.457587635863032E-2</v>
+        <v>0.22275651211950773</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>4.5864783369258325E-2</v>
+        <v>0.22923024407047385</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>4.6869063043068017E-2</v>
+        <v>0.23427439183166873</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>4.7642059621024191E-2</v>
+        <v>0.23815688498551085</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>4.8231455998709705E-2</v>
+        <v>0.24111721814418247</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>4.8677638999298022E-2</v>
+        <v>0.24335824028392483</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>4.9013570971135324E-2</v>
+        <v>0.24504550982431983</v>
       </c>
       <c r="AE6">
         <f>Data!AL21</f>
-        <v>4.9265458207603127E-2</v>
+        <v>0.24631065186894852</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -63340,7 +65225,7 @@
   <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63353,6 +65238,7 @@
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -63375,6 +65261,14 @@
         <v>998</v>
       </c>
       <c r="R1" s="17"/>
+      <c r="T1" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="W1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -63398,6 +65292,18 @@
       <c r="R2" s="19">
         <v>1</v>
       </c>
+      <c r="T2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="19">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -63421,6 +65327,18 @@
       <c r="R3" s="19">
         <v>-0.5</v>
       </c>
+      <c r="T3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="19">
+        <v>-0.42</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="19">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -63444,13 +65362,25 @@
       <c r="R4" s="20">
         <v>-15</v>
       </c>
+      <c r="T4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="20">
+        <v>-11</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="20">
+        <v>-10.5</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -63464,14 +65394,35 @@
       <c r="G6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="12">
-        <v>2023</v>
+      <c r="N6" s="49" t="s">
+        <v>1002</v>
       </c>
       <c r="O6" s="22">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="R6" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S6">
+        <v>0.05</v>
+      </c>
+      <c r="T6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="U6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="V6">
+        <v>0.09</v>
+      </c>
+      <c r="W6">
+        <v>0.12</v>
+      </c>
+      <c r="X6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63485,6 +65436,12 @@
         <v>2050</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="N7" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O7">
+        <v>1.8679140068700261E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -63496,6 +65453,9 @@
       <c r="G8" s="27" t="s">
         <v>136</v>
       </c>
+      <c r="N8" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -63648,10 +65608,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="22">
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -63660,125 +65620,125 @@
         <f>IF(E10=F10,"n/a",IF(OR(C10="battery electric vehicle",C10="natural gas vehicle",C10="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="15">
         <f>D10</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J10" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="J10" s="50">
         <f>E10</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K10" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K10" s="50">
         <f>O6</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.11695001406416487</v>
+        <v>0.13550148435693454</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.13877269058395222</v>
+        <v>0.15686570128597005</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.16657479699442046</v>
+        <v>0.18408372983067212</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.20137571999690912</v>
+        <v>0.21815354100537743</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.2439885939545019</v>
+        <v>0.25987118651848296</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.2947822959785894</v>
+        <v>0.30959779396223247</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.35342187838502587</v>
+        <v>0.36700545236853371</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.41867144928034067</v>
+        <v>0.43088423395932512</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.4883667872327504</v>
+        <v>0.49911538413962542</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.55963321276724964</v>
+        <v>0.56888461586037464</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.62932855071965943</v>
+        <v>0.63711576604067499</v>
       </c>
       <c r="W10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.69457812161497412</v>
+        <v>0.70099454763146607</v>
       </c>
       <c r="X10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.75321770402141064</v>
+        <v>0.75840220603776753</v>
       </c>
       <c r="Y10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.80401140604549803</v>
+        <v>0.80812881348151699</v>
       </c>
       <c r="Z10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.84662428000309087</v>
+        <v>0.84984645899462241</v>
       </c>
       <c r="AA10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.88142520300557958</v>
+        <v>0.88391627016932772</v>
       </c>
       <c r="AB10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.90922730941604779</v>
+        <v>0.91113429871403007</v>
       </c>
       <c r="AC10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.9310499859358351</v>
+        <v>0.93249851564306541</v>
       </c>
       <c r="AD10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.94794338601042438</v>
+        <v>0.94903701235474314</v>
       </c>
       <c r="AE10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.96088110315315733</v>
+        <v>0.96170292871716656</v>
       </c>
       <c r="AF10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.97070804589199511</v>
+        <v>0.9713234230791381</v>
       </c>
       <c r="AG10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.97812554384565553</v>
+        <v>0.97858509124385606</v>
       </c>
       <c r="AH10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.98369792028342729</v>
+        <v>0.98404040094974166</v>
       </c>
       <c r="AI10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.98786928331016577</v>
+        <v>0.9881241302994479</v>
       </c>
       <c r="AJ10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.9909835665099872</v>
+        <v>0.99117298738162618</v>
       </c>
       <c r="AK10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99330402502844461</v>
+        <v>0.99344469677154446</v>
       </c>
       <c r="AL10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
-        <v>0.99503044033973242</v>
+        <v>0.99513484285360354</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -64195,137 +66155,132 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>4.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E14" s="22">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F14" s="41">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="15">
         <f>D14</f>
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="J14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J14" s="15">
         <f>E14</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>1.2004677525762598E-2</v>
+      <c r="K14" s="15">
+        <f>O7</f>
+        <v>1.8679140068700261E-2</v>
       </c>
       <c r="L14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>1.3231241043871491E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:L$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
+        <v>2.0151128112044503E-2</v>
       </c>
       <c r="M14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>1.4766575882216582E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:M$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
+        <v>2.6021242730178792E-2</v>
       </c>
       <c r="N14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>1.664655561563979E-2</v>
-      </c>
-      <c r="O14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>1.8887454234349531E-2</v>
-      </c>
-      <c r="P14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>2.1474494634633495E-2</v>
-      </c>
-      <c r="Q14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>2.435315217413268E-2</v>
-      </c>
-      <c r="R14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>2.742794649556252E-2</v>
-      </c>
-      <c r="S14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>3.0572053504437483E-2</v>
-      </c>
-      <c r="T14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>3.3646847825867326E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:N$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
+        <v>3.4401430729338323E-2</v>
+      </c>
+      <c r="O14" s="15">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="P14" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R14" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T14" s="15">
+        <f>X6</f>
+        <v>0.15</v>
       </c>
       <c r="U14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>3.6525505365366501E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:U$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
+        <v>0.17702858227261439</v>
       </c>
       <c r="V14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>3.9112545765650472E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:V$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
+        <v>0.19652431808271453</v>
       </c>
       <c r="W14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>4.1353444384360213E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:W$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
+        <v>0.21198289652972047</v>
       </c>
       <c r="X14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>4.3233424117783421E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:X$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
+        <v>0.22359856927066168</v>
       </c>
       <c r="Y14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>4.4768758956128508E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:Y$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
+        <v>0.2319787572698212</v>
       </c>
       <c r="Z14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>4.5995322474237404E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:Z$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
+        <v>0.23784887188795553</v>
       </c>
       <c r="AA14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>4.6958087614816256E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AA$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
+        <v>0.24187624796588125</v>
       </c>
       <c r="AB14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>4.7703384676930492E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AB$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
+        <v>0.24460014783483416</v>
       </c>
       <c r="AC14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>4.8274166315580479E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AC$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
+        <v>0.24642468433022793</v>
       </c>
       <c r="AD14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>4.8707707906999784E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AD$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
+        <v>0.2476388869188586</v>
       </c>
       <c r="AE14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>4.9034950463778926E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AE$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
+        <v>0.24844342975100567</v>
       </c>
       <c r="AF14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>4.9280790600739442E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AF$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
+        <v>0.24897499940691589</v>
       </c>
       <c r="AG14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>4.9464821322507319E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AG$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
+        <v>0.24932554691499179</v>
       </c>
       <c r="AH14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>4.9602216169558261E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AH$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
+        <v>0.24955642877591674</v>
       </c>
       <c r="AI14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>4.9704589339490207E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AI$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
+        <v>0.24970836961542547</v>
       </c>
       <c r="AJ14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>4.9780754720870554E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AJ$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
+        <v>0.24980830595850836</v>
       </c>
       <c r="AK14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>4.9837359055491817E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AK$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
+        <v>0.24987401381406515</v>
       </c>
       <c r="AL14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>4.9879391575460584E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AL$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
+        <v>0.24991720639498693</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -64616,7 +66571,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="22">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <f>F10</f>
@@ -64628,123 +66583,123 @@
       </c>
       <c r="I17" s="22">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.2579411882892142</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:J$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
+        <v>0.17745114499368292</v>
       </c>
       <c r="K17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.27627957191928759</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:K$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
+        <v>0.19031199220093176</v>
       </c>
       <c r="L17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.2996426865499332</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:L$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
+        <v>0.20876765729184479</v>
       </c>
       <c r="M17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.32888715966126825</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:M$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
+        <v>0.23478791575173236</v>
       </c>
       <c r="N17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.36469629744075793</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:N$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
+        <v>0.27057340516541462</v>
       </c>
       <c r="O17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.40738008065427683</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:O$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
+        <v>0.31814369472520548</v>
       </c>
       <c r="P17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.45665704065968565</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:P$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
+        <v>0.37860020816449586</v>
       </c>
       <c r="Q17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.51148861284062241</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:Q$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
+        <v>0.45119213970807381</v>
       </c>
       <c r="R17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.57005612372500036</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:R$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
+        <v>0.53264110228439376</v>
       </c>
       <c r="S17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.62994387627499959</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:S$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
+        <v>0.61735889771560626</v>
       </c>
       <c r="T17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.68851138715937765</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:T$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
+        <v>0.6988078602919261</v>
       </c>
       <c r="U17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.74334295934031447</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:U$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
+        <v>0.77139979183550411</v>
       </c>
       <c r="V17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.79261991934572329</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:V$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
+        <v>0.83185630527479459</v>
       </c>
       <c r="W17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.83530370255924202</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:W$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
+        <v>0.87942659483458541</v>
       </c>
       <c r="X17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.87111284033873182</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:X$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
+        <v>0.91521208424826761</v>
       </c>
       <c r="Y17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.90035731345006687</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:Y$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
+        <v>0.94123234270815526</v>
       </c>
       <c r="Z17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.92372042808071253</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:Z$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
+        <v>0.95968800779906827</v>
       </c>
       <c r="AA17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.94205881171078576</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AA$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
+        <v>0.97254885500631716</v>
       </c>
       <c r="AB17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.95625494622724738</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AB$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
+        <v>0.981400919704289</v>
       </c>
       <c r="AC17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.96712697743962805</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AC$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
+        <v>0.98744207306071796</v>
       </c>
       <c r="AD17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.97538491251428172</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AD$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
+        <v>0.99154096841313133</v>
       </c>
       <c r="AE17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.98161810407197958</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AE$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
+        <v>0.99431107671435792</v>
       </c>
       <c r="AF17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.98630077334741784</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AF$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
+        <v>0.99617816781320001</v>
       </c>
       <c r="AG17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.98980612042871075</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AG$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
+        <v>0.99743434612399795</v>
       </c>
       <c r="AH17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.99242316513444306</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AH$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
+        <v>0.99827847766930755</v>
       </c>
       <c r="AI17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.99437313027600394</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AI$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
+        <v>0.99884525804213542</v>
       </c>
       <c r="AJ17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99582389944515337</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AJ$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
+        <v>0.99922560648475944</v>
       </c>
       <c r="AK17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99690207724746327</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AK$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
+        <v>0.99948075254448077</v>
       </c>
       <c r="AL17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99770269667543965</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AL$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
+        <v>0.9996518679097619</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -65025,7 +66980,7 @@
       <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="29">
         <v>1</v>
       </c>
       <c r="G20" s="7" t="str">
@@ -65163,7 +67118,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65175,119 +67130,119 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>1.0161028688271871E-3</v>
+        <v>3.9709092074817981E-3</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>1.26799010529499E-3</v>
+        <v>5.2360512521104916E-3</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>1.6039220771322887E-3</v>
+        <v>6.9233207925054616E-3</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>2.0501050777206073E-3</v>
+        <v>9.1643429322478421E-3</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>2.6395014554061241E-3</v>
+        <v>1.2124676090919479E-2</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>3.4124980333622964E-3</v>
+        <v>1.6007169244761595E-2</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>4.416777707171987E-3</v>
+        <v>2.1051317005956457E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>5.705684717799993E-3</v>
+        <v>2.7525048956922572E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>7.3341745829285324E-3</v>
+        <v>3.5704387563026088E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>9.3514733398968458E-3</v>
+        <v>4.5836578101168111E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>1.1790147490354473E-2</v>
+        <v>5.8085190790550939E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>1.4652700575996493E-2</v>
+        <v>7.2462800050995702E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>1.7898976373295176E-2</v>
+        <v>8.8767715128136082E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>2.1439614812797877E-2</v>
+        <v>0.10655111145046607</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>2.5140780538215154E-2</v>
+        <v>0.12514078053821515</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>2.8841946263632432E-2</v>
+        <v>0.14373044962596424</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>3.2382584703135125E-2</v>
+        <v>0.16151384594829421</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>3.5628860500433818E-2</v>
+        <v>0.17781876102543459</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>3.8491413586075836E-2</v>
+        <v>0.19219637028587935</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>4.0930087736533463E-2</v>
+        <v>0.20444498297526217</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>4.2947386493501785E-2</v>
+        <v>0.21457717351340425</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>4.457587635863032E-2</v>
+        <v>0.22275651211950773</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>4.5864783369258325E-2</v>
+        <v>0.22923024407047385</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>4.6869063043068017E-2</v>
+        <v>0.23427439183166873</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>4.7642059621024191E-2</v>
+        <v>0.23815688498551085</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>4.8231455998709705E-2</v>
+        <v>0.24111721814418247</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>4.8677638999298022E-2</v>
+        <v>0.24335824028392483</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>4.9013570971135324E-2</v>
+        <v>0.24504550982431983</v>
       </c>
       <c r="AL21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>4.9265458207603127E-2</v>
+        <v>0.24631065186894852</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE2570-F505-44B1-9FF4-BC2CA26D0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37959FE1-770E-401A-8EF4-8057F8F84F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1001">
   <si>
     <t>Source:</t>
   </si>
@@ -179,24 +179,12 @@
     <t>Freight Truck Stock by Size Class</t>
   </si>
   <si>
-    <t>as maximum potentials in the first simulated year.</t>
-  </si>
-  <si>
     <t>First and Last Simulated Year Values</t>
   </si>
   <si>
-    <t>First Simulated Year Values Only</t>
-  </si>
-  <si>
-    <t>technology, as calculated in variable SYVbT.</t>
-  </si>
-  <si>
     <t>See SYVbT variable.</t>
   </si>
   <si>
-    <t>For passenger motorbikes, we use the share of existing vehicles by</t>
-  </si>
-  <si>
     <t>Last Simulated Year Values Only</t>
   </si>
   <si>
@@ -455,12 +443,6 @@
     <t>https://www.eia.gov/outlooks/aeo/supplement/excel/suptab_49.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">For passenger LDVs, we use the sales shares by technology from AEO 38 </t>
-  </si>
-  <si>
-    <t>Using the reported sales share from a few years out produces more accurate</t>
-  </si>
-  <si>
     <t>*for passenger LDVs only, see Assumptions page</t>
   </si>
   <si>
@@ -470,9 +452,6 @@
     <t>Sigmoidal Curve Values for Vehicle Technologies (all except battery electric passenger LDVs)</t>
   </si>
   <si>
-    <t>For freight HDVs, we use the sales shares by technology from AEO 50</t>
-  </si>
-  <si>
     <t>Many organizations have released projections.</t>
   </si>
   <si>
@@ -2786,18 +2765,6 @@
     <t>https://jgcri.github.io/gcam-doc/choice.html</t>
   </si>
   <si>
-    <t>For freight LDVs and passenger HDVs, we use the share of existing vehicles by</t>
-  </si>
-  <si>
-    <t>in year 2030 as the maximum potential in the first simulated year.</t>
-  </si>
-  <si>
-    <t>forecasts in the start year, since this represents a maximum rather than</t>
-  </si>
-  <si>
-    <t>an actual deployment amount.</t>
-  </si>
-  <si>
     <t>Psgr LDVs only</t>
   </si>
   <si>
@@ -3066,6 +3033,27 @@
   </si>
   <si>
     <t>2023, freight LDV BEVs</t>
+  </si>
+  <si>
+    <t>Historical Year Values</t>
+  </si>
+  <si>
+    <t>For certain onroad technologies, we calibrate historical year values</t>
+  </si>
+  <si>
+    <t>to match with real-world sales.</t>
+  </si>
+  <si>
+    <t>PHEV Values, passengre LDVs</t>
+  </si>
+  <si>
+    <t>We also use calibration for PHEV values between 2027-2032,</t>
+  </si>
+  <si>
+    <t>in order to align with EPA's projected split between BEVs and PHEVs</t>
+  </si>
+  <si>
+    <t>in their tailpipe rules analysis.</t>
   </si>
 </sst>
 </file>
@@ -9293,10 +9281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,7 +9294,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9314,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9329,27 +9317,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9359,17 +9347,17 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -9379,12 +9367,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -9392,7 +9380,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -9402,17 +9390,17 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
@@ -9427,37 +9415,37 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9467,17 +9455,17 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9487,12 +9475,12 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9502,22 +9490,22 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -9535,7 +9523,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9545,7 +9533,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -9561,7 +9549,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9609,222 +9597,197 @@
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>44</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>134</v>
+        <v>995</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>135</v>
+        <v>996</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>914</v>
+      <c r="B81" s="12" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>139</v>
+        <v>999</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>45</v>
+      <c r="B87" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>142</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>123</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9855,7 +9818,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="45">
         <v>2021</v>
@@ -10604,7 +10567,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I15</f>
@@ -10729,7 +10692,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I16</f>
@@ -10875,7 +10838,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -11625,7 +11588,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I22</f>
@@ -11750,7 +11713,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I23</f>
@@ -11896,7 +11859,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -12646,7 +12609,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I29</f>
@@ -12771,7 +12734,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I30</f>
@@ -12917,7 +12880,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -13667,7 +13630,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I36</f>
@@ -13792,7 +13755,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I37</f>
@@ -13938,7 +13901,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -14688,7 +14651,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I43</f>
@@ -14813,7 +14776,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I44</f>
@@ -14959,7 +14922,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -15709,7 +15672,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I50</f>
@@ -15834,7 +15797,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I51</f>
@@ -15980,7 +15943,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -16730,7 +16693,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I57</f>
@@ -16855,7 +16818,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I58</f>
@@ -17001,7 +16964,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -17751,7 +17714,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I64</f>
@@ -17876,7 +17839,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I65</f>
@@ -18022,7 +17985,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -18772,7 +18735,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I71</f>
@@ -18897,7 +18860,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I72</f>
@@ -19043,7 +19006,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -19793,7 +19756,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I78</f>
@@ -19918,7 +19881,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I79</f>
@@ -20149,38 +20112,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -20276,37 +20239,37 @@
         <v>2050</v>
       </c>
       <c r="AJ14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>4430.5400390000004</v>
@@ -20407,16 +20370,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>9.1703000000000007E-2</v>
@@ -20517,16 +20480,16 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>4430.6318359999996</v>
@@ -20627,24 +20590,24 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E21">
         <v>82.865729999999999</v>
@@ -20745,16 +20708,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E22">
         <v>2.0141610000000001</v>
@@ -20855,16 +20818,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E23">
         <v>45.098399999999998</v>
@@ -20965,16 +20928,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <v>65.759253999999999</v>
@@ -21075,16 +21038,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E25">
         <v>20.674416000000001</v>
@@ -21185,16 +21148,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E26">
         <v>5.3106419999999996</v>
@@ -21295,16 +21258,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -21405,16 +21368,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E28">
         <v>121.397232</v>
@@ -21515,16 +21478,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E29">
         <v>0.43629899999999999</v>
@@ -21625,16 +21588,16 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E30">
         <v>2.233771</v>
@@ -21735,16 +21698,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E31">
         <v>0.41389199999999998</v>
@@ -21845,16 +21808,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E32">
         <v>0.55315300000000001</v>
@@ -21955,16 +21918,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -22065,16 +22028,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E34">
         <v>0.17832799999999999</v>
@@ -22175,16 +22138,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E35">
         <v>346.935272</v>
@@ -22285,16 +22248,16 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E36">
         <v>7.2617570000000002</v>
@@ -22395,16 +22358,16 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E37">
         <v>4777.5668949999999</v>
@@ -22505,32 +22468,32 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E40">
         <v>6511.5112300000001</v>
@@ -22631,16 +22594,16 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E41">
         <v>46.653286000000001</v>
@@ -22741,16 +22704,16 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E42">
         <v>6558.1645509999998</v>
@@ -22851,24 +22814,24 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E44">
         <v>658.66039999999998</v>
@@ -22969,16 +22932,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -23079,16 +23042,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E46">
         <v>11.011377</v>
@@ -23189,16 +23152,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E47">
         <v>25.837799</v>
@@ -23299,16 +23262,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E48">
         <v>3.735878</v>
@@ -23409,16 +23372,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E49">
         <v>20.528244000000001</v>
@@ -23519,16 +23482,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -23629,16 +23592,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E51">
         <v>216.35252399999999</v>
@@ -23739,16 +23702,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E52">
         <v>0.87621000000000004</v>
@@ -23849,16 +23812,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E53">
         <v>4.7817299999999996</v>
@@ -23959,16 +23922,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E54">
         <v>0.89677600000000002</v>
@@ -24069,16 +24032,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E55">
         <v>3.090303</v>
@@ -24179,16 +24142,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -24289,16 +24252,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E57">
         <v>5.2639999999999996E-3</v>
@@ -24399,16 +24362,16 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E58">
         <v>945.776611</v>
@@ -24509,16 +24472,16 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E59">
         <v>12.603731</v>
@@ -24619,16 +24582,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E60">
         <v>7503.9414059999999</v>
@@ -24729,16 +24692,16 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E61">
         <v>10.525676000000001</v>
@@ -24839,16 +24802,16 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E62">
         <v>80.883010999999996</v>
@@ -24949,16 +24912,16 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -25059,27 +25022,27 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E65">
         <v>10942.050781</v>
@@ -25180,16 +25143,16 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E66">
         <v>46.744987000000002</v>
@@ -25290,16 +25253,16 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E67">
         <v>741.52612299999998</v>
@@ -25400,16 +25363,16 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E68">
         <v>149.72099299999999</v>
@@ -25510,16 +25473,16 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E69">
         <v>50.249180000000003</v>
@@ -25620,16 +25583,16 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E70">
         <v>337.74975599999999</v>
@@ -25730,16 +25693,16 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E71">
         <v>13.282132000000001</v>
@@ -25840,16 +25803,16 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E72">
         <v>0.18359200000000001</v>
@@ -25950,16 +25913,16 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E73">
         <v>12281.507812</v>
@@ -26060,16 +26023,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C74" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E74">
         <v>4206.5107420000004</v>
@@ -26170,16 +26133,16 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -26280,16 +26243,16 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E76">
         <v>5545.966797</v>
@@ -26411,7 +26374,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -27161,7 +27124,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>Data!I85</f>
@@ -27286,7 +27249,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <f>Data!I86</f>
@@ -27432,7 +27395,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
@@ -28032,7 +27995,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -28127,7 +28090,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -28333,38 +28296,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -28460,37 +28423,37 @@
         <v>2050</v>
       </c>
       <c r="AJ14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E17">
         <v>119.49128</v>
@@ -28591,16 +28554,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E18">
         <v>0.551319</v>
@@ -28701,16 +28664,16 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E19">
         <v>120.04259500000001</v>
@@ -28811,24 +28774,24 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E21">
         <v>4.8197700000000001</v>
@@ -28929,16 +28892,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E22">
         <v>0.2087</v>
@@ -29039,16 +29002,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E23">
         <v>0.17965500000000001</v>
@@ -29149,16 +29112,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E24">
         <v>0.39378200000000002</v>
@@ -29259,16 +29222,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E25">
         <v>0.330181</v>
@@ -29369,16 +29332,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E26">
         <v>0.17662900000000001</v>
@@ -29479,16 +29442,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -29589,16 +29552,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E28">
         <v>3.824201</v>
@@ -29699,16 +29662,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E29">
         <v>1.5592999999999999E-2</v>
@@ -29809,16 +29772,16 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E30">
         <v>3.6049999999999999E-2</v>
@@ -29919,16 +29882,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E31">
         <v>3.385E-3</v>
@@ -30029,16 +29992,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E32">
         <v>6.0749999999999997E-3</v>
@@ -30139,16 +30102,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -30249,16 +30212,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C34" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E34">
         <v>7.633E-3</v>
@@ -30359,16 +30322,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E35">
         <v>10.001652999999999</v>
@@ -30472,13 +30435,13 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D36" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E36">
         <v>130.04425000000001</v>
@@ -30579,32 +30542,32 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C39" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E39">
         <v>109.775116</v>
@@ -30705,16 +30668,16 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E40">
         <v>0.53340200000000004</v>
@@ -30815,16 +30778,16 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E41">
         <v>110.30851699999999</v>
@@ -30925,24 +30888,24 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E43">
         <v>15.788600000000001</v>
@@ -31043,16 +31006,16 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C44" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E44">
         <v>6.6799999999999997E-4</v>
@@ -31153,16 +31116,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E45">
         <v>3.5414000000000001E-2</v>
@@ -31263,16 +31226,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C46" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D46" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E46">
         <v>6.0679999999999998E-2</v>
@@ -31373,16 +31336,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C47" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E47">
         <v>5.6167000000000002E-2</v>
@@ -31483,16 +31446,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D48" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E48">
         <v>4.5997999999999997E-2</v>
@@ -31593,16 +31556,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -31703,16 +31666,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C50" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E50">
         <v>0.95845199999999997</v>
@@ -31813,16 +31776,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C51" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D51" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E51">
         <v>1.2926999999999999E-2</v>
@@ -31923,16 +31886,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C52" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D52" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E52">
         <v>3.3397000000000003E-2</v>
@@ -32033,16 +31996,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C53" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D53" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E53">
         <v>1.2971E-2</v>
@@ -32143,16 +32106,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D54" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E54">
         <v>5.9583999999999998E-2</v>
@@ -32253,16 +32216,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C55" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D55" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -32363,16 +32326,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" t="s">
         <v>347</v>
-      </c>
-      <c r="C56" t="s">
-        <v>393</v>
-      </c>
-      <c r="D56" t="s">
-        <v>354</v>
       </c>
       <c r="E56">
         <v>5.0000000000000004E-6</v>
@@ -32473,16 +32436,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C57" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E57">
         <v>17.064865000000001</v>
@@ -32586,13 +32549,13 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E58">
         <v>127.373383</v>
@@ -32696,13 +32659,13 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E59">
         <v>257.41763300000002</v>
@@ -32819,57 +32782,57 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="B5" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="C5" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="D5" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="E5" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F5" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G5" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="H5" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="I5" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="J5" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="K5" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -34075,38 +34038,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -34202,7 +34165,7 @@
         <v>2050</v>
       </c>
       <c r="AJ15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -34210,37 +34173,37 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D19" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E19">
         <v>44.303615999999998</v>
@@ -34341,16 +34304,16 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E20">
         <v>11.670487</v>
@@ -34451,16 +34414,16 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E21">
         <v>1.2333999999999999E-2</v>
@@ -34561,16 +34524,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D22" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E22">
         <v>6.5100000000000002E-3</v>
@@ -34671,16 +34634,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B23" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E23">
         <v>4.1170429999999998</v>
@@ -34781,16 +34744,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C24" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D24" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E24">
         <v>5.3699999999999998E-3</v>
@@ -34891,16 +34854,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B25" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D25" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E25">
         <v>4.6670000000000001E-3</v>
@@ -35001,16 +34964,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B26" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D26" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E26">
         <v>4.7369999999999999E-3</v>
@@ -35111,16 +35074,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C27" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D27" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E27">
         <v>1.9999999999999999E-6</v>
@@ -35221,16 +35184,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C28" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D28" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E28">
         <v>60.124729000000002</v>
@@ -35331,24 +35294,24 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C29" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C30" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E30">
         <v>34.473965</v>
@@ -35449,16 +35412,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C31" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D31" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E31">
         <v>16.394169000000002</v>
@@ -35559,16 +35522,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C32" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D32" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E32">
         <v>4.2376999999999998E-2</v>
@@ -35669,16 +35632,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C33" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D33" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E33">
         <v>5.1877E-2</v>
@@ -35779,16 +35742,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C34" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D34" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E34">
         <v>0.559701</v>
@@ -35889,16 +35852,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C35" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D35" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E35">
         <v>5.4200000000000003E-3</v>
@@ -35999,16 +35962,16 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C36" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D36" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E36">
         <v>3.8600000000000001E-3</v>
@@ -36109,16 +36072,16 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B37" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C37" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D37" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E37">
         <v>3.6250000000000002E-3</v>
@@ -36219,16 +36182,16 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C38" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D38" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E38">
         <v>5.9309999999999996E-3</v>
@@ -36329,16 +36292,16 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C39" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D39" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E39">
         <v>51.540877999999999</v>
@@ -36439,24 +36402,24 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C41" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D41" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E41">
         <v>160.74234000000001</v>
@@ -36557,16 +36520,16 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D42" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E42">
         <v>0.16367399999999999</v>
@@ -36667,16 +36630,16 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="D43" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E43">
         <v>3.3450000000000001E-2</v>
@@ -36777,16 +36740,16 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C44" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D44" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E44">
         <v>1.935392</v>
@@ -36887,16 +36850,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D45" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -36997,16 +36960,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C46" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D46" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E46">
         <v>1.15E-3</v>
@@ -37107,16 +37070,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C47" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D47" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E47">
         <v>2.284E-3</v>
@@ -37217,16 +37180,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C48" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D48" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E48">
         <v>2.5300000000000001E-3</v>
@@ -37327,16 +37290,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C49" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D49" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E49">
         <v>2.8630000000000001E-3</v>
@@ -37437,16 +37400,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C50" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D50" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E50">
         <v>162.88360599999999</v>
@@ -37547,16 +37510,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D51" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E51">
         <v>274.54852299999999</v>
@@ -37657,32 +37620,32 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C52" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C53" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C54" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D54" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E54">
         <v>425.514252</v>
@@ -37783,16 +37746,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C55" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D55" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E55">
         <v>147.042542</v>
@@ -37893,16 +37856,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C56" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D56" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E56">
         <v>0.13056999999999999</v>
@@ -38003,16 +37966,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C57" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D57" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E57">
         <v>7.2439000000000003E-2</v>
@@ -38113,16 +38076,16 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C58" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D58" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E58">
         <v>50.220936000000002</v>
@@ -38223,16 +38186,16 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C59" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D59" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E59">
         <v>2.8212000000000001E-2</v>
@@ -38333,16 +38296,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C60" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D60" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E60">
         <v>2.8601999999999999E-2</v>
@@ -38443,16 +38406,16 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C61" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D61" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E61">
         <v>3.2344999999999999E-2</v>
@@ -38553,16 +38516,16 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C62" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D62" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E62">
         <v>1.7E-5</v>
@@ -38663,16 +38626,16 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C63" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D63" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E63">
         <v>623.06994599999996</v>
@@ -38773,24 +38736,24 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C64" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B65" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C65" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D65" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E65">
         <v>534.81951900000001</v>
@@ -38891,16 +38854,16 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C66" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D66" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E66">
         <v>310.04251099999999</v>
@@ -39001,16 +38964,16 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C67" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D67" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E67">
         <v>0.79686599999999996</v>
@@ -39111,16 +39074,16 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C68" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D68" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E68">
         <v>0.96256699999999995</v>
@@ -39221,16 +39184,16 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C69" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D69" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E69">
         <v>10.247214</v>
@@ -39331,16 +39294,16 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C70" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D70" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E70">
         <v>4.3038E-2</v>
@@ -39441,16 +39404,16 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C71" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D71" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E71">
         <v>3.7948999999999997E-2</v>
@@ -39551,16 +39514,16 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B72" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C72" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D72" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E72">
         <v>4.4144999999999997E-2</v>
@@ -39661,16 +39624,16 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D73" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E73">
         <v>7.1610999999999994E-2</v>
@@ -39771,16 +39734,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C74" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D74" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E74">
         <v>857.06536900000003</v>
@@ -39881,24 +39844,24 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B76" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C76" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D76" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E76">
         <v>3686.044922</v>
@@ -39999,16 +39962,16 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B77" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C77" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D77" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E77">
         <v>3.7846829999999998</v>
@@ -40109,16 +40072,16 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B78" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C78" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D78" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E78">
         <v>0.70109999999999995</v>
@@ -40219,16 +40182,16 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B79" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C79" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D79" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E79">
         <v>46.918025999999998</v>
@@ -40329,16 +40292,16 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B80" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C80" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D80" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -40439,16 +40402,16 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C81" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="D81" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E81">
         <v>1.8748000000000001E-2</v>
@@ -40549,16 +40512,16 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B82" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C82" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D82" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E82">
         <v>9.7627000000000005E-2</v>
@@ -40659,16 +40622,16 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B83" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C83" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D83" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E83">
         <v>9.6310000000000007E-2</v>
@@ -40769,16 +40732,16 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C84" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D84" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E84">
         <v>6.1164000000000003E-2</v>
@@ -40879,16 +40842,16 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B85" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C85" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D85" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E85">
         <v>3737.7229000000002</v>
@@ -40989,27 +40952,27 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B86" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C86" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B87" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C87" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D87" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E87">
         <v>4646.3789059999999</v>
@@ -41110,16 +41073,16 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B88" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C88" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="D88" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E88">
         <v>460.86975100000001</v>
@@ -41220,16 +41183,16 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B89" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C89" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D89" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E89">
         <v>1.628536</v>
@@ -41330,16 +41293,16 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B90" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C90" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D90" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E90">
         <v>47.953029999999998</v>
@@ -41440,16 +41403,16 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C91" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D91" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E91">
         <v>60.468150999999999</v>
@@ -41550,16 +41513,16 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C92" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D92" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E92">
         <v>8.9997999999999995E-2</v>
@@ -41660,16 +41623,16 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B93" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C93" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D93" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E93">
         <v>0.16417799999999999</v>
@@ -41770,16 +41733,16 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B94" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C94" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D94" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E94">
         <v>0.17280000000000001</v>
@@ -41880,16 +41843,16 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="D95" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E95">
         <v>0.13279199999999999</v>
@@ -41990,16 +41953,16 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B96" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C96" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D96" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E96">
         <v>5217.8579099999997</v>
@@ -42100,32 +42063,32 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C97" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C98" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B99" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C99" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D99" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E99">
         <v>14.441151</v>
@@ -42226,16 +42189,16 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B100" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C100" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D100" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E100">
         <v>9.9266389999999998</v>
@@ -42336,16 +42299,16 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B101" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C101" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D101" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E101">
         <v>11.814458999999999</v>
@@ -42446,16 +42409,16 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B102" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C102" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D102" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E102">
         <v>11.239466</v>
@@ -42556,16 +42519,16 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B103" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C103" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="D103" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E103">
         <v>10.253147</v>
@@ -42666,16 +42629,16 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C104" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D104" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E104">
         <v>26.399440999999999</v>
@@ -42776,16 +42739,16 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B105" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C105" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D105" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E105">
         <v>22.632963</v>
@@ -42886,16 +42849,16 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B106" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C106" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D106" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E106">
         <v>18.318317</v>
@@ -42996,16 +42959,16 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B107" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C107" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D107" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E107">
         <v>18.454547999999999</v>
@@ -43106,13 +43069,13 @@
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B108" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C108" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E108">
         <v>13.189800999999999</v>
@@ -43213,24 +43176,24 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C109" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B110" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C110" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D110" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E110">
         <v>8.9404749999999993</v>
@@ -43331,16 +43294,16 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C111" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D111" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E111">
         <v>6.6134009999999996</v>
@@ -43441,16 +43404,16 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B112" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C112" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D112" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E112">
         <v>6.6512799999999999</v>
@@ -43551,16 +43514,16 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B113" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C113" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D113" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E113">
         <v>6.7406439999999996</v>
@@ -43661,16 +43624,16 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C114" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D114" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E114">
         <v>6.831359</v>
@@ -43771,16 +43734,16 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C115" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D115" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E115">
         <v>17.467234000000001</v>
@@ -43881,16 +43844,16 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B116" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C116" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D116" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E116">
         <v>14.109496</v>
@@ -43991,16 +43954,16 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B117" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C117" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D117" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E117">
         <v>10.271459999999999</v>
@@ -44101,16 +44064,16 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B118" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C118" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D118" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E118">
         <v>11.486765999999999</v>
@@ -44211,13 +44174,13 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B119" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C119" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E119">
         <v>8.0269100000000009</v>
@@ -44318,24 +44281,24 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C120" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B121" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C121" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D121" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E121">
         <v>6.0484770000000001</v>
@@ -44436,16 +44399,16 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C122" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D122" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E122">
         <v>5.4088779999999996</v>
@@ -44546,16 +44509,16 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B123" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C123" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D123" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E123">
         <v>5.9671700000000003</v>
@@ -44656,16 +44619,16 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C124" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D124" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E124">
         <v>5.7214460000000003</v>
@@ -44766,16 +44729,16 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B125" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C125" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D125" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -44876,16 +44839,16 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C126" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D126" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E126">
         <v>8.50718</v>
@@ -44986,16 +44949,16 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B127" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C127" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D127" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E127">
         <v>3.2452800000000002</v>
@@ -45096,16 +45059,16 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B128" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C128" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D128" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E128">
         <v>3.2856359999999998</v>
@@ -45206,16 +45169,16 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B129" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C129" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D129" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E129">
         <v>6.4930300000000001</v>
@@ -45316,13 +45279,13 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B130" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C130" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E130">
         <v>6.0436370000000004</v>
@@ -45423,13 +45386,13 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B131" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C131" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E131">
         <v>7.238181</v>
@@ -45530,32 +45493,32 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C132" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C133" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C134" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D134" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E134">
         <v>2.6647099999999999</v>
@@ -45656,16 +45619,16 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C135" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E135">
         <v>1.081769</v>
@@ -45766,16 +45729,16 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C136" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D136" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E136">
         <v>5.9100000000000005E-4</v>
@@ -45876,16 +45839,16 @@
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C137" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D137" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E137">
         <v>2.6600000000000001E-4</v>
@@ -45986,16 +45949,16 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C138" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D138" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E138">
         <v>0.24854999999999999</v>
@@ -46096,16 +46059,16 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C139" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D139" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E139">
         <v>3.28E-4</v>
@@ -46206,16 +46169,16 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C140" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D140" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E140">
         <v>2.6899999999999998E-4</v>
@@ -46316,16 +46279,16 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B141" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C141" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D141" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E141">
         <v>2.7300000000000002E-4</v>
@@ -46426,16 +46389,16 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B142" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C142" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D142" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -46536,16 +46499,16 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B143" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C143" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D143" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E143">
         <v>3.996756</v>
@@ -46646,24 +46609,24 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C144" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C145" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D145" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E145">
         <v>2.113826</v>
@@ -46764,16 +46727,16 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C146" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="D146" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E146">
         <v>1.4032720000000001</v>
@@ -46874,16 +46837,16 @@
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B147" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C147" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D147" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E147">
         <v>3.166E-3</v>
@@ -46984,16 +46947,16 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B148" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C148" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D148" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E148">
         <v>2.8370000000000001E-3</v>
@@ -47094,16 +47057,16 @@
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B149" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C149" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D149" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E149">
         <v>3.2770000000000001E-2</v>
@@ -47204,16 +47167,16 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B150" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C150" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D150" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E150">
         <v>2.7700000000000001E-4</v>
@@ -47314,16 +47277,16 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B151" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C151" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D151" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E151">
         <v>1.8599999999999999E-4</v>
@@ -47424,16 +47387,16 @@
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C152" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D152" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E152">
         <v>1.75E-4</v>
@@ -47534,16 +47497,16 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B153" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C153" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E153">
         <v>2.8600000000000001E-4</v>
@@ -47644,16 +47607,16 @@
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B154" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C154" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D154" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E154">
         <v>3.5567950000000002</v>
@@ -47754,24 +47717,24 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C155" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B156" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C156" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D156" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E156">
         <v>4.9273610000000003</v>
@@ -47872,16 +47835,16 @@
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B157" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C157" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D157" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E157">
         <v>4.7627999999999997E-2</v>
@@ -47982,16 +47945,16 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B158" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C158" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D158" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E158">
         <v>3.7469999999999999E-3</v>
@@ -48092,16 +48055,16 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B159" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C159" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D159" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E159">
         <v>4.4406000000000001E-2</v>
@@ -48202,16 +48165,16 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B160" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C160" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D160" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -48312,16 +48275,16 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B161" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C161" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D161" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E161">
         <v>1.13E-4</v>
@@ -48422,16 +48385,16 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B162" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C162" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D162" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E162">
         <v>2.3800000000000001E-4</v>
@@ -48532,16 +48495,16 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C163" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D163" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E163">
         <v>2.63E-4</v>
@@ -48642,16 +48605,16 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B164" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C164" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D164" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E164">
         <v>2.9700000000000001E-4</v>
@@ -48752,16 +48715,16 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B165" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C165" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D165" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E165">
         <v>5.0240520000000002</v>
@@ -48865,13 +48828,13 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C166" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D166" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E166">
         <v>12.57761</v>
@@ -48975,37 +48938,37 @@
         <v>40</v>
       </c>
       <c r="C167" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C168" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C169" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B170" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C170" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D170" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E170">
         <v>16.018782000000002</v>
@@ -49106,16 +49069,16 @@
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B171" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C171" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D171" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E171">
         <v>11.370641000000001</v>
@@ -49216,16 +49179,16 @@
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B172" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C172" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D172" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E172">
         <v>12.278423999999999</v>
@@ -49326,16 +49289,16 @@
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B173" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C173" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D173" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E173">
         <v>12.111694</v>
@@ -49436,16 +49399,16 @@
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B174" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C174" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D174" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E174">
         <v>11.011964000000001</v>
@@ -49546,16 +49509,16 @@
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B175" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C175" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D175" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E175">
         <v>26.943646999999999</v>
@@ -49656,16 +49619,16 @@
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B176" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C176" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D176" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E176">
         <v>22.632963</v>
@@ -49766,16 +49729,16 @@
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C177" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D177" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E177">
         <v>18.318317</v>
@@ -49876,16 +49839,16 @@
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B178" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C178" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D178" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E178">
         <v>18.454547999999999</v>
@@ -49986,13 +49949,13 @@
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B179" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C179" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E179">
         <v>15.235818</v>
@@ -50093,24 +50056,24 @@
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C180" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B181" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C181" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D181" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E181">
         <v>9.6559519999999992</v>
@@ -50211,16 +50174,16 @@
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B182" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C182" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D182" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E182">
         <v>7.0943259999999997</v>
@@ -50321,16 +50284,16 @@
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B183" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C183" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D183" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E183">
         <v>6.923292</v>
@@ -50431,16 +50394,16 @@
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B184" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C184" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D184" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E184">
         <v>7.0355290000000004</v>
@@ -50541,16 +50504,16 @@
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C185" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D185" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E185">
         <v>7.0242139999999997</v>
@@ -50651,16 +50614,16 @@
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B186" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C186" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D186" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E186">
         <v>16.770685</v>
@@ -50761,16 +50724,16 @@
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C187" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D187" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E187">
         <v>14.109496</v>
@@ -50871,16 +50834,16 @@
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B188" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C188" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D188" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E188">
         <v>10.271459</v>
@@ -50981,16 +50944,16 @@
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B189" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C189" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D189" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E189">
         <v>11.486765999999999</v>
@@ -51091,13 +51054,13 @@
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B190" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C190" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="E190">
         <v>8.8874870000000001</v>
@@ -51198,24 +51161,24 @@
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C191" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B192" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C192" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D192" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E192">
         <v>6.2664350000000004</v>
@@ -51316,16 +51279,16 @@
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C193" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D193" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E193">
         <v>6.0031239999999997</v>
@@ -51426,16 +51389,16 @@
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B194" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C194" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D194" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E194">
         <v>6.2969480000000004</v>
@@ -51536,16 +51499,16 @@
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B195" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C195" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D195" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E195">
         <v>5.6628550000000004</v>
@@ -51646,16 +51609,16 @@
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B196" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C196" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D196" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -51756,16 +51719,16 @@
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C197" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D197" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E197">
         <v>7.5361419999999999</v>
@@ -51866,16 +51829,16 @@
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C198" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D198" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E198">
         <v>7.8577649999999997</v>
@@ -51976,16 +51939,16 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B199" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C199" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D199" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E199">
         <v>8.6751290000000001</v>
@@ -52086,16 +52049,16 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C200" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D200" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E200">
         <v>6.2527379999999999</v>
@@ -52196,13 +52159,13 @@
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B201" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C201" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="E201">
         <v>6.2572460000000003</v>
@@ -52303,13 +52266,13 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B202" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C202" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="E202">
         <v>7.6005520000000004</v>
@@ -52410,32 +52373,32 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C203" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C204" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B205" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C205" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D205" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E205">
         <v>147.36698899999999</v>
@@ -52536,16 +52499,16 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B206" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C206" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D206" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E206">
         <v>36.340527000000002</v>
@@ -52646,16 +52609,16 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B207" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C207" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D207" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E207">
         <v>0.21667700000000001</v>
@@ -52756,16 +52719,16 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B208" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C208" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D208" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E208">
         <v>0.10786</v>
@@ -52866,16 +52829,16 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B209" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C209" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D209" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E209">
         <v>23.123978000000001</v>
@@ -52976,16 +52939,16 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B210" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C210" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D210" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E210">
         <v>0.25462099999999999</v>
@@ -53086,16 +53049,16 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B211" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C211" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D211" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E211">
         <v>0.26865299999999998</v>
@@ -53196,16 +53159,16 @@
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B212" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C212" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D212" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E212">
         <v>0.27268399999999998</v>
@@ -53306,16 +53269,16 @@
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B213" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C213" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D213" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E213">
         <v>1.3200000000000001E-4</v>
@@ -53416,16 +53379,16 @@
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B214" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C214" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D214" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E214">
         <v>207.952133</v>
@@ -53526,24 +53489,24 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C215" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B216" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C216" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D216" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E216">
         <v>91.140923000000001</v>
@@ -53644,16 +53607,16 @@
     </row>
     <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B217" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C217" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D217" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E217">
         <v>46.458106999999998</v>
@@ -53754,16 +53717,16 @@
     </row>
     <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B218" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C218" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D218" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E218">
         <v>0.13500999999999999</v>
@@ -53864,16 +53827,16 @@
     </row>
     <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B219" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C219" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D219" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E219">
         <v>0.39564199999999999</v>
@@ -53974,16 +53937,16 @@
     </row>
     <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B220" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C220" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D220" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E220">
         <v>4.1055859999999997</v>
@@ -54084,16 +54047,16 @@
     </row>
     <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B221" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C221" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D221" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E221">
         <v>0.175927</v>
@@ -54194,16 +54157,16 @@
     </row>
     <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B222" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C222" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D222" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E222">
         <v>0.18624099999999999</v>
@@ -54304,16 +54267,16 @@
     </row>
     <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C223" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D223" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E223">
         <v>0.174905</v>
@@ -54414,16 +54377,16 @@
     </row>
     <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B224" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C224" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D224" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E224">
         <v>0.28611700000000001</v>
@@ -54524,16 +54487,16 @@
     </row>
     <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B225" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C225" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D225" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E225">
         <v>143.05848700000001</v>
@@ -54634,24 +54597,24 @@
     </row>
     <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C226" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B227" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C227" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D227" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E227">
         <v>210.45161400000001</v>
@@ -54752,16 +54715,16 @@
     </row>
     <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B228" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C228" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D228" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E228">
         <v>0.425543</v>
@@ -54862,16 +54825,16 @@
     </row>
     <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B229" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C229" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D229" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E229">
         <v>0.24471699999999999</v>
@@ -54972,16 +54935,16 @@
     </row>
     <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B230" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C230" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D230" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E230">
         <v>3.620339</v>
@@ -55082,16 +55045,16 @@
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B231" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C231" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D231" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -55192,16 +55155,16 @@
     </row>
     <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B232" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C232" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D232" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E232">
         <v>0.104999</v>
@@ -55302,16 +55265,16 @@
     </row>
     <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B233" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C233" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="D233" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E233">
         <v>0.15276799999999999</v>
@@ -55412,16 +55375,16 @@
     </row>
     <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B234" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C234" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="D234" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E234">
         <v>0.168402</v>
@@ -55522,16 +55485,16 @@
     </row>
     <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B235" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C235" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D235" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E235">
         <v>0.206702</v>
@@ -55632,16 +55595,16 @@
     </row>
     <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B236" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C236" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="D236" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E236">
         <v>215.37506099999999</v>
@@ -55742,16 +55705,16 @@
     </row>
     <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B237" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C237" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D237" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E237">
         <v>566.38568099999998</v>
@@ -55855,21 +55818,21 @@
         <v>39</v>
       </c>
       <c r="C238" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B239" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C239" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D239" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E239">
         <v>1508.5570070000001</v>
@@ -55970,16 +55933,16 @@
     </row>
     <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B240" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C240" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D240" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="E240">
         <v>3.4893709999999998</v>
@@ -56080,24 +56043,24 @@
     </row>
     <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C241" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B242" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C242" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D242" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E242">
         <v>431.86648600000001</v>
@@ -56198,16 +56161,16 @@
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B243" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C243" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="D243" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -56308,16 +56271,16 @@
     </row>
     <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B244" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C244" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D244" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -56418,16 +56381,16 @@
     </row>
     <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B245" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C245" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="D245" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E245">
         <v>0.462669</v>
@@ -56531,21 +56494,21 @@
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B247" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C247" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="D247" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E247">
         <v>347.68133499999999</v>
@@ -56646,16 +56609,16 @@
     </row>
     <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B248" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C248" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="D248" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="E248">
         <v>4.8419600000000003</v>
@@ -56756,24 +56719,24 @@
     </row>
     <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C249" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
     </row>
     <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B250" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C250" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D250" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E250">
         <v>75.191635000000005</v>
@@ -56874,16 +56837,16 @@
     </row>
     <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B251" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C251" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="D251" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E251">
         <v>1.7463169999999999</v>
@@ -56984,16 +56947,16 @@
     </row>
     <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B252" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C252" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D252" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -57094,16 +57057,16 @@
     </row>
     <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B253" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C253" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D253" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E253">
         <v>0.40545300000000001</v>
@@ -57207,21 +57170,21 @@
         <v>37</v>
       </c>
       <c r="C254" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B255" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C255" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D255" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E255">
         <v>4133.4975590000004</v>
@@ -57322,16 +57285,16 @@
     </row>
     <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B256" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C256" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D256" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E256">
         <v>1553.1899410000001</v>
@@ -57432,16 +57395,16 @@
     </row>
     <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B257" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C257" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="D257" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E257">
         <v>2580.3076169999999</v>
@@ -57542,24 +57505,24 @@
     </row>
     <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C258" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B259" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C259" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D259" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E259">
         <v>425.03616299999999</v>
@@ -57660,16 +57623,16 @@
     </row>
     <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B260" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C260" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D260" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E260">
         <v>413.53491200000002</v>
@@ -57770,16 +57733,16 @@
     </row>
     <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B261" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C261" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D261" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -57880,16 +57843,16 @@
     </row>
     <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B262" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C262" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D262" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E262">
         <v>17.315902999999999</v>
@@ -58015,7 +57978,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -58033,10 +57996,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -58232,7 +58195,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -58250,10 +58213,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -58437,7 +58400,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -58447,32 +58410,32 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -58482,29 +58445,29 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N15" s="33"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N16" s="35"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="36"/>
@@ -58519,7 +58482,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N19" s="36"/>
       <c r="O19" s="37"/>
@@ -58528,7 +58491,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="37"/>
@@ -58537,7 +58500,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N21" s="36"/>
       <c r="O21" s="37"/>
@@ -58546,7 +58509,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N22" s="36"/>
       <c r="O22" s="37"/>
@@ -58555,7 +58518,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N23" s="36"/>
       <c r="O23" s="37"/>
@@ -58564,7 +58527,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N24" s="36"/>
       <c r="O24" s="37"/>
@@ -58573,7 +58536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N25" s="36"/>
       <c r="O25" s="38"/>
@@ -58588,7 +58551,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="N27" s="36"/>
       <c r="O27" s="38"/>
@@ -58603,7 +58566,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="N29" s="36"/>
       <c r="O29" s="38"/>
@@ -58618,7 +58581,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="N31" s="36"/>
       <c r="O31" s="38"/>
@@ -58628,16 +58591,16 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="C32" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="D32" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="E32" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="38"/>
@@ -59168,7 +59131,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="B58" s="44">
         <f>SUM(B33:B44)/SUM($E33:$E44)</f>
@@ -59185,7 +59148,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="B59" s="44">
         <f>SUM(B45:B56)/SUM($E45:$E56)</f>
@@ -59202,7 +59165,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B61">
         <v>2021</v>
@@ -59297,7 +59260,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="B62" s="39">
         <v>530475</v>
@@ -59392,7 +59355,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B63">
         <v>4977</v>
@@ -59487,7 +59450,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B64" s="39">
         <v>16658600</v>
@@ -59582,7 +59545,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B65">
         <v>68394</v>
@@ -59677,7 +59640,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B66" s="39">
         <v>221328</v>
@@ -59772,7 +59735,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="B67">
         <v>4128</v>
@@ -59867,7 +59830,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="B68">
         <v>327</v>
@@ -59962,7 +59925,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B70">
         <v>2021</v>
@@ -60057,7 +60020,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="B71">
         <v>179255</v>
@@ -60152,7 +60115,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="B72">
         <v>5125.75</v>
@@ -60247,7 +60210,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B73" s="39">
         <v>17154300</v>
@@ -60342,7 +60305,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="B74">
         <v>70431.8</v>
@@ -60437,7 +60400,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B75">
         <v>74790.100000000006</v>
@@ -60532,7 +60495,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="B76">
         <v>4251.05</v>
@@ -60627,7 +60590,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B77">
         <v>111.4</v>
@@ -60722,7 +60685,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B79" s="46">
         <f>B62/SUM(B$62:B$68)</f>
@@ -60847,7 +60810,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B80" s="46">
         <f>B66/SUM(B$62:B$68)</f>
@@ -60972,7 +60935,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B81" s="40">
         <f t="shared" ref="B81:AE81" si="2">SUM(B79:B80)</f>
@@ -61097,7 +61060,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B83" s="32">
         <f>B71/SUM(B71:B77)</f>
@@ -61222,7 +61185,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B84" s="32">
         <f>B75/SUM(B71:B77)</f>
@@ -61347,7 +61310,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B85" s="40">
         <f>SUM(B83:B84)</f>
@@ -61504,18 +61467,18 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B87" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="C89" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
@@ -61544,7 +61507,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B93">
         <v>2021</v>
@@ -61639,7 +61602,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B94">
         <v>1341</v>
@@ -61734,7 +61697,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -61829,7 +61792,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="B96">
         <v>28122</v>
@@ -61924,7 +61887,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="B97">
         <v>97344</v>
@@ -62019,7 +61982,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -62114,7 +62077,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -62209,7 +62172,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -62304,7 +62267,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="B102" s="47">
         <f>B94/SUM(B94:B100)</f>
@@ -62429,7 +62392,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B103" s="47">
         <f>B100/SUM(B94:B100)</f>
@@ -62554,7 +62517,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="B104" s="48">
         <f>SUM(B102:B103)</f>
@@ -62679,12 +62642,12 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B108">
         <v>2021</v>
@@ -62779,7 +62742,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="B109">
         <v>8955</v>
@@ -62874,7 +62837,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="B110">
         <v>1203</v>
@@ -62969,7 +62932,7 @@
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="B111" s="39">
         <v>1144050</v>
@@ -63064,7 +63027,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="B112">
         <v>630591</v>
@@ -63159,7 +63122,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="B113">
         <v>69</v>
@@ -63254,7 +63217,7 @@
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B114">
         <v>369</v>
@@ -63349,7 +63312,7 @@
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -63444,7 +63407,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="B117" s="47">
         <f>B109/SUM(B109:B115)</f>
@@ -63569,7 +63532,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B118" s="47">
         <f>B113/SUM(B109:B115)</f>
@@ -63694,7 +63657,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B119" s="47">
         <f>B115/SUM(B109:B115)</f>
@@ -63819,7 +63782,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B120" s="48">
         <f>SUM(B117:B119)</f>
@@ -63944,12 +63907,12 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B124">
         <v>2021</v>
@@ -64044,7 +64007,7 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="B125">
         <v>93</v>
@@ -64139,7 +64102,7 @@
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="B126">
         <v>438</v>
@@ -64234,7 +64197,7 @@
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="B127" s="39">
         <v>0</v>
@@ -64329,7 +64292,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="B128">
         <v>310872</v>
@@ -64424,7 +64387,7 @@
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -64519,7 +64482,7 @@
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B130">
         <v>231</v>
@@ -64614,7 +64577,7 @@
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -64709,7 +64672,7 @@
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="B133" s="47">
         <f>B125/SUM(B125:B131)</f>
@@ -64834,7 +64797,7 @@
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B134" s="47">
         <f>B129/SUM(B125:B131)</f>
@@ -64959,7 +64922,7 @@
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B135" s="47">
         <f>B131/SUM(B125:B131)</f>
@@ -65084,7 +65047,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B136" s="48">
         <f t="shared" ref="B136:AE136" si="16">SUM(B133:B135)</f>
@@ -65224,7 +65187,7 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -65243,63 +65206,63 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="16" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="R1" s="17"/>
       <c r="T1" s="16" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="U1" s="17"/>
       <c r="W1" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I2" s="19">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O2" s="19">
         <v>1</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U2" s="19">
         <v>1</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="X2" s="19">
         <v>1</v>
@@ -65307,34 +65270,34 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I3" s="19">
         <v>-0.3</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O3" s="19">
         <v>-0.3</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R3" s="19">
         <v>-0.5</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U3" s="19">
         <v>-0.42</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X3" s="19">
         <v>-0.4</v>
@@ -65342,34 +65305,34 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I4" s="20">
         <v>-16</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O4" s="20">
         <v>-10.5</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R4" s="20">
         <v>-15</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U4" s="20">
         <v>-11</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X4" s="20">
         <v>-10.5</v>
@@ -65377,7 +65340,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="60" x14ac:dyDescent="0.25">
@@ -65392,16 +65355,16 @@
         <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="O6" s="22">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="R6" s="49" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="S6">
         <v>0.05</v>
@@ -65426,7 +65389,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="2">
@@ -65437,7 +65400,7 @@
       </c>
       <c r="G7" s="2"/>
       <c r="N7" s="49" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="O7">
         <v>1.8679140068700261E-2</v>
@@ -65451,10 +65414,10 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -66285,7 +66248,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E15" s="22">
         <f>SUM(SUM(INDEX('AEO 39'!31:32,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!53:54,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))</f>
@@ -66424,7 +66387,7 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="26">
@@ -66715,7 +66678,7 @@
         <v>1.235369525889815E-3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="1"/>
@@ -67247,7 +67210,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E22" s="22">
         <f>'SYVbT-freight'!G$2/'SYVbT-freight'!$2:$2</f>
@@ -67386,7 +67349,7 @@
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="26">
@@ -68214,7 +68177,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E29" s="22">
         <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)*3</f>
@@ -68353,7 +68316,7 @@
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="26">
@@ -69173,7 +69136,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E36" s="22">
         <f>'SYVbT-freight'!G3/SUM('SYVbT-freight'!3:3)</f>
@@ -69312,7 +69275,7 @@
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="26">
@@ -70129,7 +70092,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -70266,7 +70229,7 @@
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23">
@@ -71083,7 +71046,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -71220,7 +71183,7 @@
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23">
@@ -72039,7 +72002,7 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -72176,7 +72139,7 @@
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23">
@@ -72993,7 +72956,7 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -73130,7 +73093,7 @@
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23">
@@ -73947,7 +73910,7 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -74084,7 +74047,7 @@
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23">
@@ -74901,7 +74864,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -75038,7 +75001,7 @@
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23">
@@ -75859,7 +75822,7 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E85" s="22">
         <f>'SYVbT-passenger'!G7/SUM('SYVbT-passenger'!7:7)</f>
@@ -75997,7 +75960,7 @@
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="26">
@@ -76815,7 +76778,7 @@
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -76952,7 +76915,7 @@
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F794058-BCE9-4C15-AE16-1BC82961E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803E369-3891-4FC1-9D03-55B00C5B5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1300" windowWidth="19110" windowHeight="10000" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -10144,123 +10144,123 @@
       </c>
       <c r="B2">
         <f>Data!I24</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>0.92312502511458017</v>
+        <v>0.6289705941446071</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.96209409032848614</v>
+        <v>0.63813978595964382</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>1.0117407089186079</v>
+        <v>0.64982134327496655</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>1.0738852142801949</v>
+        <v>0.66444357983063407</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>1.1499796320616105</v>
+        <v>0.68234814872037897</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>1.2406826713903383</v>
+        <v>0.70369004032713844</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>1.3453962114018321</v>
+        <v>0.72832852032984285</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>1.4619133022863227</v>
+        <v>0.75574430642031121</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>1.5863692629156259</v>
+        <v>0.78502806186250018</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>1.7136307370843742</v>
+        <v>0.8149719381374998</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>1.8380866977136774</v>
+        <v>0.84425569357968877</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>1.954603788598168</v>
+        <v>0.87167147967015723</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>2.0593173286096618</v>
+        <v>0.89630995967286164</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>2.1500203679383896</v>
+        <v>0.91765185127962101</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>2.2261147857198051</v>
+        <v>0.93555642016936591</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>2.2882592910813919</v>
+        <v>0.95017865672503343</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>2.3379059096715142</v>
+        <v>0.96186021404035627</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>2.3768749748854199</v>
+        <v>0.97102940585539288</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>2.4070417607329007</v>
+        <v>0.97812747311362369</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>2.4301448270592099</v>
+        <v>0.98356348871981403</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>2.4476929390928484</v>
+        <v>0.98769245625714075</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>2.4609384711529563</v>
+        <v>0.99080905203598979</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>2.4708891433632632</v>
+        <v>0.99315038667370892</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>2.4783380059110103</v>
+        <v>0.99490306021435537</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>2.4838992259106916</v>
+        <v>0.99621158256722153</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>2.4880429018365082</v>
+        <v>0.99718656513800186</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>2.4911257863209508</v>
+        <v>0.99791194972257657</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>2.4934169141508589</v>
+        <v>0.99845103862373152</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>2.4951182304353092</v>
+        <v>0.99885134833771982</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -10269,123 +10269,123 @@
       </c>
       <c r="B3">
         <f>Data!I25</f>
-        <v>2.4652000233370237E-2</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="C3">
         <f>Data!J25</f>
-        <v>2.8190631841939744E-2</v>
+        <v>0.29596244960239987</v>
       </c>
       <c r="D3">
         <f>Data!K25</f>
-        <v>2.9404090553188392E-2</v>
+        <v>0.29525559107671612</v>
       </c>
       <c r="E3">
         <f>Data!L25</f>
-        <v>3.1022432090970165E-2</v>
+        <v>0.29431288202296346</v>
       </c>
       <c r="F3">
         <f>Data!M25</f>
-        <v>3.3171904436085045E-2</v>
+        <v>0.2930607810336332</v>
       </c>
       <c r="G3">
         <f>Data!N25</f>
-        <v>3.6011302648198545E-2</v>
+        <v>0.29140678752282123</v>
       </c>
       <c r="H3">
         <f>Data!O25</f>
-        <v>3.9735188957166843E-2</v>
+        <v>0.28923756597307232</v>
       </c>
       <c r="I3">
         <f>Data!P25</f>
-        <v>4.4573274188492537E-2</v>
+        <v>0.28641930626464923</v>
       </c>
       <c r="J3">
         <f>Data!Q25</f>
-        <v>5.0782542518116404E-2</v>
+        <v>0.28280231112804816</v>
       </c>
       <c r="K3">
         <f>Data!R25</f>
-        <v>5.8627740396068245E-2</v>
+        <v>0.27823236164867954</v>
       </c>
       <c r="L3">
         <f>Data!S25</f>
-        <v>6.834601268394247E-2</v>
+        <v>0.2725713172654462</v>
       </c>
       <c r="M3">
         <f>Data!T25</f>
-        <v>8.0094247462594942E-2</v>
+        <v>0.26572778823718668</v>
       </c>
       <c r="N3">
         <f>Data!U25</f>
-        <v>9.3884505464127355E-2</v>
+        <v>0.25769474900033379</v>
       </c>
       <c r="O3">
         <f>Data!V25</f>
-        <v>0.10952333536510674</v>
+        <v>0.24858488795211589</v>
       </c>
       <c r="P3">
         <f>Data!W25</f>
-        <v>0.12658024788693495</v>
+        <v>0.23864897177620478</v>
       </c>
       <c r="Q3">
         <f>Data!X25</f>
-        <v>0.14441049547812879</v>
+        <v>0.22826257592436899</v>
       </c>
       <c r="R3">
         <f>Data!Y25</f>
-        <v>0.16224074306932265</v>
+        <v>0.21787618007253318</v>
       </c>
       <c r="S3">
         <f>Data!Z25</f>
-        <v>0.17929765559115082</v>
+        <v>0.20794026389662207</v>
       </c>
       <c r="T3">
         <f>Data!AA25</f>
-        <v>0.19493648549213022</v>
+        <v>0.19883040284840414</v>
       </c>
       <c r="U3">
         <f>Data!AB25</f>
-        <v>0.20872674349366263</v>
+        <v>0.19079736361155128</v>
       </c>
       <c r="V3">
         <f>Data!AC25</f>
-        <v>0.2204749782723151</v>
+        <v>0.18395383458329176</v>
       </c>
       <c r="W3">
         <f>Data!AD25</f>
-        <v>0.23019325056018936</v>
+        <v>0.17829279020005839</v>
       </c>
       <c r="X3">
         <f>Data!AE25</f>
-        <v>0.2380384484381412</v>
+        <v>0.17372284072068978</v>
       </c>
       <c r="Y3">
         <f>Data!AF25</f>
-        <v>0.24424771676776508</v>
+        <v>0.17010584558408873</v>
       </c>
       <c r="Z3">
         <f>Data!AG25</f>
-        <v>0.24908580199909075</v>
+        <v>0.16728758587566564</v>
       </c>
       <c r="AA3">
         <f>Data!AH25</f>
-        <v>0.25280968830805906</v>
+        <v>0.1651183643259167</v>
       </c>
       <c r="AB3">
         <f>Data!AI25</f>
-        <v>0.25564908652017254</v>
+        <v>0.16346437081510473</v>
       </c>
       <c r="AC3">
         <f>Data!AJ25</f>
-        <v>0.25779855886528741</v>
+        <v>0.1622122698257745</v>
       </c>
       <c r="AD3">
         <f>Data!AK25</f>
-        <v>0.25941690040306919</v>
+        <v>0.16126956077202181</v>
       </c>
       <c r="AE3">
         <f>Data!AL25</f>
-        <v>0.26063035911431781</v>
+        <v>0.16056270224633809</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -10394,123 +10394,123 @@
       </c>
       <c r="B4">
         <f>Data!I26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="C4">
         <f>Data!J26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="D4">
         <f>Data!K26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="E4">
         <f>Data!L26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="F4">
         <f>Data!M26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="G4">
         <f>Data!N26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="H4">
         <f>Data!O26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="I4">
         <f>Data!P26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="J4">
         <f>Data!Q26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="K4">
         <f>Data!R26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="L4">
         <f>Data!S26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="M4">
         <f>Data!T26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="N4">
         <f>Data!U26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="O4">
         <f>Data!V26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="P4">
         <f>Data!W26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Q4">
         <f>Data!X26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="R4">
         <f>Data!Y26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="S4">
         <f>Data!Z26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="T4">
         <f>Data!AA26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="U4">
         <f>Data!AB26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="V4">
         <f>Data!AC26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="W4">
         <f>Data!AD26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="X4">
         <f>Data!AE26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Y4">
         <f>Data!AF26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Z4">
         <f>Data!AG26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AA4">
         <f>Data!AH26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AB4">
         <f>Data!AI26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AC4">
         <f>Data!AJ26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AD4">
         <f>Data!AK26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AE4">
         <f>Data!AL26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -10519,123 +10519,123 @@
       </c>
       <c r="B5">
         <f>Data!I27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f>Data!J27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>Data!K27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f>Data!L27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>Data!M27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>Data!N27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f>Data!O27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f>Data!P27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>Data!Q27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f>Data!R27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f>Data!S27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f>Data!T27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f>Data!U27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f>Data!V27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f>Data!W27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f>Data!X27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f>Data!Y27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>Data!Z27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>Data!AA27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f>Data!AB27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f>Data!AC27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f>Data!AD27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f>Data!AE27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f>Data!AF27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f>Data!AG27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f>Data!AH27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f>Data!AI27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f>Data!AJ27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f>Data!AK27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f>Data!AL27</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -10644,123 +10644,123 @@
       </c>
       <c r="B6">
         <f>Data!I28</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>Data!J28</f>
-        <v>1.985225968306727E-2</v>
+        <v>8.8644190159638335E-5</v>
       </c>
       <c r="D6">
         <f>Data!K28</f>
-        <v>1.9801596942659226E-2</v>
+        <v>1.1904183440446507E-4</v>
       </c>
       <c r="E6">
         <f>Data!L28</f>
-        <v>1.9734030064231342E-2</v>
+        <v>1.5958196146119519E-4</v>
       </c>
       <c r="F6">
         <f>Data!M28</f>
-        <v>1.9644288107273637E-2</v>
+        <v>2.1342713563581709E-4</v>
       </c>
       <c r="G6">
         <f>Data!N28</f>
-        <v>1.9525741268224331E-2</v>
+        <v>2.845552390654007E-4</v>
       </c>
       <c r="H6">
         <f>Data!O28</f>
-        <v>1.9370266439430035E-2</v>
+        <v>3.7784013634197905E-4</v>
       </c>
       <c r="I6">
         <f>Data!P28</f>
-        <v>1.9168273035060777E-2</v>
+        <v>4.9903617896353422E-4</v>
       </c>
       <c r="J6">
         <f>Data!Q28</f>
-        <v>1.8909031788043873E-2</v>
+        <v>6.5458092717367755E-4</v>
       </c>
       <c r="K6">
         <f>Data!R28</f>
-        <v>1.8581489350995122E-2</v>
+        <v>8.5110638940292692E-4</v>
       </c>
       <c r="L6">
         <f>Data!S28</f>
-        <v>1.8175744761936438E-2</v>
+        <v>1.0945531428381381E-3</v>
       </c>
       <c r="M6">
         <f>Data!T28</f>
-        <v>1.7685247834990175E-2</v>
+        <v>1.3888512990058942E-3</v>
       </c>
       <c r="N6">
         <f>Data!U28</f>
-        <v>1.7109495026250039E-2</v>
+        <v>1.7343029842499763E-3</v>
       </c>
       <c r="O6">
         <f>Data!V28</f>
-        <v>1.6456563062257956E-2</v>
+        <v>2.1260621626452273E-3</v>
       </c>
       <c r="P6">
         <f>Data!W28</f>
-        <v>1.5744425168116589E-2</v>
+        <v>2.553344899130046E-3</v>
       </c>
       <c r="Q6">
         <f>Data!X28</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R6">
         <f>Data!Y28</f>
-        <v>1.4255574831883409E-2</v>
+        <v>3.4466551008699542E-3</v>
       </c>
       <c r="S6">
         <f>Data!Z28</f>
-        <v>1.3543436937742046E-2</v>
+        <v>3.8739378373547728E-3</v>
       </c>
       <c r="T6">
         <f>Data!AA28</f>
-        <v>1.2890504973749961E-2</v>
+        <v>4.2656970157500234E-3</v>
       </c>
       <c r="U6">
         <f>Data!AB28</f>
-        <v>1.2314752165009824E-2</v>
+        <v>4.6111487009941055E-3</v>
       </c>
       <c r="V6">
         <f>Data!AC28</f>
-        <v>1.1824255238063564E-2</v>
+        <v>4.9054468571618614E-3</v>
       </c>
       <c r="W6">
         <f>Data!AD28</f>
-        <v>1.1418510649004877E-2</v>
+        <v>5.1488936105970736E-3</v>
       </c>
       <c r="X6">
         <f>Data!AE28</f>
-        <v>1.1090968211956129E-2</v>
+        <v>5.3454190728263228E-3</v>
       </c>
       <c r="Y6">
         <f>Data!AF28</f>
-        <v>1.0831726964939224E-2</v>
+        <v>5.5009638210364665E-3</v>
       </c>
       <c r="Z6">
         <f>Data!AG28</f>
-        <v>1.0629733560569964E-2</v>
+        <v>5.6221598636580217E-3</v>
       </c>
       <c r="AA6">
         <f>Data!AH28</f>
-        <v>1.0474258731775666E-2</v>
+        <v>5.7154447609346001E-3</v>
       </c>
       <c r="AB6">
         <f>Data!AI28</f>
-        <v>1.0355711892726362E-2</v>
+        <v>5.7865728643641829E-3</v>
       </c>
       <c r="AC6">
         <f>Data!AJ28</f>
-        <v>1.026596993576866E-2</v>
+        <v>5.840418038538805E-3</v>
       </c>
       <c r="AD6">
         <f>Data!AK28</f>
-        <v>1.0198403057340774E-2</v>
+        <v>5.880958165595535E-3</v>
       </c>
       <c r="AE6">
         <f>Data!AL28</f>
-        <v>1.0147740316932731E-2</v>
+        <v>5.9113558098403615E-3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -10769,123 +10769,123 @@
       </c>
       <c r="B7">
         <f>Data!I29</f>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="C7">
         <f>B7</f>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:AE7" si="0">C7</f>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -10894,123 +10894,123 @@
       </c>
       <c r="B8">
         <f>Data!I30</f>
-        <v>2.0195858052701565E-3</v>
+        <v>8.470448323552864E-5</v>
       </c>
       <c r="C8">
         <f>Data!J30</f>
-        <v>2.7284499652394639E-3</v>
+        <v>8.2215464117929744E-4</v>
       </c>
       <c r="D8">
         <f>Data!K30</f>
-        <v>2.9715318921412692E-3</v>
+        <v>1.0750392070949643E-3</v>
       </c>
       <c r="E8">
         <f>Data!L30</f>
-        <v>3.2957205734227501E-3</v>
+        <v>1.4123012774822749E-3</v>
       </c>
       <c r="F8">
         <f>Data!M30</f>
-        <v>3.7263061999703714E-3</v>
+        <v>1.860250907661926E-3</v>
       </c>
       <c r="G8">
         <f>Data!N30</f>
-        <v>4.2950988438765388E-3</v>
+        <v>2.4519809580343683E-3</v>
       </c>
       <c r="H8">
         <f>Data!O30</f>
-        <v>5.0410735121170485E-3</v>
+        <v>3.2280381605029394E-3</v>
       </c>
       <c r="I8">
         <f>Data!P30</f>
-        <v>6.010246232741108E-3</v>
+        <v>4.2362942076558247E-3</v>
       </c>
       <c r="J8">
         <f>Data!Q30</f>
-        <v>7.2540964735640472E-3</v>
+        <v>5.530304553154162E-3</v>
       </c>
       <c r="K8">
         <f>Data!R30</f>
-        <v>8.8256586531590669E-3</v>
+        <v>7.1652423071111148E-3</v>
       </c>
       <c r="L8">
         <f>Data!S30</f>
-        <v>1.0772437997189686E-2</v>
+        <v>9.1905284138303605E-3</v>
       </c>
       <c r="M8">
         <f>Data!T30</f>
-        <v>1.3125862568802056E-2</v>
+        <v>1.1638858319689102E-2</v>
       </c>
       <c r="N8">
         <f>Data!U30</f>
-        <v>1.5888348392515139E-2</v>
+        <v>1.4512745478976212E-2</v>
       </c>
       <c r="O8">
         <f>Data!V30</f>
-        <v>1.9021142999847009E-2</v>
+        <v>1.7771874672476845E-2</v>
       </c>
       <c r="P8">
         <f>Data!W30</f>
-        <v>2.2438010112313542E-2</v>
+        <v>2.1326532015952099E-2</v>
       </c>
       <c r="Q8">
         <f>Data!X30</f>
-        <v>2.6009792902635082E-2</v>
+        <v>2.5042352241617768E-2</v>
       </c>
       <c r="R8">
         <f>Data!Y30</f>
-        <v>2.9581575692956621E-2</v>
+        <v>2.8758172467283436E-2</v>
       </c>
       <c r="S8">
         <f>Data!Z30</f>
-        <v>3.2998442805423155E-2</v>
+        <v>3.2312829810758684E-2</v>
       </c>
       <c r="T8">
         <f>Data!AA30</f>
-        <v>3.6131237412755014E-2</v>
+        <v>3.5571959004259315E-2</v>
       </c>
       <c r="U8">
         <f>Data!AB30</f>
-        <v>3.88937232364681E-2</v>
+        <v>3.8445846163546425E-2</v>
       </c>
       <c r="V8">
         <f>Data!AC30</f>
-        <v>4.1247147808080475E-2</v>
+        <v>4.0894176069405173E-2</v>
       </c>
       <c r="W8">
         <f>Data!AD30</f>
-        <v>4.3193927152111095E-2</v>
+        <v>4.2919462176124419E-2</v>
       </c>
       <c r="X8">
         <f>Data!AE30</f>
-        <v>4.4765489331706113E-2</v>
+        <v>4.4554399930081368E-2</v>
       </c>
       <c r="Y8">
         <f>Data!AF30</f>
-        <v>4.6009339572529055E-2</v>
+        <v>4.5848410275579711E-2</v>
       </c>
       <c r="Z8">
         <f>Data!AG30</f>
-        <v>4.6978512293153113E-2</v>
+        <v>4.6856666322732596E-2</v>
       </c>
       <c r="AA8">
         <f>Data!AH30</f>
-        <v>4.7724486961393628E-2</v>
+        <v>4.7632723525201169E-2</v>
       </c>
       <c r="AB8">
         <f>Data!AI30</f>
-        <v>4.8293279605299791E-2</v>
+        <v>4.822445357557361E-2</v>
       </c>
       <c r="AC8">
         <f>Data!AJ30</f>
-        <v>4.8723865231847407E-2</v>
+        <v>4.8672403205753251E-2</v>
       </c>
       <c r="AD8">
         <f>Data!AK30</f>
-        <v>4.9048053913128893E-2</v>
+        <v>4.900966527614057E-2</v>
       </c>
       <c r="AE8">
         <f>Data!AL30</f>
-        <v>4.9291135840030698E-2</v>
+        <v>4.9262549842056233E-2</v>
       </c>
     </row>
   </sheetData>
@@ -63348,8 +63348,8 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65586,13 +65586,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="22">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="29">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65600,123 +65600,123 @@
       </c>
       <c r="I24" s="22">
         <f t="shared" ref="I24" si="3">E24</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
-        <v>0.92312502511458017</v>
+        <v>0.6289705941446071</v>
       </c>
       <c r="K24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.96209409032848614</v>
+        <v>0.63813978595964382</v>
       </c>
       <c r="L24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>1.0117407089186079</v>
+        <v>0.64982134327496655</v>
       </c>
       <c r="M24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>1.0738852142801949</v>
+        <v>0.66444357983063407</v>
       </c>
       <c r="N24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>1.1499796320616105</v>
+        <v>0.68234814872037897</v>
       </c>
       <c r="O24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>1.2406826713903383</v>
+        <v>0.70369004032713844</v>
       </c>
       <c r="P24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>1.3453962114018321</v>
+        <v>0.72832852032984285</v>
       </c>
       <c r="Q24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>1.4619133022863227</v>
+        <v>0.75574430642031121</v>
       </c>
       <c r="R24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>1.5863692629156259</v>
+        <v>0.78502806186250018</v>
       </c>
       <c r="S24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>1.7136307370843742</v>
+        <v>0.8149719381374998</v>
       </c>
       <c r="T24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>1.8380866977136774</v>
+        <v>0.84425569357968877</v>
       </c>
       <c r="U24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>1.954603788598168</v>
+        <v>0.87167147967015723</v>
       </c>
       <c r="V24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>2.0593173286096618</v>
+        <v>0.89630995967286164</v>
       </c>
       <c r="W24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>2.1500203679383896</v>
+        <v>0.91765185127962101</v>
       </c>
       <c r="X24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>2.2261147857198051</v>
+        <v>0.93555642016936591</v>
       </c>
       <c r="Y24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>2.2882592910813919</v>
+        <v>0.95017865672503343</v>
       </c>
       <c r="Z24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>2.3379059096715142</v>
+        <v>0.96186021404035627</v>
       </c>
       <c r="AA24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>2.3768749748854199</v>
+        <v>0.97102940585539288</v>
       </c>
       <c r="AB24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>2.4070417607329007</v>
+        <v>0.97812747311362369</v>
       </c>
       <c r="AC24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>2.4301448270592099</v>
+        <v>0.98356348871981403</v>
       </c>
       <c r="AD24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>2.4476929390928484</v>
+        <v>0.98769245625714075</v>
       </c>
       <c r="AE24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>2.4609384711529563</v>
+        <v>0.99080905203598979</v>
       </c>
       <c r="AF24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>2.4708891433632632</v>
+        <v>0.99315038667370892</v>
       </c>
       <c r="AG24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>2.4783380059110103</v>
+        <v>0.99490306021435537</v>
       </c>
       <c r="AH24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>2.4838992259106916</v>
+        <v>0.99621158256722153</v>
       </c>
       <c r="AI24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>2.4880429018365082</v>
+        <v>0.99718656513800186</v>
       </c>
       <c r="AJ24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>2.4911257863209508</v>
+        <v>0.99791194972257657</v>
       </c>
       <c r="AK24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>2.4934169141508589</v>
+        <v>0.99845103862373152</v>
       </c>
       <c r="AL24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>2.4951182304353092</v>
+        <v>0.99885134833771982</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
@@ -65724,12 +65724,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="22">
-        <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)*5</f>
-        <v>2.4652000233370237E-2</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="F25" s="22">
-        <f>F32*5</f>
-        <v>0.26416899072288735</v>
+        <v>0.15850139443373243</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>IF(E25=F25,"n/a",IF(OR(C25="battery electric vehicle",C25="natural gas vehicle",C25="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65737,123 +65735,123 @@
       </c>
       <c r="I25" s="22">
         <f t="shared" si="1"/>
-        <v>2.4652000233370237E-2</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="J25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,J$9))</f>
-        <v>2.8190631841939744E-2</v>
+        <v>0.29596244960239987</v>
       </c>
       <c r="K25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,K$9))</f>
-        <v>2.9404090553188392E-2</v>
+        <v>0.29525559107671612</v>
       </c>
       <c r="L25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,L$9))</f>
-        <v>3.1022432090970165E-2</v>
+        <v>0.29431288202296346</v>
       </c>
       <c r="M25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,M$9))</f>
-        <v>3.3171904436085045E-2</v>
+        <v>0.2930607810336332</v>
       </c>
       <c r="N25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,N$9))</f>
-        <v>3.6011302648198545E-2</v>
+        <v>0.29140678752282123</v>
       </c>
       <c r="O25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,O$9))</f>
-        <v>3.9735188957166843E-2</v>
+        <v>0.28923756597307232</v>
       </c>
       <c r="P25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,P$9))</f>
-        <v>4.4573274188492537E-2</v>
+        <v>0.28641930626464923</v>
       </c>
       <c r="Q25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Q$9))</f>
-        <v>5.0782542518116404E-2</v>
+        <v>0.28280231112804816</v>
       </c>
       <c r="R25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,R$9))</f>
-        <v>5.8627740396068245E-2</v>
+        <v>0.27823236164867954</v>
       </c>
       <c r="S25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,S$9))</f>
-        <v>6.834601268394247E-2</v>
+        <v>0.2725713172654462</v>
       </c>
       <c r="T25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,T$9))</f>
-        <v>8.0094247462594942E-2</v>
+        <v>0.26572778823718668</v>
       </c>
       <c r="U25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,U$9))</f>
-        <v>9.3884505464127355E-2</v>
+        <v>0.25769474900033379</v>
       </c>
       <c r="V25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,V$9))</f>
-        <v>0.10952333536510674</v>
+        <v>0.24858488795211589</v>
       </c>
       <c r="W25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,W$9))</f>
-        <v>0.12658024788693495</v>
+        <v>0.23864897177620478</v>
       </c>
       <c r="X25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,X$9))</f>
-        <v>0.14441049547812879</v>
+        <v>0.22826257592436899</v>
       </c>
       <c r="Y25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Y$9))</f>
-        <v>0.16224074306932265</v>
+        <v>0.21787618007253318</v>
       </c>
       <c r="Z25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Z$9))</f>
-        <v>0.17929765559115082</v>
+        <v>0.20794026389662207</v>
       </c>
       <c r="AA25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AA$9))</f>
-        <v>0.19493648549213022</v>
+        <v>0.19883040284840414</v>
       </c>
       <c r="AB25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AB$9))</f>
-        <v>0.20872674349366263</v>
+        <v>0.19079736361155128</v>
       </c>
       <c r="AC25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AC$9))</f>
-        <v>0.2204749782723151</v>
+        <v>0.18395383458329176</v>
       </c>
       <c r="AD25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AD$9))</f>
-        <v>0.23019325056018936</v>
+        <v>0.17829279020005839</v>
       </c>
       <c r="AE25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AE$9))</f>
-        <v>0.2380384484381412</v>
+        <v>0.17372284072068978</v>
       </c>
       <c r="AF25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AF$9))</f>
-        <v>0.24424771676776508</v>
+        <v>0.17010584558408873</v>
       </c>
       <c r="AG25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AG$9))</f>
-        <v>0.24908580199909075</v>
+        <v>0.16728758587566564</v>
       </c>
       <c r="AH25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AH$9))</f>
-        <v>0.25280968830805906</v>
+        <v>0.1651183643259167</v>
       </c>
       <c r="AI25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AI$9))</f>
-        <v>0.25564908652017254</v>
+        <v>0.16346437081510473</v>
       </c>
       <c r="AJ25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AJ$9))</f>
-        <v>0.25779855886528741</v>
+        <v>0.1622122698257745</v>
       </c>
       <c r="AK25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AK$9))</f>
-        <v>0.25941690040306919</v>
+        <v>0.16126956077202181</v>
       </c>
       <c r="AL25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AL$9))</f>
-        <v>0.26063035911431781</v>
+        <v>0.16056270224633809</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
@@ -65861,11 +65859,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="22">
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="F26" s="22">
-        <f>E26</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>IF(E26=F26,"n/a",IF(OR(C26="battery electric vehicle",C26="natural gas vehicle",C26="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65873,123 +65870,123 @@
       </c>
       <c r="I26" s="22">
         <f t="shared" si="1"/>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="J26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,J$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="K26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,K$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="L26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,L$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="M26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,M$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="N26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,N$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="O26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,O$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="P26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,P$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Q26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Q$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="R26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,R$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="S26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,S$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="T26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,T$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="U26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,U$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="V26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,V$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="W26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,W$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="X26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,X$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Y26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Y$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Z26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Z$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AA26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AA$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AB26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AB$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AC26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AC$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AD26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AD$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AE26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AE$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AF26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AF$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AG26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AG$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AH26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AH$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AI26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AI$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AJ26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AJ$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AK26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AK$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AL26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AL$9))</f>
-        <v>2.1762390509853201E-3</v>
+        <v>0.29802375741500553</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
@@ -65997,10 +65994,10 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>IF(E27=F27,"n/a",IF(OR(C27="battery electric vehicle",C27="natural gas vehicle",C27="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66008,123 +66005,123 @@
       </c>
       <c r="I27" s="22">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,J$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,K$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,L$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,M$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,N$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,O$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,P$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Q$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,R$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,S$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,T$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,U$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,V$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,W$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,X$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Y$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Z$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AA$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AB$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AC$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AD$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AE$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AF$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AG$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AH$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AI$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AJ$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AK$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AL$9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
@@ -66132,10 +66129,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F28" s="22">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G28" s="7" t="str">
         <f>IF(E28=F28,"n/a",IF(OR(C28="battery electric vehicle",C28="natural gas vehicle",C28="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66143,123 +66140,123 @@
       </c>
       <c r="I28" s="22">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,J$9))</f>
-        <v>1.985225968306727E-2</v>
+        <v>8.8644190159638335E-5</v>
       </c>
       <c r="K28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,K$9))</f>
-        <v>1.9801596942659226E-2</v>
+        <v>1.1904183440446507E-4</v>
       </c>
       <c r="L28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,L$9))</f>
-        <v>1.9734030064231342E-2</v>
+        <v>1.5958196146119519E-4</v>
       </c>
       <c r="M28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,M$9))</f>
-        <v>1.9644288107273637E-2</v>
+        <v>2.1342713563581709E-4</v>
       </c>
       <c r="N28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,N$9))</f>
-        <v>1.9525741268224331E-2</v>
+        <v>2.845552390654007E-4</v>
       </c>
       <c r="O28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,O$9))</f>
-        <v>1.9370266439430035E-2</v>
+        <v>3.7784013634197905E-4</v>
       </c>
       <c r="P28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,P$9))</f>
-        <v>1.9168273035060777E-2</v>
+        <v>4.9903617896353422E-4</v>
       </c>
       <c r="Q28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,Q$9))</f>
-        <v>1.8909031788043873E-2</v>
+        <v>6.5458092717367755E-4</v>
       </c>
       <c r="R28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,R$9))</f>
-        <v>1.8581489350995122E-2</v>
+        <v>8.5110638940292692E-4</v>
       </c>
       <c r="S28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,S$9))</f>
-        <v>1.8175744761936438E-2</v>
+        <v>1.0945531428381381E-3</v>
       </c>
       <c r="T28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,T$9))</f>
-        <v>1.7685247834990175E-2</v>
+        <v>1.3888512990058942E-3</v>
       </c>
       <c r="U28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,U$9))</f>
-        <v>1.7109495026250039E-2</v>
+        <v>1.7343029842499763E-3</v>
       </c>
       <c r="V28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,V$9))</f>
-        <v>1.6456563062257956E-2</v>
+        <v>2.1260621626452273E-3</v>
       </c>
       <c r="W28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,W$9))</f>
-        <v>1.5744425168116589E-2</v>
+        <v>2.553344899130046E-3</v>
       </c>
       <c r="X28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,X$9))</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Y28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,Y$9))</f>
-        <v>1.4255574831883409E-2</v>
+        <v>3.4466551008699542E-3</v>
       </c>
       <c r="Z28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,Z$9))</f>
-        <v>1.3543436937742046E-2</v>
+        <v>3.8739378373547728E-3</v>
       </c>
       <c r="AA28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AA$9))</f>
-        <v>1.2890504973749961E-2</v>
+        <v>4.2656970157500234E-3</v>
       </c>
       <c r="AB28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AB$9))</f>
-        <v>1.2314752165009824E-2</v>
+        <v>4.6111487009941055E-3</v>
       </c>
       <c r="AC28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AC$9))</f>
-        <v>1.1824255238063564E-2</v>
+        <v>4.9054468571618614E-3</v>
       </c>
       <c r="AD28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AD$9))</f>
-        <v>1.1418510649004877E-2</v>
+        <v>5.1488936105970736E-3</v>
       </c>
       <c r="AE28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AE$9))</f>
-        <v>1.1090968211956129E-2</v>
+        <v>5.3454190728263228E-3</v>
       </c>
       <c r="AF28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AF$9))</f>
-        <v>1.0831726964939224E-2</v>
+        <v>5.5009638210364665E-3</v>
       </c>
       <c r="AG28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AG$9))</f>
-        <v>1.0629733560569964E-2</v>
+        <v>5.6221598636580217E-3</v>
       </c>
       <c r="AH28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AH$9))</f>
-        <v>1.0474258731775666E-2</v>
+        <v>5.7154447609346001E-3</v>
       </c>
       <c r="AI28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AI$9))</f>
-        <v>1.0355711892726362E-2</v>
+        <v>5.7865728643641829E-3</v>
       </c>
       <c r="AJ28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AJ$9))</f>
-        <v>1.026596993576866E-2</v>
+        <v>5.840418038538805E-3</v>
       </c>
       <c r="AK28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AK$9))</f>
-        <v>1.0198403057340774E-2</v>
+        <v>5.880958165595535E-3</v>
       </c>
       <c r="AL28">
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AL$9))</f>
-        <v>1.0147740316932731E-2</v>
+        <v>5.9113558098403615E-3</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
@@ -66267,11 +66264,10 @@
         <v>124</v>
       </c>
       <c r="E29" s="22">
-        <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)*5</f>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="F29" s="22">
-        <v>1.4999999999999999E-2</v>
+        <v>0.53425472287359943</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>IF(E29=F29,"n/a",IF(OR(C29="battery electric vehicle",C29="natural gas vehicle",C29="plugin hybrid vehicle",C29="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -66279,123 +66275,123 @@
       </c>
       <c r="I29" s="22">
         <f t="shared" si="1"/>
-        <v>1.1960398418308864E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="J29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,J$9))</f>
-        <v>1.1960398418308871E-2</v>
+        <v>2.1496445375760231E-2</v>
       </c>
       <c r="K29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,K$9))</f>
-        <v>1.2068955617654975E-2</v>
+        <v>3.9809241000682505E-2</v>
       </c>
       <c r="L29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,L$9))</f>
-        <v>1.2177512817001079E-2</v>
+        <v>5.8122036625604778E-2</v>
       </c>
       <c r="M29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,M$9))</f>
-        <v>1.2286070016347211E-2</v>
+        <v>7.6434832250534157E-2</v>
       </c>
       <c r="N29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,N$9))</f>
-        <v>1.2394627215693316E-2</v>
+        <v>9.4747627875456431E-2</v>
       </c>
       <c r="O29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,O$9))</f>
-        <v>1.250318441503942E-2</v>
+        <v>0.1130604235003787</v>
       </c>
       <c r="P29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,P$9))</f>
-        <v>1.2611741614385524E-2</v>
+        <v>0.13137321912530098</v>
       </c>
       <c r="Q29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Q$9))</f>
-        <v>1.2720298813731656E-2</v>
+        <v>0.14968601475022325</v>
       </c>
       <c r="R29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,R$9))</f>
-        <v>1.2828856013077761E-2</v>
+        <v>0.16799881037514552</v>
       </c>
       <c r="S29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,S$9))</f>
-        <v>1.2937413212423865E-2</v>
+        <v>0.1863116060000678</v>
       </c>
       <c r="T29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,T$9))</f>
-        <v>1.3045970411769997E-2</v>
+        <v>0.20462440162499007</v>
       </c>
       <c r="U29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,U$9))</f>
-        <v>1.3154527611116101E-2</v>
+        <v>0.22293719724991234</v>
       </c>
       <c r="V29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,V$9))</f>
-        <v>1.3263084810462206E-2</v>
+        <v>0.24124999287483462</v>
       </c>
       <c r="W29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,W$9))</f>
-        <v>1.337164200980831E-2</v>
+        <v>0.25956278849975689</v>
       </c>
       <c r="X29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,X$9))</f>
-        <v>1.3480199209154442E-2</v>
+        <v>0.27787558412467916</v>
       </c>
       <c r="Y29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Y$9))</f>
-        <v>1.3588756408500546E-2</v>
+        <v>0.29618837974960144</v>
       </c>
       <c r="Z29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Z$9))</f>
-        <v>1.3697313607846651E-2</v>
+        <v>0.31450117537452371</v>
       </c>
       <c r="AA29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AA$9))</f>
-        <v>1.3805870807192783E-2</v>
+        <v>0.33281397099944598</v>
       </c>
       <c r="AB29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AB$9))</f>
-        <v>1.3914428006538887E-2</v>
+        <v>0.35112676662436826</v>
       </c>
       <c r="AC29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AC$9))</f>
-        <v>1.4022985205884991E-2</v>
+        <v>0.36943956224929764</v>
       </c>
       <c r="AD29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AD$9))</f>
-        <v>1.4131542405231096E-2</v>
+        <v>0.38775235787421991</v>
       </c>
       <c r="AE29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AE$9))</f>
-        <v>1.4240099604577228E-2</v>
+        <v>0.40606515349914218</v>
       </c>
       <c r="AF29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AF$9))</f>
-        <v>1.4348656803923332E-2</v>
+        <v>0.42437794912406446</v>
       </c>
       <c r="AG29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AG$9))</f>
-        <v>1.4457214003269436E-2</v>
+        <v>0.44269074474898673</v>
       </c>
       <c r="AH29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AH$9))</f>
-        <v>1.4565771202615541E-2</v>
+        <v>0.461003540373909</v>
       </c>
       <c r="AI29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AI$9))</f>
-        <v>1.4674328401961673E-2</v>
+        <v>0.47931633599883128</v>
       </c>
       <c r="AJ29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AJ$9))</f>
-        <v>1.4782885601307777E-2</v>
+        <v>0.49762913162375355</v>
       </c>
       <c r="AK29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AK$9))</f>
-        <v>1.4891442800653881E-2</v>
+        <v>0.51594192724867582</v>
       </c>
       <c r="AL29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AL$9))</f>
-        <v>1.5000000000000013E-2</v>
+        <v>0.5342547228735981</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -66406,8 +66402,7 @@
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="26">
-        <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)+0.002</f>
-        <v>2.0195858052701565E-3</v>
+        <v>8.470448323552864E-5</v>
       </c>
       <c r="F30" s="26">
         <v>0.05</v>
@@ -66418,123 +66413,123 @@
       </c>
       <c r="I30" s="22">
         <f t="shared" si="1"/>
-        <v>2.0195858052701565E-3</v>
+        <v>8.470448323552864E-5</v>
       </c>
       <c r="J30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,J$9))</f>
-        <v>2.7284499652394639E-3</v>
+        <v>8.2215464117929744E-4</v>
       </c>
       <c r="K30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,K$9))</f>
-        <v>2.9715318921412692E-3</v>
+        <v>1.0750392070949643E-3</v>
       </c>
       <c r="L30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,L$9))</f>
-        <v>3.2957205734227501E-3</v>
+        <v>1.4123012774822749E-3</v>
       </c>
       <c r="M30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,M$9))</f>
-        <v>3.7263061999703714E-3</v>
+        <v>1.860250907661926E-3</v>
       </c>
       <c r="N30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,N$9))</f>
-        <v>4.2950988438765388E-3</v>
+        <v>2.4519809580343683E-3</v>
       </c>
       <c r="O30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,O$9))</f>
-        <v>5.0410735121170485E-3</v>
+        <v>3.2280381605029394E-3</v>
       </c>
       <c r="P30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,P$9))</f>
-        <v>6.010246232741108E-3</v>
+        <v>4.2362942076558247E-3</v>
       </c>
       <c r="Q30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Q$9))</f>
-        <v>7.2540964735640472E-3</v>
+        <v>5.530304553154162E-3</v>
       </c>
       <c r="R30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,R$9))</f>
-        <v>8.8256586531590669E-3</v>
+        <v>7.1652423071111148E-3</v>
       </c>
       <c r="S30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,S$9))</f>
-        <v>1.0772437997189686E-2</v>
+        <v>9.1905284138303605E-3</v>
       </c>
       <c r="T30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,T$9))</f>
-        <v>1.3125862568802056E-2</v>
+        <v>1.1638858319689102E-2</v>
       </c>
       <c r="U30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,U$9))</f>
-        <v>1.5888348392515139E-2</v>
+        <v>1.4512745478976212E-2</v>
       </c>
       <c r="V30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,V$9))</f>
-        <v>1.9021142999847009E-2</v>
+        <v>1.7771874672476845E-2</v>
       </c>
       <c r="W30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,W$9))</f>
-        <v>2.2438010112313542E-2</v>
+        <v>2.1326532015952099E-2</v>
       </c>
       <c r="X30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,X$9))</f>
-        <v>2.6009792902635082E-2</v>
+        <v>2.5042352241617768E-2</v>
       </c>
       <c r="Y30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Y$9))</f>
-        <v>2.9581575692956621E-2</v>
+        <v>2.8758172467283436E-2</v>
       </c>
       <c r="Z30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Z$9))</f>
-        <v>3.2998442805423155E-2</v>
+        <v>3.2312829810758684E-2</v>
       </c>
       <c r="AA30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AA$9))</f>
-        <v>3.6131237412755014E-2</v>
+        <v>3.5571959004259315E-2</v>
       </c>
       <c r="AB30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AB$9))</f>
-        <v>3.88937232364681E-2</v>
+        <v>3.8445846163546425E-2</v>
       </c>
       <c r="AC30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AC$9))</f>
-        <v>4.1247147808080475E-2</v>
+        <v>4.0894176069405173E-2</v>
       </c>
       <c r="AD30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AD$9))</f>
-        <v>4.3193927152111095E-2</v>
+        <v>4.2919462176124419E-2</v>
       </c>
       <c r="AE30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AE$9))</f>
-        <v>4.4765489331706113E-2</v>
+        <v>4.4554399930081368E-2</v>
       </c>
       <c r="AF30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AF$9))</f>
-        <v>4.6009339572529055E-2</v>
+        <v>4.5848410275579711E-2</v>
       </c>
       <c r="AG30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AG$9))</f>
-        <v>4.6978512293153113E-2</v>
+        <v>4.6856666322732596E-2</v>
       </c>
       <c r="AH30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AH$9))</f>
-        <v>4.7724486961393628E-2</v>
+        <v>4.7632723525201169E-2</v>
       </c>
       <c r="AI30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AI$9))</f>
-        <v>4.8293279605299791E-2</v>
+        <v>4.822445357557361E-2</v>
       </c>
       <c r="AJ30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AJ$9))</f>
-        <v>4.8723865231847407E-2</v>
+        <v>4.8672403205753251E-2</v>
       </c>
       <c r="AK30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AK$9))</f>
-        <v>4.9048053913128893E-2</v>
+        <v>4.900966527614057E-2</v>
       </c>
       <c r="AL30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AL$9))</f>
-        <v>4.9291135840030698E-2</v>
+        <v>4.9262549842056233E-2</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F794058-BCE9-4C15-AE16-1BC82961E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D5DA5-6C5F-4D18-A41D-D880825EEFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1300" windowWidth="19110" windowHeight="10000" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="2160" windowWidth="21600" windowHeight="12525" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7417,17 +7417,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7435,512 +7435,512 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="28" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -7965,13 +7965,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>0.99798985959100972</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>0.79999999999999893</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>0.49899492979550486</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -8986,12 +8986,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>0.99798985959100972</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>1.2353695258898734E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.49273964569777012</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10007,13 +10007,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -10138,132 +10138,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!I24</f>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>0.92312502511458017</v>
+        <v>0.16518383682536597</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.96209409032848614</v>
+        <v>0.18581451840919855</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>1.0117407089186079</v>
+        <v>0.21209802236867481</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>1.0738852142801949</v>
+        <v>0.24499805461892674</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>1.1499796320616105</v>
+        <v>0.28528333462085265</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>1.2406826713903383</v>
+        <v>0.33330259073606139</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>1.3453962114018321</v>
+        <v>0.38873917074214637</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>1.4619133022863227</v>
+        <v>0.45042468944570024</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>1.5863692629156259</v>
+        <v>0.51631313919062538</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>1.7136307370843742</v>
+        <v>0.5836868608093746</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>1.8380866977136774</v>
+        <v>0.64957531055429985</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>1.954603788598168</v>
+        <v>0.71126082925785361</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>2.0593173286096618</v>
+        <v>0.76669740926393859</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>2.1500203679383896</v>
+        <v>0.81471666537914733</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>2.2261147857198051</v>
+        <v>0.85500194538107332</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>2.2882592910813919</v>
+        <v>0.88790197763132517</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>2.3379059096715142</v>
+        <v>0.91418548159080149</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>2.3768749748854199</v>
+        <v>0.93481616317463401</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>2.4070417607329007</v>
+        <v>0.95078681450565328</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>2.4301448270592099</v>
+        <v>0.96301784961958159</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>2.4476929390928484</v>
+        <v>0.97230802657856685</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>2.4609384711529563</v>
+        <v>0.97932036708097692</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>2.4708891433632632</v>
+        <v>0.98458837001584509</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>2.4783380059110103</v>
+        <v>0.98853188548229953</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>2.4838992259106916</v>
+        <v>0.9914760607762485</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>2.4880429018365082</v>
+        <v>0.9936697715605044</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>2.4911257863209508</v>
+        <v>0.99530188687579746</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>2.4934169141508589</v>
+        <v>0.99651483690339604</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>2.4951182304353092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.99741553375986958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>0.26063035911431781</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10513,132 +10513,132 @@
         <v>2.1762390509853201E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f>Data!I27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f>Data!J27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f>Data!K27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f>Data!L27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>Data!M27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>Data!N27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f>Data!O27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f>Data!P27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>Data!Q27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>Data!R27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <f>Data!S27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f>Data!T27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f>Data!U27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <f>Data!V27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <f>Data!W27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f>Data!X27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <f>Data!Y27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <f>Data!Z27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <f>Data!AA27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <f>Data!AB27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <f>Data!AC27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <f>Data!AD27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <f>Data!AE27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <f>Data!AF27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <f>Data!AG27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <f>Data!AH27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AB5">
         <f>Data!AI27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <f>Data!AJ27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AD5">
         <f>Data!AK27</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AE5">
         <f>Data!AL27</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>1.0147740316932731E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1.1960398418308864E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -11029,12 +11029,12 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>0.99924940887163149</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12050,12 +12050,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13071,12 +13071,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14092,12 +14092,12 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>0.99812264157560726</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15113,12 +15113,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16134,12 +16134,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17155,12 +17155,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -18171,9 +18171,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -18271,27 +18271,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -19852,7 +19852,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -23407,7 +23407,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -23517,7 +23517,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -24177,7 +24177,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -24397,7 +24397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -24523,12 +24523,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24778,7 +24778,7 @@
         <v>0.99712837084429951</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25028,7 +25028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25544,12 +25544,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26054,7 +26054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26355,9 +26355,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -26455,27 +26455,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -26582,7 +26582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -26590,7 +26590,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -28256,7 +28256,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -28366,7 +28366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -28586,7 +28586,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -28704,7 +28704,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -28712,7 +28712,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -28822,7 +28822,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -29042,7 +29042,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -29160,7 +29160,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -29490,7 +29490,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -29820,7 +29820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -30040,7 +30040,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -30260,7 +30260,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -30480,7 +30480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -30700,7 +30700,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -30810,7 +30810,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30934,29 +30934,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>919</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -31061,7 +31061,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -31096,7 +31096,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -31131,7 +31131,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -31201,7 +31201,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -31236,7 +31236,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -31271,7 +31271,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -31306,7 +31306,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -31376,7 +31376,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -31411,7 +31411,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -31446,7 +31446,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -31481,7 +31481,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -31586,7 +31586,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -31621,7 +31621,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -31656,7 +31656,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -31726,7 +31726,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -31796,7 +31796,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -31831,7 +31831,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -31866,7 +31866,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31971,7 +31971,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -32006,7 +32006,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -32076,7 +32076,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -32097,9 +32097,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -32197,27 +32197,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -32324,7 +32324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -32340,7 +32340,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -32458,7 +32458,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -32568,7 +32568,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -32788,7 +32788,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -32898,7 +32898,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -33008,7 +33008,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -33118,7 +33118,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -33228,7 +33228,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -33338,7 +33338,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -33448,7 +33448,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -33566,7 +33566,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>408</v>
       </c>
@@ -33896,7 +33896,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>410</v>
       </c>
@@ -34006,7 +34006,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -34116,7 +34116,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -34226,7 +34226,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -34446,7 +34446,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>430</v>
       </c>
@@ -34556,7 +34556,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -34564,7 +34564,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -34674,7 +34674,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -34784,7 +34784,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -34894,7 +34894,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -35004,7 +35004,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -35114,7 +35114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -35224,7 +35224,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -35334,7 +35334,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -35444,7 +35444,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -35554,7 +35554,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -35664,7 +35664,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>444</v>
       </c>
@@ -35774,7 +35774,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>446</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -35790,7 +35790,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -35900,7 +35900,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -36010,7 +36010,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>408</v>
       </c>
@@ -36230,7 +36230,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -36340,7 +36340,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -36450,7 +36450,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -36560,7 +36560,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -36670,7 +36670,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -36780,7 +36780,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -36890,7 +36890,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>420</v>
       </c>
@@ -36898,7 +36898,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>402</v>
       </c>
@@ -37008,7 +37008,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>404</v>
       </c>
@@ -37118,7 +37118,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -37228,7 +37228,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>408</v>
       </c>
@@ -37338,7 +37338,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>410</v>
       </c>
@@ -37448,7 +37448,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -37558,7 +37558,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -37668,7 +37668,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -37778,7 +37778,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -37888,7 +37888,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -37998,7 +37998,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -38006,7 +38006,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -38226,7 +38226,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>406</v>
       </c>
@@ -38336,7 +38336,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -38446,7 +38446,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -38556,7 +38556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -38666,7 +38666,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>413</v>
       </c>
@@ -38776,7 +38776,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -38886,7 +38886,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -38996,7 +38996,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -39106,7 +39106,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -39117,7 +39117,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>404</v>
       </c>
@@ -39337,7 +39337,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -39447,7 +39447,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -39557,7 +39557,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -39667,7 +39667,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -39777,7 +39777,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -39887,7 +39887,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -39997,7 +39997,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -40107,7 +40107,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -40217,7 +40217,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -40225,7 +40225,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -40233,7 +40233,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -40343,7 +40343,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -40453,7 +40453,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -40563,7 +40563,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -40783,7 +40783,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -40893,7 +40893,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -41003,7 +41003,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>415</v>
       </c>
@@ -41113,7 +41113,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -41223,7 +41223,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -41330,7 +41330,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -41338,7 +41338,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -41448,7 +41448,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -41558,7 +41558,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -41778,7 +41778,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -41888,7 +41888,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -41998,7 +41998,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>413</v>
       </c>
@@ -42108,7 +42108,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>415</v>
       </c>
@@ -42218,7 +42218,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -42328,7 +42328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -42435,7 +42435,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -42443,7 +42443,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -42553,7 +42553,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -42663,7 +42663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>406</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -42883,7 +42883,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -42993,7 +42993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -43103,7 +43103,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -43213,7 +43213,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -43323,7 +43323,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -43433,7 +43433,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>521</v>
       </c>
@@ -43540,7 +43540,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -43647,7 +43647,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -43655,7 +43655,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -43663,7 +43663,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -43773,7 +43773,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -43883,7 +43883,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -43993,7 +43993,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -44103,7 +44103,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -44213,7 +44213,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -44323,7 +44323,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -44433,7 +44433,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -44543,7 +44543,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -44653,7 +44653,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -44763,7 +44763,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>420</v>
       </c>
@@ -44771,7 +44771,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -44881,7 +44881,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -44991,7 +44991,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>406</v>
       </c>
@@ -45101,7 +45101,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -45211,7 +45211,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -45321,7 +45321,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -45431,7 +45431,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -45541,7 +45541,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>415</v>
       </c>
@@ -45651,7 +45651,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -45761,7 +45761,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -45871,7 +45871,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -45879,7 +45879,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -46099,7 +46099,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -46319,7 +46319,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -46429,7 +46429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -46539,7 +46539,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -46649,7 +46649,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -46759,7 +46759,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -46869,7 +46869,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -46979,7 +46979,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -47089,7 +47089,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -47097,7 +47097,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -47105,7 +47105,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -47113,7 +47113,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -47223,7 +47223,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -47333,7 +47333,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -47553,7 +47553,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -47663,7 +47663,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -47773,7 +47773,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>413</v>
       </c>
@@ -47883,7 +47883,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>415</v>
       </c>
@@ -47993,7 +47993,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -48103,7 +48103,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -48210,7 +48210,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -48328,7 +48328,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -48438,7 +48438,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -48548,7 +48548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -48658,7 +48658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -48768,7 +48768,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>282</v>
       </c>
@@ -48878,7 +48878,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>413</v>
       </c>
@@ -48988,7 +48988,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -49098,7 +49098,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -49208,7 +49208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>510</v>
       </c>
@@ -49315,7 +49315,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>402</v>
       </c>
@@ -49433,7 +49433,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -49543,7 +49543,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -49653,7 +49653,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -49763,7 +49763,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>410</v>
       </c>
@@ -49873,7 +49873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -49983,7 +49983,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>413</v>
       </c>
@@ -50093,7 +50093,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>415</v>
       </c>
@@ -50203,7 +50203,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -50313,7 +50313,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -50420,7 +50420,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -50527,7 +50527,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -50535,7 +50535,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -50543,7 +50543,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -50653,7 +50653,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -50763,7 +50763,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -50873,7 +50873,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -50983,7 +50983,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -51093,7 +51093,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>282</v>
       </c>
@@ -51203,7 +51203,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -51313,7 +51313,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -51423,7 +51423,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -51533,7 +51533,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -51643,7 +51643,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -51651,7 +51651,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>402</v>
       </c>
@@ -51761,7 +51761,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>404</v>
       </c>
@@ -51871,7 +51871,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -51981,7 +51981,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>408</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -52201,7 +52201,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -52311,7 +52311,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -52421,7 +52421,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>415</v>
       </c>
@@ -52531,7 +52531,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -52641,7 +52641,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -52751,7 +52751,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -52759,7 +52759,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -52869,7 +52869,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>404</v>
       </c>
@@ -52979,7 +52979,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>406</v>
       </c>
@@ -53089,7 +53089,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>408</v>
       </c>
@@ -53199,7 +53199,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>410</v>
       </c>
@@ -53309,7 +53309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -53419,7 +53419,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>413</v>
       </c>
@@ -53529,7 +53529,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>415</v>
       </c>
@@ -53639,7 +53639,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -53749,7 +53749,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -53859,7 +53859,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -53969,7 +53969,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53977,7 +53977,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -54087,7 +54087,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -54197,7 +54197,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -54205,7 +54205,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>625</v>
       </c>
@@ -54315,7 +54315,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>627</v>
       </c>
@@ -54425,7 +54425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>629</v>
       </c>
@@ -54535,7 +54535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>631</v>
       </c>
@@ -54645,7 +54645,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -54653,7 +54653,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -54763,7 +54763,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>622</v>
       </c>
@@ -54873,7 +54873,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>624</v>
       </c>
@@ -54881,7 +54881,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>625</v>
       </c>
@@ -54991,7 +54991,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -55101,7 +55101,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -55211,7 +55211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -55321,7 +55321,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -55329,7 +55329,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>640</v>
       </c>
@@ -55439,7 +55439,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>642</v>
       </c>
@@ -55549,7 +55549,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>644</v>
       </c>
@@ -55659,7 +55659,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>624</v>
       </c>
@@ -55667,7 +55667,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>625</v>
       </c>
@@ -55777,7 +55777,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -55887,7 +55887,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>629</v>
       </c>
@@ -55997,7 +55997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>631</v>
       </c>
@@ -56121,18 +56121,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56158,7 +56158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56185,7 +56185,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56213,7 +56213,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56239,7 +56239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56265,7 +56265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56291,7 +56291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56317,7 +56317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="44">
         <f>B3/SUM(B3:H3)</f>
         <v>1.6153546520046278E-2</v>
@@ -56342,19 +56342,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56380,7 +56380,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56408,7 +56408,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56435,7 +56435,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56461,7 +56461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56487,7 +56487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56513,7 +56513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56552,81 +56552,81 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.26953125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -56635,13 +56635,13 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -56650,7 +56650,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -56659,7 +56659,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -56668,7 +56668,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -56677,7 +56677,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -56686,7 +56686,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -56695,7 +56695,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -56704,13 +56704,13 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N26" s="36"/>
       <c r="O26" s="38"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>930</v>
       </c>
@@ -56719,13 +56719,13 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N28" s="36"/>
       <c r="O28" s="38"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>945</v>
       </c>
@@ -56734,13 +56734,13 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N30" s="36"/>
       <c r="O30" s="38"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>946</v>
       </c>
@@ -56749,7 +56749,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>947</v>
@@ -56768,7 +56768,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>44947</v>
       </c>
@@ -56789,7 +56789,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>44978</v>
       </c>
@@ -56810,7 +56810,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>45006</v>
       </c>
@@ -56831,7 +56831,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="42">
         <v>45037</v>
       </c>
@@ -56852,7 +56852,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="42">
         <v>45067</v>
       </c>
@@ -56873,7 +56873,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="42">
         <v>45098</v>
       </c>
@@ -56894,7 +56894,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="42">
         <v>45128</v>
       </c>
@@ -56927,7 +56927,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="42">
         <v>45159</v>
       </c>
@@ -56948,7 +56948,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="42">
         <v>45190</v>
       </c>
@@ -56969,7 +56969,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="42">
         <v>45220</v>
       </c>
@@ -56990,7 +56990,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="42">
         <v>45251</v>
       </c>
@@ -57011,7 +57011,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="42">
         <v>45281</v>
       </c>
@@ -57032,7 +57032,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="42">
         <v>44948</v>
       </c>
@@ -57053,7 +57053,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="42">
         <v>44979</v>
       </c>
@@ -57074,7 +57074,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="42">
         <v>45007</v>
       </c>
@@ -57095,7 +57095,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="42">
         <v>45038</v>
       </c>
@@ -57116,7 +57116,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="42">
         <v>45068</v>
       </c>
@@ -57137,7 +57137,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="42">
         <v>45099</v>
       </c>
@@ -57158,7 +57158,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="42">
         <v>45129</v>
       </c>
@@ -57179,7 +57179,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="42">
         <v>45160</v>
       </c>
@@ -57200,7 +57200,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="42">
         <v>45191</v>
       </c>
@@ -57221,7 +57221,7 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="42">
         <v>45221</v>
       </c>
@@ -57242,7 +57242,7 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="42">
         <v>45252</v>
       </c>
@@ -57263,7 +57263,7 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="42">
         <v>45282</v>
       </c>
@@ -57284,13 +57284,13 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N57" s="36"/>
       <c r="O57" s="38"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>951</v>
       </c>
@@ -57307,7 +57307,7 @@
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>952</v>
       </c>
@@ -57324,7 +57324,7 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>931</v>
       </c>
@@ -57419,7 +57419,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>953</v>
       </c>
@@ -57514,7 +57514,7 @@
         <v>15079600</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -57609,7 +57609,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>955</v>
       </c>
@@ -57704,7 +57704,7 @@
         <v>6490060</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>956</v>
       </c>
@@ -57799,7 +57799,7 @@
         <v>185550</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>957</v>
       </c>
@@ -57894,7 +57894,7 @@
         <v>507957</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>958</v>
       </c>
@@ -57989,7 +57989,7 @@
         <v>5433</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>959</v>
       </c>
@@ -58084,7 +58084,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>931</v>
       </c>
@@ -58179,7 +58179,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>960</v>
       </c>
@@ -58274,7 +58274,7 @@
         <v>12739700</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>961</v>
       </c>
@@ -58369,7 +58369,7 @@
         <v>8181.79</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>962</v>
       </c>
@@ -58464,7 +58464,7 @@
         <v>8837860</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>963</v>
       </c>
@@ -58559,7 +58559,7 @@
         <v>252673</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>964</v>
       </c>
@@ -58654,7 +58654,7 @@
         <v>429138</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>965</v>
       </c>
@@ -58749,7 +58749,7 @@
         <v>7398.52</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>966</v>
       </c>
@@ -58844,7 +58844,7 @@
         <v>1864.12</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>932</v>
       </c>
@@ -58969,7 +58969,7 @@
         <v>0.67691915148896309</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>933</v>
       </c>
@@ -59094,7 +59094,7 @@
         <v>2.2802051873582804E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>934</v>
       </c>
@@ -59219,7 +59219,7 @@
         <v>0.69972120336254584</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>932</v>
       </c>
@@ -59344,7 +59344,7 @@
         <v>0.571881561798261</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>933</v>
       </c>
@@ -59469,7 +59469,7 @@
         <v>1.9263884523731498E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>934</v>
       </c>
@@ -59594,7 +59594,7 @@
         <v>0.59114544632199251</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
@@ -59626,7 +59626,7 @@
       <c r="AD86" s="40"/>
       <c r="AE86" s="40"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>967</v>
       </c>
@@ -59634,7 +59634,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>976</v>
       </c>
@@ -59642,7 +59642,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -59654,7 +59654,7 @@
         <v>1.0567375886524823E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -59666,7 +59666,7 @@
         <v>1.6308663341138147E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>931</v>
       </c>
@@ -59761,7 +59761,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>969</v>
       </c>
@@ -59856,7 +59856,7 @@
         <v>97356</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>970</v>
       </c>
@@ -59951,7 +59951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>971</v>
       </c>
@@ -60046,7 +60046,7 @@
         <v>16023</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>972</v>
       </c>
@@ -60141,7 +60141,7 @@
         <v>52962</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>973</v>
       </c>
@@ -60236,7 +60236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>974</v>
       </c>
@@ -60331,7 +60331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>975</v>
       </c>
@@ -60426,7 +60426,7 @@
         <v>8232</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>978</v>
       </c>
@@ -60551,7 +60551,7 @@
         <v>0.55742210312961626</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>979</v>
       </c>
@@ -60676,7 +60676,7 @@
         <v>4.7133189048060735E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>999</v>
       </c>
@@ -60801,12 +60801,12 @@
         <v>0.60455529217767701</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
         <v>931</v>
       </c>
@@ -60901,7 +60901,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>981</v>
       </c>
@@ -60996,7 +60996,7 @@
         <v>1107250</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>982</v>
       </c>
@@ -61091,7 +61091,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>983</v>
       </c>
@@ -61186,7 +61186,7 @@
         <v>922863</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>984</v>
       </c>
@@ -61281,7 +61281,7 @@
         <v>457686</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>985</v>
       </c>
@@ -61376,7 +61376,7 @@
         <v>34482</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>986</v>
       </c>
@@ -61471,7 +61471,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>987</v>
       </c>
@@ -61566,7 +61566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>978</v>
       </c>
@@ -61691,7 +61691,7 @@
         <v>0.43878976848068768</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>988</v>
       </c>
@@ -61816,7 +61816,7 @@
         <v>1.3664799093927364E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>979</v>
       </c>
@@ -61941,7 +61941,7 @@
         <v>7.1331820570353384E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>989</v>
       </c>
@@ -62066,12 +62066,12 @@
         <v>0.45246170075667208</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>931</v>
       </c>
@@ -62166,7 +62166,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>991</v>
       </c>
@@ -62261,7 +62261,7 @@
         <v>141528</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>992</v>
       </c>
@@ -62356,7 +62356,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>993</v>
       </c>
@@ -62451,7 +62451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>994</v>
       </c>
@@ -62546,7 +62546,7 @@
         <v>130056</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>995</v>
       </c>
@@ -62641,7 +62641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>996</v>
       </c>
@@ -62736,7 +62736,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>997</v>
       </c>
@@ -62831,7 +62831,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>978</v>
       </c>
@@ -62956,7 +62956,7 @@
         <v>0.44366283279884888</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>988</v>
       </c>
@@ -63081,7 +63081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>979</v>
       </c>
@@ -63206,7 +63206,7 @@
         <v>0.14137661873548193</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>989</v>
       </c>
@@ -63348,24 +63348,24 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -63386,7 +63386,7 @@
       </c>
       <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -63409,7 +63409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -63432,7 +63432,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -63455,12 +63455,12 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -63481,7 +63481,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63496,7 +63496,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -63507,7 +63507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -63647,7 +63647,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -63791,7 +63791,7 @@
         <v>0.99798985959100972</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -63928,7 +63928,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -64063,7 +64063,7 @@
         <v>0.79999999999999893</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -64198,7 +64198,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -64336,7 +64336,7 @@
         <v>0.49899492979550486</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>124</v>
       </c>
@@ -64473,7 +64473,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -64613,7 +64613,7 @@
         <v>3.1062760226311276E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -64755,7 +64755,7 @@
         <v>0.99798985959100972</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -64891,7 +64891,7 @@
         <v>1.2353695258898734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -65026,7 +65026,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -65161,7 +65161,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -65298,7 +65298,7 @@
         <v>0.49273964569777012</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -65435,7 +65435,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -65575,7 +65575,7 @@
         <v>3.1350240049135271E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -65589,10 +65589,10 @@
         <v>0.9</v>
       </c>
       <c r="E24" s="22">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F24" s="29">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65600,126 +65600,126 @@
       </c>
       <c r="I24" s="22">
         <f t="shared" ref="I24" si="3">E24</f>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
-        <v>0.92312502511458017</v>
+        <v>0.16518383682536597</v>
       </c>
       <c r="K24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.96209409032848614</v>
+        <v>0.18581451840919855</v>
       </c>
       <c r="L24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>1.0117407089186079</v>
+        <v>0.21209802236867481</v>
       </c>
       <c r="M24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>1.0738852142801949</v>
+        <v>0.24499805461892674</v>
       </c>
       <c r="N24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>1.1499796320616105</v>
+        <v>0.28528333462085265</v>
       </c>
       <c r="O24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>1.2406826713903383</v>
+        <v>0.33330259073606139</v>
       </c>
       <c r="P24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>1.3453962114018321</v>
+        <v>0.38873917074214637</v>
       </c>
       <c r="Q24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>1.4619133022863227</v>
+        <v>0.45042468944570024</v>
       </c>
       <c r="R24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>1.5863692629156259</v>
+        <v>0.51631313919062538</v>
       </c>
       <c r="S24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>1.7136307370843742</v>
+        <v>0.5836868608093746</v>
       </c>
       <c r="T24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>1.8380866977136774</v>
+        <v>0.64957531055429985</v>
       </c>
       <c r="U24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>1.954603788598168</v>
+        <v>0.71126082925785361</v>
       </c>
       <c r="V24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>2.0593173286096618</v>
+        <v>0.76669740926393859</v>
       </c>
       <c r="W24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>2.1500203679383896</v>
+        <v>0.81471666537914733</v>
       </c>
       <c r="X24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>2.2261147857198051</v>
+        <v>0.85500194538107332</v>
       </c>
       <c r="Y24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>2.2882592910813919</v>
+        <v>0.88790197763132517</v>
       </c>
       <c r="Z24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>2.3379059096715142</v>
+        <v>0.91418548159080149</v>
       </c>
       <c r="AA24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>2.3768749748854199</v>
+        <v>0.93481616317463401</v>
       </c>
       <c r="AB24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>2.4070417607329007</v>
+        <v>0.95078681450565328</v>
       </c>
       <c r="AC24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>2.4301448270592099</v>
+        <v>0.96301784961958159</v>
       </c>
       <c r="AD24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>2.4476929390928484</v>
+        <v>0.97230802657856685</v>
       </c>
       <c r="AE24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>2.4609384711529563</v>
+        <v>0.97932036708097692</v>
       </c>
       <c r="AF24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>2.4708891433632632</v>
+        <v>0.98458837001584509</v>
       </c>
       <c r="AG24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>2.4783380059110103</v>
+        <v>0.98853188548229953</v>
       </c>
       <c r="AH24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>2.4838992259106916</v>
+        <v>0.9914760607762485</v>
       </c>
       <c r="AI24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>2.4880429018365082</v>
+        <v>0.9936697715605044</v>
       </c>
       <c r="AJ24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>2.4911257863209508</v>
+        <v>0.99530188687579746</v>
       </c>
       <c r="AK24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>2.4934169141508589</v>
+        <v>0.99651483690339604</v>
       </c>
       <c r="AL24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>2.4951182304353092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.99741553375986958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -65856,7 +65856,7 @@
         <v>0.26063035911431781</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -65992,15 +65992,15 @@
         <v>2.1762390509853201E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>IF(E27=F27,"n/a",IF(OR(C27="battery electric vehicle",C27="natural gas vehicle",C27="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66008,126 +66008,126 @@
       </c>
       <c r="I27" s="22">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,J$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,K$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,L$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,M$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,N$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,O$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,P$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Q$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,R$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,S$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="T27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,T$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,U$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="V27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,V$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="W27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,W$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,X$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Y27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Y$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Z27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Z$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AA27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AA$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AB27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AB$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AC27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AC$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AD27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AD$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AE27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AE$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AF27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AF$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AG27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AG$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AH27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AH$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AI27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AI$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AJ27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AJ$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AK27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AK$9))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AL27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AL$9))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -66262,7 +66262,7 @@
         <v>1.0147740316932731E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>124</v>
       </c>
@@ -66398,7 +66398,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -66537,7 +66537,7 @@
         <v>4.9291135840030698E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -66678,7 +66678,7 @@
         <v>0.99924940887163149</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -66815,7 +66815,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -66950,7 +66950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -67085,7 +67085,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -67220,7 +67220,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -67357,7 +67357,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -67495,7 +67495,7 @@
         <v>0.14889194762300451</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -67636,7 +67636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -67771,7 +67771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -67906,7 +67906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -68041,7 +68041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -68176,7 +68176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -68311,7 +68311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -68449,7 +68449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -68590,7 +68590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -68725,7 +68725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -68860,7 +68860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -68995,7 +68995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -69130,7 +69130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -69265,7 +69265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -69403,7 +69403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -69545,7 +69545,7 @@
         <v>0.99812264157560726</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -69680,7 +69680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -69815,7 +69815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -69951,7 +69951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -70086,7 +70086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -70221,7 +70221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -70359,7 +70359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -70500,7 +70500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -70635,7 +70635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -70770,7 +70770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -70905,7 +70905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -71040,7 +71040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -71175,7 +71175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -71313,7 +71313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -71454,7 +71454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -71589,7 +71589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -71724,7 +71724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -71859,7 +71859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -71994,7 +71994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -72129,7 +72129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -72267,7 +72267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -72408,7 +72408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -72543,7 +72543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -72678,7 +72678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -72813,7 +72813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -72948,7 +72948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -73083,7 +73083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -73221,7 +73221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -73363,7 +73363,7 @@
         <v>0.99712837084429951</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -73499,7 +73499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -73634,7 +73634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -73770,7 +73770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -73906,7 +73906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -74042,7 +74042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -74181,7 +74181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -74322,7 +74322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -74457,7 +74457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -74592,7 +74592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -74727,7 +74727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -74862,7 +74862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -74997,7 +74997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">
@@ -75135,7 +75135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803E369-3891-4FC1-9D03-55B00C5B5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676525AD-CC88-4B9E-AB3D-EFB071118F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60765" yWindow="2805" windowWidth="21600" windowHeight="12525" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3330,7 +3330,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3526,6 +3526,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3852,7 +3858,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3928,6 +3934,8 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -7087,16 +7095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>437356</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>513557</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7417,17 +7425,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7435,512 +7443,512 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="28" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -7965,13 +7973,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8220,7 +8228,7 @@
         <v>0.99798985959100972</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8470,7 +8478,7 @@
         <v>0.79999999999999893</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8595,7 +8603,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +8728,7 @@
         <v>0.49899492979550486</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8845,7 +8853,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -8986,12 +8994,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -9116,7 +9124,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9126,122 +9134,122 @@
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.35069853975306242</v>
+        <v>0.31034182218529111</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.36674462542937664</v>
+        <v>0.31388821401385425</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.38718735073119148</v>
+        <v>0.31861789550380609</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.41277626470360962</v>
+        <v>0.32489983249084531</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.44410926026066311</v>
+        <v>0.33319811122429671</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.48145757057249217</v>
+        <v>0.34408134923989753</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.52457491057722483</v>
+        <v>0.35822088754574566</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.57255253623554458</v>
+        <v>0.37636777483692901</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.62379910825937523</v>
+        <v>0.39929574543034146</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.67620089174062459</v>
+        <v>0.42769786666444942</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.72744746376445535</v>
+        <v>0.46203265155068762</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.77542508942277499</v>
+        <v>0.50233534816249725</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.81854242942750788</v>
+        <v>0.54804058564194313</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.85589073973933671</v>
+        <v>0.59789023823183873</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.88722373529639031</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.91281264926880845</v>
+        <v>0.70210976176816131</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.93325537457062335</v>
+        <v>0.7519594143580568</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.94930146024693762</v>
+        <v>0.79766465183750268</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.96172307794884149</v>
+        <v>0.8379673484493122</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.97123610525967452</v>
+        <v>0.87230213333555051</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.97846179844999637</v>
+        <v>0.90070425456965864</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.98391584106298202</v>
+        <v>0.92363222516307086</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.98801317667899058</v>
+        <v>0.94177911245425427</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.99108035537512174</v>
+        <v>0.95591865076010252</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.99337026949263763</v>
+        <v>0.96680188877570328</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.99507648899150336</v>
+        <v>0.97510016750915463</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99634591201450906</v>
+        <v>0.9813821044961939</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99728931759153028</v>
+        <v>0.98611178598614568</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99798985959100972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.98965817781470888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9366,7 +9374,7 @@
         <v>1.2353695258898734E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9491,7 +9499,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9616,7 +9624,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>0.49273964569777012</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10007,13 +10015,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -10138,507 +10146,507 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!I24</f>
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>0.6289705941446071</v>
+        <v>6.6750934139880036E-2</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.63813978595964382</v>
+        <v>7.2343622496426507E-2</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>0.64982134327496655</v>
+        <v>7.8447036139913343E-2</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>0.66444357983063407</v>
+        <v>8.5099598221031109E-2</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>0.68234814872037897</v>
+        <v>9.2340969528983116E-2</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>0.70369004032713844</v>
+        <v>0.10021173140470754</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>0.72832852032984285</v>
+        <v>0.10875298422848828</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>0.75574430642031121</v>
+        <v>0.11800585298365679</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>0.78502806186250018</v>
+        <v>0.12801089280189637</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>0.8149719381374998</v>
+        <v>0.13880738961936787</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>0.84425569357968877</v>
+        <v>0.15043255425148291</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>0.87167147967015723</v>
+        <v>0.16292061243269934</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>0.89630995967286164</v>
+        <v>0.17630179871741478</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>0.91765185127962101</v>
+        <v>0.19060126856829279</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>0.93555642016936591</v>
+        <v>0.20583795032700405</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>0.95017865672503343</v>
+        <v>0.22202336678786697</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>0.96186021404035627</v>
+        <v>0.23916046433597252</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>0.97102940585539288</v>
+        <v>0.2572424954608335</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>0.97812747311362369</v>
+        <v>0.27625200715629517</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>0.98356348871981403</v>
+        <v>0.29615999240124607</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>0.98769245625714075</v>
+        <v>0.31692526368366364</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>0.99080905203598979</v>
+        <v>0.33849410555351556</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>0.99315038667370892</v>
+        <v>0.3608002568364625</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>0.99490306021435537</v>
+        <v>0.38376526211016398</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>0.99621158256722153</v>
+        <v>0.40729921648867251</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>0.99718656513800186</v>
+        <v>0.4313019083564576</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>0.99791194972257657</v>
+        <v>0.45566434266064693</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>0.99845103862373152</v>
+        <v>0.4802706043958494</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>0.99885134833771982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f>Data!I25</f>
-        <v>0.29802375741500553</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
         <f>Data!J25</f>
-        <v>0.29596244960239987</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
         <f>Data!K25</f>
-        <v>0.29525559107671612</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
         <f>Data!L25</f>
-        <v>0.29431288202296346</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
         <f>Data!M25</f>
-        <v>0.2930607810336332</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
         <f>Data!N25</f>
-        <v>0.29140678752282123</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
         <f>Data!O25</f>
-        <v>0.28923756597307232</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <f>Data!P25</f>
-        <v>0.28641930626464923</v>
+        <v>0.01</v>
       </c>
       <c r="J3">
         <f>Data!Q25</f>
-        <v>0.28280231112804816</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
         <f>Data!R25</f>
-        <v>0.27823236164867954</v>
+        <v>0.01</v>
       </c>
       <c r="L3">
         <f>Data!S25</f>
-        <v>0.2725713172654462</v>
+        <v>0.01</v>
       </c>
       <c r="M3">
         <f>Data!T25</f>
-        <v>0.26572778823718668</v>
+        <v>0.01</v>
       </c>
       <c r="N3">
         <f>Data!U25</f>
-        <v>0.25769474900033379</v>
+        <v>0.01</v>
       </c>
       <c r="O3">
         <f>Data!V25</f>
-        <v>0.24858488795211589</v>
+        <v>0.01</v>
       </c>
       <c r="P3">
         <f>Data!W25</f>
-        <v>0.23864897177620478</v>
+        <v>0.01</v>
       </c>
       <c r="Q3">
         <f>Data!X25</f>
-        <v>0.22826257592436899</v>
+        <v>0.01</v>
       </c>
       <c r="R3">
         <f>Data!Y25</f>
-        <v>0.21787618007253318</v>
+        <v>0.01</v>
       </c>
       <c r="S3">
         <f>Data!Z25</f>
-        <v>0.20794026389662207</v>
+        <v>0.01</v>
       </c>
       <c r="T3">
         <f>Data!AA25</f>
-        <v>0.19883040284840414</v>
+        <v>0.01</v>
       </c>
       <c r="U3">
         <f>Data!AB25</f>
-        <v>0.19079736361155128</v>
+        <v>0.01</v>
       </c>
       <c r="V3">
         <f>Data!AC25</f>
-        <v>0.18395383458329176</v>
+        <v>0.01</v>
       </c>
       <c r="W3">
         <f>Data!AD25</f>
-        <v>0.17829279020005839</v>
+        <v>0.01</v>
       </c>
       <c r="X3">
         <f>Data!AE25</f>
-        <v>0.17372284072068978</v>
+        <v>0.01</v>
       </c>
       <c r="Y3">
         <f>Data!AF25</f>
-        <v>0.17010584558408873</v>
+        <v>0.01</v>
       </c>
       <c r="Z3">
         <f>Data!AG25</f>
-        <v>0.16728758587566564</v>
+        <v>0.01</v>
       </c>
       <c r="AA3">
         <f>Data!AH25</f>
-        <v>0.1651183643259167</v>
+        <v>0.01</v>
       </c>
       <c r="AB3">
         <f>Data!AI25</f>
-        <v>0.16346437081510473</v>
+        <v>0.01</v>
       </c>
       <c r="AC3">
         <f>Data!AJ25</f>
-        <v>0.1622122698257745</v>
+        <v>0.01</v>
       </c>
       <c r="AD3">
         <f>Data!AK25</f>
-        <v>0.16126956077202181</v>
+        <v>0.01</v>
       </c>
       <c r="AE3">
         <f>Data!AL25</f>
-        <v>0.16056270224633809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>Data!I26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="C4">
         <f>Data!J26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="D4">
         <f>Data!K26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="E4">
         <f>Data!L26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="F4">
         <f>Data!M26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="G4">
         <f>Data!N26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="H4">
         <f>Data!O26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="I4">
         <f>Data!P26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="J4">
         <f>Data!Q26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="K4">
         <f>Data!R26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="L4">
         <f>Data!S26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="M4">
         <f>Data!T26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="N4">
         <f>Data!U26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="O4">
         <f>Data!V26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="P4">
         <f>Data!W26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="Q4">
         <f>Data!X26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="R4">
         <f>Data!Y26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="S4">
         <f>Data!Z26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="T4">
         <f>Data!AA26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="U4">
         <f>Data!AB26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="V4">
         <f>Data!AC26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="W4">
         <f>Data!AD26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="X4">
         <f>Data!AE26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="Y4">
         <f>Data!AF26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="Z4">
         <f>Data!AG26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AA4">
         <f>Data!AH26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AB4">
         <f>Data!AI26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AC4">
         <f>Data!AJ26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AD4">
         <f>Data!AK26</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AE4">
         <f>Data!AL26</f>
-        <v>0.29802375741500553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f>Data!I27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f>Data!J27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f>Data!K27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f>Data!L27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>Data!M27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>Data!N27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f>Data!O27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f>Data!P27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>Data!Q27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>Data!R27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <f>Data!S27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f>Data!T27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f>Data!U27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <f>Data!V27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <f>Data!W27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f>Data!X27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <f>Data!Y27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <f>Data!Z27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <f>Data!AA27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <f>Data!AB27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <f>Data!AC27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <f>Data!AD27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <f>Data!AE27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <f>Data!AF27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <f>Data!AG27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <f>Data!AH27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5">
         <f>Data!AI27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <f>Data!AJ27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5">
         <f>Data!AK27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5">
         <f>Data!AL27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10763,7 +10771,7 @@
         <v>5.9113558098403615E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -10888,7 +10896,7 @@
         <v>2.1496445375763083E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10898,119 +10906,119 @@
       </c>
       <c r="C8">
         <f>Data!J30</f>
-        <v>8.2215464117929744E-4</v>
+        <v>2.3119337344837518E-4</v>
       </c>
       <c r="D8">
         <f>Data!K30</f>
-        <v>1.0750392070949643E-3</v>
+        <v>2.8142697773186377E-4</v>
       </c>
       <c r="E8">
         <f>Data!L30</f>
-        <v>1.4123012774822749E-3</v>
+        <v>3.4842153440764017E-4</v>
       </c>
       <c r="F8">
         <f>Data!M30</f>
-        <v>1.860250907661926E-3</v>
+        <v>4.3740333675647861E-4</v>
       </c>
       <c r="G8">
         <f>Data!N30</f>
-        <v>2.4519809580343683E-3</v>
+        <v>5.5494603093169683E-4</v>
       </c>
       <c r="H8">
         <f>Data!O30</f>
-        <v>3.2280381605029394E-3</v>
+        <v>7.0910391822307883E-4</v>
       </c>
       <c r="I8">
         <f>Data!P30</f>
-        <v>4.2362942076558247E-3</v>
+        <v>9.0938634789892916E-4</v>
       </c>
       <c r="J8">
         <f>Data!Q30</f>
-        <v>5.530304553154162E-3</v>
+        <v>1.1664317053296444E-3</v>
       </c>
       <c r="K8">
         <f>Data!R30</f>
-        <v>7.1652423071111148E-3</v>
+        <v>1.4911997110916013E-3</v>
       </c>
       <c r="L8">
         <f>Data!S30</f>
-        <v>9.1905284138303605E-3</v>
+        <v>1.8935074615761042E-3</v>
       </c>
       <c r="M8">
         <f>Data!T30</f>
-        <v>1.1638858319689102E-2</v>
+        <v>2.3798496596498043E-3</v>
       </c>
       <c r="N8">
         <f>Data!U30</f>
-        <v>1.4512745478976212E-2</v>
+        <v>2.9507255839763672E-3</v>
       </c>
       <c r="O8">
         <f>Data!V30</f>
-        <v>1.7771874672476845E-2</v>
+        <v>3.5981269215086611E-3</v>
       </c>
       <c r="P8">
         <f>Data!W30</f>
-        <v>2.1326532015952099E-2</v>
+        <v>4.3042326884184575E-3</v>
       </c>
       <c r="Q8">
         <f>Data!X30</f>
-        <v>2.5042352241617768E-2</v>
+        <v>5.0423522416177639E-3</v>
       </c>
       <c r="R8">
         <f>Data!Y30</f>
-        <v>2.8758172467283436E-2</v>
+        <v>5.7804717948170704E-3</v>
       </c>
       <c r="S8">
         <f>Data!Z30</f>
-        <v>3.2312829810758684E-2</v>
+        <v>6.4865775617268659E-3</v>
       </c>
       <c r="T8">
         <f>Data!AA30</f>
-        <v>3.5571959004259315E-2</v>
+        <v>7.1339788992591602E-3</v>
       </c>
       <c r="U8">
         <f>Data!AB30</f>
-        <v>3.8445846163546425E-2</v>
+        <v>7.7048548235857228E-3</v>
       </c>
       <c r="V8">
         <f>Data!AC30</f>
-        <v>4.0894176069405173E-2</v>
+        <v>8.191197021659425E-3</v>
       </c>
       <c r="W8">
         <f>Data!AD30</f>
-        <v>4.2919462176124419E-2</v>
+        <v>8.5935047721439287E-3</v>
       </c>
       <c r="X8">
         <f>Data!AE30</f>
-        <v>4.4554399930081368E-2</v>
+        <v>8.9182727779058852E-3</v>
       </c>
       <c r="Y8">
         <f>Data!AF30</f>
-        <v>4.5848410275579711E-2</v>
+        <v>9.1753181353365996E-3</v>
       </c>
       <c r="Z8">
         <f>Data!AG30</f>
-        <v>4.6856666322732596E-2</v>
+        <v>9.3756005650124513E-3</v>
       </c>
       <c r="AA8">
         <f>Data!AH30</f>
-        <v>4.7632723525201169E-2</v>
+        <v>9.5297584523038326E-3</v>
       </c>
       <c r="AB8">
         <f>Data!AI30</f>
-        <v>4.822445357557361E-2</v>
+        <v>9.6473011464790499E-3</v>
       </c>
       <c r="AC8">
         <f>Data!AJ30</f>
-        <v>4.8672403205753251E-2</v>
+        <v>9.7362829488278884E-3</v>
       </c>
       <c r="AD8">
         <f>Data!AK30</f>
-        <v>4.900966527614057E-2</v>
+        <v>9.8032775055036658E-3</v>
       </c>
       <c r="AE8">
         <f>Data!AL30</f>
-        <v>4.9262549842056233E-2</v>
+        <v>9.8535111097871539E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11029,12 +11037,12 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11159,7 +11167,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11169,63 +11177,63 @@
       </c>
       <c r="C2">
         <f>Data!J31</f>
-        <v>0.50075059112836851</v>
+        <v>0.53456921017167336</v>
       </c>
       <c r="D2">
         <f>Data!K31</f>
-        <v>0.5004555255972003</v>
+        <v>0.52866208794943437</v>
       </c>
       <c r="E2">
         <f>Data!L31</f>
-        <v>0.50075059112836851</v>
+        <v>0.53456921017167336</v>
       </c>
       <c r="F2">
         <f>Data!M31</f>
-        <v>0.50123631157831738</v>
+        <v>0.54158634824696117</v>
       </c>
       <c r="G2">
         <f>Data!N31</f>
-        <v>0.50203506885794802</v>
+        <v>0.5498752445598426</v>
       </c>
       <c r="H2">
         <f>Data!O31</f>
-        <v>0.50334642546214248</v>
+        <v>0.55960146101105879</v>
       </c>
       <c r="I2">
         <f>Data!P31</f>
-        <v>0.50549347131529654</v>
+        <v>0.57092553245024391</v>
       </c>
       <c r="J2">
         <f>Data!Q31</f>
-        <v>0.50899310498104577</v>
+        <v>0.58399080743303777</v>
       </c>
       <c r="K2">
         <f>Data!R31</f>
-        <v>0.51465611537567812</v>
+        <v>0.59890805572070915</v>
       </c>
       <c r="L2">
         <f>Data!S31</f>
-        <v>0.52371293658878337</v>
+        <v>0.61573760825049118</v>
       </c>
       <c r="M2">
         <f>Data!T31</f>
-        <v>0.53792909001062172</v>
+        <v>0.63447071068499761</v>
       </c>
       <c r="N2">
         <f>Data!U31</f>
-        <v>0.55960146101105879</v>
+        <v>0.65501275943619375</v>
       </c>
       <c r="O2">
         <f>Data!V31</f>
-        <v>0.59121276190317817</v>
+        <v>0.6771718468871023</v>
       </c>
       <c r="P2">
         <f>Data!W31</f>
-        <v>0.63447071068499761</v>
+        <v>0.700656169943774</v>
       </c>
       <c r="Q2">
         <f>Data!X31</f>
-        <v>0.68877033439907276</v>
+        <v>0.72508300134376102</v>
       </c>
       <c r="R2">
         <f>Data!Y31</f>
@@ -11233,58 +11241,58 @@
       </c>
       <c r="S2">
         <f>Data!Z31</f>
-        <v>0.81122966560092724</v>
+        <v>0.77491699865623898</v>
       </c>
       <c r="T2">
         <f>Data!AA31</f>
-        <v>0.86552928931500239</v>
+        <v>0.799343830056226</v>
       </c>
       <c r="U2">
         <f>Data!AB31</f>
-        <v>0.90878723809682183</v>
+        <v>0.8228281531128977</v>
       </c>
       <c r="V2">
         <f>Data!AC31</f>
-        <v>0.9403985389889411</v>
+        <v>0.84498724056380625</v>
       </c>
       <c r="W2">
         <f>Data!AD31</f>
-        <v>0.96207090998937828</v>
+        <v>0.86552928931500239</v>
       </c>
       <c r="X2">
         <f>Data!AE31</f>
-        <v>0.97628706341121663</v>
+        <v>0.88426239174950894</v>
       </c>
       <c r="Y2">
         <f>Data!AF31</f>
-        <v>0.98534388462432188</v>
+        <v>0.90109194427929085</v>
       </c>
       <c r="Z2">
         <f>Data!AG31</f>
-        <v>0.99100689501895423</v>
+        <v>0.91600919256696223</v>
       </c>
       <c r="AA2">
         <f>Data!AH31</f>
-        <v>0.99450652868470346</v>
+        <v>0.9290744675497562</v>
       </c>
       <c r="AB2">
         <f>Data!AI31</f>
-        <v>0.99665357453785763</v>
+        <v>0.9403985389889411</v>
       </c>
       <c r="AC2">
         <f>Data!AJ31</f>
-        <v>0.99796493114205198</v>
+        <v>0.9501247554401574</v>
       </c>
       <c r="AD2">
         <f>Data!AK31</f>
-        <v>0.99876368842168262</v>
+        <v>0.95841365175303883</v>
       </c>
       <c r="AE2">
         <f>Data!AL31</f>
-        <v>0.99924940887163149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.96543078982832664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11417,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11534,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11659,7 +11667,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11784,7 +11792,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11909,7 +11917,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12050,12 +12058,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12180,7 +12188,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12305,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12430,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12555,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12680,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12805,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12930,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13071,12 +13079,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -13201,7 +13209,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13326,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13451,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13576,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13701,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13826,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13951,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14092,12 +14100,12 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -14222,7 +14230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14347,7 +14355,7 @@
         <v>0.99812264157560726</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14472,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14597,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14722,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14847,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14972,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15113,12 +15121,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -15243,7 +15251,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15368,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15493,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15618,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15743,7 +15751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15868,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15993,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16134,12 +16142,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -16264,7 +16272,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16389,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16514,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16639,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16764,7 +16772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16889,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17014,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17155,12 +17163,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -17285,7 +17293,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17410,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17535,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17660,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17785,7 +17793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17910,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -18035,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -18171,9 +18179,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -18271,27 +18279,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -18398,7 +18406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -18406,7 +18414,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -18414,7 +18422,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -18524,7 +18532,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -18634,7 +18642,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -18744,7 +18752,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -18752,7 +18760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -18862,7 +18870,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -18972,7 +18980,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -19082,7 +19090,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -19192,7 +19200,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -19302,7 +19310,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -19412,7 +19420,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -19522,7 +19530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -19632,7 +19640,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -19742,7 +19750,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -19852,7 +19860,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -19962,7 +19970,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -20072,7 +20080,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -20182,7 +20190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -20292,7 +20300,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -20402,7 +20410,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -20512,7 +20520,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -20622,7 +20630,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -20630,7 +20638,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -20638,7 +20646,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -20748,7 +20756,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -20858,7 +20866,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -20968,7 +20976,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -20976,7 +20984,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -21086,7 +21094,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -21196,7 +21204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -21306,7 +21314,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -21416,7 +21424,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -21526,7 +21534,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -21636,7 +21644,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -21746,7 +21754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -21856,7 +21864,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -21966,7 +21974,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -22076,7 +22084,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -22186,7 +22194,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -22296,7 +22304,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -22406,7 +22414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -22516,7 +22524,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -22626,7 +22634,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -22736,7 +22744,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -22846,7 +22854,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -22956,7 +22964,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -23066,7 +23074,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -23176,7 +23184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -23187,7 +23195,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -23297,7 +23305,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -23407,7 +23415,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -23517,7 +23525,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -23627,7 +23635,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -23737,7 +23745,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -23847,7 +23855,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -23957,7 +23965,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -24067,7 +24075,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -24177,7 +24185,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -24287,7 +24295,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -24397,7 +24405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -24523,12 +24531,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -24653,7 +24661,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24778,7 +24786,7 @@
         <v>0.99712837084429951</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24903,7 +24911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25028,7 +25036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25153,7 +25161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25278,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25403,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25544,12 +25552,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -25674,7 +25682,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25769,7 +25777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25864,7 +25872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25959,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26054,7 +26062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -26149,7 +26157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -26244,7 +26252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26355,9 +26363,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -26455,27 +26463,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -26582,7 +26590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -26590,7 +26598,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -26598,7 +26606,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -26708,7 +26716,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -26818,7 +26826,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -26928,7 +26936,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -26936,7 +26944,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -27046,7 +27054,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -27156,7 +27164,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -27266,7 +27274,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -27376,7 +27384,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -27486,7 +27494,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -27596,7 +27604,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -27706,7 +27714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -27816,7 +27824,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -27926,7 +27934,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -28036,7 +28044,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -28146,7 +28154,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -28256,7 +28264,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -28366,7 +28374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -28476,7 +28484,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -28586,7 +28594,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -28696,7 +28704,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -28704,7 +28712,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -28712,7 +28720,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -28822,7 +28830,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -28932,7 +28940,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -29042,7 +29050,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -29050,7 +29058,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -29160,7 +29168,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -29270,7 +29278,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -29380,7 +29388,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -29490,7 +29498,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -29600,7 +29608,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -29710,7 +29718,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -29820,7 +29828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -29930,7 +29938,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -30040,7 +30048,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -30150,7 +30158,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -30260,7 +30268,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -30370,7 +30378,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -30480,7 +30488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -30590,7 +30598,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -30700,7 +30708,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -30810,7 +30818,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30934,29 +30942,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>919</v>
       </c>
@@ -30991,7 +30999,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -31026,7 +31034,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -31061,7 +31069,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -31096,7 +31104,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -31131,7 +31139,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -31166,7 +31174,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -31201,7 +31209,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -31236,7 +31244,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -31271,7 +31279,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -31306,7 +31314,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -31341,7 +31349,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -31376,7 +31384,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -31411,7 +31419,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -31446,7 +31454,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -31481,7 +31489,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -31516,7 +31524,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -31551,7 +31559,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -31586,7 +31594,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -31621,7 +31629,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -31656,7 +31664,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -31691,7 +31699,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -31726,7 +31734,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -31761,7 +31769,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -31796,7 +31804,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -31831,7 +31839,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -31866,7 +31874,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -31901,7 +31909,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31936,7 +31944,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31971,7 +31979,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -32006,7 +32014,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -32041,7 +32049,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -32076,7 +32084,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -32097,9 +32105,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -32197,27 +32205,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -32324,7 +32332,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -32332,7 +32340,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -32340,7 +32348,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -32348,7 +32356,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -32458,7 +32466,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -32568,7 +32576,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -32678,7 +32686,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -32788,7 +32796,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -32898,7 +32906,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -33008,7 +33016,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -33118,7 +33126,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -33228,7 +33236,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -33338,7 +33346,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -33448,7 +33456,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -33456,7 +33464,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -33566,7 +33574,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -33676,7 +33684,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -33786,7 +33794,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>408</v>
       </c>
@@ -33896,7 +33904,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>410</v>
       </c>
@@ -34006,7 +34014,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -34116,7 +34124,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -34226,7 +34234,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -34336,7 +34344,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -34446,7 +34454,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>430</v>
       </c>
@@ -34556,7 +34564,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -34564,7 +34572,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -34674,7 +34682,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -34784,7 +34792,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -34894,7 +34902,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -35004,7 +35012,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -35114,7 +35122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -35224,7 +35232,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -35334,7 +35342,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -35444,7 +35452,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -35554,7 +35562,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -35664,7 +35672,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>444</v>
       </c>
@@ -35774,7 +35782,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>446</v>
       </c>
@@ -35782,7 +35790,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -35790,7 +35798,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -35900,7 +35908,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -36010,7 +36018,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -36120,7 +36128,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>408</v>
       </c>
@@ -36230,7 +36238,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -36340,7 +36348,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -36450,7 +36458,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -36560,7 +36568,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -36670,7 +36678,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -36780,7 +36788,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -36890,7 +36898,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>420</v>
       </c>
@@ -36898,7 +36906,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>402</v>
       </c>
@@ -37008,7 +37016,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>404</v>
       </c>
@@ -37118,7 +37126,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -37228,7 +37236,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>408</v>
       </c>
@@ -37338,7 +37346,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>410</v>
       </c>
@@ -37448,7 +37456,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -37558,7 +37566,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -37668,7 +37676,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -37778,7 +37786,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -37888,7 +37896,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -37998,7 +38006,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -38006,7 +38014,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -38116,7 +38124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -38226,7 +38234,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>406</v>
       </c>
@@ -38336,7 +38344,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -38446,7 +38454,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -38556,7 +38564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -38666,7 +38674,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>413</v>
       </c>
@@ -38776,7 +38784,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -38886,7 +38894,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -38996,7 +39004,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -39106,7 +39114,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -39117,7 +39125,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -39227,7 +39235,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>404</v>
       </c>
@@ -39337,7 +39345,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -39447,7 +39455,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -39557,7 +39565,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -39667,7 +39675,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -39777,7 +39785,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -39887,7 +39895,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -39997,7 +40005,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -40107,7 +40115,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -40217,7 +40225,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -40225,7 +40233,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -40233,7 +40241,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -40343,7 +40351,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -40453,7 +40461,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -40563,7 +40571,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -40673,7 +40681,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -40783,7 +40791,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -40893,7 +40901,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -41003,7 +41011,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>415</v>
       </c>
@@ -41113,7 +41121,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -41223,7 +41231,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -41330,7 +41338,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -41338,7 +41346,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -41448,7 +41456,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -41558,7 +41566,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -41668,7 +41676,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -41778,7 +41786,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -41888,7 +41896,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -41998,7 +42006,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>413</v>
       </c>
@@ -42108,7 +42116,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>415</v>
       </c>
@@ -42218,7 +42226,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -42328,7 +42336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -42435,7 +42443,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -42443,7 +42451,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -42553,7 +42561,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -42663,7 +42671,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>406</v>
       </c>
@@ -42773,7 +42781,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -42883,7 +42891,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -42993,7 +43001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -43103,7 +43111,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -43213,7 +43221,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -43323,7 +43331,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -43433,7 +43441,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>521</v>
       </c>
@@ -43540,7 +43548,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -43647,7 +43655,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -43655,7 +43663,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -43663,7 +43671,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -43773,7 +43781,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -43883,7 +43891,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -43993,7 +44001,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -44103,7 +44111,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -44213,7 +44221,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -44323,7 +44331,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -44433,7 +44441,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -44543,7 +44551,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -44653,7 +44661,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -44763,7 +44771,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>420</v>
       </c>
@@ -44771,7 +44779,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -44881,7 +44889,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -44991,7 +44999,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>406</v>
       </c>
@@ -45101,7 +45109,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -45211,7 +45219,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -45321,7 +45329,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -45431,7 +45439,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -45541,7 +45549,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>415</v>
       </c>
@@ -45651,7 +45659,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -45761,7 +45769,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -45871,7 +45879,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -45879,7 +45887,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -45989,7 +45997,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -46099,7 +46107,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -46209,7 +46217,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -46319,7 +46327,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -46429,7 +46437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -46539,7 +46547,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -46649,7 +46657,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -46759,7 +46767,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -46869,7 +46877,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -46979,7 +46987,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -47089,7 +47097,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -47097,7 +47105,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -47105,7 +47113,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -47113,7 +47121,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -47223,7 +47231,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -47333,7 +47341,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -47443,7 +47451,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -47553,7 +47561,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -47663,7 +47671,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -47773,7 +47781,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>413</v>
       </c>
@@ -47883,7 +47891,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>415</v>
       </c>
@@ -47993,7 +48001,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -48103,7 +48111,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -48210,7 +48218,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -48218,7 +48226,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -48328,7 +48336,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -48438,7 +48446,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -48548,7 +48556,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -48658,7 +48666,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -48768,7 +48776,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>282</v>
       </c>
@@ -48878,7 +48886,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>413</v>
       </c>
@@ -48988,7 +48996,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -49098,7 +49106,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -49208,7 +49216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>510</v>
       </c>
@@ -49315,7 +49323,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -49323,7 +49331,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>402</v>
       </c>
@@ -49433,7 +49441,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -49543,7 +49551,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -49653,7 +49661,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -49763,7 +49771,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>410</v>
       </c>
@@ -49873,7 +49881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -49983,7 +49991,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>413</v>
       </c>
@@ -50093,7 +50101,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>415</v>
       </c>
@@ -50203,7 +50211,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -50313,7 +50321,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -50420,7 +50428,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -50527,7 +50535,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -50535,7 +50543,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -50543,7 +50551,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -50653,7 +50661,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -50763,7 +50771,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -50873,7 +50881,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -50983,7 +50991,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -51093,7 +51101,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>282</v>
       </c>
@@ -51203,7 +51211,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -51313,7 +51321,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -51423,7 +51431,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -51533,7 +51541,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -51643,7 +51651,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -51651,7 +51659,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>402</v>
       </c>
@@ -51761,7 +51769,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>404</v>
       </c>
@@ -51871,7 +51879,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -51981,7 +51989,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>408</v>
       </c>
@@ -52091,7 +52099,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -52201,7 +52209,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -52311,7 +52319,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -52421,7 +52429,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>415</v>
       </c>
@@ -52531,7 +52539,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -52641,7 +52649,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -52751,7 +52759,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -52759,7 +52767,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -52869,7 +52877,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>404</v>
       </c>
@@ -52979,7 +52987,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>406</v>
       </c>
@@ -53089,7 +53097,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>408</v>
       </c>
@@ -53199,7 +53207,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>410</v>
       </c>
@@ -53309,7 +53317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -53419,7 +53427,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>413</v>
       </c>
@@ -53529,7 +53537,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>415</v>
       </c>
@@ -53639,7 +53647,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -53749,7 +53757,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -53859,7 +53867,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -53969,7 +53977,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53977,7 +53985,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -54087,7 +54095,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -54197,7 +54205,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -54205,7 +54213,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>625</v>
       </c>
@@ -54315,7 +54323,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>627</v>
       </c>
@@ -54425,7 +54433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>629</v>
       </c>
@@ -54535,7 +54543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>631</v>
       </c>
@@ -54645,7 +54653,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -54653,7 +54661,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -54763,7 +54771,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>622</v>
       </c>
@@ -54873,7 +54881,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>624</v>
       </c>
@@ -54881,7 +54889,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>625</v>
       </c>
@@ -54991,7 +54999,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -55101,7 +55109,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -55211,7 +55219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -55321,7 +55329,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -55329,7 +55337,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>640</v>
       </c>
@@ -55439,7 +55447,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>642</v>
       </c>
@@ -55549,7 +55557,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>644</v>
       </c>
@@ -55659,7 +55667,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>624</v>
       </c>
@@ -55667,7 +55675,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>625</v>
       </c>
@@ -55777,7 +55785,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -55887,7 +55895,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>629</v>
       </c>
@@ -55997,7 +56005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>631</v>
       </c>
@@ -56121,18 +56129,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56158,7 +56166,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56185,7 +56193,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56213,7 +56221,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56239,7 +56247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56265,7 +56273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56291,7 +56299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56317,7 +56325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="44">
         <f>B3/SUM(B3:H3)</f>
         <v>1.6153546520046278E-2</v>
@@ -56342,19 +56350,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56380,7 +56388,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56408,7 +56416,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56435,7 +56443,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56461,7 +56469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56487,7 +56495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56513,7 +56521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56548,85 +56556,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.26953125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -56635,13 +56643,13 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -56650,7 +56658,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -56659,7 +56667,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -56668,7 +56676,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -56677,7 +56685,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -56686,7 +56694,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -56695,7 +56703,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -56704,13 +56712,13 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N26" s="36"/>
       <c r="O26" s="38"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>930</v>
       </c>
@@ -56719,13 +56727,13 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N28" s="36"/>
       <c r="O28" s="38"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>945</v>
       </c>
@@ -56734,13 +56742,13 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N30" s="36"/>
       <c r="O30" s="38"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>946</v>
       </c>
@@ -56749,7 +56757,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>947</v>
@@ -56768,7 +56776,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>44947</v>
       </c>
@@ -56789,7 +56797,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>44978</v>
       </c>
@@ -56810,7 +56818,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>45006</v>
       </c>
@@ -56831,7 +56839,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="42">
         <v>45037</v>
       </c>
@@ -56852,7 +56860,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="42">
         <v>45067</v>
       </c>
@@ -56873,7 +56881,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="42">
         <v>45098</v>
       </c>
@@ -56894,7 +56902,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="42">
         <v>45128</v>
       </c>
@@ -56927,7 +56935,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="42">
         <v>45159</v>
       </c>
@@ -56948,7 +56956,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="42">
         <v>45190</v>
       </c>
@@ -56969,7 +56977,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="42">
         <v>45220</v>
       </c>
@@ -56990,7 +56998,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="42">
         <v>45251</v>
       </c>
@@ -57011,7 +57019,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="42">
         <v>45281</v>
       </c>
@@ -57032,7 +57040,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="42">
         <v>44948</v>
       </c>
@@ -57053,7 +57061,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="42">
         <v>44979</v>
       </c>
@@ -57074,7 +57082,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="42">
         <v>45007</v>
       </c>
@@ -57095,7 +57103,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="42">
         <v>45038</v>
       </c>
@@ -57116,7 +57124,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="42">
         <v>45068</v>
       </c>
@@ -57137,7 +57145,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="42">
         <v>45099</v>
       </c>
@@ -57158,7 +57166,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="42">
         <v>45129</v>
       </c>
@@ -57179,7 +57187,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="42">
         <v>45160</v>
       </c>
@@ -57200,7 +57208,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="42">
         <v>45191</v>
       </c>
@@ -57221,7 +57229,7 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="42">
         <v>45221</v>
       </c>
@@ -57242,7 +57250,7 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="42">
         <v>45252</v>
       </c>
@@ -57263,7 +57271,7 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="42">
         <v>45282</v>
       </c>
@@ -57284,13 +57292,13 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N57" s="36"/>
       <c r="O57" s="38"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>951</v>
       </c>
@@ -57307,7 +57315,7 @@
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>952</v>
       </c>
@@ -57324,7 +57332,7 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>931</v>
       </c>
@@ -57419,7 +57427,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>953</v>
       </c>
@@ -57514,7 +57522,7 @@
         <v>15079600</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -57609,7 +57617,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>955</v>
       </c>
@@ -57704,7 +57712,7 @@
         <v>6490060</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>956</v>
       </c>
@@ -57799,7 +57807,7 @@
         <v>185550</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>957</v>
       </c>
@@ -57894,7 +57902,7 @@
         <v>507957</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>958</v>
       </c>
@@ -57989,7 +57997,7 @@
         <v>5433</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>959</v>
       </c>
@@ -58084,7 +58092,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>931</v>
       </c>
@@ -58179,7 +58187,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>960</v>
       </c>
@@ -58274,7 +58282,7 @@
         <v>12739700</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>961</v>
       </c>
@@ -58369,7 +58377,7 @@
         <v>8181.79</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>962</v>
       </c>
@@ -58464,7 +58472,7 @@
         <v>8837860</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>963</v>
       </c>
@@ -58559,7 +58567,7 @@
         <v>252673</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>964</v>
       </c>
@@ -58654,7 +58662,7 @@
         <v>429138</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>965</v>
       </c>
@@ -58749,7 +58757,7 @@
         <v>7398.52</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>966</v>
       </c>
@@ -58844,7 +58852,7 @@
         <v>1864.12</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>932</v>
       </c>
@@ -58969,7 +58977,7 @@
         <v>0.67691915148896309</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>933</v>
       </c>
@@ -59094,7 +59102,7 @@
         <v>2.2802051873582804E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>934</v>
       </c>
@@ -59219,7 +59227,7 @@
         <v>0.69972120336254584</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>932</v>
       </c>
@@ -59344,7 +59352,7 @@
         <v>0.571881561798261</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>933</v>
       </c>
@@ -59469,7 +59477,7 @@
         <v>1.9263884523731498E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>934</v>
       </c>
@@ -59594,7 +59602,7 @@
         <v>0.59114544632199251</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
@@ -59626,7 +59634,7 @@
       <c r="AD86" s="40"/>
       <c r="AE86" s="40"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>967</v>
       </c>
@@ -59634,7 +59642,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>976</v>
       </c>
@@ -59642,7 +59650,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -59654,7 +59662,7 @@
         <v>1.0567375886524823E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -59666,7 +59674,7 @@
         <v>1.6308663341138147E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>931</v>
       </c>
@@ -59761,7 +59769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>969</v>
       </c>
@@ -59856,7 +59864,7 @@
         <v>97356</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>970</v>
       </c>
@@ -59951,7 +59959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>971</v>
       </c>
@@ -60046,7 +60054,7 @@
         <v>16023</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>972</v>
       </c>
@@ -60141,7 +60149,7 @@
         <v>52962</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>973</v>
       </c>
@@ -60236,7 +60244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>974</v>
       </c>
@@ -60331,7 +60339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>975</v>
       </c>
@@ -60426,7 +60434,7 @@
         <v>8232</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>978</v>
       </c>
@@ -60551,7 +60559,7 @@
         <v>0.55742210312961626</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>979</v>
       </c>
@@ -60676,7 +60684,7 @@
         <v>4.7133189048060735E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>999</v>
       </c>
@@ -60801,12 +60809,12 @@
         <v>0.60455529217767701</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
         <v>931</v>
       </c>
@@ -60901,7 +60909,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>981</v>
       </c>
@@ -60996,7 +61004,7 @@
         <v>1107250</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>982</v>
       </c>
@@ -61091,7 +61099,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>983</v>
       </c>
@@ -61186,7 +61194,7 @@
         <v>922863</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>984</v>
       </c>
@@ -61281,7 +61289,7 @@
         <v>457686</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>985</v>
       </c>
@@ -61376,7 +61384,7 @@
         <v>34482</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>986</v>
       </c>
@@ -61471,7 +61479,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>987</v>
       </c>
@@ -61566,7 +61574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>978</v>
       </c>
@@ -61691,7 +61699,7 @@
         <v>0.43878976848068768</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>988</v>
       </c>
@@ -61816,7 +61824,7 @@
         <v>1.3664799093927364E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>979</v>
       </c>
@@ -61941,7 +61949,7 @@
         <v>7.1331820570353384E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>989</v>
       </c>
@@ -62066,12 +62074,12 @@
         <v>0.45246170075667208</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>931</v>
       </c>
@@ -62166,7 +62174,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>991</v>
       </c>
@@ -62261,7 +62269,7 @@
         <v>141528</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>992</v>
       </c>
@@ -62356,7 +62364,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>993</v>
       </c>
@@ -62451,7 +62459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>994</v>
       </c>
@@ -62546,7 +62554,7 @@
         <v>130056</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>995</v>
       </c>
@@ -62641,7 +62649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>996</v>
       </c>
@@ -62736,7 +62744,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>997</v>
       </c>
@@ -62831,7 +62839,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>978</v>
       </c>
@@ -62956,7 +62964,7 @@
         <v>0.44366283279884888</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>988</v>
       </c>
@@ -63081,7 +63089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>979</v>
       </c>
@@ -63206,7 +63214,7 @@
         <v>0.14137661873548193</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>989</v>
       </c>
@@ -63348,24 +63356,24 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -63386,7 +63394,7 @@
       </c>
       <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -63409,7 +63417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -63429,10 +63437,10 @@
         <v>99</v>
       </c>
       <c r="R3" s="19">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -63455,12 +63463,12 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -63480,8 +63488,11 @@
       <c r="O6" s="22">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63496,7 +63507,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -63507,7 +63518,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -63647,7 +63658,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -63791,7 +63802,7 @@
         <v>0.99798985959100972</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -63928,7 +63939,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -64063,7 +64074,7 @@
         <v>0.79999999999999893</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -64198,7 +64209,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -64336,7 +64347,7 @@
         <v>0.49899492979550486</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>124</v>
       </c>
@@ -64473,7 +64484,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -64613,7 +64624,7 @@
         <v>3.1062760226311276E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -64639,123 +64650,123 @@
         <v>0.3</v>
       </c>
       <c r="J17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.35069853975306242</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
+        <v>0.31034182218529111</v>
       </c>
       <c r="K17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.36674462542937664</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
+        <v>0.31388821401385425</v>
       </c>
       <c r="L17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.38718735073119148</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
+        <v>0.31861789550380609</v>
       </c>
       <c r="M17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.41277626470360962</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
+        <v>0.32489983249084531</v>
       </c>
       <c r="N17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.44410926026066311</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
+        <v>0.33319811122429671</v>
       </c>
       <c r="O17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.48145757057249217</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
+        <v>0.34408134923989753</v>
       </c>
       <c r="P17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.52457491057722483</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
+        <v>0.35822088754574566</v>
       </c>
       <c r="Q17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.57255253623554458</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
+        <v>0.37636777483692901</v>
       </c>
       <c r="R17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.62379910825937523</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
+        <v>0.39929574543034146</v>
       </c>
       <c r="S17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.67620089174062459</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
+        <v>0.42769786666444942</v>
       </c>
       <c r="T17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.72744746376445535</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
+        <v>0.46203265155068762</v>
       </c>
       <c r="U17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.77542508942277499</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
+        <v>0.50233534816249725</v>
       </c>
       <c r="V17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.81854242942750788</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
+        <v>0.54804058564194313</v>
       </c>
       <c r="W17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.85589073973933671</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
+        <v>0.59789023823183873</v>
       </c>
       <c r="X17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.88722373529639031</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="Y17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.91281264926880845</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
+        <v>0.70210976176816131</v>
       </c>
       <c r="Z17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.93325537457062335</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
+        <v>0.7519594143580568</v>
       </c>
       <c r="AA17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.94930146024693762</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
+        <v>0.79766465183750268</v>
       </c>
       <c r="AB17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.96172307794884149</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
+        <v>0.8379673484493122</v>
       </c>
       <c r="AC17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.97123610525967452</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
+        <v>0.87230213333555051</v>
       </c>
       <c r="AD17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.97846179844999637</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
+        <v>0.90070425456965864</v>
       </c>
       <c r="AE17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.98391584106298202</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
+        <v>0.92363222516307086</v>
       </c>
       <c r="AF17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.98801317667899058</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
+        <v>0.94177911245425427</v>
       </c>
       <c r="AG17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.99108035537512174</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
+        <v>0.95591865076010252</v>
       </c>
       <c r="AH17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.99337026949263763</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
+        <v>0.96680188877570328</v>
       </c>
       <c r="AI17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.99507648899150336</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
+        <v>0.97510016750915463</v>
       </c>
       <c r="AJ17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99634591201450906</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
+        <v>0.9813821044961939</v>
       </c>
       <c r="AK17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99728931759153028</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
+        <v>0.98611178598614568</v>
       </c>
       <c r="AL17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99798985959100972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
+        <v>0.98965817781470888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -64891,7 +64902,7 @@
         <v>1.2353695258898734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -65026,7 +65037,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -65161,7 +65172,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -65298,7 +65309,7 @@
         <v>0.49273964569777012</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -65435,7 +65446,7 @@
         <v>8.616510406893596E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -65575,7 +65586,7 @@
         <v>3.1350240049135271E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -65589,7 +65600,7 @@
         <v>0.6</v>
       </c>
       <c r="E24" s="22">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="F24" s="29">
         <v>1</v>
@@ -65598,271 +65609,271 @@
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="49">
         <f t="shared" ref="I24" si="3">E24</f>
-        <v>0.6</v>
-      </c>
-      <c r="J24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
-        <v>0.6289705941446071</v>
-      </c>
-      <c r="K24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.63813978595964382</v>
-      </c>
-      <c r="L24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>0.64982134327496655</v>
-      </c>
-      <c r="M24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>0.66444357983063407</v>
-      </c>
-      <c r="N24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>0.68234814872037897</v>
-      </c>
-      <c r="O24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>0.70369004032713844</v>
-      </c>
-      <c r="P24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>0.72832852032984285</v>
-      </c>
-      <c r="Q24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>0.75574430642031121</v>
-      </c>
-      <c r="R24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>0.78502806186250018</v>
-      </c>
-      <c r="S24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>0.8149719381374998</v>
-      </c>
-      <c r="T24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>0.84425569357968877</v>
-      </c>
-      <c r="U24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>0.87167147967015723</v>
-      </c>
-      <c r="V24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>0.89630995967286164</v>
-      </c>
-      <c r="W24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>0.91765185127962101</v>
-      </c>
-      <c r="X24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>0.93555642016936591</v>
-      </c>
-      <c r="Y24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>0.95017865672503343</v>
-      </c>
-      <c r="Z24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>0.96186021404035627</v>
-      </c>
-      <c r="AA24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>0.97102940585539288</v>
-      </c>
-      <c r="AB24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>0.97812747311362369</v>
-      </c>
-      <c r="AC24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>0.98356348871981403</v>
-      </c>
-      <c r="AD24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>0.98769245625714075</v>
-      </c>
-      <c r="AE24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>0.99080905203598979</v>
-      </c>
-      <c r="AF24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>0.99315038667370892</v>
-      </c>
-      <c r="AG24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>0.99490306021435537</v>
-      </c>
-      <c r="AH24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>0.99621158256722153</v>
-      </c>
-      <c r="AI24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>0.99718656513800186</v>
-      </c>
-      <c r="AJ24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>0.99791194972257657</v>
-      </c>
-      <c r="AK24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>0.99845103862373152</v>
-      </c>
-      <c r="AL24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>0.99885134833771982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="J24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:J$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
+        <v>6.6750934139880036E-2</v>
+      </c>
+      <c r="K24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:K$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
+        <v>7.2343622496426507E-2</v>
+      </c>
+      <c r="L24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:L$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
+        <v>7.8447036139913343E-2</v>
+      </c>
+      <c r="M24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:M$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
+        <v>8.5099598221031109E-2</v>
+      </c>
+      <c r="N24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:N$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
+        <v>9.2340969528983116E-2</v>
+      </c>
+      <c r="O24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:O$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
+        <v>0.10021173140470754</v>
+      </c>
+      <c r="P24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:P$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
+        <v>0.10875298422848828</v>
+      </c>
+      <c r="Q24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:Q$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
+        <v>0.11800585298365679</v>
+      </c>
+      <c r="R24" s="15">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:R$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
+        <v>0.12801089280189637</v>
+      </c>
+      <c r="S24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:S$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
+        <v>0.13880738961936787</v>
+      </c>
+      <c r="T24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:T$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
+        <v>0.15043255425148291</v>
+      </c>
+      <c r="U24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:U$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
+        <v>0.16292061243269934</v>
+      </c>
+      <c r="V24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:V$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
+        <v>0.17630179871741478</v>
+      </c>
+      <c r="W24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:W$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
+        <v>0.19060126856829279</v>
+      </c>
+      <c r="X24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:X$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
+        <v>0.20583795032700405</v>
+      </c>
+      <c r="Y24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:Y$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
+        <v>0.22202336678786697</v>
+      </c>
+      <c r="Z24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:Z$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
+        <v>0.23916046433597252</v>
+      </c>
+      <c r="AA24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AA$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
+        <v>0.2572424954608335</v>
+      </c>
+      <c r="AB24" s="15">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AB$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
+        <v>0.27625200715629517</v>
+      </c>
+      <c r="AC24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AC$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
+        <v>0.29615999240124607</v>
+      </c>
+      <c r="AD24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AD$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
+        <v>0.31692526368366364</v>
+      </c>
+      <c r="AE24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AE$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
+        <v>0.33849410555351556</v>
+      </c>
+      <c r="AF24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AF$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
+        <v>0.3608002568364625</v>
+      </c>
+      <c r="AG24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AG$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
+        <v>0.38376526211016398</v>
+      </c>
+      <c r="AH24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AH$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
+        <v>0.40729921648867251</v>
+      </c>
+      <c r="AI24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AI$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
+        <v>0.4313019083564576</v>
+      </c>
+      <c r="AJ24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AJ$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
+        <v>0.45566434266064693</v>
+      </c>
+      <c r="AK24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AK$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
+        <v>0.4802706043958494</v>
+      </c>
+      <c r="AL24" s="50">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AL$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="22">
-        <v>0.29802375741500553</v>
+        <v>0.01</v>
       </c>
       <c r="F25" s="22">
-        <v>0.15850139443373243</v>
+        <v>0.01</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>IF(E25=F25,"n/a",IF(OR(C25="battery electric vehicle",C25="natural gas vehicle",C25="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="1"/>
-        <v>0.29802375741500553</v>
+        <v>0.01</v>
       </c>
       <c r="J25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,J$9))</f>
-        <v>0.29596244960239987</v>
+        <v>0.01</v>
       </c>
       <c r="K25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,K$9))</f>
-        <v>0.29525559107671612</v>
+        <v>0.01</v>
       </c>
       <c r="L25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,L$9))</f>
-        <v>0.29431288202296346</v>
+        <v>0.01</v>
       </c>
       <c r="M25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,M$9))</f>
-        <v>0.2930607810336332</v>
+        <v>0.01</v>
       </c>
       <c r="N25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,N$9))</f>
-        <v>0.29140678752282123</v>
+        <v>0.01</v>
       </c>
       <c r="O25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,O$9))</f>
-        <v>0.28923756597307232</v>
+        <v>0.01</v>
       </c>
       <c r="P25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,P$9))</f>
-        <v>0.28641930626464923</v>
+        <v>0.01</v>
       </c>
       <c r="Q25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Q$9))</f>
-        <v>0.28280231112804816</v>
+        <v>0.01</v>
       </c>
       <c r="R25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,R$9))</f>
-        <v>0.27823236164867954</v>
+        <v>0.01</v>
       </c>
       <c r="S25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,S$9))</f>
-        <v>0.2725713172654462</v>
+        <v>0.01</v>
       </c>
       <c r="T25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,T$9))</f>
-        <v>0.26572778823718668</v>
+        <v>0.01</v>
       </c>
       <c r="U25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,U$9))</f>
-        <v>0.25769474900033379</v>
+        <v>0.01</v>
       </c>
       <c r="V25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,V$9))</f>
-        <v>0.24858488795211589</v>
+        <v>0.01</v>
       </c>
       <c r="W25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,W$9))</f>
-        <v>0.23864897177620478</v>
+        <v>0.01</v>
       </c>
       <c r="X25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,X$9))</f>
-        <v>0.22826257592436899</v>
+        <v>0.01</v>
       </c>
       <c r="Y25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Y$9))</f>
-        <v>0.21787618007253318</v>
+        <v>0.01</v>
       </c>
       <c r="Z25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Z$9))</f>
-        <v>0.20794026389662207</v>
+        <v>0.01</v>
       </c>
       <c r="AA25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AA$9))</f>
-        <v>0.19883040284840414</v>
+        <v>0.01</v>
       </c>
       <c r="AB25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AB$9))</f>
-        <v>0.19079736361155128</v>
+        <v>0.01</v>
       </c>
       <c r="AC25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AC$9))</f>
-        <v>0.18395383458329176</v>
+        <v>0.01</v>
       </c>
       <c r="AD25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AD$9))</f>
-        <v>0.17829279020005839</v>
+        <v>0.01</v>
       </c>
       <c r="AE25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AE$9))</f>
-        <v>0.17372284072068978</v>
+        <v>0.01</v>
       </c>
       <c r="AF25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AF$9))</f>
-        <v>0.17010584558408873</v>
+        <v>0.01</v>
       </c>
       <c r="AG25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AG$9))</f>
-        <v>0.16728758587566564</v>
+        <v>0.01</v>
       </c>
       <c r="AH25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AH$9))</f>
-        <v>0.1651183643259167</v>
+        <v>0.01</v>
       </c>
       <c r="AI25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AI$9))</f>
-        <v>0.16346437081510473</v>
+        <v>0.01</v>
       </c>
       <c r="AJ25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AJ$9))</f>
-        <v>0.1622122698257745</v>
+        <v>0.01</v>
       </c>
       <c r="AK25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AK$9))</f>
-        <v>0.16126956077202181</v>
+        <v>0.01</v>
       </c>
       <c r="AL25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AL$9))</f>
-        <v>0.16056270224633809</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="22">
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>IF(E26=F26,"n/a",IF(OR(C26="battery electric vehicle",C26="natural gas vehicle",C26="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65870,134 +65881,134 @@
       </c>
       <c r="I26" s="22">
         <f t="shared" si="1"/>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="J26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,J$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="K26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,K$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="L26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,L$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="M26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,M$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="N26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,N$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="O26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,O$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="P26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,P$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="Q26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Q$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="R26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,R$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="S26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,S$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="T26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,T$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="U26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,U$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="V26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,V$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="W26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,W$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="X26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,X$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="Y26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Y$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="Z26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Z$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AA26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AA$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AB26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AB$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AC26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AC$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AD26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AD$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AE26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AE$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AF26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AF$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AG26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AG$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AH26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AH$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AI26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AI$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AJ26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AJ$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AK26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AK$9))</f>
-        <v>0.29802375741500553</v>
+        <v>2E-3</v>
       </c>
       <c r="AL26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AL$9))</f>
-        <v>0.29802375741500553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7" t="str">
         <f>IF(E27=F27,"n/a",IF(OR(C27="battery electric vehicle",C27="natural gas vehicle",C27="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66005,126 +66016,126 @@
       </c>
       <c r="I27" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,J$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,K$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,L$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,M$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,N$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,O$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,P$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Q$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,R$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,S$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,T$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,U$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,V$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,W$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,X$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Y$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,Z$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AA$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AB$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AC$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AD$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AE$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AF$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AG$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AH$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AI$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AJ$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AK$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL27">
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -66259,7 +66270,7 @@
         <v>5.9113558098403615E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>124</v>
       </c>
@@ -66394,7 +66405,7 @@
         <v>0.5342547228735981</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -66405,7 +66416,7 @@
         <v>8.470448323552864E-5</v>
       </c>
       <c r="F30" s="26">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G30" s="8" t="str">
         <f>IF(E30=F30,"n/a",IF(OR(C30="battery electric vehicle",C30="natural gas vehicle",C30="plugin hybrid vehicle",C30="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -66417,122 +66428,122 @@
       </c>
       <c r="J30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,J$9))</f>
-        <v>8.2215464117929744E-4</v>
+        <v>2.3119337344837518E-4</v>
       </c>
       <c r="K30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,K$9))</f>
-        <v>1.0750392070949643E-3</v>
+        <v>2.8142697773186377E-4</v>
       </c>
       <c r="L30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,L$9))</f>
-        <v>1.4123012774822749E-3</v>
+        <v>3.4842153440764017E-4</v>
       </c>
       <c r="M30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,M$9))</f>
-        <v>1.860250907661926E-3</v>
+        <v>4.3740333675647861E-4</v>
       </c>
       <c r="N30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,N$9))</f>
-        <v>2.4519809580343683E-3</v>
+        <v>5.5494603093169683E-4</v>
       </c>
       <c r="O30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,O$9))</f>
-        <v>3.2280381605029394E-3</v>
+        <v>7.0910391822307883E-4</v>
       </c>
       <c r="P30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,P$9))</f>
-        <v>4.2362942076558247E-3</v>
+        <v>9.0938634789892916E-4</v>
       </c>
       <c r="Q30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Q$9))</f>
-        <v>5.530304553154162E-3</v>
+        <v>1.1664317053296444E-3</v>
       </c>
       <c r="R30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,R$9))</f>
-        <v>7.1652423071111148E-3</v>
+        <v>1.4911997110916013E-3</v>
       </c>
       <c r="S30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,S$9))</f>
-        <v>9.1905284138303605E-3</v>
+        <v>1.8935074615761042E-3</v>
       </c>
       <c r="T30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,T$9))</f>
-        <v>1.1638858319689102E-2</v>
+        <v>2.3798496596498043E-3</v>
       </c>
       <c r="U30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,U$9))</f>
-        <v>1.4512745478976212E-2</v>
+        <v>2.9507255839763672E-3</v>
       </c>
       <c r="V30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,V$9))</f>
-        <v>1.7771874672476845E-2</v>
+        <v>3.5981269215086611E-3</v>
       </c>
       <c r="W30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,W$9))</f>
-        <v>2.1326532015952099E-2</v>
+        <v>4.3042326884184575E-3</v>
       </c>
       <c r="X30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,X$9))</f>
-        <v>2.5042352241617768E-2</v>
+        <v>5.0423522416177639E-3</v>
       </c>
       <c r="Y30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Y$9))</f>
-        <v>2.8758172467283436E-2</v>
+        <v>5.7804717948170704E-3</v>
       </c>
       <c r="Z30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Z$9))</f>
-        <v>3.2312829810758684E-2</v>
+        <v>6.4865775617268659E-3</v>
       </c>
       <c r="AA30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AA$9))</f>
-        <v>3.5571959004259315E-2</v>
+        <v>7.1339788992591602E-3</v>
       </c>
       <c r="AB30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AB$9))</f>
-        <v>3.8445846163546425E-2</v>
+        <v>7.7048548235857228E-3</v>
       </c>
       <c r="AC30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AC$9))</f>
-        <v>4.0894176069405173E-2</v>
+        <v>8.191197021659425E-3</v>
       </c>
       <c r="AD30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AD$9))</f>
-        <v>4.2919462176124419E-2</v>
+        <v>8.5935047721439287E-3</v>
       </c>
       <c r="AE30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AE$9))</f>
-        <v>4.4554399930081368E-2</v>
+        <v>8.9182727779058852E-3</v>
       </c>
       <c r="AF30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AF$9))</f>
-        <v>4.5848410275579711E-2</v>
+        <v>9.1753181353365996E-3</v>
       </c>
       <c r="AG30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AG$9))</f>
-        <v>4.6856666322732596E-2</v>
+        <v>9.3756005650124513E-3</v>
       </c>
       <c r="AH30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AH$9))</f>
-        <v>4.7632723525201169E-2</v>
+        <v>9.5297584523038326E-3</v>
       </c>
       <c r="AI30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AI$9))</f>
-        <v>4.822445357557361E-2</v>
+        <v>9.6473011464790499E-3</v>
       </c>
       <c r="AJ30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AJ$9))</f>
-        <v>4.8672403205753251E-2</v>
+        <v>9.7362829488278884E-3</v>
       </c>
       <c r="AK30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AK$9))</f>
-        <v>4.900966527614057E-2</v>
+        <v>9.8032775055036658E-3</v>
       </c>
       <c r="AL30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AL$9))</f>
-        <v>4.9262549842056233E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+        <v>9.8535111097871539E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -66558,63 +66569,63 @@
       </c>
       <c r="J31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT(J$9:$K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,J$9))</f>
-        <v>0.50075059112836851</v>
+        <v>0.53456921017167336</v>
       </c>
       <c r="K31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,K$9))</f>
-        <v>0.5004555255972003</v>
+        <v>0.52866208794943437</v>
       </c>
       <c r="L31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:L$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,L$9))</f>
-        <v>0.50075059112836851</v>
+        <v>0.53456921017167336</v>
       </c>
       <c r="M31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:M$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,M$9))</f>
-        <v>0.50123631157831738</v>
+        <v>0.54158634824696117</v>
       </c>
       <c r="N31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:N$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,N$9))</f>
-        <v>0.50203506885794802</v>
+        <v>0.5498752445598426</v>
       </c>
       <c r="O31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:O$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,O$9))</f>
-        <v>0.50334642546214248</v>
+        <v>0.55960146101105879</v>
       </c>
       <c r="P31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:P$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,P$9))</f>
-        <v>0.50549347131529654</v>
+        <v>0.57092553245024391</v>
       </c>
       <c r="Q31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Q$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Q$9))</f>
-        <v>0.50899310498104577</v>
+        <v>0.58399080743303777</v>
       </c>
       <c r="R31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:R$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,R$9))</f>
-        <v>0.51465611537567812</v>
+        <v>0.59890805572070915</v>
       </c>
       <c r="S31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:S$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,S$9))</f>
-        <v>0.52371293658878337</v>
+        <v>0.61573760825049118</v>
       </c>
       <c r="T31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:T$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,T$9))</f>
-        <v>0.53792909001062172</v>
+        <v>0.63447071068499761</v>
       </c>
       <c r="U31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:U$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,U$9))</f>
-        <v>0.55960146101105879</v>
+        <v>0.65501275943619375</v>
       </c>
       <c r="V31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:V$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,V$9))</f>
-        <v>0.59121276190317817</v>
+        <v>0.6771718468871023</v>
       </c>
       <c r="W31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:W$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,W$9))</f>
-        <v>0.63447071068499761</v>
+        <v>0.700656169943774</v>
       </c>
       <c r="X31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:X$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,X$9))</f>
-        <v>0.68877033439907276</v>
+        <v>0.72508300134376102</v>
       </c>
       <c r="Y31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Y$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Y$9))</f>
@@ -66622,58 +66633,58 @@
       </c>
       <c r="Z31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Z$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Z$9))</f>
-        <v>0.81122966560092724</v>
+        <v>0.77491699865623898</v>
       </c>
       <c r="AA31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AA$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AA$9))</f>
-        <v>0.86552928931500239</v>
+        <v>0.799343830056226</v>
       </c>
       <c r="AB31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AB$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AB$9))</f>
-        <v>0.90878723809682183</v>
+        <v>0.8228281531128977</v>
       </c>
       <c r="AC31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AC$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AC$9))</f>
-        <v>0.9403985389889411</v>
+        <v>0.84498724056380625</v>
       </c>
       <c r="AD31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AD$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AD$9))</f>
-        <v>0.96207090998937828</v>
+        <v>0.86552928931500239</v>
       </c>
       <c r="AE31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AE$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AE$9))</f>
-        <v>0.97628706341121663</v>
+        <v>0.88426239174950894</v>
       </c>
       <c r="AF31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AF$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AF$9))</f>
-        <v>0.98534388462432188</v>
+        <v>0.90109194427929085</v>
       </c>
       <c r="AG31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AG$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AG$9))</f>
-        <v>0.99100689501895423</v>
+        <v>0.91600919256696223</v>
       </c>
       <c r="AH31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AH$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AH$9))</f>
-        <v>0.99450652868470346</v>
+        <v>0.9290744675497562</v>
       </c>
       <c r="AI31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AI$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AI$9))</f>
-        <v>0.99665357453785763</v>
+        <v>0.9403985389889411</v>
       </c>
       <c r="AJ31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AJ$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AJ$9))</f>
-        <v>0.99796493114205198</v>
+        <v>0.9501247554401574</v>
       </c>
       <c r="AK31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AK$9))</f>
-        <v>0.99876368842168262</v>
+        <v>0.95841365175303883</v>
       </c>
       <c r="AL31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AL$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AL$9))</f>
-        <v>0.99924940887163149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.96543078982832664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -66810,7 +66821,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -66945,7 +66956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -67080,7 +67091,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -67215,7 +67226,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -67352,7 +67363,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -67490,7 +67501,7 @@
         <v>0.14889194762300451</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -67631,7 +67642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -67766,7 +67777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -67901,7 +67912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -68036,7 +68047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -68171,7 +68182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -68306,7 +68317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -68444,7 +68455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -68585,7 +68596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -68720,7 +68731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -68855,7 +68866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -68990,7 +69001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -69125,7 +69136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -69260,7 +69271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -69398,7 +69409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -69540,7 +69551,7 @@
         <v>0.99812264157560726</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -69675,7 +69686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -69810,7 +69821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -69946,7 +69957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -70081,7 +70092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -70216,7 +70227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -70354,7 +70365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -70495,7 +70506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -70630,7 +70641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -70765,7 +70776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -70900,7 +70911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -71035,7 +71046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -71170,7 +71181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -71308,7 +71319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -71449,7 +71460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -71584,7 +71595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -71719,7 +71730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -71854,7 +71865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -71989,7 +72000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -72124,7 +72135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -72262,7 +72273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -72403,7 +72414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -72538,7 +72549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -72673,7 +72684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -72808,7 +72819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -72943,7 +72954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -73078,7 +73089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -73216,7 +73227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -73358,7 +73369,7 @@
         <v>0.99712837084429951</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -73494,7 +73505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -73629,7 +73640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -73765,7 +73776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -73901,7 +73912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -74037,7 +74048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -74176,7 +74187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -74317,7 +74328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -74452,7 +74463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -74587,7 +74598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -74722,7 +74733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -74857,7 +74868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -74992,7 +75003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">
@@ -75130,7 +75141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676525AD-CC88-4B9E-AB3D-EFB071118F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E0C601-6A9C-43D6-83E1-44E669E6CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60765" yWindow="2805" windowWidth="21600" windowHeight="12525" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="210" windowWidth="22995" windowHeight="15075" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7095,16 +7095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>437356</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>513557</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145257</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>336665</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114869</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8613,119 +8613,119 @@
       </c>
       <c r="C6">
         <f>Data!J14</f>
-        <v>0.17534926987653121</v>
+        <v>0.15724264853615177</v>
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>0.18337231271468832</v>
+        <v>0.15953494648991096</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>0.19359367536559574</v>
+        <v>0.16245533581874164</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>0.20638813235180481</v>
+        <v>0.16611089495765852</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>0.22205463013033155</v>
+        <v>0.17058703718009474</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>0.24072878528624608</v>
+        <v>0.17592251008178461</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>0.26228745528861241</v>
+        <v>0.18208213008246071</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>0.28627626811777229</v>
+        <v>0.1889360766050778</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>0.31189955412968762</v>
+        <v>0.19625701546562505</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>0.33810044587031229</v>
+        <v>0.20374298453437495</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>0.36372373188222767</v>
+        <v>0.21106392339492219</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>0.3877125447113875</v>
+        <v>0.21791786991753931</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>0.40927121471375394</v>
+        <v>0.22407748991821541</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>0.42794536986966836</v>
+        <v>0.22941296281990525</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>0.44361186764819516</v>
+        <v>0.23388910504234148</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>0.45640632463440423</v>
+        <v>0.23754466418125836</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>0.46662768728531168</v>
+        <v>0.24046505351008907</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>0.47465073012346881</v>
+        <v>0.24275735146384822</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>0.48086153897442074</v>
+        <v>0.24453186827840592</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>0.48561805262983726</v>
+        <v>0.24589087217995351</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>0.48923089922499818</v>
+        <v>0.24692311406428519</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>0.49195792053149101</v>
+        <v>0.24770226300899745</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>0.49400658833949529</v>
+        <v>0.24828759666842723</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>0.49554017768756087</v>
+        <v>0.24872576505358884</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>0.49668513474631881</v>
+        <v>0.24905289564180538</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>0.49753824449575168</v>
+        <v>0.24929664128450046</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>0.49817295600725453</v>
+        <v>0.24947798743064414</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>0.49864465879576514</v>
+        <v>0.24961275965593288</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>0.49899492979550486</v>
+        <v>0.24971283708442996</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -9634,119 +9634,119 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>1.5833609527091983E-2</v>
+        <v>1.2140101603773719E-2</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>1.8323312087103298E-2</v>
+        <v>1.3363235653583922E-2</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>2.164372919914653E-2</v>
+        <v>1.4994480804930065E-2</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>2.605388897689399E-2</v>
+        <v>1.7161091658734945E-2</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>3.1879597698632259E-2</v>
+        <v>2.0023129404240558E-2</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>3.9520046599517591E-2</v>
+        <v>2.3776707585268467E-2</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>4.9446542717040881E-2</v>
+        <v>2.8653368593560293E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>6.218635093033742E-2</v>
+        <v>3.4912145631434188E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>7.8282662291795646E-2</v>
+        <v>4.2819896066673677E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>9.8222036552919223E-2</v>
+        <v>5.2615655601330122E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>0.12232636736606015</v>
+        <v>6.4457563240814544E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>0.15062040022549095</v>
+        <v>7.8357775881741934E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>0.18270722318791771</v>
+        <v>9.4121299744366602E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>0.21770358390280897</v>
+        <v>0.11131421310572374</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>0.25428662761243104</v>
+        <v>0.12928662761243104</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>0.2908696713220531</v>
+        <v>0.14725904211913834</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>0.32586603203694436</v>
+        <v>0.16445195548049549</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>0.35795285499937113</v>
+        <v>0.18021547934312016</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>0.3862468878588019</v>
+        <v>0.19411569198404752</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>0.41035121867194285</v>
+        <v>0.20595759962353194</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>0.43029059293306648</v>
+        <v>0.21575335915818841</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>0.44638690429452466</v>
+        <v>0.22366110959342791</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>0.45912671250782122</v>
+        <v>0.22991988663130181</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>0.4690532086253445</v>
+        <v>0.23479654763959362</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>0.47669365752622989</v>
+        <v>0.23855012582062154</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>0.4825193662479681</v>
+        <v>0.24141216356612716</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>0.48692952602571554</v>
+        <v>0.243578774419932</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>0.49024994313775883</v>
+        <v>0.24521001957127816</v>
       </c>
       <c r="AE6">
         <f>Data!AL21</f>
-        <v>0.49273964569777012</v>
+        <v>0.24643315362108836</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -63356,8 +63356,8 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64220,7 +64220,7 @@
         <v>0.15</v>
       </c>
       <c r="F14" s="41">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -64232,119 +64232,119 @@
       </c>
       <c r="J14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,J$9))</f>
-        <v>0.17534926987653121</v>
+        <v>0.15724264853615177</v>
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>0.18337231271468832</v>
+        <v>0.15953494648991096</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>0.19359367536559574</v>
+        <v>0.16245533581874164</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>0.20638813235180481</v>
+        <v>0.16611089495765852</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>0.22205463013033155</v>
+        <v>0.17058703718009474</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>0.24072878528624608</v>
+        <v>0.17592251008178461</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>0.26228745528861241</v>
+        <v>0.18208213008246071</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>0.28627626811777229</v>
+        <v>0.1889360766050778</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>0.31189955412968762</v>
+        <v>0.19625701546562505</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>0.33810044587031229</v>
+        <v>0.20374298453437495</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>0.36372373188222767</v>
+        <v>0.21106392339492219</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>0.3877125447113875</v>
+        <v>0.21791786991753931</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>0.40927121471375394</v>
+        <v>0.22407748991821541</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>0.42794536986966836</v>
+        <v>0.22941296281990525</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>0.44361186764819516</v>
+        <v>0.23388910504234148</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>0.45640632463440423</v>
+        <v>0.23754466418125836</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>0.46662768728531168</v>
+        <v>0.24046505351008907</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>0.47465073012346881</v>
+        <v>0.24275735146384822</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>0.48086153897442074</v>
+        <v>0.24453186827840592</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>0.48561805262983726</v>
+        <v>0.24589087217995351</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>0.48923089922499818</v>
+        <v>0.24692311406428519</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>0.49195792053149101</v>
+        <v>0.24770226300899745</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>0.49400658833949529</v>
+        <v>0.24828759666842723</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>0.49554017768756087</v>
+        <v>0.24872576505358884</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>0.49668513474631881</v>
+        <v>0.24905289564180538</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>0.49753824449575168</v>
+        <v>0.24929664128450046</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>0.49817295600725453</v>
+        <v>0.24947798743064414</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>0.49864465879576514</v>
+        <v>0.24961275965593288</v>
       </c>
       <c r="AL14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>0.49899492979550486</v>
+        <v>0.24971283708442996</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
@@ -65182,7 +65182,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65194,119 +65194,119 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>1.5833609527091983E-2</v>
+        <v>1.2140101603773719E-2</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>1.8323312087103298E-2</v>
+        <v>1.3363235653583922E-2</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>2.164372919914653E-2</v>
+        <v>1.4994480804930065E-2</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>2.605388897689399E-2</v>
+        <v>1.7161091658734945E-2</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>3.1879597698632259E-2</v>
+        <v>2.0023129404240558E-2</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>3.9520046599517591E-2</v>
+        <v>2.3776707585268467E-2</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>4.9446542717040881E-2</v>
+        <v>2.8653368593560293E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>6.218635093033742E-2</v>
+        <v>3.4912145631434188E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>7.8282662291795646E-2</v>
+        <v>4.2819896066673677E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>9.8222036552919223E-2</v>
+        <v>5.2615655601330122E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>0.12232636736606015</v>
+        <v>6.4457563240814544E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>0.15062040022549095</v>
+        <v>7.8357775881741934E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>0.18270722318791771</v>
+        <v>9.4121299744366602E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>0.21770358390280897</v>
+        <v>0.11131421310572374</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>0.25428662761243104</v>
+        <v>0.12928662761243104</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>0.2908696713220531</v>
+        <v>0.14725904211913834</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>0.32586603203694436</v>
+        <v>0.16445195548049549</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>0.35795285499937113</v>
+        <v>0.18021547934312016</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>0.3862468878588019</v>
+        <v>0.19411569198404752</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>0.41035121867194285</v>
+        <v>0.20595759962353194</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>0.43029059293306648</v>
+        <v>0.21575335915818841</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>0.44638690429452466</v>
+        <v>0.22366110959342791</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>0.45912671250782122</v>
+        <v>0.22991988663130181</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>0.4690532086253445</v>
+        <v>0.23479654763959362</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>0.47669365752622989</v>
+        <v>0.23855012582062154</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>0.4825193662479681</v>
+        <v>0.24141216356612716</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>0.48692952602571554</v>
+        <v>0.243578774419932</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>0.49024994313775883</v>
+        <v>0.24521001957127816</v>
       </c>
       <c r="AL21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>0.49273964569777012</v>
+        <v>0.24643315362108836</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E0C601-6A9C-43D6-83E1-44E669E6CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2938D8-ABC9-445B-B879-DE4D8FCD6AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="210" windowWidth="22995" windowHeight="15075" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59880" yWindow="2280" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4731,10 +4731,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$34:$AL$34</c:f>
+              <c:f>Data!$I$34:$AK$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="0.0000">
                   <c:v>2.5</c:v>
                 </c:pt>
@@ -4820,9 +4820,6 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -5072,99 +5069,96 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$10:$AL$10</c:f>
+              <c:f>Data!$I$10:$AK$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.3</c:v>
+                  <c:v>0.34799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35069853975306242</c:v>
+                  <c:v>0.28576839372836865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36674462542937664</c:v>
+                  <c:v>0.30341908797231432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38718735073119148</c:v>
+                  <c:v>0.32590608580431069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41277626470360962</c:v>
+                  <c:v>0.35405389117397068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44410926026066311</c:v>
+                  <c:v>0.38852018628672946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48145757057249217</c:v>
+                  <c:v>0.4296033276297414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52457491057722483</c:v>
+                  <c:v>0.47703240163494742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57255253623554458</c:v>
+                  <c:v>0.52980778985909904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62379910825937523</c:v>
+                  <c:v>0.58617901908531289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67620089174062459</c:v>
+                  <c:v>0.6438209809146872</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72744746376445535</c:v>
+                  <c:v>0.70019221014090094</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77542508942277499</c:v>
+                  <c:v>0.75296759836505256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81854242942750788</c:v>
+                  <c:v>0.80039667237025858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85589073973933671</c:v>
+                  <c:v>0.84147981371327052</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88722373529639031</c:v>
+                  <c:v>0.87594610882602941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91281264926880845</c:v>
+                  <c:v>0.9040939141956893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93325537457062335</c:v>
+                  <c:v>0.92658091202768578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94930146024693762</c:v>
+                  <c:v>0.94423160627163139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96172307794884149</c:v>
+                  <c:v>0.95789538574372557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97123610525967452</c:v>
+                  <c:v>0.96835971578564195</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97846179844999637</c:v>
+                  <c:v>0.97630797829499605</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98391584106298202</c:v>
+                  <c:v>0.98230742516928027</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98801317667899058</c:v>
+                  <c:v>0.98681449434688973</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99108035537512174</c:v>
+                  <c:v>0.99018839091263411</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99337026949263763</c:v>
+                  <c:v>0.99270729644190148</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99507648899150336</c:v>
+                  <c:v>0.9945841378906537</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99634591201450906</c:v>
+                  <c:v>0.9959805032159601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99728931759153028</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.99798985959100972</c:v>
+                  <c:v>0.99701824935068328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7096,13 +7090,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>260464</xdr:colOff>
+      <xdr:colOff>257289</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
+      <xdr:rowOff>141969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>336665</xdr:colOff>
+      <xdr:colOff>333490</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114869</xdr:rowOff>
     </xdr:to>
@@ -7988,119 +7982,119 @@
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
+      </c>
+      <c r="AE1" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
@@ -8109,123 +8103,123 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>0.3</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>0.35069853975306242</v>
+        <v>0.28576839372836865</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>0.36674462542937664</v>
+        <v>0.30341908797231432</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.38718735073119148</v>
+        <v>0.32590608580431069</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.41277626470360962</v>
+        <v>0.35405389117397068</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.44410926026066311</v>
+        <v>0.38852018628672946</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.48145757057249217</v>
+        <v>0.4296033276297414</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.52457491057722483</v>
+        <v>0.47703240163494742</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.57255253623554458</v>
+        <v>0.52980778985909904</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.62379910825937523</v>
+        <v>0.58617901908531289</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.67620089174062459</v>
+        <v>0.6438209809146872</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.72744746376445535</v>
+        <v>0.70019221014090094</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.77542508942277499</v>
+        <v>0.75296759836505256</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.81854242942750788</v>
+        <v>0.80039667237025858</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.85589073973933671</v>
+        <v>0.84147981371327052</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.88722373529639031</v>
+        <v>0.87594610882602941</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.91281264926880845</v>
+        <v>0.9040939141956893</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.93325537457062335</v>
+        <v>0.92658091202768578</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.94930146024693762</v>
+        <v>0.94423160627163139</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.96172307794884149</v>
+        <v>0.95789538574372557</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.97123610525967452</v>
+        <v>0.96835971578564195</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.97846179844999637</v>
+        <v>0.97630797829499605</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.98391584106298202</v>
+        <v>0.98230742516928027</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.98801317667899058</v>
+        <v>0.98681449434688973</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.99108035537512174</v>
+        <v>0.99018839091263411</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.99337026949263763</v>
+        <v>0.99270729644190148</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.99507648899150336</v>
+        <v>0.9945841378906537</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.99634591201450906</v>
+        <v>0.9959805032159601</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99728931759153028</v>
-      </c>
-      <c r="AE2">
-        <f>Data!AL10</f>
-        <v>0.99798985959100972</v>
+        <v>0.99701824935068328</v>
+      </c>
+      <c r="AE2" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -8234,123 +8228,123 @@
       </c>
       <c r="B3">
         <f>Data!I11</f>
-        <v>3.7087168441147616E-4</v>
+        <v>3.6619689311735883E-4</v>
       </c>
       <c r="C3">
         <f>Data!J11</f>
-        <v>3.8364380292024329E-4</v>
+        <v>3.7903807714086466E-4</v>
       </c>
       <c r="D3">
         <f>Data!K11</f>
-        <v>3.8802358589285646E-4</v>
+        <v>3.8344154388725743E-4</v>
       </c>
       <c r="E3">
         <f>Data!L11</f>
-        <v>3.9386472794848996E-4</v>
+        <v>3.8931427204839546E-4</v>
       </c>
       <c r="F3">
         <f>Data!M11</f>
-        <v>4.016229007564876E-4</v>
+        <v>3.9711439734830336E-4</v>
       </c>
       <c r="G3">
         <f>Data!N11</f>
-        <v>4.118712494037081E-4</v>
+        <v>4.0741816416863718E-4</v>
       </c>
       <c r="H3">
         <f>Data!O11</f>
-        <v>4.253120147933965E-4</v>
+        <v>4.2093161079593579E-4</v>
       </c>
       <c r="I3">
         <f>Data!P11</f>
-        <v>4.4277430100040505E-4</v>
+        <v>4.3848832470376578E-4</v>
       </c>
       <c r="J3">
         <f>Data!Q11</f>
-        <v>4.6518565084723181E-4</v>
+        <v>4.6102086442305562E-4</v>
       </c>
       <c r="K3">
         <f>Data!R11</f>
-        <v>4.935016238293516E-4</v>
+        <v>4.894899566584924E-4</v>
       </c>
       <c r="L3">
         <f>Data!S11</f>
-        <v>5.2857815597262656E-4</v>
+        <v>5.2475616592902391E-4</v>
       </c>
       <c r="M3">
         <f>Data!T11</f>
-        <v>5.7098150943230659E-4</v>
+        <v>5.6738881646509198E-4</v>
       </c>
       <c r="N3">
         <f>Data!U11</f>
-        <v>6.207552154704006E-4</v>
+        <v>6.1743167492497213E-4</v>
       </c>
       <c r="O3">
         <f>Data!V11</f>
-        <v>6.7720104282073751E-4</v>
+        <v>6.7418273434140122E-4</v>
       </c>
       <c r="P3">
         <f>Data!W11</f>
-        <v>7.387652100527514E-4</v>
+        <v>7.3607981117618953E-4</v>
       </c>
       <c r="Q3">
         <f>Data!X11</f>
-        <v>8.0312060515064557E-4</v>
+        <v>8.0078320950358701E-4</v>
       </c>
       <c r="R3">
         <f>Data!Y11</f>
-        <v>8.6747600024853974E-4</v>
+        <v>8.6548660783098449E-4</v>
       </c>
       <c r="S3">
         <f>Data!Z11</f>
-        <v>9.2904016748055363E-4</v>
+        <v>9.2738368466577258E-4</v>
       </c>
       <c r="T3">
         <f>Data!AA11</f>
-        <v>9.8548599483089076E-4</v>
+        <v>9.8413474408220168E-4</v>
       </c>
       <c r="U3">
         <f>Data!AB11</f>
-        <v>1.0352597008689846E-3</v>
+        <v>1.0341776025420818E-3</v>
       </c>
       <c r="V3">
         <f>Data!AC11</f>
-        <v>1.0776630543286646E-3</v>
+        <v>1.0768102530781499E-3</v>
       </c>
       <c r="W3">
         <f>Data!AD11</f>
-        <v>1.1127395864719398E-3</v>
+        <v>1.1120764623486815E-3</v>
       </c>
       <c r="X3">
         <f>Data!AE11</f>
-        <v>1.1410555594540594E-3</v>
+        <v>1.1405455545841184E-3</v>
       </c>
       <c r="Y3">
         <f>Data!AF11</f>
-        <v>1.1634669093008863E-3</v>
+        <v>1.1630780943034081E-3</v>
       </c>
       <c r="Z3">
         <f>Data!AG11</f>
-        <v>1.1809291955078949E-3</v>
+        <v>1.1806348082112382E-3</v>
       </c>
       <c r="AA3">
         <f>Data!AH11</f>
-        <v>1.1943699608975833E-3</v>
+        <v>1.1941482548385369E-3</v>
       </c>
       <c r="AB3">
         <f>Data!AI11</f>
-        <v>1.2046183095448036E-3</v>
+        <v>1.2044520216588706E-3</v>
       </c>
       <c r="AC3">
         <f>Data!AJ11</f>
-        <v>1.2123764823528012E-3</v>
+        <v>1.2122521469587785E-3</v>
       </c>
       <c r="AD3">
         <f>Data!AK11</f>
-        <v>1.2182176244084349E-3</v>
-      </c>
-      <c r="AE3">
-        <f>Data!AL11</f>
-        <v>1.2225974073810479E-3</v>
+        <v>1.2181248751199165E-3</v>
+      </c>
+      <c r="AE3" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -8367,115 +8361,115 @@
       </c>
       <c r="D4">
         <f>Data!K12</f>
-        <v>0.60714285714285587</v>
+        <v>0.60740740740740762</v>
       </c>
       <c r="E4">
         <f>Data!L12</f>
-        <v>0.61428571428571388</v>
+        <v>0.61481481481481381</v>
       </c>
       <c r="F4">
         <f>Data!M12</f>
-        <v>0.62142857142857011</v>
+        <v>0.62222222222222179</v>
       </c>
       <c r="G4">
         <f>Data!N12</f>
-        <v>0.62857142857142811</v>
+        <v>0.62962962962962976</v>
       </c>
       <c r="H4">
         <f>Data!O12</f>
-        <v>0.63571428571428434</v>
+        <v>0.63703703703703596</v>
       </c>
       <c r="I4">
         <f>Data!P12</f>
-        <v>0.64285714285714235</v>
+        <v>0.64444444444444393</v>
       </c>
       <c r="J4">
         <f>Data!Q12</f>
-        <v>0.64999999999999858</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="K4">
         <f>Data!R12</f>
-        <v>0.65714285714285658</v>
+        <v>0.6592592592592581</v>
       </c>
       <c r="L4">
         <f>Data!S12</f>
-        <v>0.66428571428571281</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="M4">
         <f>Data!T12</f>
-        <v>0.67142857142857082</v>
+        <v>0.67407407407407405</v>
       </c>
       <c r="N4">
         <f>Data!U12</f>
-        <v>0.67857142857142705</v>
+        <v>0.68148148148148024</v>
       </c>
       <c r="O4">
         <f>Data!V12</f>
-        <v>0.68571428571428505</v>
+        <v>0.68888888888888822</v>
       </c>
       <c r="P4">
         <f>Data!W12</f>
-        <v>0.69285714285714128</v>
+        <v>0.69629629629629619</v>
       </c>
       <c r="Q4">
         <f>Data!X12</f>
-        <v>0.69999999999999929</v>
+        <v>0.70370370370370239</v>
       </c>
       <c r="R4">
         <f>Data!Y12</f>
-        <v>0.70714285714285552</v>
+        <v>0.71111111111111036</v>
       </c>
       <c r="S4">
         <f>Data!Z12</f>
-        <v>0.71428571428571352</v>
+        <v>0.71851851851851833</v>
       </c>
       <c r="T4">
         <f>Data!AA12</f>
-        <v>0.72142857142856975</v>
+        <v>0.72592592592592631</v>
       </c>
       <c r="U4">
         <f>Data!AB12</f>
-        <v>0.72857142857142776</v>
+        <v>0.7333333333333325</v>
       </c>
       <c r="V4">
         <f>Data!AC12</f>
-        <v>0.73571428571428399</v>
+        <v>0.74074074074074048</v>
       </c>
       <c r="W4">
         <f>Data!AD12</f>
-        <v>0.74285714285714199</v>
+        <v>0.74814814814814845</v>
       </c>
       <c r="X4">
         <f>Data!AE12</f>
-        <v>0.74999999999999822</v>
+        <v>0.75555555555555465</v>
       </c>
       <c r="Y4">
         <f>Data!AF12</f>
-        <v>0.75714285714285623</v>
+        <v>0.76296296296296262</v>
       </c>
       <c r="Z4">
         <f>Data!AG12</f>
-        <v>0.76428571428571246</v>
+        <v>0.77037037037037059</v>
       </c>
       <c r="AA4">
         <f>Data!AH12</f>
-        <v>0.77142857142857046</v>
+        <v>0.77777777777777679</v>
       </c>
       <c r="AB4">
         <f>Data!AI12</f>
-        <v>0.77857142857142669</v>
+        <v>0.78518518518518476</v>
       </c>
       <c r="AC4">
         <f>Data!AJ12</f>
-        <v>0.7857142857142847</v>
+        <v>0.79259259259259274</v>
       </c>
       <c r="AD4">
         <f>Data!AK12</f>
-        <v>0.7928571428571427</v>
-      </c>
-      <c r="AE4">
-        <f>Data!AL12</f>
         <v>0.79999999999999893</v>
+      </c>
+      <c r="AE4" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -8492,115 +8486,115 @@
       </c>
       <c r="D5">
         <f>Data!K13</f>
-        <v>0.27714285714285669</v>
+        <v>0.27703703703703741</v>
       </c>
       <c r="E5">
         <f>Data!L13</f>
-        <v>0.27428571428571402</v>
+        <v>0.27407407407407369</v>
       </c>
       <c r="F5">
         <f>Data!M13</f>
-        <v>0.27142857142857135</v>
+        <v>0.27111111111111086</v>
       </c>
       <c r="G5">
         <f>Data!N13</f>
-        <v>0.26857142857142868</v>
+        <v>0.26814814814814802</v>
       </c>
       <c r="H5">
         <f>Data!O13</f>
-        <v>0.26571428571428513</v>
+        <v>0.26518518518518519</v>
       </c>
       <c r="I5">
         <f>Data!P13</f>
-        <v>0.26285714285714246</v>
+        <v>0.26222222222222236</v>
       </c>
       <c r="J5">
         <f>Data!Q13</f>
-        <v>0.25999999999999979</v>
+        <v>0.25925925925925952</v>
       </c>
       <c r="K5">
         <f>Data!R13</f>
-        <v>0.25714285714285712</v>
+        <v>0.2562962962962958</v>
       </c>
       <c r="L5">
         <f>Data!S13</f>
-        <v>0.25428571428571445</v>
+        <v>0.25333333333333297</v>
       </c>
       <c r="M5">
         <f>Data!T13</f>
-        <v>0.25142857142857089</v>
+        <v>0.25037037037037013</v>
       </c>
       <c r="N5">
         <f>Data!U13</f>
-        <v>0.24857142857142822</v>
+        <v>0.2474074074074073</v>
       </c>
       <c r="O5">
         <f>Data!V13</f>
-        <v>0.24571428571428555</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="P5">
         <f>Data!W13</f>
-        <v>0.24285714285714288</v>
+        <v>0.24148148148148163</v>
       </c>
       <c r="Q5">
         <f>Data!X13</f>
-        <v>0.24000000000000021</v>
+        <v>0.2385185185185188</v>
       </c>
       <c r="R5">
         <f>Data!Y13</f>
-        <v>0.23714285714285666</v>
+        <v>0.23555555555555507</v>
       </c>
       <c r="S5">
         <f>Data!Z13</f>
-        <v>0.23428571428571399</v>
+        <v>0.23259259259259224</v>
       </c>
       <c r="T5">
         <f>Data!AA13</f>
-        <v>0.23142857142857132</v>
+        <v>0.22962962962962941</v>
       </c>
       <c r="U5">
         <f>Data!AB13</f>
-        <v>0.22857142857142865</v>
+        <v>0.22666666666666657</v>
       </c>
       <c r="V5">
         <f>Data!AC13</f>
-        <v>0.22571428571428509</v>
+        <v>0.22370370370370374</v>
       </c>
       <c r="W5">
         <f>Data!AD13</f>
-        <v>0.22285714285714242</v>
+        <v>0.2207407407407409</v>
       </c>
       <c r="X5">
         <f>Data!AE13</f>
-        <v>0.21999999999999975</v>
+        <v>0.21777777777777807</v>
       </c>
       <c r="Y5">
         <f>Data!AF13</f>
-        <v>0.21714285714285708</v>
+        <v>0.21481481481481435</v>
       </c>
       <c r="Z5">
         <f>Data!AG13</f>
-        <v>0.21428571428571441</v>
+        <v>0.21185185185185151</v>
       </c>
       <c r="AA5">
         <f>Data!AH13</f>
-        <v>0.21142857142857086</v>
+        <v>0.20888888888888868</v>
       </c>
       <c r="AB5">
         <f>Data!AI13</f>
-        <v>0.20857142857142819</v>
+        <v>0.20592592592592585</v>
       </c>
       <c r="AC5">
         <f>Data!AJ13</f>
-        <v>0.20571428571428552</v>
+        <v>0.20296296296296301</v>
       </c>
       <c r="AD5">
         <f>Data!AK13</f>
-        <v>0.20285714285714285</v>
-      </c>
-      <c r="AE5">
-        <f>Data!AL13</f>
         <v>0.20000000000000018</v>
+      </c>
+      <c r="AE5" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -8609,123 +8603,123 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>0.15</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
-        <v>0.15724264853615177</v>
+        <v>0.10547647129735284</v>
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>0.15953494648991096</v>
+        <v>0.10657677431515725</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>0.16245533581874164</v>
+        <v>0.10797856119299598</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>0.16611089495765852</v>
+        <v>0.10973322957967609</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>0.17058703718009474</v>
+        <v>0.11188177784644547</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>0.17592251008178461</v>
+        <v>0.1144428048392566</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>0.18208213008246071</v>
+        <v>0.11739942243958112</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>0.1889360766050778</v>
+        <v>0.12068931677043734</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>0.19625701546562505</v>
+        <v>0.12420336742350002</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>0.20374298453437495</v>
+        <v>0.12779663257649998</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>0.21106392339492219</v>
+        <v>0.13131068322956266</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>0.21791786991753931</v>
+        <v>0.13460057756041885</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>0.22407748991821541</v>
+        <v>0.13755719516074338</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>0.22941296281990525</v>
+        <v>0.14011822215355452</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>0.23388910504234148</v>
+        <v>0.1422667704203239</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>0.23754466418125836</v>
+        <v>0.14402143880700402</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>0.24046505351008907</v>
+        <v>0.14542322568484273</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>0.24275735146384822</v>
+        <v>0.14652352870264715</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>0.24453186827840592</v>
+        <v>0.14737529677363484</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>0.24589087217995351</v>
+        <v>0.14802761864637767</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>0.24692311406428519</v>
+        <v>0.1485230947508569</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>0.24770226300899745</v>
+        <v>0.14889708624431877</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>0.24828759666842723</v>
+        <v>0.14917804640084506</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>0.24872576505358884</v>
+        <v>0.14938836722572263</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>0.24905289564180538</v>
+        <v>0.14954538990806659</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>0.24929664128450046</v>
+        <v>0.14966238781656022</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>0.24947798743064414</v>
+        <v>0.1497494339667092</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>0.24961275965593288</v>
-      </c>
-      <c r="AE6">
-        <f>Data!AL14</f>
-        <v>0.24971283708442996</v>
+        <v>0.14981412463484778</v>
+      </c>
+      <c r="AE6" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -8734,123 +8728,123 @@
       </c>
       <c r="B7">
         <f>Data!I15</f>
-        <v>2.9379012033304164E-4</v>
+        <v>2.8236163737145782E-4</v>
       </c>
       <c r="C7">
         <f>Data!J15</f>
-        <v>2.9379012033303731E-4</v>
+        <v>2.8236163737145603E-4</v>
       </c>
       <c r="D7">
         <f>Data!K15</f>
-        <v>3.1407086748862223E-4</v>
+        <v>3.0381680045730303E-4</v>
       </c>
       <c r="E7">
         <f>Data!L15</f>
-        <v>3.3435161464420715E-4</v>
+        <v>3.2527196354315002E-4</v>
       </c>
       <c r="F7">
         <f>Data!M15</f>
-        <v>3.5463236179979207E-4</v>
+        <v>3.4672712662900396E-4</v>
       </c>
       <c r="G7">
         <f>Data!N15</f>
-        <v>3.7491310895537006E-4</v>
+        <v>3.6818228971485095E-4</v>
       </c>
       <c r="H7">
         <f>Data!O15</f>
-        <v>3.9519385611095498E-4</v>
+        <v>3.8963745280069795E-4</v>
       </c>
       <c r="I7">
         <f>Data!P15</f>
-        <v>4.154746032665399E-4</v>
+        <v>4.1109261588654494E-4</v>
       </c>
       <c r="J7">
         <f>Data!Q15</f>
-        <v>4.3575535042212482E-4</v>
+        <v>4.3254777897239888E-4</v>
       </c>
       <c r="K7">
         <f>Data!R15</f>
-        <v>4.560360975777028E-4</v>
+        <v>4.5400294205824587E-4</v>
       </c>
       <c r="L7">
         <f>Data!S15</f>
-        <v>4.7631684473328773E-4</v>
+        <v>4.7545810514409287E-4</v>
       </c>
       <c r="M7">
         <f>Data!T15</f>
-        <v>4.9659759188887265E-4</v>
+        <v>4.9691326822993986E-4</v>
       </c>
       <c r="N7">
         <f>Data!U15</f>
-        <v>5.1687833904445757E-4</v>
+        <v>5.183684313157938E-4</v>
       </c>
       <c r="O7">
         <f>Data!V15</f>
-        <v>5.3715908620003555E-4</v>
+        <v>5.3982359440164079E-4</v>
       </c>
       <c r="P7">
         <f>Data!W15</f>
-        <v>5.5743983335562047E-4</v>
+        <v>5.6127875748748779E-4</v>
       </c>
       <c r="Q7">
         <f>Data!X15</f>
-        <v>5.7772058051120539E-4</v>
+        <v>5.8273392057333478E-4</v>
       </c>
       <c r="R7">
         <f>Data!Y15</f>
-        <v>5.9800132766679032E-4</v>
+        <v>6.0418908365918872E-4</v>
       </c>
       <c r="S7">
         <f>Data!Z15</f>
-        <v>6.182820748223683E-4</v>
+        <v>6.2564424674503571E-4</v>
       </c>
       <c r="T7">
         <f>Data!AA15</f>
-        <v>6.3856282197795322E-4</v>
+        <v>6.4709940983088271E-4</v>
       </c>
       <c r="U7">
         <f>Data!AB15</f>
-        <v>6.5884356913353814E-4</v>
+        <v>6.6855457291672971E-4</v>
       </c>
       <c r="V7">
         <f>Data!AC15</f>
-        <v>6.7912431628912306E-4</v>
+        <v>6.9000973600258364E-4</v>
       </c>
       <c r="W7">
         <f>Data!AD15</f>
-        <v>6.9940506344470105E-4</v>
+        <v>7.1146489908843064E-4</v>
       </c>
       <c r="X7">
         <f>Data!AE15</f>
-        <v>7.1968581060028597E-4</v>
+        <v>7.3292006217427763E-4</v>
       </c>
       <c r="Y7">
         <f>Data!AF15</f>
-        <v>7.3996655775587089E-4</v>
+        <v>7.5437522526012463E-4</v>
       </c>
       <c r="Z7">
         <f>Data!AG15</f>
-        <v>7.6024730491145581E-4</v>
+        <v>7.7583038834597856E-4</v>
       </c>
       <c r="AA7">
         <f>Data!AH15</f>
-        <v>7.805280520670338E-4</v>
+        <v>7.9728555143182556E-4</v>
       </c>
       <c r="AB7">
         <f>Data!AI15</f>
-        <v>8.0080879922261872E-4</v>
+        <v>8.1874071451767255E-4</v>
       </c>
       <c r="AC7">
         <f>Data!AJ15</f>
-        <v>8.2108954637820364E-4</v>
+        <v>8.4019587760351955E-4</v>
       </c>
       <c r="AD7">
         <f>Data!AK15</f>
-        <v>8.4137029353378856E-4</v>
-      </c>
-      <c r="AE7">
-        <f>Data!AL15</f>
-        <v>8.6165104068937348E-4</v>
+        <v>8.6165104068936654E-4</v>
+      </c>
+      <c r="AE7" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -8859,123 +8853,123 @@
       </c>
       <c r="B8">
         <f>Data!I16</f>
-        <v>3.0883943362035788E-5</v>
+        <v>3.1402369026966701E-5</v>
       </c>
       <c r="C8">
         <f>Data!J16</f>
-        <v>3.5078860889128402E-5</v>
+        <v>3.5589627316855018E-5</v>
       </c>
       <c r="D8">
         <f>Data!K16</f>
-        <v>3.6517371528069407E-5</v>
+        <v>3.7025511469307695E-5</v>
       </c>
       <c r="E8">
         <f>Data!L16</f>
-        <v>3.8435855855520251E-5</v>
+        <v>3.8940492956370917E-5</v>
       </c>
       <c r="F8">
         <f>Data!M16</f>
-        <v>4.0983976205965081E-5</v>
+        <v>4.1483960853444948E-5</v>
       </c>
       <c r="G8">
         <f>Data!N16</f>
-        <v>4.4349978277937009E-5</v>
+        <v>4.4843817153030914E-5</v>
       </c>
       <c r="H8">
         <f>Data!O16</f>
-        <v>4.8764508433763626E-5</v>
+        <v>4.9250287094707766E-5</v>
       </c>
       <c r="I8">
         <f>Data!P16</f>
-        <v>5.4499880402212323E-5</v>
+        <v>5.4975187206659274E-5</v>
       </c>
       <c r="J8">
         <f>Data!Q16</f>
-        <v>6.1860739465156677E-5</v>
+        <v>6.2322606538017407E-5</v>
       </c>
       <c r="K8">
         <f>Data!R16</f>
-        <v>7.1160932794700195E-5</v>
+        <v>7.1605819226988916E-5</v>
       </c>
       <c r="L8">
         <f>Data!S16</f>
-        <v>8.268158689577577E-5</v>
+        <v>8.3105438487227008E-5</v>
       </c>
       <c r="M8">
         <f>Data!T16</f>
-        <v>9.6608686813727074E-5</v>
+        <v>9.7007109785628452E-5</v>
       </c>
       <c r="N8">
         <f>Data!U16</f>
-        <v>1.1295653010254654E-4</v>
+        <v>1.1332510457117721E-4</v>
       </c>
       <c r="O8">
         <f>Data!V16</f>
-        <v>1.3149578733858268E-4</v>
+        <v>1.3183051213845463E-4</v>
       </c>
       <c r="P8">
         <f>Data!W16</f>
-        <v>1.5171612932688805E-4</v>
+        <v>1.5201393507063073E-4</v>
       </c>
       <c r="Q8">
         <f>Data!X16</f>
-        <v>1.7285323157612058E-4</v>
+        <v>1.7311244440858605E-4</v>
       </c>
       <c r="R8">
         <f>Data!Y16</f>
-        <v>1.9399033382535313E-4</v>
+        <v>1.9421095374654138E-4</v>
       </c>
       <c r="S8">
         <f>Data!Z16</f>
-        <v>2.1421067581365848E-4</v>
+        <v>2.1439437667871745E-4</v>
       </c>
       <c r="T8">
         <f>Data!AA16</f>
-        <v>2.3274993304969461E-4</v>
+        <v>2.3289978424599487E-4</v>
       </c>
       <c r="U8">
         <f>Data!AB16</f>
-        <v>2.4909777633851408E-4</v>
+        <v>2.4921777903154363E-4</v>
       </c>
       <c r="V8">
         <f>Data!AC16</f>
-        <v>2.6302487625646539E-4</v>
+        <v>2.6311945032994507E-4</v>
       </c>
       <c r="W8">
         <f>Data!AD16</f>
-        <v>2.7454553035754099E-4</v>
+        <v>2.7461906959018321E-4</v>
       </c>
       <c r="X8">
         <f>Data!AE16</f>
-        <v>2.8384572368708451E-4</v>
+        <v>2.8390228227915469E-4</v>
       </c>
       <c r="Y8">
         <f>Data!AF16</f>
-        <v>2.9120658275002886E-4</v>
+        <v>2.9124970161051279E-4</v>
       </c>
       <c r="Z8">
         <f>Data!AG16</f>
-        <v>2.9694195471847756E-4</v>
+        <v>2.9697460172246431E-4</v>
       </c>
       <c r="AA8">
         <f>Data!AH16</f>
-        <v>3.0135648487430419E-4</v>
+        <v>3.0138107166414118E-4</v>
       </c>
       <c r="AB8">
         <f>Data!AI16</f>
-        <v>3.0472248694627611E-4</v>
+        <v>3.0474092796372714E-4</v>
       </c>
       <c r="AC8">
         <f>Data!AJ16</f>
-        <v>3.0727060729672089E-4</v>
+        <v>3.0728439586080112E-4</v>
       </c>
       <c r="AD8">
         <f>Data!AK16</f>
-        <v>3.0918909162417176E-4</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL16</f>
-        <v>3.1062760226311276E-4</v>
+        <v>3.091993773478644E-4</v>
+      </c>
+      <c r="AE8" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -8988,10 +8982,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8999,132 +8993,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9244,12 +9234,8 @@
         <f>Data!AK17</f>
         <v>0.98611178598614568</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL17</f>
-        <v>0.98965817781470888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9263,118 +9249,114 @@
       </c>
       <c r="D3">
         <f>Data!K18</f>
-        <v>6.6061864151820693E-3</v>
+        <v>6.5988190394765667E-3</v>
       </c>
       <c r="E3">
         <f>Data!L18</f>
-        <v>6.4072672711342205E-3</v>
+        <v>6.3925325197232707E-3</v>
       </c>
       <c r="F3">
         <f>Data!M18</f>
-        <v>6.2083481270863716E-3</v>
+        <v>6.1862459999699193E-3</v>
       </c>
       <c r="G3">
         <f>Data!N18</f>
-        <v>6.0094289830384673E-3</v>
+        <v>5.9799594802165679E-3</v>
       </c>
       <c r="H3">
         <f>Data!O18</f>
-        <v>5.8105098389906185E-3</v>
+        <v>5.7736729604632719E-3</v>
       </c>
       <c r="I3">
         <f>Data!P18</f>
-        <v>5.6115906949427696E-3</v>
+        <v>5.5673864407099205E-3</v>
       </c>
       <c r="J3">
         <f>Data!Q18</f>
-        <v>5.4126715508949208E-3</v>
+        <v>5.3610999209565691E-3</v>
       </c>
       <c r="K3">
         <f>Data!R18</f>
-        <v>5.213752406847072E-3</v>
+        <v>5.1548134012032176E-3</v>
       </c>
       <c r="L3">
         <f>Data!S18</f>
-        <v>5.0148332627991676E-3</v>
+        <v>4.9485268814499217E-3</v>
       </c>
       <c r="M3">
         <f>Data!T18</f>
-        <v>4.8159141187513188E-3</v>
+        <v>4.7422403616965703E-3</v>
       </c>
       <c r="N3">
         <f>Data!U18</f>
-        <v>4.61699497470347E-3</v>
+        <v>4.5359538419432188E-3</v>
       </c>
       <c r="O3">
         <f>Data!V18</f>
-        <v>4.4180758306556212E-3</v>
+        <v>4.3296673221898674E-3</v>
       </c>
       <c r="P3">
         <f>Data!W18</f>
-        <v>4.2191566866077723E-3</v>
+        <v>4.1233808024365715E-3</v>
       </c>
       <c r="Q3">
         <f>Data!X18</f>
-        <v>4.020237542559868E-3</v>
+        <v>3.91709428268322E-3</v>
       </c>
       <c r="R3">
         <f>Data!Y18</f>
-        <v>3.8213183985120192E-3</v>
+        <v>3.7108077629298686E-3</v>
       </c>
       <c r="S3">
         <f>Data!Z18</f>
-        <v>3.6223992544641703E-3</v>
+        <v>3.5045212431765727E-3</v>
       </c>
       <c r="T3">
         <f>Data!AA18</f>
-        <v>3.4234801104163215E-3</v>
+        <v>3.2982347234232212E-3</v>
       </c>
       <c r="U3">
         <f>Data!AB18</f>
-        <v>3.2245609663684727E-3</v>
+        <v>3.0919482036698698E-3</v>
       </c>
       <c r="V3">
         <f>Data!AC18</f>
-        <v>3.0256418223205683E-3</v>
+        <v>2.8856616839165183E-3</v>
       </c>
       <c r="W3">
         <f>Data!AD18</f>
-        <v>2.8267226782727195E-3</v>
+        <v>2.6793751641632224E-3</v>
       </c>
       <c r="X3">
         <f>Data!AE18</f>
-        <v>2.6278035342248707E-3</v>
+        <v>2.473088644409871E-3</v>
       </c>
       <c r="Y3">
         <f>Data!AF18</f>
-        <v>2.4288843901770218E-3</v>
+        <v>2.2668021246565195E-3</v>
       </c>
       <c r="Z3">
         <f>Data!AG18</f>
-        <v>2.229965246129173E-3</v>
+        <v>2.0605156049031681E-3</v>
       </c>
       <c r="AA3">
         <f>Data!AH18</f>
-        <v>2.0310461020812687E-3</v>
+        <v>1.8542290851498722E-3</v>
       </c>
       <c r="AB3">
         <f>Data!AI18</f>
-        <v>1.8321269580334199E-3</v>
+        <v>1.6479425653965207E-3</v>
       </c>
       <c r="AC3">
         <f>Data!AJ18</f>
-        <v>1.633207813985571E-3</v>
+        <v>1.4416560456431693E-3</v>
       </c>
       <c r="AD3">
         <f>Data!AK18</f>
-        <v>1.4342886699377222E-3</v>
-      </c>
-      <c r="AE3">
-        <f>Data!AL18</f>
         <v>1.2353695258898734E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9494,12 +9476,8 @@
         <f>Data!AK19</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL19</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9619,12 +9597,8 @@
         <f>Data!AK20</f>
         <v>1.2</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL20</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9634,122 +9608,118 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>1.2140101603773719E-2</v>
+        <v>1.0662698434446413E-2</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>1.3363235653583922E-2</v>
+        <v>1.1379205080176171E-2</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>1.4994480804930065E-2</v>
+        <v>1.2334781447243478E-2</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>1.7161091658734945E-2</v>
+        <v>1.3603972731471327E-2</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>2.0023129404240558E-2</v>
+        <v>1.5280542086483882E-2</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>2.3776707585268467E-2</v>
+        <v>1.7479371979568815E-2</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>2.8653368593560293E-2</v>
+        <v>2.0336098944168053E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>3.4912145631434188E-2</v>
+        <v>2.4002463511872893E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>4.2819896066673677E-2</v>
+        <v>2.8634789576624901E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>5.2615655601330122E-2</v>
+        <v>3.4373103220694493E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>6.4457563240814544E-2</v>
+        <v>4.1310041590716315E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>7.8357775881741934E-2</v>
+        <v>4.9452726144242329E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>9.4121299744366602E-2</v>
+        <v>5.8686930366946138E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>0.11131421310572374</v>
+        <v>6.8758464786889628E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>0.12928662761243104</v>
+        <v>7.9286627612431049E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>0.14725904211913834</v>
+        <v>8.9814790437972469E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>0.16445195548049549</v>
+        <v>9.9886324857915945E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>0.18021547934312016</v>
+        <v>0.10912052908061977</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>0.19411569198404752</v>
+        <v>0.11726321363414577</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>0.20595759962353194</v>
+        <v>0.12420015200416759</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>0.21575335915818841</v>
+        <v>0.12993846564823719</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>0.22366110959342791</v>
+        <v>0.13457079171298919</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>0.22991988663130181</v>
+        <v>0.13823715628069402</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>0.23479654763959362</v>
+        <v>0.14109388324529326</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>0.23855012582062154</v>
+        <v>0.14329271313837821</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>0.24141216356612716</v>
+        <v>0.14496928249339075</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>0.243578774419932</v>
+        <v>0.14623847377761859</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>0.24521001957127816</v>
-      </c>
-      <c r="AE6">
-        <f>Data!AL21</f>
-        <v>0.24643315362108836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.14719405014468592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -9759,122 +9729,118 @@
       </c>
       <c r="C7">
         <f>Data!J22</f>
-        <v>1.0035197841849697E-2</v>
+        <v>1.0035197841849808E-2</v>
       </c>
       <c r="D7">
         <f>Data!K22</f>
-        <v>9.7075711703796808E-3</v>
+        <v>9.6954368492142562E-3</v>
       </c>
       <c r="E7">
         <f>Data!L22</f>
-        <v>9.3799444989096648E-3</v>
+        <v>9.3556758565785936E-3</v>
       </c>
       <c r="F7">
         <f>Data!M22</f>
-        <v>9.0523178274396487E-3</v>
+        <v>9.015914863943042E-3</v>
       </c>
       <c r="G7">
         <f>Data!N22</f>
-        <v>8.7246911559696327E-3</v>
+        <v>8.6761538713074904E-3</v>
       </c>
       <c r="H7">
         <f>Data!O22</f>
-        <v>8.3970644844996167E-3</v>
+        <v>8.3363928786719388E-3</v>
       </c>
       <c r="I7">
         <f>Data!P22</f>
-        <v>8.0694378130296007E-3</v>
+        <v>7.9966318860363872E-3</v>
       </c>
       <c r="J7">
         <f>Data!Q22</f>
-        <v>7.7418111415595847E-3</v>
+        <v>7.6568708934008356E-3</v>
       </c>
       <c r="K7">
         <f>Data!R22</f>
-        <v>7.4141844700895687E-3</v>
+        <v>7.317109900765284E-3</v>
       </c>
       <c r="L7">
         <f>Data!S22</f>
-        <v>7.0865577986195527E-3</v>
+        <v>6.9773489081296214E-3</v>
       </c>
       <c r="M7">
         <f>Data!T22</f>
-        <v>6.7589311271495367E-3</v>
+        <v>6.6375879154940698E-3</v>
       </c>
       <c r="N7">
         <f>Data!U22</f>
-        <v>6.4313044556795207E-3</v>
+        <v>6.2978269228585182E-3</v>
       </c>
       <c r="O7">
         <f>Data!V22</f>
-        <v>6.1036777842096157E-3</v>
+        <v>5.9580659302229666E-3</v>
       </c>
       <c r="P7">
         <f>Data!W22</f>
-        <v>5.7760511127395997E-3</v>
+        <v>5.618304937587415E-3</v>
       </c>
       <c r="Q7">
         <f>Data!X22</f>
-        <v>5.4484244412695837E-3</v>
+        <v>5.2785439449518634E-3</v>
       </c>
       <c r="R7">
         <f>Data!Y22</f>
-        <v>5.1207977697995677E-3</v>
+        <v>4.9387829523163118E-3</v>
       </c>
       <c r="S7">
         <f>Data!Z22</f>
-        <v>4.7931710983295517E-3</v>
+        <v>4.5990219596806492E-3</v>
       </c>
       <c r="T7">
         <f>Data!AA22</f>
-        <v>4.4655444268595357E-3</v>
+        <v>4.2592609670450976E-3</v>
       </c>
       <c r="U7">
         <f>Data!AB22</f>
-        <v>4.1379177553895197E-3</v>
+        <v>3.919499974409546E-3</v>
       </c>
       <c r="V7">
         <f>Data!AC22</f>
-        <v>3.8102910839195037E-3</v>
+        <v>3.5797389817739944E-3</v>
       </c>
       <c r="W7">
         <f>Data!AD22</f>
-        <v>3.4826644124494877E-3</v>
+        <v>3.2399779891384428E-3</v>
       </c>
       <c r="X7">
         <f>Data!AE22</f>
-        <v>3.1550377409794716E-3</v>
+        <v>2.9002169965028912E-3</v>
       </c>
       <c r="Y7">
         <f>Data!AF22</f>
-        <v>2.8274110695094556E-3</v>
+        <v>2.5604560038672286E-3</v>
       </c>
       <c r="Z7">
         <f>Data!AG22</f>
-        <v>2.4997843980394396E-3</v>
+        <v>2.220695011231677E-3</v>
       </c>
       <c r="AA7">
         <f>Data!AH22</f>
-        <v>2.1721577265694236E-3</v>
+        <v>1.8809340185961254E-3</v>
       </c>
       <c r="AB7">
         <f>Data!AI22</f>
-        <v>1.8445310550994076E-3</v>
+        <v>1.5411730259605738E-3</v>
       </c>
       <c r="AC7">
         <f>Data!AJ22</f>
-        <v>1.5169043836293916E-3</v>
+        <v>1.2014120333250222E-3</v>
       </c>
       <c r="AD7">
         <f>Data!AK22</f>
-        <v>1.1892777121593756E-3</v>
-      </c>
-      <c r="AE7">
-        <f>Data!AL22</f>
-        <v>8.616510406893596E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+        <v>8.6165104068947063E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -9993,10 +9959,6 @@
       <c r="AD8">
         <f>Data!AK23</f>
         <v>3.1304970847921988E-4</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL23</f>
-        <v>3.1350240049135271E-4</v>
       </c>
     </row>
   </sheetData>
@@ -10009,150 +9971,147 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!I24</f>
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
         <f>Data!J24</f>
@@ -10266,12 +10225,8 @@
         <f>Data!AK24</f>
         <v>0.4802706043958494</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL24</f>
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10391,12 +10346,8 @@
         <f>Data!AK25</f>
         <v>0.01</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL25</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10516,12 +10467,8 @@
         <f>Data!AK26</f>
         <v>2E-3</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL26</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10641,12 +10588,8 @@
         <f>Data!AK27</f>
         <v>3</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL27</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10766,12 +10709,8 @@
         <f>Data!AK28</f>
         <v>5.880958165595535E-3</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL28</f>
-        <v>5.9113558098403615E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -10784,7 +10723,7 @@
         <v>2.1496445375763083E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:AE7" si="0">C7</f>
+        <f t="shared" ref="D7:AD7" si="0">C7</f>
         <v>2.1496445375763083E-2</v>
       </c>
       <c r="E7">
@@ -10891,12 +10830,8 @@
         <f t="shared" si="0"/>
         <v>2.1496445375763083E-2</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>2.1496445375763083E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -11015,10 +10950,6 @@
       <c r="AD8">
         <f>Data!AK30</f>
         <v>9.8032775055036658E-3</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL30</f>
-        <v>9.8535111097871539E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11031,10 +10962,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11042,132 +10973,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11287,137 +11214,129 @@
         <f>Data!AK31</f>
         <v>0.95841365175303883</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL31</f>
-        <v>0.96543078982832664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f>Data!I32</f>
-        <v>6.3356010705258418E-3</v>
+        <v>5.9409446603675671E-3</v>
       </c>
       <c r="C3">
         <f>Data!J32</f>
-        <v>7.0225669077779371E-3</v>
+        <v>6.6337411639312942E-3</v>
       </c>
       <c r="D3">
         <f>Data!K32</f>
-        <v>7.2581395165584144E-3</v>
+        <v>6.8713132102375934E-3</v>
       </c>
       <c r="E3">
         <f>Data!L32</f>
-        <v>7.5723133194402362E-3</v>
+        <v>7.18815358328801E-3</v>
       </c>
       <c r="F3">
         <f>Data!M32</f>
-        <v>7.9895972394832711E-3</v>
+        <v>7.6089792271883949E-3</v>
       </c>
       <c r="G3">
         <f>Data!N32</f>
-        <v>8.5408186679453209E-3</v>
+        <v>8.1648791826439276E-3</v>
       </c>
       <c r="H3">
         <f>Data!O32</f>
-        <v>9.263748590878489E-3</v>
+        <v>8.8939450193572869E-3</v>
       </c>
       <c r="I3">
         <f>Data!P32</f>
-        <v>1.0202981503280528E-2</v>
+        <v>9.8411497309437278E-3</v>
       </c>
       <c r="J3">
         <f>Data!Q32</f>
-        <v>1.1408406562632024E-2</v>
+        <v>1.1056805912286489E-2</v>
       </c>
       <c r="K3">
         <f>Data!R32</f>
-        <v>1.2931419841432812E-2</v>
+        <v>1.2592745863325292E-2</v>
       </c>
       <c r="L3">
         <f>Data!S32</f>
-        <v>1.4818059027810897E-2</v>
+        <v>1.4495398019999283E-2</v>
       </c>
       <c r="M3">
         <f>Data!T32</f>
-        <v>1.709878130514729E-2</v>
+        <v>1.67954780729739E-2</v>
       </c>
       <c r="N3">
         <f>Data!U32</f>
-        <v>1.9775928061821053E-2</v>
+        <v>1.9495347283311256E-2</v>
       </c>
       <c r="O3">
         <f>Data!V32</f>
-        <v>2.2811943975586207E-2</v>
+        <v>2.2557131575575082E-2</v>
       </c>
       <c r="P3">
         <f>Data!W32</f>
-        <v>2.6123256790154734E-2</v>
+        <v>2.589654936862756E-2</v>
       </c>
       <c r="Q3">
         <f>Data!X32</f>
-        <v>2.9584699607551657E-2</v>
+        <v>2.938737140247252E-2</v>
       </c>
       <c r="R3">
         <f>Data!Y32</f>
-        <v>3.3046142424948577E-2</v>
+        <v>3.2878193436317482E-2</v>
       </c>
       <c r="S3">
         <f>Data!Z32</f>
-        <v>3.6357455239517111E-2</v>
+        <v>3.6217611229369957E-2</v>
       </c>
       <c r="T3">
         <f>Data!AA32</f>
-        <v>3.9393471153282261E-2</v>
+        <v>3.9279395521633786E-2</v>
       </c>
       <c r="U3">
         <f>Data!AB32</f>
-        <v>4.2070617909956018E-2</v>
+        <v>4.1979264731971139E-2</v>
       </c>
       <c r="V3">
         <f>Data!AC32</f>
-        <v>4.4351340187292421E-2</v>
+        <v>4.4279344784945759E-2</v>
       </c>
       <c r="W3">
         <f>Data!AD32</f>
-        <v>4.623797937367051E-2</v>
+        <v>4.6181996941619757E-2</v>
       </c>
       <c r="X3">
         <f>Data!AE32</f>
-        <v>4.7760992652471287E-2</v>
+        <v>4.7717936892658554E-2</v>
       </c>
       <c r="Y3">
         <f>Data!AF32</f>
-        <v>4.8966417711822793E-2</v>
+        <v>4.8933593074001316E-2</v>
       </c>
       <c r="Z3">
         <f>Data!AG32</f>
-        <v>4.9905650624224834E-2</v>
+        <v>4.9880797785587759E-2</v>
       </c>
       <c r="AA3">
         <f>Data!AH32</f>
-        <v>5.0628580547157992E-2</v>
+        <v>5.0609863622301118E-2</v>
       </c>
       <c r="AB3">
         <f>Data!AI32</f>
-        <v>5.117980197562004E-2</v>
+        <v>5.1165763577756651E-2</v>
       </c>
       <c r="AC3">
         <f>Data!AJ32</f>
-        <v>5.1597085895663072E-2</v>
+        <v>5.1586589221657028E-2</v>
       </c>
       <c r="AD3">
         <f>Data!AK32</f>
-        <v>5.1911259698544904E-2</v>
-      </c>
-      <c r="AE3">
-        <f>Data!AL32</f>
-        <v>5.2146832307325378E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+        <v>5.1903429594707451E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11537,12 +11456,8 @@
         <f>Data!AK33</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11662,12 +11577,8 @@
         <f>Data!AK34</f>
         <v>2.5</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL34</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11787,12 +11698,8 @@
         <f>Data!AK35</f>
         <v>2E-3</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL35</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11806,118 +11713,114 @@
       </c>
       <c r="D7">
         <f>Data!K36</f>
-        <v>2.2066421693983651E-4</v>
+        <v>2.2883696571535106E-4</v>
       </c>
       <c r="E7">
         <f>Data!L36</f>
-        <v>4.4132843387961751E-4</v>
+        <v>4.5767393143075763E-4</v>
       </c>
       <c r="F7">
         <f>Data!M36</f>
-        <v>6.6199265081945402E-4</v>
+        <v>6.8651089714610869E-4</v>
       </c>
       <c r="G7">
         <f>Data!N36</f>
-        <v>8.8265686775929053E-4</v>
+        <v>9.1534786286151526E-4</v>
       </c>
       <c r="H7">
         <f>Data!O36</f>
-        <v>1.103321084699127E-3</v>
+        <v>1.1441848285768663E-3</v>
       </c>
       <c r="I7">
         <f>Data!P36</f>
-        <v>1.3239853016389636E-3</v>
+        <v>1.3730217942922729E-3</v>
       </c>
       <c r="J7">
         <f>Data!Q36</f>
-        <v>1.5446495185788001E-3</v>
+        <v>1.6018587600076239E-3</v>
       </c>
       <c r="K7">
         <f>Data!R36</f>
-        <v>1.7653137355186366E-3</v>
+        <v>1.8306957257230305E-3</v>
       </c>
       <c r="L7">
         <f>Data!S36</f>
-        <v>1.9859779524584176E-3</v>
+        <v>2.0595326914383816E-3</v>
       </c>
       <c r="M7">
         <f>Data!T36</f>
-        <v>2.2066421693982541E-3</v>
+        <v>2.2883696571537882E-3</v>
       </c>
       <c r="N7">
         <f>Data!U36</f>
-        <v>2.4273063863380906E-3</v>
+        <v>2.5172066228691392E-3</v>
       </c>
       <c r="O7">
         <f>Data!V36</f>
-        <v>2.6479706032779271E-3</v>
+        <v>2.7460435885845458E-3</v>
       </c>
       <c r="P7">
         <f>Data!W36</f>
-        <v>2.8686348202177636E-3</v>
+        <v>2.9748805542998968E-3</v>
       </c>
       <c r="Q7">
         <f>Data!X36</f>
-        <v>3.0892990371576001E-3</v>
+        <v>3.2037175200153034E-3</v>
       </c>
       <c r="R7">
         <f>Data!Y36</f>
-        <v>3.3099632540974366E-3</v>
+        <v>3.4325544857306545E-3</v>
       </c>
       <c r="S7">
         <f>Data!Z36</f>
-        <v>3.5306274710372176E-3</v>
+        <v>3.661391451446061E-3</v>
       </c>
       <c r="T7">
         <f>Data!AA36</f>
-        <v>3.7512916879770541E-3</v>
+        <v>3.8902284171614121E-3</v>
       </c>
       <c r="U7">
         <f>Data!AB36</f>
-        <v>3.9719559049168907E-3</v>
+        <v>4.1190653828768187E-3</v>
       </c>
       <c r="V7">
         <f>Data!AC36</f>
-        <v>4.1926201218567272E-3</v>
+        <v>4.3479023485921697E-3</v>
       </c>
       <c r="W7">
         <f>Data!AD36</f>
-        <v>4.4132843387965637E-3</v>
+        <v>4.5767393143075763E-3</v>
       </c>
       <c r="X7">
         <f>Data!AE36</f>
-        <v>4.6339485557364002E-3</v>
+        <v>4.8055762800229274E-3</v>
       </c>
       <c r="Y7">
         <f>Data!AF36</f>
-        <v>4.8546127726762367E-3</v>
+        <v>5.0344132457383339E-3</v>
       </c>
       <c r="Z7">
         <f>Data!AG36</f>
-        <v>5.0752769896160177E-3</v>
+        <v>5.263250211453685E-3</v>
       </c>
       <c r="AA7">
         <f>Data!AH36</f>
-        <v>5.2959412065558542E-3</v>
+        <v>5.4920871771690916E-3</v>
       </c>
       <c r="AB7">
         <f>Data!AI36</f>
-        <v>5.5166054234956907E-3</v>
+        <v>5.7209241428844426E-3</v>
       </c>
       <c r="AC7">
         <f>Data!AJ36</f>
-        <v>5.7372696404355272E-3</v>
+        <v>5.9497611085997937E-3</v>
       </c>
       <c r="AD7">
         <f>Data!AK36</f>
-        <v>5.9579338573753637E-3</v>
-      </c>
-      <c r="AE7">
-        <f>Data!AL36</f>
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12036,10 +11939,6 @@
       <c r="AD8">
         <f>Data!AK37</f>
         <v>0.14851197706994418</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL37</f>
-        <v>0.14889194762300451</v>
       </c>
     </row>
   </sheetData>
@@ -12052,10 +11951,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12063,132 +11962,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12308,12 +12203,8 @@
         <f>Data!AK38</f>
         <v>0</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12433,12 +12324,8 @@
         <f>Data!AK39</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12558,12 +12445,8 @@
         <f>Data!AK40</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12683,12 +12566,8 @@
         <f>Data!AK41</f>
         <v>1</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL41</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12808,12 +12687,8 @@
         <f>Data!AK42</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12933,12 +12808,8 @@
         <f>Data!AK43</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13056,10 +12927,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK44</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL44</f>
         <v>0</v>
       </c>
     </row>
@@ -13073,10 +12940,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13084,132 +12951,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13329,12 +13192,8 @@
         <f>Data!AK45</f>
         <v>0</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13454,12 +13313,8 @@
         <f>Data!AK46</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13579,12 +13434,8 @@
         <f>Data!AK47</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13704,12 +13555,8 @@
         <f>Data!AK48</f>
         <v>1</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL48</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13829,12 +13676,8 @@
         <f>Data!AK49</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13954,12 +13797,8 @@
         <f>Data!AK50</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14077,10 +13916,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK51</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL51</f>
         <v>0</v>
       </c>
     </row>
@@ -14094,10 +13929,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14105,132 +13940,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14350,12 +14181,8 @@
         <f>Data!AK52</f>
         <v>0.99747886251459994</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL52</f>
-        <v>0.99812264157560726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14475,12 +14302,8 @@
         <f>Data!AK53</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14600,12 +14423,8 @@
         <f>Data!AK54</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14619,118 +14438,114 @@
       </c>
       <c r="D5">
         <f>Data!K55</f>
-        <v>0.15824752151749522</v>
+        <v>0.15940218884050239</v>
       </c>
       <c r="E5">
         <f>Data!L55</f>
-        <v>0.18942353923906552</v>
+        <v>0.19173287388510118</v>
       </c>
       <c r="F5">
         <f>Data!M55</f>
-        <v>0.22059955696064293</v>
+        <v>0.22406355892969998</v>
       </c>
       <c r="G5">
         <f>Data!N55</f>
-        <v>0.25177557468222034</v>
+        <v>0.25639424397429877</v>
       </c>
       <c r="H5">
         <f>Data!O55</f>
-        <v>0.28295159240379064</v>
+        <v>0.28872492901889757</v>
       </c>
       <c r="I5">
         <f>Data!P55</f>
-        <v>0.31412761012536805</v>
+        <v>0.32105561406348215</v>
       </c>
       <c r="J5">
         <f>Data!Q55</f>
-        <v>0.34530362784693835</v>
+        <v>0.35338629910808095</v>
       </c>
       <c r="K5">
         <f>Data!R55</f>
-        <v>0.37647964556851576</v>
+        <v>0.38571698415267974</v>
       </c>
       <c r="L5">
         <f>Data!S55</f>
-        <v>0.40765566329008607</v>
+        <v>0.41804766919727854</v>
       </c>
       <c r="M5">
         <f>Data!T55</f>
-        <v>0.43883168101166348</v>
+        <v>0.45037835424186312</v>
       </c>
       <c r="N5">
         <f>Data!U55</f>
-        <v>0.47000769873324089</v>
+        <v>0.48270903928646192</v>
       </c>
       <c r="O5">
         <f>Data!V55</f>
-        <v>0.50118371645481119</v>
+        <v>0.51503972433106071</v>
       </c>
       <c r="P5">
         <f>Data!W55</f>
-        <v>0.5323597341763886</v>
+        <v>0.54737040937565951</v>
       </c>
       <c r="Q5">
         <f>Data!X55</f>
-        <v>0.5635357518979589</v>
+        <v>0.57970109442024409</v>
       </c>
       <c r="R5">
         <f>Data!Y55</f>
-        <v>0.59471176961953631</v>
+        <v>0.61203177946484288</v>
       </c>
       <c r="S5">
         <f>Data!Z55</f>
-        <v>0.62588778734110662</v>
+        <v>0.64436246450944168</v>
       </c>
       <c r="T5">
         <f>Data!AA55</f>
-        <v>0.65706380506268403</v>
+        <v>0.67669314955404047</v>
       </c>
       <c r="U5">
         <f>Data!AB55</f>
-        <v>0.68823982278425433</v>
+        <v>0.70902383459863927</v>
       </c>
       <c r="V5">
         <f>Data!AC55</f>
-        <v>0.71941584050583174</v>
+        <v>0.74135451964322385</v>
       </c>
       <c r="W5">
         <f>Data!AD55</f>
-        <v>0.75059185822740915</v>
+        <v>0.77368520468782265</v>
       </c>
       <c r="X5">
         <f>Data!AE55</f>
-        <v>0.78176787594897945</v>
+        <v>0.80601588973242144</v>
       </c>
       <c r="Y5">
         <f>Data!AF55</f>
-        <v>0.81294389367055686</v>
+        <v>0.83834657477702024</v>
       </c>
       <c r="Z5">
         <f>Data!AG55</f>
-        <v>0.84411991139212716</v>
+        <v>0.87067725982160482</v>
       </c>
       <c r="AA5">
         <f>Data!AH55</f>
-        <v>0.87529592911370457</v>
+        <v>0.90300794486620362</v>
       </c>
       <c r="AB5">
         <f>Data!AI55</f>
-        <v>0.90647194683527488</v>
+        <v>0.93533862991080241</v>
       </c>
       <c r="AC5">
         <f>Data!AJ55</f>
-        <v>0.93764796455685229</v>
+        <v>0.96766931495540121</v>
       </c>
       <c r="AD5">
         <f>Data!AK55</f>
-        <v>0.9688239822784297</v>
-      </c>
-      <c r="AE5">
-        <f>Data!AL55</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14850,12 +14665,8 @@
         <f>Data!AK56</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14975,12 +14786,8 @@
         <f>Data!AK57</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15098,10 +14905,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK58</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL58</f>
         <v>0</v>
       </c>
     </row>
@@ -15115,10 +14918,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15126,132 +14929,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15371,12 +15170,8 @@
         <f>Data!AK59</f>
         <v>0</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15496,12 +15291,8 @@
         <f>Data!AK60</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15621,12 +15412,8 @@
         <f>Data!AK61</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15746,12 +15533,8 @@
         <f>Data!AK62</f>
         <v>1</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15871,12 +15654,8 @@
         <f>Data!AK63</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15996,12 +15775,8 @@
         <f>Data!AK64</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16119,10 +15894,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK65</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL65</f>
         <v>0</v>
       </c>
     </row>
@@ -16136,10 +15907,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16147,132 +15918,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16392,12 +16159,8 @@
         <f>Data!AK66</f>
         <v>0</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16517,12 +16280,8 @@
         <f>Data!AK67</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16642,12 +16401,8 @@
         <f>Data!AK68</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16767,12 +16522,8 @@
         <f>Data!AK69</f>
         <v>1</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16892,12 +16643,8 @@
         <f>Data!AK70</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17017,12 +16764,8 @@
         <f>Data!AK71</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17140,10 +16883,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK72</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL72</f>
         <v>0</v>
       </c>
     </row>
@@ -17157,10 +16896,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17168,132 +16907,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17413,12 +17148,8 @@
         <f>Data!AK73</f>
         <v>0</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17538,12 +17269,8 @@
         <f>Data!AK74</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17663,12 +17390,8 @@
         <f>Data!AK75</f>
         <v>0</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17788,12 +17511,8 @@
         <f>Data!AK76</f>
         <v>1</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL76</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17913,12 +17632,8 @@
         <f>Data!AK77</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -18038,12 +17753,8 @@
         <f>Data!AK78</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -18161,10 +17872,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK79</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL79</f>
         <v>0</v>
       </c>
     </row>
@@ -24525,10 +24232,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24536,132 +24243,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24781,12 +24484,8 @@
         <f>Data!AK80</f>
         <v>0.99612759655932892</v>
       </c>
-      <c r="AE2">
-        <f>Data!AL80</f>
-        <v>0.99712837084429951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24906,12 +24605,8 @@
         <f>Data!AK81</f>
         <v>0</v>
       </c>
-      <c r="AE3">
-        <f>Data!AL81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25031,12 +24726,8 @@
         <f>Data!AK82</f>
         <v>3</v>
       </c>
-      <c r="AE4">
-        <f>Data!AL82</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25156,12 +24847,8 @@
         <f>Data!AK83</f>
         <v>0</v>
       </c>
-      <c r="AE5">
-        <f>Data!AL83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25281,12 +24968,8 @@
         <f>Data!AK84</f>
         <v>0</v>
       </c>
-      <c r="AE6">
-        <f>Data!AL84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25406,12 +25089,8 @@
         <f>Data!AK85</f>
         <v>0</v>
       </c>
-      <c r="AE7">
-        <f>Data!AL85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25529,10 +25208,6 @@
       </c>
       <c r="AD8">
         <f>Data!AK86</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>Data!AL86</f>
         <v>0</v>
       </c>
     </row>
@@ -25546,10 +25221,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25557,132 +25232,128 @@
     <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B1">
         <f>Data!I9</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1">
         <f>Data!J9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1">
         <f>Data!K9</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E1">
         <f>Data!L9</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1">
         <f>Data!M9</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G1">
         <f>Data!N9</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H1">
         <f>Data!O9</f>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I1">
         <f>Data!P9</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J1">
         <f>Data!Q9</f>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K1">
         <f>Data!R9</f>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L1">
         <f>Data!S9</f>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M1">
         <f>Data!T9</f>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N1">
         <f>Data!U9</f>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="O1">
         <f>Data!V9</f>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="P1">
         <f>Data!W9</f>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="Q1">
         <f>Data!X9</f>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="R1">
         <f>Data!Y9</f>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="S1">
         <f>Data!Z9</f>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="T1">
         <f>Data!AA9</f>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="U1">
         <f>Data!AB9</f>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="V1">
         <f>Data!AC9</f>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="W1">
         <f>Data!AD9</f>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="X1">
         <f>Data!AE9</f>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="Y1">
         <f>Data!AF9</f>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Z1">
         <f>Data!AG9</f>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA1">
         <f>Data!AH9</f>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AB1">
         <f>Data!AI9</f>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AC1">
         <f>Data!AJ9</f>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AD1">
         <f>Data!AK9</f>
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <f>Data!AL9</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25773,11 +25444,8 @@
       <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25868,11 +25536,8 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25963,11 +25628,8 @@
       <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26058,11 +25720,8 @@
       <c r="AD5">
         <v>1</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -26153,11 +25812,8 @@
       <c r="AD6">
         <v>1</v>
       </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -26248,11 +25904,8 @@
       <c r="AD7">
         <v>1</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26341,9 +25994,6 @@
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
         <v>1</v>
       </c>
     </row>
@@ -56556,7 +56206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
@@ -63354,10 +63004,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AL95"/>
+  <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63373,7 +63023,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -63394,7 +63044,7 @@
       </c>
       <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -63417,7 +63067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -63440,7 +63090,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -63463,12 +63113,12 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -63492,7 +63142,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63507,7 +63157,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -63518,7 +63168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -63529,136 +63179,132 @@
         <v>11</v>
       </c>
       <c r="D9" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E9" s="12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F9" s="12">
         <v>2050</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J9" s="21">
         <f>E9</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" ref="K9:AL9" si="0">J9+1</f>
-        <v>2023</v>
+        <f t="shared" ref="K9:AK9" si="0">J9+1</f>
+        <v>2024</v>
       </c>
       <c r="L9" s="21">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M9" s="21">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="O9" s="21">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="0"/>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="R9" s="21">
         <f t="shared" si="0"/>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="0"/>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="T9" s="21">
         <f t="shared" si="0"/>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="U9" s="21">
         <f t="shared" si="0"/>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="V9" s="21">
         <f t="shared" si="0"/>
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="W9" s="21">
         <f t="shared" si="0"/>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="X9" s="21">
         <f t="shared" si="0"/>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="Y9" s="21">
         <f t="shared" si="0"/>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="Z9" s="21">
         <f t="shared" si="0"/>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="AA9" s="21">
         <f t="shared" si="0"/>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="AB9" s="21">
         <f t="shared" si="0"/>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AC9" s="21">
         <f t="shared" si="0"/>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AD9" s="21">
         <f t="shared" si="0"/>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AE9" s="21">
         <f t="shared" si="0"/>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AF9" s="21">
         <f t="shared" si="0"/>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AG9" s="21">
         <f t="shared" si="0"/>
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AH9" s="21">
         <f t="shared" si="0"/>
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AI9" s="21">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AJ9" s="21">
         <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AK9" s="21">
         <f t="shared" si="0"/>
-        <v>2049</v>
-      </c>
-      <c r="AL9" s="21">
-        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -63669,10 +63315,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.27500000000000002</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E10" s="22">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -63682,133 +63328,129 @@
         <v>s-curve</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" ref="I10:I40" si="1">E10</f>
-        <v>0.3</v>
+        <f>D10</f>
+        <v>0.34799999999999998</v>
       </c>
       <c r="J10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,J$9))</f>
-        <v>0.35069853975306242</v>
+        <v>0.28576839372836865</v>
       </c>
       <c r="K10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
-        <v>0.36674462542937664</v>
+        <v>0.30341908797231432</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.38718735073119148</v>
+        <v>0.32590608580431069</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.41277626470360962</v>
+        <v>0.35405389117397068</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.44410926026066311</v>
+        <v>0.38852018628672946</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.48145757057249217</v>
+        <v>0.4296033276297414</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.52457491057722483</v>
+        <v>0.47703240163494742</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.57255253623554458</v>
+        <v>0.52980778985909904</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.62379910825937523</v>
+        <v>0.58617901908531289</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.67620089174062459</v>
+        <v>0.6438209809146872</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.72744746376445535</v>
+        <v>0.70019221014090094</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.77542508942277499</v>
+        <v>0.75296759836505256</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.81854242942750788</v>
+        <v>0.80039667237025858</v>
       </c>
       <c r="W10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.85589073973933671</v>
+        <v>0.84147981371327052</v>
       </c>
       <c r="X10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.88722373529639031</v>
+        <v>0.87594610882602941</v>
       </c>
       <c r="Y10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.91281264926880845</v>
+        <v>0.9040939141956893</v>
       </c>
       <c r="Z10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.93325537457062335</v>
+        <v>0.92658091202768578</v>
       </c>
       <c r="AA10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.94930146024693762</v>
+        <v>0.94423160627163139</v>
       </c>
       <c r="AB10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.96172307794884149</v>
+        <v>0.95789538574372557</v>
       </c>
       <c r="AC10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.97123610525967452</v>
+        <v>0.96835971578564195</v>
       </c>
       <c r="AD10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.97846179844999637</v>
+        <v>0.97630797829499605</v>
       </c>
       <c r="AE10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.98391584106298202</v>
+        <v>0.98230742516928027</v>
       </c>
       <c r="AF10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.98801317667899058</v>
+        <v>0.98681449434688973</v>
       </c>
       <c r="AG10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.99108035537512174</v>
+        <v>0.99018839091263411</v>
       </c>
       <c r="AH10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.99337026949263763</v>
+        <v>0.99270729644190148</v>
       </c>
       <c r="AI10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.99507648899150336</v>
+        <v>0.9945841378906537</v>
       </c>
       <c r="AJ10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.99634591201450906</v>
+        <v>0.9959805032159601</v>
       </c>
       <c r="AK10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99728931759153028</v>
-      </c>
-      <c r="AL10">
-        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
-        <v>0.99798985959100972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.99701824935068328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="22">
         <f>SUM(SUM(INDEX('AEO 39'!$29:$30,0,MATCH($E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!$51:$52,0,MATCH($E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH($E$9,'AEO 39'!$1:$1,0))</f>
-        <v>3.7087168441147616E-4</v>
+        <v>3.6619689311735883E-4</v>
       </c>
       <c r="F11" s="22">
         <f>SUM(SUM(INDEX('AEO 39'!$29:$30,0,MATCH($F$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!$51:$52,0,MATCH($F$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH($F$9,'AEO 39'!$1:$1,0))*Assumptions!$A$11</f>
@@ -63819,127 +63461,123 @@
         <v>s-curve</v>
       </c>
       <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>3.7087168441147616E-4</v>
+        <f>E11</f>
+        <v>3.6619689311735883E-4</v>
       </c>
       <c r="J11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,J$9))</f>
-        <v>3.8364380292024329E-4</v>
+        <v>3.7903807714086466E-4</v>
       </c>
       <c r="K11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,K$9))</f>
-        <v>3.8802358589285646E-4</v>
+        <v>3.8344154388725743E-4</v>
       </c>
       <c r="L11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,L$9))</f>
-        <v>3.9386472794848996E-4</v>
+        <v>3.8931427204839546E-4</v>
       </c>
       <c r="M11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,M$9))</f>
-        <v>4.016229007564876E-4</v>
+        <v>3.9711439734830336E-4</v>
       </c>
       <c r="N11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,N$9))</f>
-        <v>4.118712494037081E-4</v>
+        <v>4.0741816416863718E-4</v>
       </c>
       <c r="O11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,O$9))</f>
-        <v>4.253120147933965E-4</v>
+        <v>4.2093161079593579E-4</v>
       </c>
       <c r="P11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,P$9))</f>
-        <v>4.4277430100040505E-4</v>
+        <v>4.3848832470376578E-4</v>
       </c>
       <c r="Q11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,Q$9))</f>
-        <v>4.6518565084723181E-4</v>
+        <v>4.6102086442305562E-4</v>
       </c>
       <c r="R11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,R$9))</f>
-        <v>4.935016238293516E-4</v>
+        <v>4.894899566584924E-4</v>
       </c>
       <c r="S11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,S$9))</f>
-        <v>5.2857815597262656E-4</v>
+        <v>5.2475616592902391E-4</v>
       </c>
       <c r="T11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,T$9))</f>
-        <v>5.7098150943230659E-4</v>
+        <v>5.6738881646509198E-4</v>
       </c>
       <c r="U11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,U$9))</f>
-        <v>6.207552154704006E-4</v>
+        <v>6.1743167492497213E-4</v>
       </c>
       <c r="V11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,V$9))</f>
-        <v>6.7720104282073751E-4</v>
+        <v>6.7418273434140122E-4</v>
       </c>
       <c r="W11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,W$9))</f>
-        <v>7.387652100527514E-4</v>
+        <v>7.3607981117618953E-4</v>
       </c>
       <c r="X11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,X$9))</f>
-        <v>8.0312060515064557E-4</v>
+        <v>8.0078320950358701E-4</v>
       </c>
       <c r="Y11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,Y$9))</f>
-        <v>8.6747600024853974E-4</v>
+        <v>8.6548660783098449E-4</v>
       </c>
       <c r="Z11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,Z$9))</f>
-        <v>9.2904016748055363E-4</v>
+        <v>9.2738368466577258E-4</v>
       </c>
       <c r="AA11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AA$9))</f>
-        <v>9.8548599483089076E-4</v>
+        <v>9.8413474408220168E-4</v>
       </c>
       <c r="AB11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AB$9))</f>
-        <v>1.0352597008689846E-3</v>
+        <v>1.0341776025420818E-3</v>
       </c>
       <c r="AC11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AC$9))</f>
-        <v>1.0776630543286646E-3</v>
+        <v>1.0768102530781499E-3</v>
       </c>
       <c r="AD11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AD$9))</f>
-        <v>1.1127395864719398E-3</v>
+        <v>1.1120764623486815E-3</v>
       </c>
       <c r="AE11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AE$9))</f>
-        <v>1.1410555594540594E-3</v>
+        <v>1.1405455545841184E-3</v>
       </c>
       <c r="AF11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AF$9))</f>
-        <v>1.1634669093008863E-3</v>
+        <v>1.1630780943034081E-3</v>
       </c>
       <c r="AG11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AG$9))</f>
-        <v>1.1809291955078949E-3</v>
+        <v>1.1806348082112382E-3</v>
       </c>
       <c r="AH11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AH$9))</f>
-        <v>1.1943699608975833E-3</v>
+        <v>1.1941482548385369E-3</v>
       </c>
       <c r="AI11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AI$9))</f>
-        <v>1.2046183095448036E-3</v>
+        <v>1.2044520216588706E-3</v>
       </c>
       <c r="AJ11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AJ$9))</f>
-        <v>1.2123764823528012E-3</v>
+        <v>1.2122521469587785E-3</v>
       </c>
       <c r="AK11">
         <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AK$9))</f>
-        <v>1.2182176244084349E-3</v>
-      </c>
-      <c r="AL11">
-        <f>IF($G11="s-curve",$E11+($F11-$E11)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E11:$F11,$E$9:$F$9,AL$9))</f>
-        <v>1.2225974073810479E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+        <v>1.2181248751199165E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -63954,7 +63592,7 @@
         <v>linear</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="1"/>
+        <f>E12</f>
         <v>0.6</v>
       </c>
       <c r="J12">
@@ -63963,118 +63601,114 @@
       </c>
       <c r="K12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,K$9))</f>
-        <v>0.60714285714285587</v>
+        <v>0.60740740740740762</v>
       </c>
       <c r="L12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,L$9))</f>
-        <v>0.61428571428571388</v>
+        <v>0.61481481481481381</v>
       </c>
       <c r="M12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,M$9))</f>
-        <v>0.62142857142857011</v>
+        <v>0.62222222222222179</v>
       </c>
       <c r="N12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,N$9))</f>
-        <v>0.62857142857142811</v>
+        <v>0.62962962962962976</v>
       </c>
       <c r="O12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,O$9))</f>
-        <v>0.63571428571428434</v>
+        <v>0.63703703703703596</v>
       </c>
       <c r="P12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,P$9))</f>
-        <v>0.64285714285714235</v>
+        <v>0.64444444444444393</v>
       </c>
       <c r="Q12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,Q$9))</f>
-        <v>0.64999999999999858</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="R12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,R$9))</f>
-        <v>0.65714285714285658</v>
+        <v>0.6592592592592581</v>
       </c>
       <c r="S12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,S$9))</f>
-        <v>0.66428571428571281</v>
+        <v>0.66666666666666607</v>
       </c>
       <c r="T12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,T$9))</f>
-        <v>0.67142857142857082</v>
+        <v>0.67407407407407405</v>
       </c>
       <c r="U12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,U$9))</f>
-        <v>0.67857142857142705</v>
+        <v>0.68148148148148024</v>
       </c>
       <c r="V12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,V$9))</f>
-        <v>0.68571428571428505</v>
+        <v>0.68888888888888822</v>
       </c>
       <c r="W12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,W$9))</f>
-        <v>0.69285714285714128</v>
+        <v>0.69629629629629619</v>
       </c>
       <c r="X12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,X$9))</f>
-        <v>0.69999999999999929</v>
+        <v>0.70370370370370239</v>
       </c>
       <c r="Y12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,Y$9))</f>
-        <v>0.70714285714285552</v>
+        <v>0.71111111111111036</v>
       </c>
       <c r="Z12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,Z$9))</f>
-        <v>0.71428571428571352</v>
+        <v>0.71851851851851833</v>
       </c>
       <c r="AA12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AA$9))</f>
-        <v>0.72142857142856975</v>
+        <v>0.72592592592592631</v>
       </c>
       <c r="AB12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AB$9))</f>
-        <v>0.72857142857142776</v>
+        <v>0.7333333333333325</v>
       </c>
       <c r="AC12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AC$9))</f>
-        <v>0.73571428571428399</v>
+        <v>0.74074074074074048</v>
       </c>
       <c r="AD12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AD$9))</f>
-        <v>0.74285714285714199</v>
+        <v>0.74814814814814845</v>
       </c>
       <c r="AE12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AE$9))</f>
-        <v>0.74999999999999822</v>
+        <v>0.75555555555555465</v>
       </c>
       <c r="AF12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AF$9))</f>
-        <v>0.75714285714285623</v>
+        <v>0.76296296296296262</v>
       </c>
       <c r="AG12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AG$9))</f>
-        <v>0.76428571428571246</v>
+        <v>0.77037037037037059</v>
       </c>
       <c r="AH12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AH$9))</f>
-        <v>0.77142857142857046</v>
+        <v>0.77777777777777679</v>
       </c>
       <c r="AI12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AI$9))</f>
-        <v>0.77857142857142669</v>
+        <v>0.78518518518518476</v>
       </c>
       <c r="AJ12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AJ$9))</f>
-        <v>0.7857142857142847</v>
+        <v>0.79259259259259274</v>
       </c>
       <c r="AK12">
         <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AK$9))</f>
-        <v>0.7928571428571427</v>
-      </c>
-      <c r="AL12">
-        <f>IF($G12="s-curve",$E12+($F12-$E12)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E12:$F12,$E$9:$F$9,AL$9))</f>
         <v>0.79999999999999893</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -64089,7 +63723,7 @@
         <v>linear</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="1"/>
+        <f>E13</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="J13">
@@ -64098,262 +63732,254 @@
       </c>
       <c r="K13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,K$9))</f>
-        <v>0.27714285714285669</v>
+        <v>0.27703703703703741</v>
       </c>
       <c r="L13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,L$9))</f>
-        <v>0.27428571428571402</v>
+        <v>0.27407407407407369</v>
       </c>
       <c r="M13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,M$9))</f>
-        <v>0.27142857142857135</v>
+        <v>0.27111111111111086</v>
       </c>
       <c r="N13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,N$9))</f>
-        <v>0.26857142857142868</v>
+        <v>0.26814814814814802</v>
       </c>
       <c r="O13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,O$9))</f>
-        <v>0.26571428571428513</v>
+        <v>0.26518518518518519</v>
       </c>
       <c r="P13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,P$9))</f>
-        <v>0.26285714285714246</v>
+        <v>0.26222222222222236</v>
       </c>
       <c r="Q13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,Q$9))</f>
-        <v>0.25999999999999979</v>
+        <v>0.25925925925925952</v>
       </c>
       <c r="R13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,R$9))</f>
-        <v>0.25714285714285712</v>
+        <v>0.2562962962962958</v>
       </c>
       <c r="S13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,S$9))</f>
-        <v>0.25428571428571445</v>
+        <v>0.25333333333333297</v>
       </c>
       <c r="T13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,T$9))</f>
-        <v>0.25142857142857089</v>
+        <v>0.25037037037037013</v>
       </c>
       <c r="U13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,U$9))</f>
-        <v>0.24857142857142822</v>
+        <v>0.2474074074074073</v>
       </c>
       <c r="V13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,V$9))</f>
-        <v>0.24571428571428555</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="W13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,W$9))</f>
-        <v>0.24285714285714288</v>
+        <v>0.24148148148148163</v>
       </c>
       <c r="X13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,X$9))</f>
-        <v>0.24000000000000021</v>
+        <v>0.2385185185185188</v>
       </c>
       <c r="Y13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,Y$9))</f>
-        <v>0.23714285714285666</v>
+        <v>0.23555555555555507</v>
       </c>
       <c r="Z13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,Z$9))</f>
-        <v>0.23428571428571399</v>
+        <v>0.23259259259259224</v>
       </c>
       <c r="AA13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AA$9))</f>
-        <v>0.23142857142857132</v>
+        <v>0.22962962962962941</v>
       </c>
       <c r="AB13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AB$9))</f>
-        <v>0.22857142857142865</v>
+        <v>0.22666666666666657</v>
       </c>
       <c r="AC13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AC$9))</f>
-        <v>0.22571428571428509</v>
+        <v>0.22370370370370374</v>
       </c>
       <c r="AD13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AD$9))</f>
-        <v>0.22285714285714242</v>
+        <v>0.2207407407407409</v>
       </c>
       <c r="AE13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AE$9))</f>
-        <v>0.21999999999999975</v>
+        <v>0.21777777777777807</v>
       </c>
       <c r="AF13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AF$9))</f>
-        <v>0.21714285714285708</v>
+        <v>0.21481481481481435</v>
       </c>
       <c r="AG13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AG$9))</f>
-        <v>0.21428571428571441</v>
+        <v>0.21185185185185151</v>
       </c>
       <c r="AH13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AH$9))</f>
-        <v>0.21142857142857086</v>
+        <v>0.20888888888888868</v>
       </c>
       <c r="AI13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AI$9))</f>
-        <v>0.20857142857142819</v>
+        <v>0.20592592592592585</v>
       </c>
       <c r="AJ13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AJ$9))</f>
-        <v>0.20571428571428552</v>
+        <v>0.20296296296296301</v>
       </c>
       <c r="AK13">
         <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AK$9))</f>
-        <v>0.20285714285714285</v>
-      </c>
-      <c r="AL13">
-        <f>IF($G13="s-curve",$E13+($F13-$E13)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E13:$F13,$E$9:$F$9,AL$9))</f>
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="22">
-        <v>0.1</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="E14" s="22">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F14" s="41">
         <v>0.15</v>
-      </c>
-      <c r="F14" s="41">
-        <v>0.25</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" ref="I14" si="2">E14</f>
-        <v>0.15</v>
+        <f>D14</f>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,J$9))</f>
-        <v>0.15724264853615177</v>
+        <v>0.10547647129735284</v>
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>0.15953494648991096</v>
+        <v>0.10657677431515725</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>0.16245533581874164</v>
+        <v>0.10797856119299598</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>0.16611089495765852</v>
+        <v>0.10973322957967609</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>0.17058703718009474</v>
+        <v>0.11188177784644547</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>0.17592251008178461</v>
+        <v>0.1144428048392566</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>0.18208213008246071</v>
+        <v>0.11739942243958112</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>0.1889360766050778</v>
+        <v>0.12068931677043734</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>0.19625701546562505</v>
+        <v>0.12420336742350002</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>0.20374298453437495</v>
+        <v>0.12779663257649998</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>0.21106392339492219</v>
+        <v>0.13131068322956266</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>0.21791786991753931</v>
+        <v>0.13460057756041885</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>0.22407748991821541</v>
+        <v>0.13755719516074338</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>0.22941296281990525</v>
+        <v>0.14011822215355452</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>0.23388910504234148</v>
+        <v>0.1422667704203239</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>0.23754466418125836</v>
+        <v>0.14402143880700402</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>0.24046505351008907</v>
+        <v>0.14542322568484273</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>0.24275735146384822</v>
+        <v>0.14652352870264715</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>0.24453186827840592</v>
+        <v>0.14737529677363484</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>0.24589087217995351</v>
+        <v>0.14802761864637767</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>0.24692311406428519</v>
+        <v>0.1485230947508569</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>0.24770226300899745</v>
+        <v>0.14889708624431877</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>0.24828759666842723</v>
+        <v>0.14917804640084506</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>0.24872576505358884</v>
+        <v>0.14938836722572263</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>0.24905289564180538</v>
+        <v>0.14954538990806659</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>0.24929664128450046</v>
+        <v>0.14966238781656022</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>0.24947798743064414</v>
+        <v>0.1497494339667092</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>0.24961275965593288</v>
-      </c>
-      <c r="AL14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>0.24971283708442996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.14981412463484778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>124</v>
       </c>
       <c r="E15" s="22">
         <f>SUM(SUM(INDEX('AEO 39'!31:32,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!53:54,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))</f>
-        <v>2.9379012033304164E-4</v>
+        <v>2.8236163737145782E-4</v>
       </c>
       <c r="F15" s="22">
         <f>SUM(SUM(INDEX('AEO 39'!31:32,0,MATCH(F$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!53:54,0,MATCH(F$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(F$9,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
@@ -64364,127 +63990,123 @@
         <v>linear</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="1"/>
-        <v>2.9379012033304164E-4</v>
+        <f t="shared" ref="I15:I23" si="1">E15</f>
+        <v>2.8236163737145782E-4</v>
       </c>
       <c r="J15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,J$9))</f>
-        <v>2.9379012033303731E-4</v>
+        <v>2.8236163737145603E-4</v>
       </c>
       <c r="K15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,K$9))</f>
-        <v>3.1407086748862223E-4</v>
+        <v>3.0381680045730303E-4</v>
       </c>
       <c r="L15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,L$9))</f>
-        <v>3.3435161464420715E-4</v>
+        <v>3.2527196354315002E-4</v>
       </c>
       <c r="M15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,M$9))</f>
-        <v>3.5463236179979207E-4</v>
+        <v>3.4672712662900396E-4</v>
       </c>
       <c r="N15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,N$9))</f>
-        <v>3.7491310895537006E-4</v>
+        <v>3.6818228971485095E-4</v>
       </c>
       <c r="O15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,O$9))</f>
-        <v>3.9519385611095498E-4</v>
+        <v>3.8963745280069795E-4</v>
       </c>
       <c r="P15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,P$9))</f>
-        <v>4.154746032665399E-4</v>
+        <v>4.1109261588654494E-4</v>
       </c>
       <c r="Q15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,Q$9))</f>
-        <v>4.3575535042212482E-4</v>
+        <v>4.3254777897239888E-4</v>
       </c>
       <c r="R15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,R$9))</f>
-        <v>4.560360975777028E-4</v>
+        <v>4.5400294205824587E-4</v>
       </c>
       <c r="S15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,S$9))</f>
-        <v>4.7631684473328773E-4</v>
+        <v>4.7545810514409287E-4</v>
       </c>
       <c r="T15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,T$9))</f>
-        <v>4.9659759188887265E-4</v>
+        <v>4.9691326822993986E-4</v>
       </c>
       <c r="U15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,U$9))</f>
-        <v>5.1687833904445757E-4</v>
+        <v>5.183684313157938E-4</v>
       </c>
       <c r="V15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,V$9))</f>
-        <v>5.3715908620003555E-4</v>
+        <v>5.3982359440164079E-4</v>
       </c>
       <c r="W15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,W$9))</f>
-        <v>5.5743983335562047E-4</v>
+        <v>5.6127875748748779E-4</v>
       </c>
       <c r="X15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,X$9))</f>
-        <v>5.7772058051120539E-4</v>
+        <v>5.8273392057333478E-4</v>
       </c>
       <c r="Y15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,Y$9))</f>
-        <v>5.9800132766679032E-4</v>
+        <v>6.0418908365918872E-4</v>
       </c>
       <c r="Z15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,Z$9))</f>
-        <v>6.182820748223683E-4</v>
+        <v>6.2564424674503571E-4</v>
       </c>
       <c r="AA15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AA$9))</f>
-        <v>6.3856282197795322E-4</v>
+        <v>6.4709940983088271E-4</v>
       </c>
       <c r="AB15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AB$9))</f>
-        <v>6.5884356913353814E-4</v>
+        <v>6.6855457291672971E-4</v>
       </c>
       <c r="AC15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AC$9))</f>
-        <v>6.7912431628912306E-4</v>
+        <v>6.9000973600258364E-4</v>
       </c>
       <c r="AD15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AD$9))</f>
-        <v>6.9940506344470105E-4</v>
+        <v>7.1146489908843064E-4</v>
       </c>
       <c r="AE15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AE$9))</f>
-        <v>7.1968581060028597E-4</v>
+        <v>7.3292006217427763E-4</v>
       </c>
       <c r="AF15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AF$9))</f>
-        <v>7.3996655775587089E-4</v>
+        <v>7.5437522526012463E-4</v>
       </c>
       <c r="AG15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AG$9))</f>
-        <v>7.6024730491145581E-4</v>
+        <v>7.7583038834597856E-4</v>
       </c>
       <c r="AH15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AH$9))</f>
-        <v>7.805280520670338E-4</v>
+        <v>7.9728555143182556E-4</v>
       </c>
       <c r="AI15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AI$9))</f>
-        <v>8.0080879922261872E-4</v>
+        <v>8.1874071451767255E-4</v>
       </c>
       <c r="AJ15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AJ$9))</f>
-        <v>8.2108954637820364E-4</v>
+        <v>8.4019587760351955E-4</v>
       </c>
       <c r="AK15">
         <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AK$9))</f>
-        <v>8.4137029353378856E-4</v>
-      </c>
-      <c r="AL15">
-        <f>IF($G15="s-curve",$E15+($F15-$E15)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E15:$F15,$E$9:$F$9,AL$9))</f>
-        <v>8.6165104068937348E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.6165104068936654E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -64493,7 +64115,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="26">
         <f>SUM(SUM(INDEX('AEO 39'!34:34,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!56:56,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))</f>
-        <v>3.0883943362035788E-5</v>
+        <v>3.1402369026966701E-5</v>
       </c>
       <c r="F16" s="26">
         <f>SUM(SUM(INDEX('AEO 39'!34:34,0,MATCH(F$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!56:56,0,MATCH(F$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(F$9,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
@@ -64505,126 +64127,122 @@
       </c>
       <c r="I16" s="22">
         <f t="shared" si="1"/>
-        <v>3.0883943362035788E-5</v>
+        <v>3.1402369026966701E-5</v>
       </c>
       <c r="J16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,J$9))</f>
-        <v>3.5078860889128402E-5</v>
+        <v>3.5589627316855018E-5</v>
       </c>
       <c r="K16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,K$9))</f>
-        <v>3.6517371528069407E-5</v>
+        <v>3.7025511469307695E-5</v>
       </c>
       <c r="L16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,L$9))</f>
-        <v>3.8435855855520251E-5</v>
+        <v>3.8940492956370917E-5</v>
       </c>
       <c r="M16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,M$9))</f>
-        <v>4.0983976205965081E-5</v>
+        <v>4.1483960853444948E-5</v>
       </c>
       <c r="N16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,N$9))</f>
-        <v>4.4349978277937009E-5</v>
+        <v>4.4843817153030914E-5</v>
       </c>
       <c r="O16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,O$9))</f>
-        <v>4.8764508433763626E-5</v>
+        <v>4.9250287094707766E-5</v>
       </c>
       <c r="P16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,P$9))</f>
-        <v>5.4499880402212323E-5</v>
+        <v>5.4975187206659274E-5</v>
       </c>
       <c r="Q16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,Q$9))</f>
-        <v>6.1860739465156677E-5</v>
+        <v>6.2322606538017407E-5</v>
       </c>
       <c r="R16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,R$9))</f>
-        <v>7.1160932794700195E-5</v>
+        <v>7.1605819226988916E-5</v>
       </c>
       <c r="S16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,S$9))</f>
-        <v>8.268158689577577E-5</v>
+        <v>8.3105438487227008E-5</v>
       </c>
       <c r="T16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,T$9))</f>
-        <v>9.6608686813727074E-5</v>
+        <v>9.7007109785628452E-5</v>
       </c>
       <c r="U16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,U$9))</f>
-        <v>1.1295653010254654E-4</v>
+        <v>1.1332510457117721E-4</v>
       </c>
       <c r="V16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,V$9))</f>
-        <v>1.3149578733858268E-4</v>
+        <v>1.3183051213845463E-4</v>
       </c>
       <c r="W16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,W$9))</f>
-        <v>1.5171612932688805E-4</v>
+        <v>1.5201393507063073E-4</v>
       </c>
       <c r="X16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,X$9))</f>
-        <v>1.7285323157612058E-4</v>
+        <v>1.7311244440858605E-4</v>
       </c>
       <c r="Y16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,Y$9))</f>
-        <v>1.9399033382535313E-4</v>
+        <v>1.9421095374654138E-4</v>
       </c>
       <c r="Z16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,Z$9))</f>
-        <v>2.1421067581365848E-4</v>
+        <v>2.1439437667871745E-4</v>
       </c>
       <c r="AA16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AA$9))</f>
-        <v>2.3274993304969461E-4</v>
+        <v>2.3289978424599487E-4</v>
       </c>
       <c r="AB16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AB$9))</f>
-        <v>2.4909777633851408E-4</v>
+        <v>2.4921777903154363E-4</v>
       </c>
       <c r="AC16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AC$9))</f>
-        <v>2.6302487625646539E-4</v>
+        <v>2.6311945032994507E-4</v>
       </c>
       <c r="AD16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AD$9))</f>
-        <v>2.7454553035754099E-4</v>
+        <v>2.7461906959018321E-4</v>
       </c>
       <c r="AE16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AE$9))</f>
-        <v>2.8384572368708451E-4</v>
+        <v>2.8390228227915469E-4</v>
       </c>
       <c r="AF16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AF$9))</f>
-        <v>2.9120658275002886E-4</v>
+        <v>2.9124970161051279E-4</v>
       </c>
       <c r="AG16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AG$9))</f>
-        <v>2.9694195471847756E-4</v>
+        <v>2.9697460172246431E-4</v>
       </c>
       <c r="AH16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AH$9))</f>
-        <v>3.0135648487430419E-4</v>
+        <v>3.0138107166414118E-4</v>
       </c>
       <c r="AI16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AI$9))</f>
-        <v>3.0472248694627611E-4</v>
+        <v>3.0474092796372714E-4</v>
       </c>
       <c r="AJ16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AJ$9))</f>
-        <v>3.0727060729672089E-4</v>
+        <v>3.0728439586080112E-4</v>
       </c>
       <c r="AK16">
         <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AK$9))</f>
-        <v>3.0918909162417176E-4</v>
-      </c>
-      <c r="AL16">
-        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AL$9))</f>
-        <v>3.1062760226311276E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+        <v>3.091993773478644E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -64761,12 +64379,8 @@
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
         <v>0.98611178598614568</v>
       </c>
-      <c r="AL17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.98965817781470888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -64791,118 +64405,114 @@
       </c>
       <c r="K18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,K$9))</f>
-        <v>6.6061864151820693E-3</v>
+        <v>6.5988190394765667E-3</v>
       </c>
       <c r="L18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,L$9))</f>
-        <v>6.4072672711342205E-3</v>
+        <v>6.3925325197232707E-3</v>
       </c>
       <c r="M18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,M$9))</f>
-        <v>6.2083481270863716E-3</v>
+        <v>6.1862459999699193E-3</v>
       </c>
       <c r="N18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,N$9))</f>
-        <v>6.0094289830384673E-3</v>
+        <v>5.9799594802165679E-3</v>
       </c>
       <c r="O18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,O$9))</f>
-        <v>5.8105098389906185E-3</v>
+        <v>5.7736729604632719E-3</v>
       </c>
       <c r="P18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,P$9))</f>
-        <v>5.6115906949427696E-3</v>
+        <v>5.5673864407099205E-3</v>
       </c>
       <c r="Q18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,Q$9))</f>
-        <v>5.4126715508949208E-3</v>
+        <v>5.3610999209565691E-3</v>
       </c>
       <c r="R18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,R$9))</f>
-        <v>5.213752406847072E-3</v>
+        <v>5.1548134012032176E-3</v>
       </c>
       <c r="S18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,S$9))</f>
-        <v>5.0148332627991676E-3</v>
+        <v>4.9485268814499217E-3</v>
       </c>
       <c r="T18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,T$9))</f>
-        <v>4.8159141187513188E-3</v>
+        <v>4.7422403616965703E-3</v>
       </c>
       <c r="U18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,U$9))</f>
-        <v>4.61699497470347E-3</v>
+        <v>4.5359538419432188E-3</v>
       </c>
       <c r="V18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,V$9))</f>
-        <v>4.4180758306556212E-3</v>
+        <v>4.3296673221898674E-3</v>
       </c>
       <c r="W18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,W$9))</f>
-        <v>4.2191566866077723E-3</v>
+        <v>4.1233808024365715E-3</v>
       </c>
       <c r="X18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,X$9))</f>
-        <v>4.020237542559868E-3</v>
+        <v>3.91709428268322E-3</v>
       </c>
       <c r="Y18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,Y$9))</f>
-        <v>3.8213183985120192E-3</v>
+        <v>3.7108077629298686E-3</v>
       </c>
       <c r="Z18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,Z$9))</f>
-        <v>3.6223992544641703E-3</v>
+        <v>3.5045212431765727E-3</v>
       </c>
       <c r="AA18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AA$9))</f>
-        <v>3.4234801104163215E-3</v>
+        <v>3.2982347234232212E-3</v>
       </c>
       <c r="AB18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AB$9))</f>
-        <v>3.2245609663684727E-3</v>
+        <v>3.0919482036698698E-3</v>
       </c>
       <c r="AC18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AC$9))</f>
-        <v>3.0256418223205683E-3</v>
+        <v>2.8856616839165183E-3</v>
       </c>
       <c r="AD18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AD$9))</f>
-        <v>2.8267226782727195E-3</v>
+        <v>2.6793751641632224E-3</v>
       </c>
       <c r="AE18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AE$9))</f>
-        <v>2.6278035342248707E-3</v>
+        <v>2.473088644409871E-3</v>
       </c>
       <c r="AF18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AF$9))</f>
-        <v>2.4288843901770218E-3</v>
+        <v>2.2668021246565195E-3</v>
       </c>
       <c r="AG18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AG$9))</f>
-        <v>2.229965246129173E-3</v>
+        <v>2.0605156049031681E-3</v>
       </c>
       <c r="AH18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AH$9))</f>
-        <v>2.0310461020812687E-3</v>
+        <v>1.8542290851498722E-3</v>
       </c>
       <c r="AI18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AI$9))</f>
-        <v>1.8321269580334199E-3</v>
+        <v>1.6479425653965207E-3</v>
       </c>
       <c r="AJ18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AJ$9))</f>
-        <v>1.633207813985571E-3</v>
+        <v>1.4416560456431693E-3</v>
       </c>
       <c r="AK18">
         <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AK$9))</f>
-        <v>1.4342886699377222E-3</v>
-      </c>
-      <c r="AL18">
-        <f>IF($G18="s-curve",$E18+($F18-$E18)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E18:$F18,$E$9:$F$9,AL$9))</f>
         <v>1.2353695258898734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -65032,12 +64642,8 @@
         <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AK$9))</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AL19">
-        <f>IF($G19="s-curve",$E19+($F19-$E19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E19:$F19,$E$9:$F$9,AL$9))</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -65167,12 +64773,8 @@
         <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AK$9))</f>
         <v>1.2</v>
       </c>
-      <c r="AL20">
-        <f>IF($G20="s-curve",$E20+($F20-$E20)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E20:$F20,$E$9:$F$9,AL$9))</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -65182,7 +64784,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65194,122 +64796,118 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>1.2140101603773719E-2</v>
+        <v>1.0662698434446413E-2</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>1.3363235653583922E-2</v>
+        <v>1.1379205080176171E-2</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>1.4994480804930065E-2</v>
+        <v>1.2334781447243478E-2</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>1.7161091658734945E-2</v>
+        <v>1.3603972731471327E-2</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>2.0023129404240558E-2</v>
+        <v>1.5280542086483882E-2</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>2.3776707585268467E-2</v>
+        <v>1.7479371979568815E-2</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>2.8653368593560293E-2</v>
+        <v>2.0336098944168053E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>3.4912145631434188E-2</v>
+        <v>2.4002463511872893E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>4.2819896066673677E-2</v>
+        <v>2.8634789576624901E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>5.2615655601330122E-2</v>
+        <v>3.4373103220694493E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>6.4457563240814544E-2</v>
+        <v>4.1310041590716315E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>7.8357775881741934E-2</v>
+        <v>4.9452726144242329E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>9.4121299744366602E-2</v>
+        <v>5.8686930366946138E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>0.11131421310572374</v>
+        <v>6.8758464786889628E-2</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>0.12928662761243104</v>
+        <v>7.9286627612431049E-2</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>0.14725904211913834</v>
+        <v>8.9814790437972469E-2</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>0.16445195548049549</v>
+        <v>9.9886324857915945E-2</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>0.18021547934312016</v>
+        <v>0.10912052908061977</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>0.19411569198404752</v>
+        <v>0.11726321363414577</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>0.20595759962353194</v>
+        <v>0.12420015200416759</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>0.21575335915818841</v>
+        <v>0.12993846564823719</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>0.22366110959342791</v>
+        <v>0.13457079171298919</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>0.22991988663130181</v>
+        <v>0.13823715628069402</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>0.23479654763959362</v>
+        <v>0.14109388324529326</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>0.23855012582062154</v>
+        <v>0.14329271313837821</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>0.24141216356612716</v>
+        <v>0.14496928249339075</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>0.243578774419932</v>
+        <v>0.14623847377761859</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>0.24521001957127816</v>
-      </c>
-      <c r="AL21">
-        <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>0.24643315362108836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.14719405014468592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -65331,122 +64929,118 @@
       </c>
       <c r="J22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,J$9))</f>
-        <v>1.0035197841849697E-2</v>
+        <v>1.0035197841849808E-2</v>
       </c>
       <c r="K22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,K$9))</f>
-        <v>9.7075711703796808E-3</v>
+        <v>9.6954368492142562E-3</v>
       </c>
       <c r="L22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,L$9))</f>
-        <v>9.3799444989096648E-3</v>
+        <v>9.3556758565785936E-3</v>
       </c>
       <c r="M22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,M$9))</f>
-        <v>9.0523178274396487E-3</v>
+        <v>9.015914863943042E-3</v>
       </c>
       <c r="N22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,N$9))</f>
-        <v>8.7246911559696327E-3</v>
+        <v>8.6761538713074904E-3</v>
       </c>
       <c r="O22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,O$9))</f>
-        <v>8.3970644844996167E-3</v>
+        <v>8.3363928786719388E-3</v>
       </c>
       <c r="P22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,P$9))</f>
-        <v>8.0694378130296007E-3</v>
+        <v>7.9966318860363872E-3</v>
       </c>
       <c r="Q22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,Q$9))</f>
-        <v>7.7418111415595847E-3</v>
+        <v>7.6568708934008356E-3</v>
       </c>
       <c r="R22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,R$9))</f>
-        <v>7.4141844700895687E-3</v>
+        <v>7.317109900765284E-3</v>
       </c>
       <c r="S22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,S$9))</f>
-        <v>7.0865577986195527E-3</v>
+        <v>6.9773489081296214E-3</v>
       </c>
       <c r="T22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,T$9))</f>
-        <v>6.7589311271495367E-3</v>
+        <v>6.6375879154940698E-3</v>
       </c>
       <c r="U22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,U$9))</f>
-        <v>6.4313044556795207E-3</v>
+        <v>6.2978269228585182E-3</v>
       </c>
       <c r="V22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,V$9))</f>
-        <v>6.1036777842096157E-3</v>
+        <v>5.9580659302229666E-3</v>
       </c>
       <c r="W22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,W$9))</f>
-        <v>5.7760511127395997E-3</v>
+        <v>5.618304937587415E-3</v>
       </c>
       <c r="X22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,X$9))</f>
-        <v>5.4484244412695837E-3</v>
+        <v>5.2785439449518634E-3</v>
       </c>
       <c r="Y22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,Y$9))</f>
-        <v>5.1207977697995677E-3</v>
+        <v>4.9387829523163118E-3</v>
       </c>
       <c r="Z22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,Z$9))</f>
-        <v>4.7931710983295517E-3</v>
+        <v>4.5990219596806492E-3</v>
       </c>
       <c r="AA22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AA$9))</f>
-        <v>4.4655444268595357E-3</v>
+        <v>4.2592609670450976E-3</v>
       </c>
       <c r="AB22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AB$9))</f>
-        <v>4.1379177553895197E-3</v>
+        <v>3.919499974409546E-3</v>
       </c>
       <c r="AC22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AC$9))</f>
-        <v>3.8102910839195037E-3</v>
+        <v>3.5797389817739944E-3</v>
       </c>
       <c r="AD22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AD$9))</f>
-        <v>3.4826644124494877E-3</v>
+        <v>3.2399779891384428E-3</v>
       </c>
       <c r="AE22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AE$9))</f>
-        <v>3.1550377409794716E-3</v>
+        <v>2.9002169965028912E-3</v>
       </c>
       <c r="AF22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AF$9))</f>
-        <v>2.8274110695094556E-3</v>
+        <v>2.5604560038672286E-3</v>
       </c>
       <c r="AG22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AG$9))</f>
-        <v>2.4997843980394396E-3</v>
+        <v>2.220695011231677E-3</v>
       </c>
       <c r="AH22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AH$9))</f>
-        <v>2.1721577265694236E-3</v>
+        <v>1.8809340185961254E-3</v>
       </c>
       <c r="AI22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AI$9))</f>
-        <v>1.8445310550994076E-3</v>
+        <v>1.5411730259605738E-3</v>
       </c>
       <c r="AJ22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AJ$9))</f>
-        <v>1.5169043836293916E-3</v>
+        <v>1.2014120333250222E-3</v>
       </c>
       <c r="AK22">
         <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AK$9))</f>
-        <v>1.1892777121593756E-3</v>
-      </c>
-      <c r="AL22">
-        <f>IF($G22="s-curve",$E22+($F22-$E22)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E22:$F22,$E$9:$F$9,AL$9))</f>
-        <v>8.616510406893596E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.6165104068947063E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -65581,12 +65175,8 @@
         <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AK$9))</f>
         <v>3.1304970847921988E-4</v>
       </c>
-      <c r="AL23">
-        <f>IF($G23="s-curve",$E23+($F23-$E23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E23:$F23,$E$9:$F$9,AL$9))</f>
-        <v>3.1350240049135271E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -65610,8 +65200,8 @@
         <v>s-curve</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" ref="I24" si="3">E24</f>
-        <v>0.01</v>
+        <f>D24</f>
+        <v>0.6</v>
       </c>
       <c r="J24" s="50">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:J$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
@@ -65725,12 +65315,8 @@
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AK$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
         <v>0.4802706043958494</v>
       </c>
-      <c r="AL24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AL$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -65745,7 +65331,7 @@
         <v>n/a</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I25:I56" si="2">E25</f>
         <v>0.01</v>
       </c>
       <c r="J25">
@@ -65860,12 +65446,8 @@
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AK$9))</f>
         <v>0.01</v>
       </c>
-      <c r="AL25">
-        <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AL$9))</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -65880,7 +65462,7 @@
         <v>n/a</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
       <c r="J26">
@@ -65995,12 +65577,8 @@
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AK$9))</f>
         <v>2E-3</v>
       </c>
-      <c r="AL26">
-        <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AL$9))</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -66015,7 +65593,7 @@
         <v>n/a</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J27">
@@ -66130,12 +65708,8 @@
         <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AK$9))</f>
         <v>3</v>
       </c>
-      <c r="AL27">
-        <f>IF($G27="s-curve",$E27+($F27-$E27)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E27:$F27,$E$9:$F$9,AL$9))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -66150,7 +65724,7 @@
         <v>s-curve</v>
       </c>
       <c r="I28" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -66265,12 +65839,8 @@
         <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AK$9))</f>
         <v>5.880958165595535E-3</v>
       </c>
-      <c r="AL28">
-        <f>IF($G28="s-curve",$E28+($F28-$E28)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E28:$F28,$E$9:$F$9,AL$9))</f>
-        <v>5.9113558098403615E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>124</v>
       </c>
@@ -66285,7 +65855,7 @@
         <v>linear</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1496445375763083E-2</v>
       </c>
       <c r="J29">
@@ -66294,118 +65864,114 @@
       </c>
       <c r="K29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,K$9))</f>
-        <v>3.9809241000682505E-2</v>
+        <v>4.048749269049523E-2</v>
       </c>
       <c r="L29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,L$9))</f>
-        <v>5.8122036625604778E-2</v>
+        <v>5.9478540005230229E-2</v>
       </c>
       <c r="M29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,M$9))</f>
-        <v>7.6434832250534157E-2</v>
+        <v>7.8469587319965228E-2</v>
       </c>
       <c r="N29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,N$9))</f>
-        <v>9.4747627875456431E-2</v>
+        <v>9.7460634634700227E-2</v>
       </c>
       <c r="O29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,O$9))</f>
-        <v>0.1130604235003787</v>
+        <v>0.11645168194943523</v>
       </c>
       <c r="P29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,P$9))</f>
-        <v>0.13137321912530098</v>
+        <v>0.13544272926417023</v>
       </c>
       <c r="Q29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Q$9))</f>
-        <v>0.14968601475022325</v>
+        <v>0.15443377657890522</v>
       </c>
       <c r="R29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,R$9))</f>
-        <v>0.16799881037514552</v>
+        <v>0.17342482389364022</v>
       </c>
       <c r="S29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,S$9))</f>
-        <v>0.1863116060000678</v>
+        <v>0.19241587120837522</v>
       </c>
       <c r="T29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,T$9))</f>
-        <v>0.20462440162499007</v>
+        <v>0.21140691852311022</v>
       </c>
       <c r="U29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,U$9))</f>
-        <v>0.22293719724991234</v>
+        <v>0.23039796583784522</v>
       </c>
       <c r="V29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,V$9))</f>
-        <v>0.24124999287483462</v>
+        <v>0.24938901315258022</v>
       </c>
       <c r="W29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,W$9))</f>
-        <v>0.25956278849975689</v>
+        <v>0.26838006046731522</v>
       </c>
       <c r="X29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,X$9))</f>
-        <v>0.27787558412467916</v>
+        <v>0.28737110778204311</v>
       </c>
       <c r="Y29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Y$9))</f>
-        <v>0.29618837974960144</v>
+        <v>0.30636215509677811</v>
       </c>
       <c r="Z29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Z$9))</f>
-        <v>0.31450117537452371</v>
+        <v>0.32535320241151311</v>
       </c>
       <c r="AA29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AA$9))</f>
-        <v>0.33281397099944598</v>
+        <v>0.34434424972624811</v>
       </c>
       <c r="AB29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AB$9))</f>
-        <v>0.35112676662436826</v>
+        <v>0.36333529704098311</v>
       </c>
       <c r="AC29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AC$9))</f>
-        <v>0.36943956224929764</v>
+        <v>0.38232634435571811</v>
       </c>
       <c r="AD29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AD$9))</f>
-        <v>0.38775235787421991</v>
+        <v>0.40131739167045311</v>
       </c>
       <c r="AE29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AE$9))</f>
-        <v>0.40606515349914218</v>
+        <v>0.4203084389851881</v>
       </c>
       <c r="AF29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AF$9))</f>
-        <v>0.42437794912406446</v>
+        <v>0.4392994862999231</v>
       </c>
       <c r="AG29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AG$9))</f>
-        <v>0.44269074474898673</v>
+        <v>0.4582905336146581</v>
       </c>
       <c r="AH29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AH$9))</f>
-        <v>0.461003540373909</v>
+        <v>0.4772815809293931</v>
       </c>
       <c r="AI29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AI$9))</f>
-        <v>0.47931633599883128</v>
+        <v>0.4962726282441281</v>
       </c>
       <c r="AJ29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AJ$9))</f>
-        <v>0.49762913162375355</v>
+        <v>0.5152636755588631</v>
       </c>
       <c r="AK29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AK$9))</f>
-        <v>0.51594192724867582</v>
-      </c>
-      <c r="AL29">
-        <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AL$9))</f>
         <v>0.5342547228735981</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -66423,7 +65989,7 @@
         <v>s-curve</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.470448323552864E-5</v>
       </c>
       <c r="J30">
@@ -66538,12 +66104,8 @@
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AK$9))</f>
         <v>9.8032775055036658E-3</v>
       </c>
-      <c r="AL30">
-        <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AL$9))</f>
-        <v>9.8535111097871539E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -66564,7 +66126,7 @@
         <v>s-curve</v>
       </c>
       <c r="I31" s="22">
-        <f>E31</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J31">
@@ -66679,18 +66241,14 @@
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AK$9))</f>
         <v>0.95841365175303883</v>
       </c>
-      <c r="AL31">
-        <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AL$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AL$9))</f>
-        <v>0.96543078982832664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="22">
         <f>SUM(INDEX('AEO 49'!$208:$208,MATCH(E$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$219:$219,MATCH(E$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$230:$230,MATCH(E$9,'AEO 49'!$1:$1,0)))/INDEX('AEO 49'!$237:$237,MATCH(E$9,'AEO 49'!$1:$1,0))</f>
-        <v>6.3356010705258418E-3</v>
+        <v>5.9409446603675671E-3</v>
       </c>
       <c r="F32" s="22">
         <f>SUM(INDEX('AEO 49'!$208:$208,MATCH(F$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$219:$219,MATCH(F$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$230:$230,MATCH(F$9,'AEO 49'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 49'!$237:$237,MATCH(F$9,'AEO 49'!$1:$1,0))</f>
@@ -66701,127 +66259,123 @@
         <v>s-curve</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="1"/>
-        <v>6.3356010705258418E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.9409446603675671E-3</v>
       </c>
       <c r="J32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,J$9))</f>
-        <v>7.0225669077779371E-3</v>
+        <v>6.6337411639312942E-3</v>
       </c>
       <c r="K32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,K$9))</f>
-        <v>7.2581395165584144E-3</v>
+        <v>6.8713132102375934E-3</v>
       </c>
       <c r="L32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,L$9))</f>
-        <v>7.5723133194402362E-3</v>
+        <v>7.18815358328801E-3</v>
       </c>
       <c r="M32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,M$9))</f>
-        <v>7.9895972394832711E-3</v>
+        <v>7.6089792271883949E-3</v>
       </c>
       <c r="N32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,N$9))</f>
-        <v>8.5408186679453209E-3</v>
+        <v>8.1648791826439276E-3</v>
       </c>
       <c r="O32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,O$9))</f>
-        <v>9.263748590878489E-3</v>
+        <v>8.8939450193572869E-3</v>
       </c>
       <c r="P32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,P$9))</f>
-        <v>1.0202981503280528E-2</v>
+        <v>9.8411497309437278E-3</v>
       </c>
       <c r="Q32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,Q$9))</f>
-        <v>1.1408406562632024E-2</v>
+        <v>1.1056805912286489E-2</v>
       </c>
       <c r="R32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,R$9))</f>
-        <v>1.2931419841432812E-2</v>
+        <v>1.2592745863325292E-2</v>
       </c>
       <c r="S32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,S$9))</f>
-        <v>1.4818059027810897E-2</v>
+        <v>1.4495398019999283E-2</v>
       </c>
       <c r="T32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,T$9))</f>
-        <v>1.709878130514729E-2</v>
+        <v>1.67954780729739E-2</v>
       </c>
       <c r="U32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,U$9))</f>
-        <v>1.9775928061821053E-2</v>
+        <v>1.9495347283311256E-2</v>
       </c>
       <c r="V32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,V$9))</f>
-        <v>2.2811943975586207E-2</v>
+        <v>2.2557131575575082E-2</v>
       </c>
       <c r="W32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,W$9))</f>
-        <v>2.6123256790154734E-2</v>
+        <v>2.589654936862756E-2</v>
       </c>
       <c r="X32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,X$9))</f>
-        <v>2.9584699607551657E-2</v>
+        <v>2.938737140247252E-2</v>
       </c>
       <c r="Y32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,Y$9))</f>
-        <v>3.3046142424948577E-2</v>
+        <v>3.2878193436317482E-2</v>
       </c>
       <c r="Z32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,Z$9))</f>
-        <v>3.6357455239517111E-2</v>
+        <v>3.6217611229369957E-2</v>
       </c>
       <c r="AA32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AA$9))</f>
-        <v>3.9393471153282261E-2</v>
+        <v>3.9279395521633786E-2</v>
       </c>
       <c r="AB32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AB$9))</f>
-        <v>4.2070617909956018E-2</v>
+        <v>4.1979264731971139E-2</v>
       </c>
       <c r="AC32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AC$9))</f>
-        <v>4.4351340187292421E-2</v>
+        <v>4.4279344784945759E-2</v>
       </c>
       <c r="AD32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AD$9))</f>
-        <v>4.623797937367051E-2</v>
+        <v>4.6181996941619757E-2</v>
       </c>
       <c r="AE32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AE$9))</f>
-        <v>4.7760992652471287E-2</v>
+        <v>4.7717936892658554E-2</v>
       </c>
       <c r="AF32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AF$9))</f>
-        <v>4.8966417711822793E-2</v>
+        <v>4.8933593074001316E-2</v>
       </c>
       <c r="AG32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AG$9))</f>
-        <v>4.9905650624224834E-2</v>
+        <v>4.9880797785587759E-2</v>
       </c>
       <c r="AH32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AH$9))</f>
-        <v>5.0628580547157992E-2</v>
+        <v>5.0609863622301118E-2</v>
       </c>
       <c r="AI32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AI$9))</f>
-        <v>5.117980197562004E-2</v>
+        <v>5.1165763577756651E-2</v>
       </c>
       <c r="AJ32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AJ$9))</f>
-        <v>5.1597085895663072E-2</v>
+        <v>5.1586589221657028E-2</v>
       </c>
       <c r="AK32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AK$9))</f>
-        <v>5.1911259698544904E-2</v>
-      </c>
-      <c r="AL32">
-        <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AL$9))</f>
-        <v>5.2146832307325378E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+        <v>5.1903429594707451E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -66836,7 +66390,7 @@
         <v>n/a</v>
       </c>
       <c r="I33" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J33">
@@ -66951,12 +66505,8 @@
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL33">
-        <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -66971,7 +66521,7 @@
         <v>n/a</v>
       </c>
       <c r="I34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="J34">
@@ -67086,12 +66636,8 @@
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AK$9))</f>
         <v>2.5</v>
       </c>
-      <c r="AL34">
-        <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AL$9))</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -67106,7 +66652,7 @@
         <v>n/a</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
       <c r="J35">
@@ -67221,12 +66767,8 @@
         <f>IF($G35="s-curve",$E35+($F35-$E35)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E35:$F35,$E$9:$F$9,AK$9))</f>
         <v>2E-3</v>
       </c>
-      <c r="AL35">
-        <f>IF($G35="s-curve",$E35+($F35-$E35)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E35:$F35,$E$9:$F$9,AL$9))</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -67243,7 +66785,7 @@
         <v>linear</v>
       </c>
       <c r="I36" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -67252,118 +66794,114 @@
       </c>
       <c r="K36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,K$9))</f>
-        <v>2.2066421693983651E-4</v>
+        <v>2.2883696571535106E-4</v>
       </c>
       <c r="L36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,L$9))</f>
-        <v>4.4132843387961751E-4</v>
+        <v>4.5767393143075763E-4</v>
       </c>
       <c r="M36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,M$9))</f>
-        <v>6.6199265081945402E-4</v>
+        <v>6.8651089714610869E-4</v>
       </c>
       <c r="N36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,N$9))</f>
-        <v>8.8265686775929053E-4</v>
+        <v>9.1534786286151526E-4</v>
       </c>
       <c r="O36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,O$9))</f>
-        <v>1.103321084699127E-3</v>
+        <v>1.1441848285768663E-3</v>
       </c>
       <c r="P36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,P$9))</f>
-        <v>1.3239853016389636E-3</v>
+        <v>1.3730217942922729E-3</v>
       </c>
       <c r="Q36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Q$9))</f>
-        <v>1.5446495185788001E-3</v>
+        <v>1.6018587600076239E-3</v>
       </c>
       <c r="R36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,R$9))</f>
-        <v>1.7653137355186366E-3</v>
+        <v>1.8306957257230305E-3</v>
       </c>
       <c r="S36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,S$9))</f>
-        <v>1.9859779524584176E-3</v>
+        <v>2.0595326914383816E-3</v>
       </c>
       <c r="T36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,T$9))</f>
-        <v>2.2066421693982541E-3</v>
+        <v>2.2883696571537882E-3</v>
       </c>
       <c r="U36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,U$9))</f>
-        <v>2.4273063863380906E-3</v>
+        <v>2.5172066228691392E-3</v>
       </c>
       <c r="V36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,V$9))</f>
-        <v>2.6479706032779271E-3</v>
+        <v>2.7460435885845458E-3</v>
       </c>
       <c r="W36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,W$9))</f>
-        <v>2.8686348202177636E-3</v>
+        <v>2.9748805542998968E-3</v>
       </c>
       <c r="X36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,X$9))</f>
-        <v>3.0892990371576001E-3</v>
+        <v>3.2037175200153034E-3</v>
       </c>
       <c r="Y36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Y$9))</f>
-        <v>3.3099632540974366E-3</v>
+        <v>3.4325544857306545E-3</v>
       </c>
       <c r="Z36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Z$9))</f>
-        <v>3.5306274710372176E-3</v>
+        <v>3.661391451446061E-3</v>
       </c>
       <c r="AA36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AA$9))</f>
-        <v>3.7512916879770541E-3</v>
+        <v>3.8902284171614121E-3</v>
       </c>
       <c r="AB36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AB$9))</f>
-        <v>3.9719559049168907E-3</v>
+        <v>4.1190653828768187E-3</v>
       </c>
       <c r="AC36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AC$9))</f>
-        <v>4.1926201218567272E-3</v>
+        <v>4.3479023485921697E-3</v>
       </c>
       <c r="AD36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AD$9))</f>
-        <v>4.4132843387965637E-3</v>
+        <v>4.5767393143075763E-3</v>
       </c>
       <c r="AE36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AE$9))</f>
-        <v>4.6339485557364002E-3</v>
+        <v>4.8055762800229274E-3</v>
       </c>
       <c r="AF36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AF$9))</f>
-        <v>4.8546127726762367E-3</v>
+        <v>5.0344132457383339E-3</v>
       </c>
       <c r="AG36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AG$9))</f>
-        <v>5.0752769896160177E-3</v>
+        <v>5.263250211453685E-3</v>
       </c>
       <c r="AH36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AH$9))</f>
-        <v>5.2959412065558542E-3</v>
+        <v>5.4920871771690916E-3</v>
       </c>
       <c r="AI36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AI$9))</f>
-        <v>5.5166054234956907E-3</v>
+        <v>5.7209241428844426E-3</v>
       </c>
       <c r="AJ36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AJ$9))</f>
-        <v>5.7372696404355272E-3</v>
+        <v>5.9497611085997937E-3</v>
       </c>
       <c r="AK36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AK$9))</f>
-        <v>5.9579338573753637E-3</v>
-      </c>
-      <c r="AL36">
-        <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AL$9))</f>
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -67381,7 +66919,7 @@
         <v>s-curve</v>
       </c>
       <c r="I37" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J37">
@@ -67496,12 +67034,8 @@
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AK$9))</f>
         <v>0.14851197706994418</v>
       </c>
-      <c r="AL37">
-        <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AL$9))</f>
-        <v>0.14889194762300451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -67522,7 +67056,7 @@
         <v>n/a</v>
       </c>
       <c r="I38" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38">
@@ -67637,12 +67171,8 @@
         <f>IF($G38="s-curve",$E38+($F38-$E38)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E38:$F38,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL38">
-        <f>IF($G38="s-curve",$E38+($F38-$E38)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E38:$F38,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -67657,7 +67187,7 @@
         <v>n/a</v>
       </c>
       <c r="I39" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39">
@@ -67772,12 +67302,8 @@
         <f>IF($G39="s-curve",$E39+($F39-$E39)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E39:$F39,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL39">
-        <f>IF($G39="s-curve",$E39+($F39-$E39)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E39:$F39,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -67792,7 +67318,7 @@
         <v>n/a</v>
       </c>
       <c r="I40" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40">
@@ -67907,12 +67433,8 @@
         <f>IF($G40="s-curve",$E40+($F40-$E40)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E40:$F40,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL40">
-        <f>IF($G40="s-curve",$E40+($F40-$E40)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E40:$F40,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -67927,7 +67449,7 @@
         <v>n/a</v>
       </c>
       <c r="I41" s="22">
-        <f t="shared" ref="I41:I72" si="4">E41</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J41">
@@ -68042,12 +67564,8 @@
         <f>IF($G41="s-curve",$E41+($F41-$E41)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E41:$F41,$E$9:$F$9,AK$9))</f>
         <v>1</v>
       </c>
-      <c r="AL41">
-        <f>IF($G41="s-curve",$E41+($F41-$E41)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E41:$F41,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -68062,7 +67580,7 @@
         <v>n/a</v>
       </c>
       <c r="I42" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -68177,12 +67695,8 @@
         <f>IF($G42="s-curve",$E42+($F42-$E42)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E42:$F42,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL42">
-        <f>IF($G42="s-curve",$E42+($F42-$E42)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E42:$F42,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -68197,7 +67711,7 @@
         <v>n/a</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -68312,12 +67826,8 @@
         <f>IF($G43="s-curve",$E43+($F43-$E43)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E43:$F43,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL43">
-        <f>IF($G43="s-curve",$E43+($F43-$E43)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E43:$F43,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -68335,7 +67845,7 @@
         <v>n/a</v>
       </c>
       <c r="I44" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -68450,12 +67960,8 @@
         <f>IF($G44="s-curve",$E44+($F44-$E44)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E44:$F44,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL44">
-        <f>IF($G44="s-curve",$E44+($F44-$E44)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E44:$F44,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -68476,7 +67982,7 @@
         <v>n/a</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -68591,12 +68097,8 @@
         <f>IF($G45="s-curve",$E45+($F45-$E45)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E45:$F45,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL45">
-        <f>IF($G45="s-curve",$E45+($F45-$E45)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E45:$F45,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -68611,7 +68113,7 @@
         <v>n/a</v>
       </c>
       <c r="I46" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46">
@@ -68726,12 +68228,8 @@
         <f>IF($G46="s-curve",$E46+($F46-$E46)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E46:$F46,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL46">
-        <f>IF($G46="s-curve",$E46+($F46-$E46)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E46:$F46,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -68746,7 +68244,7 @@
         <v>n/a</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -68861,12 +68359,8 @@
         <f>IF($G47="s-curve",$E47+($F47-$E47)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E47:$F47,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL47">
-        <f>IF($G47="s-curve",$E47+($F47-$E47)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E47:$F47,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -68881,7 +68375,7 @@
         <v>n/a</v>
       </c>
       <c r="I48" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J48">
@@ -68996,12 +68490,8 @@
         <f>IF($G48="s-curve",$E48+($F48-$E48)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E48:$F48,$E$9:$F$9,AK$9))</f>
         <v>1</v>
       </c>
-      <c r="AL48">
-        <f>IF($G48="s-curve",$E48+($F48-$E48)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E48:$F48,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -69016,7 +68506,7 @@
         <v>n/a</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -69131,12 +68621,8 @@
         <f>IF($G49="s-curve",$E49+($F49-$E49)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E49:$F49,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL49">
-        <f>IF($G49="s-curve",$E49+($F49-$E49)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E49:$F49,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -69151,7 +68637,7 @@
         <v>n/a</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -69266,12 +68752,8 @@
         <f>IF($G50="s-curve",$E50+($F50-$E50)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E50:$F50,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL50">
-        <f>IF($G50="s-curve",$E50+($F50-$E50)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E50:$F50,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -69289,7 +68771,7 @@
         <v>n/a</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -69404,12 +68886,8 @@
         <f>IF($G51="s-curve",$E51+($F51-$E51)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E51:$F51,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL51">
-        <f>IF($G51="s-curve",$E51+($F51-$E51)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E51:$F51,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -69431,7 +68909,7 @@
         <v>s-curve</v>
       </c>
       <c r="I52" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.87292849620408119</v>
       </c>
       <c r="J52">
@@ -69546,12 +69024,8 @@
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AK$9))</f>
         <v>0.99747886251459994</v>
       </c>
-      <c r="AL52">
-        <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AL$9))</f>
-        <v>0.99812264157560726</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -69566,7 +69040,7 @@
         <v>n/a</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -69681,12 +69155,8 @@
         <f>IF($G53="s-curve",$E53+($F53-$E53)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E53:$F53,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL53">
-        <f>IF($G53="s-curve",$E53+($F53-$E53)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E53:$F53,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -69701,7 +69171,7 @@
         <v>n/a</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -69816,12 +69286,8 @@
         <f>IF($G54="s-curve",$E54+($F54-$E54)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E54:$F54,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL54">
-        <f>IF($G54="s-curve",$E54+($F54-$E54)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E54:$F54,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -69837,7 +69303,7 @@
         <v>linear</v>
       </c>
       <c r="I55" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.12707150379591881</v>
       </c>
       <c r="J55">
@@ -69846,118 +69312,114 @@
       </c>
       <c r="K55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,K$9))</f>
-        <v>0.15824752151749522</v>
+        <v>0.15940218884050239</v>
       </c>
       <c r="L55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,L$9))</f>
-        <v>0.18942353923906552</v>
+        <v>0.19173287388510118</v>
       </c>
       <c r="M55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,M$9))</f>
-        <v>0.22059955696064293</v>
+        <v>0.22406355892969998</v>
       </c>
       <c r="N55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,N$9))</f>
-        <v>0.25177557468222034</v>
+        <v>0.25639424397429877</v>
       </c>
       <c r="O55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,O$9))</f>
-        <v>0.28295159240379064</v>
+        <v>0.28872492901889757</v>
       </c>
       <c r="P55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,P$9))</f>
-        <v>0.31412761012536805</v>
+        <v>0.32105561406348215</v>
       </c>
       <c r="Q55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Q$9))</f>
-        <v>0.34530362784693835</v>
+        <v>0.35338629910808095</v>
       </c>
       <c r="R55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,R$9))</f>
-        <v>0.37647964556851576</v>
+        <v>0.38571698415267974</v>
       </c>
       <c r="S55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,S$9))</f>
-        <v>0.40765566329008607</v>
+        <v>0.41804766919727854</v>
       </c>
       <c r="T55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,T$9))</f>
-        <v>0.43883168101166348</v>
+        <v>0.45037835424186312</v>
       </c>
       <c r="U55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,U$9))</f>
-        <v>0.47000769873324089</v>
+        <v>0.48270903928646192</v>
       </c>
       <c r="V55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,V$9))</f>
-        <v>0.50118371645481119</v>
+        <v>0.51503972433106071</v>
       </c>
       <c r="W55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,W$9))</f>
-        <v>0.5323597341763886</v>
+        <v>0.54737040937565951</v>
       </c>
       <c r="X55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,X$9))</f>
-        <v>0.5635357518979589</v>
+        <v>0.57970109442024409</v>
       </c>
       <c r="Y55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Y$9))</f>
-        <v>0.59471176961953631</v>
+        <v>0.61203177946484288</v>
       </c>
       <c r="Z55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Z$9))</f>
-        <v>0.62588778734110662</v>
+        <v>0.64436246450944168</v>
       </c>
       <c r="AA55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AA$9))</f>
-        <v>0.65706380506268403</v>
+        <v>0.67669314955404047</v>
       </c>
       <c r="AB55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AB$9))</f>
-        <v>0.68823982278425433</v>
+        <v>0.70902383459863927</v>
       </c>
       <c r="AC55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AC$9))</f>
-        <v>0.71941584050583174</v>
+        <v>0.74135451964322385</v>
       </c>
       <c r="AD55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AD$9))</f>
-        <v>0.75059185822740915</v>
+        <v>0.77368520468782265</v>
       </c>
       <c r="AE55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AE$9))</f>
-        <v>0.78176787594897945</v>
+        <v>0.80601588973242144</v>
       </c>
       <c r="AF55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AF$9))</f>
-        <v>0.81294389367055686</v>
+        <v>0.83834657477702024</v>
       </c>
       <c r="AG55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AG$9))</f>
-        <v>0.84411991139212716</v>
+        <v>0.87067725982160482</v>
       </c>
       <c r="AH55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AH$9))</f>
-        <v>0.87529592911370457</v>
+        <v>0.90300794486620362</v>
       </c>
       <c r="AI55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AI$9))</f>
-        <v>0.90647194683527488</v>
+        <v>0.93533862991080241</v>
       </c>
       <c r="AJ55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AJ$9))</f>
-        <v>0.93764796455685229</v>
+        <v>0.96766931495540121</v>
       </c>
       <c r="AK55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AK$9))</f>
-        <v>0.9688239822784297</v>
-      </c>
-      <c r="AL55">
-        <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AL$9))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -69972,7 +69434,7 @@
         <v>n/a</v>
       </c>
       <c r="I56" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -70087,12 +69549,8 @@
         <f>IF($G56="s-curve",$E56+($F56-$E56)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E56:$F56,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL56">
-        <f>IF($G56="s-curve",$E56+($F56-$E56)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E56:$F56,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -70107,7 +69565,7 @@
         <v>n/a</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I57:I93" si="3">E57</f>
         <v>0</v>
       </c>
       <c r="J57">
@@ -70222,12 +69680,8 @@
         <f>IF($G57="s-curve",$E57+($F57-$E57)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E57:$F57,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL57">
-        <f>IF($G57="s-curve",$E57+($F57-$E57)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E57:$F57,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -70245,7 +69699,7 @@
         <v>n/a</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -70360,12 +69814,8 @@
         <f>IF($G58="s-curve",$E58+($F58-$E58)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E58:$F58,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL58">
-        <f>IF($G58="s-curve",$E58+($F58-$E58)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E58:$F58,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -70386,7 +69836,7 @@
         <v>n/a</v>
       </c>
       <c r="I59" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -70501,12 +69951,8 @@
         <f>IF($G59="s-curve",$E59+($F59-$E59)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E59:$F59,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL59">
-        <f>IF($G59="s-curve",$E59+($F59-$E59)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E59:$F59,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -70521,7 +69967,7 @@
         <v>n/a</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -70636,12 +70082,8 @@
         <f>IF($G60="s-curve",$E60+($F60-$E60)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E60:$F60,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL60">
-        <f>IF($G60="s-curve",$E60+($F60-$E60)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E60:$F60,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -70656,7 +70098,7 @@
         <v>n/a</v>
       </c>
       <c r="I61" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -70771,12 +70213,8 @@
         <f>IF($G61="s-curve",$E61+($F61-$E61)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E61:$F61,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL61">
-        <f>IF($G61="s-curve",$E61+($F61-$E61)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E61:$F61,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -70791,7 +70229,7 @@
         <v>n/a</v>
       </c>
       <c r="I62" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J62">
@@ -70906,12 +70344,8 @@
         <f>IF($G62="s-curve",$E62+($F62-$E62)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E62:$F62,$E$9:$F$9,AK$9))</f>
         <v>1</v>
       </c>
-      <c r="AL62">
-        <f>IF($G62="s-curve",$E62+($F62-$E62)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E62:$F62,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -70926,7 +70360,7 @@
         <v>n/a</v>
       </c>
       <c r="I63" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -71041,12 +70475,8 @@
         <f>IF($G63="s-curve",$E63+($F63-$E63)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E63:$F63,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL63">
-        <f>IF($G63="s-curve",$E63+($F63-$E63)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E63:$F63,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -71061,7 +70491,7 @@
         <v>n/a</v>
       </c>
       <c r="I64" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -71176,12 +70606,8 @@
         <f>IF($G64="s-curve",$E64+($F64-$E64)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E64:$F64,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL64">
-        <f>IF($G64="s-curve",$E64+($F64-$E64)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E64:$F64,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -71199,7 +70625,7 @@
         <v>n/a</v>
       </c>
       <c r="I65" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -71314,12 +70740,8 @@
         <f>IF($G65="s-curve",$E65+($F65-$E65)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E65:$F65,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL65">
-        <f>IF($G65="s-curve",$E65+($F65-$E65)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E65:$F65,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -71340,7 +70762,7 @@
         <v>n/a</v>
       </c>
       <c r="I66" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J66">
@@ -71455,12 +70877,8 @@
         <f>IF($G66="s-curve",$E66+($F66-$E66)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E66:$F66,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL66">
-        <f>IF($G66="s-curve",$E66+($F66-$E66)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E66:$F66,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -71475,7 +70893,7 @@
         <v>n/a</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -71590,12 +71008,8 @@
         <f>IF($G67="s-curve",$E67+($F67-$E67)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E67:$F67,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL67">
-        <f>IF($G67="s-curve",$E67+($F67-$E67)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E67:$F67,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -71610,7 +71024,7 @@
         <v>n/a</v>
       </c>
       <c r="I68" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -71725,12 +71139,8 @@
         <f>IF($G68="s-curve",$E68+($F68-$E68)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E68:$F68,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL68">
-        <f>IF($G68="s-curve",$E68+($F68-$E68)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E68:$F68,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -71745,7 +71155,7 @@
         <v>n/a</v>
       </c>
       <c r="I69" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J69">
@@ -71860,12 +71270,8 @@
         <f>IF($G69="s-curve",$E69+($F69-$E69)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E69:$F69,$E$9:$F$9,AK$9))</f>
         <v>1</v>
       </c>
-      <c r="AL69">
-        <f>IF($G69="s-curve",$E69+($F69-$E69)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E69:$F69,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -71880,7 +71286,7 @@
         <v>n/a</v>
       </c>
       <c r="I70" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -71995,12 +71401,8 @@
         <f>IF($G70="s-curve",$E70+($F70-$E70)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E70:$F70,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL70">
-        <f>IF($G70="s-curve",$E70+($F70-$E70)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E70:$F70,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -72015,7 +71417,7 @@
         <v>n/a</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -72130,12 +71532,8 @@
         <f>IF($G71="s-curve",$E71+($F71-$E71)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E71:$F71,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL71">
-        <f>IF($G71="s-curve",$E71+($F71-$E71)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E71:$F71,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -72153,7 +71551,7 @@
         <v>n/a</v>
       </c>
       <c r="I72" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -72268,12 +71666,8 @@
         <f>IF($G72="s-curve",$E72+($F72-$E72)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E72:$F72,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL72">
-        <f>IF($G72="s-curve",$E72+($F72-$E72)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E72:$F72,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -72294,7 +71688,7 @@
         <v>n/a</v>
       </c>
       <c r="I73" s="22">
-        <f t="shared" ref="I73:I93" si="5">E73</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73">
@@ -72409,12 +71803,8 @@
         <f>IF($G73="s-curve",$E73+($F73-$E73)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E73:$F73,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL73">
-        <f>IF($G73="s-curve",$E73+($F73-$E73)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E73:$F73,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -72429,7 +71819,7 @@
         <v>n/a</v>
       </c>
       <c r="I74" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -72544,12 +71934,8 @@
         <f>IF($G74="s-curve",$E74+($F74-$E74)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E74:$F74,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL74">
-        <f>IF($G74="s-curve",$E74+($F74-$E74)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E74:$F74,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -72564,7 +71950,7 @@
         <v>n/a</v>
       </c>
       <c r="I75" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -72679,12 +72065,8 @@
         <f>IF($G75="s-curve",$E75+($F75-$E75)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E75:$F75,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL75">
-        <f>IF($G75="s-curve",$E75+($F75-$E75)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E75:$F75,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -72699,7 +72081,7 @@
         <v>n/a</v>
       </c>
       <c r="I76" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J76">
@@ -72814,12 +72196,8 @@
         <f>IF($G76="s-curve",$E76+($F76-$E76)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E76:$F76,$E$9:$F$9,AK$9))</f>
         <v>1</v>
       </c>
-      <c r="AL76">
-        <f>IF($G76="s-curve",$E76+($F76-$E76)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E76:$F76,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -72834,7 +72212,7 @@
         <v>n/a</v>
       </c>
       <c r="I77" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -72949,12 +72327,8 @@
         <f>IF($G77="s-curve",$E77+($F77-$E77)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E77:$F77,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL77">
-        <f>IF($G77="s-curve",$E77+($F77-$E77)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E77:$F77,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -72969,7 +72343,7 @@
         <v>n/a</v>
       </c>
       <c r="I78" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -73084,12 +72458,8 @@
         <f>IF($G78="s-curve",$E78+($F78-$E78)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E78:$F78,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL78">
-        <f>IF($G78="s-curve",$E78+($F78-$E78)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E78:$F78,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -73107,7 +72477,7 @@
         <v>n/a</v>
       </c>
       <c r="I79" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -73222,12 +72592,8 @@
         <f>IF($G79="s-curve",$E79+($F79-$E79)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E79:$F79,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL79">
-        <f>IF($G79="s-curve",$E79+($F79-$E79)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E79:$F79,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -73249,7 +72615,7 @@
         <v>s-curve</v>
       </c>
       <c r="I80" s="22">
-        <f>E80</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80">
@@ -73364,12 +72730,8 @@
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AK$9))</f>
         <v>0.99612759655932892</v>
       </c>
-      <c r="AL80">
-        <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AL$9))</f>
-        <v>0.99712837084429951</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -73385,7 +72747,7 @@
         <v>n/a</v>
       </c>
       <c r="I81" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -73500,12 +72862,8 @@
         <f>IF($G81="s-curve",$E81+($F81-$E81)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E81:$F81,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL81">
-        <f>IF($G81="s-curve",$E81+($F81-$E81)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E81:$F81,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -73520,7 +72878,7 @@
         <v>n/a</v>
       </c>
       <c r="I82" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J82">
@@ -73635,12 +72993,8 @@
         <f>IF($G82="s-curve",$E82+($F82-$E82)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E82:$F82,$E$9:$F$9,AK$9))</f>
         <v>3</v>
       </c>
-      <c r="AL82">
-        <f>IF($G82="s-curve",$E82+($F82-$E82)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E82:$F82,$E$9:$F$9,AL$9))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -73656,7 +73010,7 @@
         <v>n/a</v>
       </c>
       <c r="I83" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -73771,12 +73125,8 @@
         <f>IF($G83="s-curve",$E83+($F83-$E83)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E83:$F83,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL83">
-        <f>IF($G83="s-curve",$E83+($F83-$E83)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E83:$F83,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -73792,7 +73142,7 @@
         <v>n/a</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -73907,12 +73257,8 @@
         <f>IF($G84="s-curve",$E84+($F84-$E84)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E84:$F84,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL84">
-        <f>IF($G84="s-curve",$E84+($F84-$E84)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E84:$F84,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -73928,7 +73274,7 @@
         <v>n/a</v>
       </c>
       <c r="I85" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -74043,12 +73389,8 @@
         <f>IF($G85="s-curve",$E85+($F85-$E85)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E85:$F85,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL85">
-        <f>IF($G85="s-curve",$E85+($F85-$E85)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E85:$F85,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -74067,7 +73409,7 @@
         <v>n/a</v>
       </c>
       <c r="I86" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -74182,12 +73524,8 @@
         <f>IF($G86="s-curve",$E86+($F86-$E86)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E86:$F86,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL86">
-        <f>IF($G86="s-curve",$E86+($F86-$E86)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E86:$F86,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -74208,7 +73546,7 @@
         <v>n/a</v>
       </c>
       <c r="I87" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87">
@@ -74323,12 +73661,8 @@
         <f>IF($G87="s-curve",$E87+($F87-$E87)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E87:$F87,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL87">
-        <f>IF($G87="s-curve",$E87+($F87-$E87)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E87:$F87,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -74343,7 +73677,7 @@
         <v>n/a</v>
       </c>
       <c r="I88" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -74458,12 +73792,8 @@
         <f>IF($G88="s-curve",$E88+($F88-$E88)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E88:$F88,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL88">
-        <f>IF($G88="s-curve",$E88+($F88-$E88)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E88:$F88,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -74478,7 +73808,7 @@
         <v>n/a</v>
       </c>
       <c r="I89" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -74593,12 +73923,8 @@
         <f>IF($G89="s-curve",$E89+($F89-$E89)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E89:$F89,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL89">
-        <f>IF($G89="s-curve",$E89+($F89-$E89)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E89:$F89,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -74613,7 +73939,7 @@
         <v>n/a</v>
       </c>
       <c r="I90" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -74728,12 +74054,8 @@
         <f>IF($G90="s-curve",$E90+($F90-$E90)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E90:$F90,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL90">
-        <f>IF($G90="s-curve",$E90+($F90-$E90)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E90:$F90,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -74748,7 +74070,7 @@
         <v>n/a</v>
       </c>
       <c r="I91" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91">
@@ -74863,12 +74185,8 @@
         <f>IF($G91="s-curve",$E91+($F91-$E91)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E91:$F91,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL91">
-        <f>IF($G91="s-curve",$E91+($F91-$E91)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E91:$F91,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -74883,7 +74201,7 @@
         <v>n/a</v>
       </c>
       <c r="I92" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92">
@@ -74998,12 +74316,8 @@
         <f>IF($G92="s-curve",$E92+($F92-$E92)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E92:$F92,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL92">
-        <f>IF($G92="s-curve",$E92+($F92-$E92)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E92:$F92,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">
@@ -75021,7 +74335,7 @@
         <v>n/a</v>
       </c>
       <c r="I93" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93">
@@ -75136,12 +74450,8 @@
         <f>IF($G93="s-curve",$E93+($F93-$E93)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E93:$F93,$E$9:$F$9,AK$9))</f>
         <v>0</v>
       </c>
-      <c r="AL93">
-        <f>IF($G93="s-curve",$E93+($F93-$E93)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E93:$F93,$E$9:$F$9,AL$9))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
@@ -75171,7 +74481,6 @@
       <c r="AI95" s="22"/>
       <c r="AJ95" s="22"/>
       <c r="AK95" s="22"/>
-      <c r="AL95" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2938D8-ABC9-445B-B879-DE4D8FCD6AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB696AF-2C83-446D-A3FA-68614E057911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59880" yWindow="2280" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63885" yWindow="3720" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -8984,8 +8984,8 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="A11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9120,119 +9120,119 @@
       </c>
       <c r="B2">
         <f>Data!I17</f>
-        <v>0.3</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.31034182218529111</v>
+        <v>9.5562561094424667E-2</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.31388821401385425</v>
+        <v>0.10021340066388315</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.31861789550380609</v>
+        <v>0.10641604010356287</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.32489983249084531</v>
+        <v>0.11465435175228002</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.33319811122429671</v>
+        <v>0.12553695157700631</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.34408134923989753</v>
+        <v>0.1398095408603228</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.35822088754574566</v>
+        <v>0.15835253538142074</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.37636777483692901</v>
+        <v>0.18215088185757267</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.39929574543034146</v>
+        <v>0.21221927757864784</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.42769786666444942</v>
+        <v>0.24946663085423515</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.46203265155068762</v>
+        <v>0.29449424874790181</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.50233534816249725</v>
+        <v>0.34734835659024643</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.54804058564194313</v>
+        <v>0.40728751088471982</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.59789023823183873</v>
+        <v>0.47266176956689709</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.64999999999999991</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.70210976176816131</v>
+        <v>0.60933823043310298</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.7519594143580568</v>
+        <v>0.67471248911528015</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.79766465183750268</v>
+        <v>0.73465164340975353</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.8379673484493122</v>
+        <v>0.7875057512520981</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.87230213333555051</v>
+        <v>0.83253336914576481</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.90070425456965864</v>
+        <v>0.86978072242135229</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.92363222516307086</v>
+        <v>0.89984911814242741</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.94177911245425427</v>
+        <v>0.92364746461857927</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.95591865076010252</v>
+        <v>0.94219045913967725</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.96680188877570328</v>
+        <v>0.95646304842299379</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.97510016750915463</v>
+        <v>0.96734564824772007</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.9813821044961939</v>
+        <v>0.97558395989643709</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.98611178598614568</v>
+        <v>0.98178659933611689</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -9604,119 +9604,119 @@
       </c>
       <c r="B6">
         <f>Data!I21</f>
-        <v>8.5732552248620857E-3</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>1.0662698434446413E-2</v>
+        <v>2.2161047539909582E-3</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>1.1379205080176171E-2</v>
+        <v>2.9760458601116261E-3</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>1.2334781447243478E-2</v>
+        <v>3.9895490365298792E-3</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>1.3603972731471327E-2</v>
+        <v>5.3356783908954262E-3</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>1.5280542086483882E-2</v>
+        <v>7.1138809766350172E-3</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>1.7479371979568815E-2</v>
+        <v>9.4460034085494752E-3</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>2.0336098944168053E-2</v>
+        <v>1.2475904474088355E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>2.4002463511872893E-2</v>
+        <v>1.6364523179341936E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>2.8634789576624901E-2</v>
+        <v>2.1277659735073173E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>3.4373103220694493E-2</v>
+        <v>2.7363828570953451E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>4.1310041590716315E-2</v>
+        <v>3.4721282475147351E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>4.9452726144242329E-2</v>
+        <v>4.3357574606249408E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>5.8686930366946138E-2</v>
+        <v>5.3151554066130681E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>6.8758464786889628E-2</v>
+        <v>6.3833622478251154E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>7.9286627612431049E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>8.9814790437972469E-2</v>
+        <v>8.6166377521748855E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>9.9886324857915945E-2</v>
+        <v>9.6848445933869307E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>0.10912052908061977</v>
+        <v>0.10664242539375059</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>0.11726321363414577</v>
+        <v>0.11527871752485264</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>0.12420015200416759</v>
+        <v>0.12263617142904654</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>0.12993846564823719</v>
+        <v>0.12872234026492685</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>0.13457079171298919</v>
+        <v>0.13363547682065807</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>0.13823715628069402</v>
+        <v>0.13752409552591163</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>0.14109388324529326</v>
+        <v>0.14055399659145051</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>0.14329271313837821</v>
+        <v>0.14288611902336498</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>0.14496928249339075</v>
+        <v>0.14466432160910458</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>0.14623847377761859</v>
+        <v>0.1460104509634701</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>0.14719405014468592</v>
+        <v>0.14702395413988836</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -63006,8 +63006,8 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64252,8 +64252,11 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="E17" s="22">
-        <v>0.3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F17">
         <f>F10</f>
@@ -64264,120 +64267,120 @@
         <v>s-curve</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f>D17</f>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.31034182218529111</v>
+        <v>9.5562561094424667E-2</v>
       </c>
       <c r="K17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.31388821401385425</v>
+        <v>0.10021340066388315</v>
       </c>
       <c r="L17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.31861789550380609</v>
+        <v>0.10641604010356287</v>
       </c>
       <c r="M17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.32489983249084531</v>
+        <v>0.11465435175228002</v>
       </c>
       <c r="N17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.33319811122429671</v>
+        <v>0.12553695157700631</v>
       </c>
       <c r="O17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.34408134923989753</v>
+        <v>0.1398095408603228</v>
       </c>
       <c r="P17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.35822088754574566</v>
+        <v>0.15835253538142074</v>
       </c>
       <c r="Q17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.37636777483692901</v>
+        <v>0.18215088185757267</v>
       </c>
       <c r="R17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.39929574543034146</v>
+        <v>0.21221927757864784</v>
       </c>
       <c r="S17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.42769786666444942</v>
+        <v>0.24946663085423515</v>
       </c>
       <c r="T17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.46203265155068762</v>
+        <v>0.29449424874790181</v>
       </c>
       <c r="U17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.50233534816249725</v>
+        <v>0.34734835659024643</v>
       </c>
       <c r="V17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.54804058564194313</v>
+        <v>0.40728751088471982</v>
       </c>
       <c r="W17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.59789023823183873</v>
+        <v>0.47266176956689709</v>
       </c>
       <c r="X17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.64999999999999991</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="Y17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.70210976176816131</v>
+        <v>0.60933823043310298</v>
       </c>
       <c r="Z17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.7519594143580568</v>
+        <v>0.67471248911528015</v>
       </c>
       <c r="AA17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.79766465183750268</v>
+        <v>0.73465164340975353</v>
       </c>
       <c r="AB17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.8379673484493122</v>
+        <v>0.7875057512520981</v>
       </c>
       <c r="AC17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.87230213333555051</v>
+        <v>0.83253336914576481</v>
       </c>
       <c r="AD17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.90070425456965864</v>
+        <v>0.86978072242135229</v>
       </c>
       <c r="AE17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.92363222516307086</v>
+        <v>0.89984911814242741</v>
       </c>
       <c r="AF17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.94177911245425427</v>
+        <v>0.92364746461857927</v>
       </c>
       <c r="AG17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.95591865076010252</v>
+        <v>0.94219045913967725</v>
       </c>
       <c r="AH17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.96680188877570328</v>
+        <v>0.95646304842299379</v>
       </c>
       <c r="AI17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.97510016750915463</v>
+        <v>0.96734564824772007</v>
       </c>
       <c r="AJ17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.9813821044961939</v>
+        <v>0.97558395989643709</v>
       </c>
       <c r="AK17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.98611178598614568</v>
+        <v>0.98178659933611689</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.35">
@@ -64779,8 +64782,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="22">
-        <f>'SYVbT-freight'!F$2/'SYVbT-freight'!$2:$2</f>
-        <v>8.5732552248620857E-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="22">
         <f>F14</f>
@@ -64792,119 +64794,119 @@
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>8.5732552248620857E-3</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>1.0662698434446413E-2</v>
+        <v>2.2161047539909582E-3</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>1.1379205080176171E-2</v>
+        <v>2.9760458601116261E-3</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>1.2334781447243478E-2</v>
+        <v>3.9895490365298792E-3</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>1.3603972731471327E-2</v>
+        <v>5.3356783908954262E-3</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>1.5280542086483882E-2</v>
+        <v>7.1138809766350172E-3</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>1.7479371979568815E-2</v>
+        <v>9.4460034085494752E-3</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>2.0336098944168053E-2</v>
+        <v>1.2475904474088355E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>2.4002463511872893E-2</v>
+        <v>1.6364523179341936E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>2.8634789576624901E-2</v>
+        <v>2.1277659735073173E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>3.4373103220694493E-2</v>
+        <v>2.7363828570953451E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>4.1310041590716315E-2</v>
+        <v>3.4721282475147351E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>4.9452726144242329E-2</v>
+        <v>4.3357574606249408E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>5.8686930366946138E-2</v>
+        <v>5.3151554066130681E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>6.8758464786889628E-2</v>
+        <v>6.3833622478251154E-2</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>7.9286627612431049E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>8.9814790437972469E-2</v>
+        <v>8.6166377521748855E-2</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>9.9886324857915945E-2</v>
+        <v>9.6848445933869307E-2</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>0.10912052908061977</v>
+        <v>0.10664242539375059</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>0.11726321363414577</v>
+        <v>0.11527871752485264</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>0.12420015200416759</v>
+        <v>0.12263617142904654</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>0.12993846564823719</v>
+        <v>0.12872234026492685</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>0.13457079171298919</v>
+        <v>0.13363547682065807</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>0.13823715628069402</v>
+        <v>0.13752409552591163</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>0.14109388324529326</v>
+        <v>0.14055399659145051</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>0.14329271313837821</v>
+        <v>0.14288611902336498</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>0.14496928249339075</v>
+        <v>0.14466432160910458</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>0.14623847377761859</v>
+        <v>0.1460104509634701</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>0.14719405014468592</v>
+        <v>0.14702395413988836</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB696AF-2C83-446D-A3FA-68614E057911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DF435-BE5F-497D-B589-B49F6535A47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63885" yWindow="3720" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32700" yWindow="2040" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4736,91 +4736,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8984,8 +8984,8 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="A11:O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10964,8 +10964,8 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11100,119 +11100,119 @@
       </c>
       <c r="B2">
         <f>Data!I31</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
         <f>Data!J31</f>
-        <v>0.53456921017167336</v>
+        <v>6.3827684068669371E-2</v>
       </c>
       <c r="D2">
         <f>Data!K31</f>
-        <v>0.52866208794943437</v>
+        <v>6.1464835179773747E-2</v>
       </c>
       <c r="E2">
         <f>Data!L31</f>
-        <v>0.53456921017167336</v>
+        <v>6.3827684068669371E-2</v>
       </c>
       <c r="F2">
         <f>Data!M31</f>
-        <v>0.54158634824696117</v>
+        <v>6.6634539298784476E-2</v>
       </c>
       <c r="G2">
         <f>Data!N31</f>
-        <v>0.5498752445598426</v>
+        <v>6.9950097823937032E-2</v>
       </c>
       <c r="H2">
         <f>Data!O31</f>
-        <v>0.55960146101105879</v>
+        <v>7.3840584404423509E-2</v>
       </c>
       <c r="I2">
         <f>Data!P31</f>
-        <v>0.57092553245024391</v>
+        <v>7.8370212980097553E-2</v>
       </c>
       <c r="J2">
         <f>Data!Q31</f>
-        <v>0.58399080743303777</v>
+        <v>8.3596322973215106E-2</v>
       </c>
       <c r="K2">
         <f>Data!R31</f>
-        <v>0.59890805572070915</v>
+        <v>8.9563222288283645E-2</v>
       </c>
       <c r="L2">
         <f>Data!S31</f>
-        <v>0.61573760825049118</v>
+        <v>9.6295043300196476E-2</v>
       </c>
       <c r="M2">
         <f>Data!T31</f>
-        <v>0.63447071068499761</v>
+        <v>0.10378828427399903</v>
       </c>
       <c r="N2">
         <f>Data!U31</f>
-        <v>0.65501275943619375</v>
+        <v>0.1120051037744775</v>
       </c>
       <c r="O2">
         <f>Data!V31</f>
-        <v>0.6771718468871023</v>
+        <v>0.12086873875484092</v>
       </c>
       <c r="P2">
         <f>Data!W31</f>
-        <v>0.700656169943774</v>
+        <v>0.13026246797750962</v>
       </c>
       <c r="Q2">
         <f>Data!X31</f>
-        <v>0.72508300134376102</v>
+        <v>0.14003320053750445</v>
       </c>
       <c r="R2">
         <f>Data!Y31</f>
-        <v>0.75</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="S2">
         <f>Data!Z31</f>
-        <v>0.77491699865623898</v>
+        <v>0.15996679946249559</v>
       </c>
       <c r="T2">
         <f>Data!AA31</f>
-        <v>0.799343830056226</v>
+        <v>0.16973753202249042</v>
       </c>
       <c r="U2">
         <f>Data!AB31</f>
-        <v>0.8228281531128977</v>
+        <v>0.1791312612451591</v>
       </c>
       <c r="V2">
         <f>Data!AC31</f>
-        <v>0.84498724056380625</v>
+        <v>0.18799489622552251</v>
       </c>
       <c r="W2">
         <f>Data!AD31</f>
-        <v>0.86552928931500239</v>
+        <v>0.19621171572600099</v>
       </c>
       <c r="X2">
         <f>Data!AE31</f>
-        <v>0.88426239174950894</v>
+        <v>0.20370495669980354</v>
       </c>
       <c r="Y2">
         <f>Data!AF31</f>
-        <v>0.90109194427929085</v>
+        <v>0.21043677771171637</v>
       </c>
       <c r="Z2">
         <f>Data!AG31</f>
-        <v>0.91600919256696223</v>
+        <v>0.21640367702678492</v>
       </c>
       <c r="AA2">
         <f>Data!AH31</f>
-        <v>0.9290744675497562</v>
+        <v>0.22162978701990249</v>
       </c>
       <c r="AB2">
         <f>Data!AI31</f>
-        <v>0.9403985389889411</v>
+        <v>0.22615941559557651</v>
       </c>
       <c r="AC2">
         <f>Data!AJ31</f>
-        <v>0.9501247554401574</v>
+        <v>0.23004990217606297</v>
       </c>
       <c r="AD2">
         <f>Data!AK31</f>
-        <v>0.95841365175303883</v>
+        <v>0.23336546070121555</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -11463,119 +11463,119 @@
       </c>
       <c r="B5">
         <f>Data!I34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f>Data!J34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f>Data!K34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f>Data!L34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>Data!M34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>Data!N34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f>Data!O34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f>Data!P34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>Data!Q34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>Data!R34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <f>Data!S34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f>Data!T34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f>Data!U34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <f>Data!V34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <f>Data!W34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f>Data!X34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <f>Data!Y34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <f>Data!Z34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <f>Data!AA34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <f>Data!AB34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <f>Data!AC34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <f>Data!AD34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <f>Data!AE34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <f>Data!AF34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <f>Data!AG34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <f>Data!AH34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AB5">
         <f>Data!AI34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <f>Data!AJ34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AD5">
         <f>Data!AK34</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
@@ -11826,119 +11826,119 @@
       </c>
       <c r="B8">
         <f>Data!I37</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
         <f>Data!J37</f>
-        <v>7.6108052376995472E-2</v>
+        <v>1.0295480633865461E-2</v>
       </c>
       <c r="D8">
         <f>Data!K37</f>
-        <v>7.6488022930055813E-2</v>
+        <v>1.039680611468155E-2</v>
       </c>
       <c r="E8">
         <f>Data!L37</f>
-        <v>7.6994774518264933E-2</v>
+        <v>1.0531939871537317E-2</v>
       </c>
       <c r="F8">
         <f>Data!M37</f>
-        <v>7.7667839195447716E-2</v>
+        <v>1.0711423785452723E-2</v>
       </c>
       <c r="G8">
         <f>Data!N37</f>
-        <v>7.8556940488317503E-2</v>
+        <v>1.0948517463551336E-2</v>
       </c>
       <c r="H8">
         <f>Data!O37</f>
-        <v>7.9723001704274737E-2</v>
+        <v>1.125946712113993E-2</v>
       </c>
       <c r="I8">
         <f>Data!P37</f>
-        <v>8.1237952237044178E-2</v>
+        <v>1.1663453929878448E-2</v>
       </c>
       <c r="J8">
         <f>Data!Q37</f>
-        <v>8.3182261589670958E-2</v>
+        <v>1.2181936423912259E-2</v>
       </c>
       <c r="K8">
         <f>Data!R37</f>
-        <v>8.5638829867536584E-2</v>
+        <v>1.2837021298009756E-2</v>
       </c>
       <c r="L8">
         <f>Data!S37</f>
-        <v>8.8681914285476726E-2</v>
+        <v>1.3648510476127126E-2</v>
       </c>
       <c r="M8">
         <f>Data!T37</f>
-        <v>9.2360641237573676E-2</v>
+        <v>1.4629504330019647E-2</v>
       </c>
       <c r="N8">
         <f>Data!U37</f>
-        <v>9.6678787303124708E-2</v>
+        <v>1.5781009947499921E-2</v>
       </c>
       <c r="O8">
         <f>Data!V37</f>
-        <v>0.10157577703306533</v>
+        <v>1.708687387548409E-2</v>
       </c>
       <c r="P8">
         <f>Data!W37</f>
-        <v>0.10691681123912558</v>
+        <v>1.8511149663766817E-2</v>
       </c>
       <c r="Q8">
         <f>Data!X37</f>
-        <v>0.11249999999999999</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="R8">
         <f>Data!Y37</f>
-        <v>0.11808318876087442</v>
+        <v>2.1488850336233177E-2</v>
       </c>
       <c r="S8">
         <f>Data!Z37</f>
-        <v>0.12342422296693464</v>
+        <v>2.2913126124515907E-2</v>
       </c>
       <c r="T8">
         <f>Data!AA37</f>
-        <v>0.1283212126968753</v>
+        <v>2.4218990052500076E-2</v>
       </c>
       <c r="U8">
         <f>Data!AB37</f>
-        <v>0.13263935876242633</v>
+        <v>2.5370495669980349E-2</v>
       </c>
       <c r="V8">
         <f>Data!AC37</f>
-        <v>0.13631808571452325</v>
+        <v>2.6351489523872867E-2</v>
       </c>
       <c r="W8">
         <f>Data!AD37</f>
-        <v>0.13936117013246341</v>
+        <v>2.7162978701990241E-2</v>
       </c>
       <c r="X8">
         <f>Data!AE37</f>
-        <v>0.14181773841032902</v>
+        <v>2.7818063576087737E-2</v>
       </c>
       <c r="Y8">
         <f>Data!AF37</f>
-        <v>0.14376204776295581</v>
+        <v>2.8336546070121552E-2</v>
       </c>
       <c r="Z8">
         <f>Data!AG37</f>
-        <v>0.14527699829572527</v>
+        <v>2.8740532878860067E-2</v>
       </c>
       <c r="AA8">
         <f>Data!AH37</f>
-        <v>0.14644305951168249</v>
+        <v>2.9051482536448667E-2</v>
       </c>
       <c r="AB8">
         <f>Data!AI37</f>
-        <v>0.1473321608045523</v>
+        <v>2.9288576214547273E-2</v>
       </c>
       <c r="AC8">
         <f>Data!AJ37</f>
-        <v>0.14800522548173506</v>
+        <v>2.9468060128462675E-2</v>
       </c>
       <c r="AD8">
         <f>Data!AK37</f>
-        <v>0.14851197706994418</v>
+        <v>2.960319388531845E-2</v>
       </c>
     </row>
   </sheetData>
@@ -63006,8 +63006,8 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -66118,10 +66118,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="22">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="F31" s="22">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G31" s="7" t="str">
         <f>IF(E31=F31,"n/a",IF(OR(C31="battery electric vehicle",C31="natural gas vehicle",C31="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66129,119 +66129,119 @@
       </c>
       <c r="I31" s="22">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT(J$9:$K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,J$9))</f>
-        <v>0.53456921017167336</v>
+        <v>6.3827684068669371E-2</v>
       </c>
       <c r="K31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,K$9))</f>
-        <v>0.52866208794943437</v>
+        <v>6.1464835179773747E-2</v>
       </c>
       <c r="L31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:L$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,L$9))</f>
-        <v>0.53456921017167336</v>
+        <v>6.3827684068669371E-2</v>
       </c>
       <c r="M31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:M$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,M$9))</f>
-        <v>0.54158634824696117</v>
+        <v>6.6634539298784476E-2</v>
       </c>
       <c r="N31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:N$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,N$9))</f>
-        <v>0.5498752445598426</v>
+        <v>6.9950097823937032E-2</v>
       </c>
       <c r="O31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:O$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,O$9))</f>
-        <v>0.55960146101105879</v>
+        <v>7.3840584404423509E-2</v>
       </c>
       <c r="P31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:P$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,P$9))</f>
-        <v>0.57092553245024391</v>
+        <v>7.8370212980097553E-2</v>
       </c>
       <c r="Q31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Q$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Q$9))</f>
-        <v>0.58399080743303777</v>
+        <v>8.3596322973215106E-2</v>
       </c>
       <c r="R31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:R$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,R$9))</f>
-        <v>0.59890805572070915</v>
+        <v>8.9563222288283645E-2</v>
       </c>
       <c r="S31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:S$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,S$9))</f>
-        <v>0.61573760825049118</v>
+        <v>9.6295043300196476E-2</v>
       </c>
       <c r="T31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:T$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,T$9))</f>
-        <v>0.63447071068499761</v>
+        <v>0.10378828427399903</v>
       </c>
       <c r="U31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:U$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,U$9))</f>
-        <v>0.65501275943619375</v>
+        <v>0.1120051037744775</v>
       </c>
       <c r="V31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:V$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,V$9))</f>
-        <v>0.6771718468871023</v>
+        <v>0.12086873875484092</v>
       </c>
       <c r="W31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:W$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,W$9))</f>
-        <v>0.700656169943774</v>
+        <v>0.13026246797750962</v>
       </c>
       <c r="X31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:X$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,X$9))</f>
-        <v>0.72508300134376102</v>
+        <v>0.14003320053750445</v>
       </c>
       <c r="Y31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Y$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Y$9))</f>
-        <v>0.75</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Z31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Z$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Z$9))</f>
-        <v>0.77491699865623898</v>
+        <v>0.15996679946249559</v>
       </c>
       <c r="AA31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AA$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AA$9))</f>
-        <v>0.799343830056226</v>
+        <v>0.16973753202249042</v>
       </c>
       <c r="AB31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AB$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AB$9))</f>
-        <v>0.8228281531128977</v>
+        <v>0.1791312612451591</v>
       </c>
       <c r="AC31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AC$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AC$9))</f>
-        <v>0.84498724056380625</v>
+        <v>0.18799489622552251</v>
       </c>
       <c r="AD31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AD$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AD$9))</f>
-        <v>0.86552928931500239</v>
+        <v>0.19621171572600099</v>
       </c>
       <c r="AE31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AE$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AE$9))</f>
-        <v>0.88426239174950894</v>
+        <v>0.20370495669980354</v>
       </c>
       <c r="AF31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AF$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AF$9))</f>
-        <v>0.90109194427929085</v>
+        <v>0.21043677771171637</v>
       </c>
       <c r="AG31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AG$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AG$9))</f>
-        <v>0.91600919256696223</v>
+        <v>0.21640367702678492</v>
       </c>
       <c r="AH31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AH$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AH$9))</f>
-        <v>0.9290744675497562</v>
+        <v>0.22162978701990249</v>
       </c>
       <c r="AI31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AI$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AI$9))</f>
-        <v>0.9403985389889411</v>
+        <v>0.22615941559557651</v>
       </c>
       <c r="AJ31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AJ$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AJ$9))</f>
-        <v>0.9501247554401574</v>
+        <v>0.23004990217606297</v>
       </c>
       <c r="AK31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AK$9))</f>
-        <v>0.95841365175303883</v>
+        <v>0.23336546070121555</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
@@ -66513,10 +66513,10 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>IF(E34=F34,"n/a",IF(OR(C34="battery electric vehicle",C34="natural gas vehicle",C34="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66524,119 +66524,119 @@
       </c>
       <c r="I34" s="22">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,J$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,K$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,L$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,M$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,N$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,O$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,P$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,Q$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,R$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,S$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,T$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,U$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,V$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,W$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,X$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,Y$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Z34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,Z$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AA34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AA$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AB34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AB$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AC34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AC$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AD34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AD$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AE34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AE$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AF34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AF$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AG34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AG$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AH34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AH$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AI34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AI$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AJ34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AJ$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AK34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AK$9))</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.35">
@@ -66911,10 +66911,10 @@
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F37" s="26">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="G37" s="8" t="str">
         <f>IF(E37=F37,"n/a",IF(OR(C37="battery electric vehicle",C37="natural gas vehicle",C37="plugin hybrid vehicle",C37="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -66922,119 +66922,119 @@
       </c>
       <c r="I37" s="22">
         <f t="shared" si="2"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,J$9))</f>
-        <v>7.6108052376995472E-2</v>
+        <v>1.0295480633865461E-2</v>
       </c>
       <c r="K37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,K$9))</f>
-        <v>7.6488022930055813E-2</v>
+        <v>1.039680611468155E-2</v>
       </c>
       <c r="L37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,L$9))</f>
-        <v>7.6994774518264933E-2</v>
+        <v>1.0531939871537317E-2</v>
       </c>
       <c r="M37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,M$9))</f>
-        <v>7.7667839195447716E-2</v>
+        <v>1.0711423785452723E-2</v>
       </c>
       <c r="N37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,N$9))</f>
-        <v>7.8556940488317503E-2</v>
+        <v>1.0948517463551336E-2</v>
       </c>
       <c r="O37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,O$9))</f>
-        <v>7.9723001704274737E-2</v>
+        <v>1.125946712113993E-2</v>
       </c>
       <c r="P37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,P$9))</f>
-        <v>8.1237952237044178E-2</v>
+        <v>1.1663453929878448E-2</v>
       </c>
       <c r="Q37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Q$9))</f>
-        <v>8.3182261589670958E-2</v>
+        <v>1.2181936423912259E-2</v>
       </c>
       <c r="R37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,R$9))</f>
-        <v>8.5638829867536584E-2</v>
+        <v>1.2837021298009756E-2</v>
       </c>
       <c r="S37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,S$9))</f>
-        <v>8.8681914285476726E-2</v>
+        <v>1.3648510476127126E-2</v>
       </c>
       <c r="T37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,T$9))</f>
-        <v>9.2360641237573676E-2</v>
+        <v>1.4629504330019647E-2</v>
       </c>
       <c r="U37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,U$9))</f>
-        <v>9.6678787303124708E-2</v>
+        <v>1.5781009947499921E-2</v>
       </c>
       <c r="V37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,V$9))</f>
-        <v>0.10157577703306533</v>
+        <v>1.708687387548409E-2</v>
       </c>
       <c r="W37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,W$9))</f>
-        <v>0.10691681123912558</v>
+        <v>1.8511149663766817E-2</v>
       </c>
       <c r="X37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,X$9))</f>
-        <v>0.11249999999999999</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="Y37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Y$9))</f>
-        <v>0.11808318876087442</v>
+        <v>2.1488850336233177E-2</v>
       </c>
       <c r="Z37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Z$9))</f>
-        <v>0.12342422296693464</v>
+        <v>2.2913126124515907E-2</v>
       </c>
       <c r="AA37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AA$9))</f>
-        <v>0.1283212126968753</v>
+        <v>2.4218990052500076E-2</v>
       </c>
       <c r="AB37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AB$9))</f>
-        <v>0.13263935876242633</v>
+        <v>2.5370495669980349E-2</v>
       </c>
       <c r="AC37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AC$9))</f>
-        <v>0.13631808571452325</v>
+        <v>2.6351489523872867E-2</v>
       </c>
       <c r="AD37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AD$9))</f>
-        <v>0.13936117013246341</v>
+        <v>2.7162978701990241E-2</v>
       </c>
       <c r="AE37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AE$9))</f>
-        <v>0.14181773841032902</v>
+        <v>2.7818063576087737E-2</v>
       </c>
       <c r="AF37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AF$9))</f>
-        <v>0.14376204776295581</v>
+        <v>2.8336546070121552E-2</v>
       </c>
       <c r="AG37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AG$9))</f>
-        <v>0.14527699829572527</v>
+        <v>2.8740532878860067E-2</v>
       </c>
       <c r="AH37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AH$9))</f>
-        <v>0.14644305951168249</v>
+        <v>2.9051482536448667E-2</v>
       </c>
       <c r="AI37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AI$9))</f>
-        <v>0.1473321608045523</v>
+        <v>2.9288576214547273E-2</v>
       </c>
       <c r="AJ37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AJ$9))</f>
-        <v>0.14800522548173506</v>
+        <v>2.9468060128462675E-2</v>
       </c>
       <c r="AK37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AK$9))</f>
-        <v>0.14851197706994418</v>
+        <v>2.960319388531845E-2</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DF435-BE5F-497D-B589-B49F6535A47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42B77B-8B6A-4EA6-8929-0CFA3E600326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="2040" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="1320" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3330,7 +3330,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3526,12 +3526,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3858,7 +3852,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3934,8 +3928,7 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -8985,7 +8978,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9973,8 +9966,8 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10115,115 +10108,115 @@
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>6.6750934139880036E-2</v>
+        <v>0.15679779958376155</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>7.2343622496426507E-2</v>
+        <v>0.16527930201267052</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>7.8447036139913343E-2</v>
+        <v>0.17608474252934408</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>8.5099598221031109E-2</v>
+        <v>0.18961031134333656</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>9.2340969528983116E-2</v>
+        <v>0.20617203756635052</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>0.10021173140470754</v>
+        <v>0.22591328730260302</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>0.10875298422848828</v>
+        <v>0.2487038813051046</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>0.11800585298365679</v>
+        <v>0.27406348343878784</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>0.12801089280189637</v>
+        <v>0.30115095722281271</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>0.13880738961936787</v>
+        <v>0.32884904277718729</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>0.15043255425148291</v>
+        <v>0.35593651656121217</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>0.16292061243269934</v>
+        <v>0.38129611869489538</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>0.17630179871741478</v>
+        <v>0.40408671269739699</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>0.19060126856829279</v>
+        <v>0.42382796243364945</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>0.20583795032700405</v>
+        <v>0.44038968865666345</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>0.22202336678786697</v>
+        <v>0.45391525747065592</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>0.23916046433597252</v>
+        <v>0.46472069798732951</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>0.2572424954608335</v>
+        <v>0.47320220041623845</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>0.27625200715629517</v>
+        <v>0.47976791263010193</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>0.29615999240124607</v>
+        <v>0.48479622706582798</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>0.31692526368366364</v>
+        <v>0.48861552203785524</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>0.33849410555351556</v>
+        <v>0.49149837313329048</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>0.3608002568364625</v>
+        <v>0.49366410767318075</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>0.38376526211016398</v>
+        <v>0.49528533069827868</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>0.40729921648867251</v>
+        <v>0.49649571387467994</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>0.4313019083564576</v>
+        <v>0.49739757275265178</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>0.45566434266064693</v>
+        <v>0.49806855349338341</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>0.4802706043958494</v>
+        <v>0.4985672107269517</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -10232,119 +10225,119 @@
       </c>
       <c r="B3">
         <f>Data!I25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <f>Data!J25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <f>Data!K25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E3">
         <f>Data!L25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <f>Data!M25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <f>Data!N25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
         <f>Data!O25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
         <f>Data!P25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <f>Data!Q25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <f>Data!R25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
         <f>Data!S25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <f>Data!T25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
         <f>Data!U25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
         <f>Data!V25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P3">
         <f>Data!W25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q3">
         <f>Data!X25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="R3">
         <f>Data!Y25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S3">
         <f>Data!Z25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T3">
         <f>Data!AA25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="U3">
         <f>Data!AB25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="V3">
         <f>Data!AC25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W3">
         <f>Data!AD25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="X3">
         <f>Data!AE25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Y3">
         <f>Data!AF25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z3">
         <f>Data!AG25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA3">
         <f>Data!AH25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AB3">
         <f>Data!AI25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AC3">
         <f>Data!AJ25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AD3">
         <f>Data!AK25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -63006,8 +62999,8 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65192,10 +65185,10 @@
         <v>0.6</v>
       </c>
       <c r="E24" s="22">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="F24" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65205,117 +65198,117 @@
         <f>D24</f>
         <v>0.6</v>
       </c>
-      <c r="J24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:J$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
-        <v>6.6750934139880036E-2</v>
-      </c>
-      <c r="K24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:K$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>7.2343622496426507E-2</v>
-      </c>
-      <c r="L24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:L$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>7.8447036139913343E-2</v>
-      </c>
-      <c r="M24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:M$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>8.5099598221031109E-2</v>
-      </c>
-      <c r="N24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:N$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>9.2340969528983116E-2</v>
-      </c>
-      <c r="O24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:O$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>0.10021173140470754</v>
-      </c>
-      <c r="P24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:P$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>0.10875298422848828</v>
-      </c>
-      <c r="Q24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:Q$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>0.11800585298365679</v>
-      </c>
-      <c r="R24" s="15">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:R$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>0.12801089280189637</v>
-      </c>
-      <c r="S24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:S$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>0.13880738961936787</v>
-      </c>
-      <c r="T24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:T$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>0.15043255425148291</v>
-      </c>
-      <c r="U24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:U$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>0.16292061243269934</v>
-      </c>
-      <c r="V24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:V$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>0.17630179871741478</v>
-      </c>
-      <c r="W24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:W$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>0.19060126856829279</v>
-      </c>
-      <c r="X24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:X$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>0.20583795032700405</v>
-      </c>
-      <c r="Y24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:Y$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>0.22202336678786697</v>
-      </c>
-      <c r="Z24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:Z$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>0.23916046433597252</v>
-      </c>
-      <c r="AA24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AA$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>0.2572424954608335</v>
-      </c>
-      <c r="AB24" s="15">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AB$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>0.27625200715629517</v>
-      </c>
-      <c r="AC24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AC$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>0.29615999240124607</v>
-      </c>
-      <c r="AD24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AD$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>0.31692526368366364</v>
-      </c>
-      <c r="AE24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AE$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>0.33849410555351556</v>
-      </c>
-      <c r="AF24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AF$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>0.3608002568364625</v>
-      </c>
-      <c r="AG24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AG$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>0.38376526211016398</v>
-      </c>
-      <c r="AH24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AH$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>0.40729921648867251</v>
-      </c>
-      <c r="AI24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AI$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>0.4313019083564576</v>
-      </c>
-      <c r="AJ24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AJ$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>0.45566434266064693</v>
-      </c>
-      <c r="AK24" s="50">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($I$9:AK$9)/2+$R$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>0.4802706043958494</v>
+      <c r="J24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,J$9))</f>
+        <v>0.15679779958376155</v>
+      </c>
+      <c r="K24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
+        <v>0.16527930201267052</v>
+      </c>
+      <c r="L24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
+        <v>0.17608474252934408</v>
+      </c>
+      <c r="M24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
+        <v>0.18961031134333656</v>
+      </c>
+      <c r="N24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
+        <v>0.20617203756635052</v>
+      </c>
+      <c r="O24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
+        <v>0.22591328730260302</v>
+      </c>
+      <c r="P24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
+        <v>0.2487038813051046</v>
+      </c>
+      <c r="Q24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
+        <v>0.27406348343878784</v>
+      </c>
+      <c r="R24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
+        <v>0.30115095722281271</v>
+      </c>
+      <c r="S24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
+        <v>0.32884904277718729</v>
+      </c>
+      <c r="T24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
+        <v>0.35593651656121217</v>
+      </c>
+      <c r="U24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
+        <v>0.38129611869489538</v>
+      </c>
+      <c r="V24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
+        <v>0.40408671269739699</v>
+      </c>
+      <c r="W24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
+        <v>0.42382796243364945</v>
+      </c>
+      <c r="X24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
+        <v>0.44038968865666345</v>
+      </c>
+      <c r="Y24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
+        <v>0.45391525747065592</v>
+      </c>
+      <c r="Z24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
+        <v>0.46472069798732951</v>
+      </c>
+      <c r="AA24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
+        <v>0.47320220041623845</v>
+      </c>
+      <c r="AB24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
+        <v>0.47976791263010193</v>
+      </c>
+      <c r="AC24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
+        <v>0.48479622706582798</v>
+      </c>
+      <c r="AD24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
+        <v>0.48861552203785524</v>
+      </c>
+      <c r="AE24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
+        <v>0.49149837313329048</v>
+      </c>
+      <c r="AF24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
+        <v>0.49366410767318075</v>
+      </c>
+      <c r="AG24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
+        <v>0.49528533069827868</v>
+      </c>
+      <c r="AH24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
+        <v>0.49649571387467994</v>
+      </c>
+      <c r="AI24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
+        <v>0.49739757275265178</v>
+      </c>
+      <c r="AJ24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
+        <v>0.49806855349338341</v>
+      </c>
+      <c r="AK24">
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
+        <v>0.4985672107269517</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.35">
@@ -65323,10 +65316,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="22">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="22">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>IF(E25=F25,"n/a",IF(OR(C25="battery electric vehicle",C25="natural gas vehicle",C25="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65334,119 +65327,119 @@
       </c>
       <c r="I25" s="22">
         <f t="shared" ref="I25:I56" si="2">E25</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,J$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,K$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="L25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,L$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="M25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,M$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,N$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="O25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,O$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,P$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Q$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="R25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,R$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,S$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,T$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="U25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,U$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="V25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,V$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,W$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="X25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,X$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Y25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Y$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Z$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AA$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AB25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AB$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AC25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AC$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AD25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AD$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AE25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AE$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AF25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AF$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AG25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AG$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AH25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AH$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AI25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AI$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AJ25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AJ$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AK25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AK$9))</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42B77B-8B6A-4EA6-8929-0CFA3E600326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8017AFA-7409-4617-B4D9-6A896298AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1320" windowWidth="22140" windowHeight="13245" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="270" windowWidth="19180" windowHeight="11260" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3852,7 +3852,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3928,7 +3928,6 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -7954,10 +7953,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7966,7 +7965,7 @@
     <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8085,12 +8084,8 @@
         <f>Data!AK9</f>
         <v>2050</v>
       </c>
-      <c r="AE1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8210,12 +8205,8 @@
         <f>Data!AK10</f>
         <v>0.99701824935068328</v>
       </c>
-      <c r="AE2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8335,12 +8326,8 @@
         <f>Data!AK11</f>
         <v>1.2181248751199165E-3</v>
       </c>
-      <c r="AE3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8460,12 +8447,8 @@
         <f>Data!AK12</f>
         <v>0.79999999999999893</v>
       </c>
-      <c r="AE4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8585,12 +8568,8 @@
         <f>Data!AK13</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="AE5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8710,12 +8689,8 @@
         <f>Data!AK14</f>
         <v>0.14981412463484778</v>
       </c>
-      <c r="AE6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8835,12 +8810,8 @@
         <f>Data!AK15</f>
         <v>8.6165104068936654E-4</v>
       </c>
-      <c r="AE7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -8959,10 +8930,6 @@
       <c r="AD8">
         <f>Data!AK16</f>
         <v>3.091993773478644E-4</v>
-      </c>
-      <c r="AE8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -8977,7 +8944,7 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -9966,7 +9933,7 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -62999,7 +62966,7 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -65194,7 +65161,7 @@
         <f>IF(E24=F24,"n/a",IF(OR(C24="battery electric vehicle",C24="natural gas vehicle",C24="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="22">
         <f>D24</f>
         <v>0.6</v>
       </c>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8017AFA-7409-4617-B4D9-6A896298AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B442D69-8641-4D6D-ADE1-DB9FEDC0D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="270" windowWidth="19180" windowHeight="11260" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57795" yWindow="3525" windowWidth="15195" windowHeight="10920" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -5066,91 +5066,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.34799999999999998</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28576839372836865</c:v>
+                  <c:v>0.36646728950191665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30341908797231432</c:v>
+                  <c:v>0.3821236845260918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32590608580431069</c:v>
+                  <c:v>0.40206994364200543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35405389117397068</c:v>
+                  <c:v>0.42703741256080774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38852018628672946</c:v>
+                  <c:v>0.45760946394004709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4296033276297414</c:v>
+                  <c:v>0.49405074385858883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47703240163494742</c:v>
+                  <c:v>0.53612094846320657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52980778985909904</c:v>
+                  <c:v>0.58293340321268139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58617901908531289</c:v>
+                  <c:v>0.63293541563021916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6438209809146872</c:v>
+                  <c:v>0.68406458436978101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70019221014090094</c:v>
+                  <c:v>0.73406659678731867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75296759836505256</c:v>
+                  <c:v>0.78087905153679338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.80039667237025858</c:v>
+                  <c:v>0.82294925614141134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84147981371327052</c:v>
+                  <c:v>0.85939053605995297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87594610882602941</c:v>
+                  <c:v>0.88996258743919232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9040939141956893</c:v>
+                  <c:v>0.91493005635799451</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92658091202768578</c:v>
+                  <c:v>0.93487631547390837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94423160627163139</c:v>
+                  <c:v>0.95053271049808341</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95789538574372557</c:v>
+                  <c:v>0.96265266034151242</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96835971578564195</c:v>
+                  <c:v>0.97193465698908255</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97630797829499605</c:v>
+                  <c:v>0.9789848690590679</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98230742516928027</c:v>
+                  <c:v>0.98430645635145253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98681449434688973</c:v>
+                  <c:v>0.98830428524535807</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99018839091263411</c:v>
+                  <c:v>0.99129697531601191</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99270729644190148</c:v>
+                  <c:v>0.99353127723353074</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9945841378906537</c:v>
+                  <c:v>0.99519605997313842</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9959805032159601</c:v>
+                  <c:v>0.99643465415129961</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99701824935068328</c:v>
+                  <c:v>0.99735514845002182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,8 +7955,8 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8091,119 +8091,119 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>0.34799999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>0.28576839372836865</v>
+        <v>0.36646728950191665</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>0.30341908797231432</v>
+        <v>0.3821236845260918</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.32590608580431069</v>
+        <v>0.40206994364200543</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.35405389117397068</v>
+        <v>0.42703741256080774</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.38852018628672946</v>
+        <v>0.45760946394004709</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.4296033276297414</v>
+        <v>0.49405074385858883</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.47703240163494742</v>
+        <v>0.53612094846320657</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.52980778985909904</v>
+        <v>0.58293340321268139</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.58617901908531289</v>
+        <v>0.63293541563021916</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.6438209809146872</v>
+        <v>0.68406458436978101</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.70019221014090094</v>
+        <v>0.73406659678731867</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.75296759836505256</v>
+        <v>0.78087905153679338</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.80039667237025858</v>
+        <v>0.82294925614141134</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>0.84147981371327052</v>
+        <v>0.85939053605995297</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>0.87594610882602941</v>
+        <v>0.88996258743919232</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>0.9040939141956893</v>
+        <v>0.91493005635799451</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>0.92658091202768578</v>
+        <v>0.93487631547390837</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>0.94423160627163139</v>
+        <v>0.95053271049808341</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>0.95789538574372557</v>
+        <v>0.96265266034151242</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>0.96835971578564195</v>
+        <v>0.97193465698908255</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>0.97630797829499605</v>
+        <v>0.9789848690590679</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>0.98230742516928027</v>
+        <v>0.98430645635145253</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>0.98681449434688973</v>
+        <v>0.98830428524535807</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>0.99018839091263411</v>
+        <v>0.99129697531601191</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>0.99270729644190148</v>
+        <v>0.99353127723353074</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>0.9945841378906537</v>
+        <v>0.99519605997313842</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>0.9959805032159601</v>
+        <v>0.99643465415129961</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>0.99701824935068328</v>
+        <v>0.99735514845002182</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -8575,119 +8575,119 @@
       </c>
       <c r="B6">
         <f>Data!I14</f>
-        <v>0.16400000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C6">
         <f>Data!J14</f>
-        <v>0.10547647129735284</v>
+        <v>0.17681066213403793</v>
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>0.10657677431515725</v>
+        <v>0.17738373662247772</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>0.10797856119299598</v>
+        <v>0.17811383395468541</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>0.10973322957967609</v>
+        <v>0.17902772373941461</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>0.11188177784644547</v>
+        <v>0.18014675929502369</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>0.1144428048392566</v>
+        <v>0.18148062752044614</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>0.11739942243958112</v>
+        <v>0.18302053252061518</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>0.12068931677043734</v>
+        <v>0.18473401915126944</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>0.12420336742350002</v>
+        <v>0.18656425386640627</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>0.12779663257649998</v>
+        <v>0.18843574613359373</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>0.13131068322956266</v>
+        <v>0.19026598084873056</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>0.13460057756041885</v>
+        <v>0.19197946747938482</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>0.13755719516074338</v>
+        <v>0.19351937247955386</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>0.14011822215355452</v>
+        <v>0.19485324070497631</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>0.1422667704203239</v>
+        <v>0.19597227626058539</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>0.14402143880700402</v>
+        <v>0.19688616604531459</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>0.14542322568484273</v>
+        <v>0.19761626337752228</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>0.14652352870264715</v>
+        <v>0.19818933786596207</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>0.14737529677363484</v>
+        <v>0.19863296706960148</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>0.14802761864637767</v>
+        <v>0.19897271804498839</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>0.1485230947508569</v>
+        <v>0.19923077851607132</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>0.14889708624431877</v>
+        <v>0.19942556575224937</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>0.14917804640084506</v>
+        <v>0.19957189916710683</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>0.14938836722572263</v>
+        <v>0.19968144126339721</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>0.14954538990806659</v>
+        <v>0.19976322391045137</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>0.14966238781656022</v>
+        <v>0.19982416032112513</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>0.1497494339667092</v>
+        <v>0.19986949685766106</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>0.14981412463484778</v>
+        <v>0.19990318991398323</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -9568,115 +9568,115 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>2.2161047539909582E-3</v>
+        <v>2.9548063386546112E-3</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>2.9760458601116261E-3</v>
+        <v>3.9680611468155018E-3</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>3.9895490365298792E-3</v>
+        <v>5.3193987153731734E-3</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>5.3356783908954262E-3</v>
+        <v>7.1142378545272361E-3</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>7.1138809766350172E-3</v>
+        <v>9.4851746355133562E-3</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>9.4460034085494752E-3</v>
+        <v>1.2594671211399303E-2</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>1.2475904474088355E-2</v>
+        <v>1.6634539298784477E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>1.6364523179341936E-2</v>
+        <v>2.1819364239122584E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>2.1277659735073173E-2</v>
+        <v>2.8370212980097564E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>2.7363828570953451E-2</v>
+        <v>3.6485104761271273E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>3.4721282475147351E-2</v>
+        <v>4.629504330019648E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>4.3357574606249408E-2</v>
+        <v>5.7810099474999217E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>5.3151554066130681E-2</v>
+        <v>7.0868738754840913E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>6.3833622478251154E-2</v>
+        <v>8.5111496637668205E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>8.6166377521748855E-2</v>
+        <v>0.11488850336233181</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>9.6848445933869307E-2</v>
+        <v>0.12913126124515908</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>0.10664242539375059</v>
+        <v>0.1421899005250008</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>0.11527871752485264</v>
+        <v>0.15370495669980352</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>0.12263617142904654</v>
+        <v>0.16351489523872872</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>0.12872234026492685</v>
+        <v>0.17162978701990247</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>0.13363547682065807</v>
+        <v>0.17818063576087742</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>0.13752409552591163</v>
+        <v>0.18336546070121554</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>0.14055399659145051</v>
+        <v>0.18740532878860072</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>0.14288611902336498</v>
+        <v>0.19051482536448666</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>0.14466432160910458</v>
+        <v>0.19288576214547279</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>0.1460104509634701</v>
+        <v>0.19468060128462683</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>0.14702395413988836</v>
+        <v>0.19603193885318451</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -9933,7 +9933,7 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -62966,8 +62966,8 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63275,10 +63275,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.34799999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="E10" s="22">
-        <v>0.23</v>
+        <v>0.317</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -63289,119 +63289,119 @@
       </c>
       <c r="I10" s="22">
         <f>D10</f>
-        <v>0.34799999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="J10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,J$9))</f>
-        <v>0.28576839372836865</v>
+        <v>0.36646728950191665</v>
       </c>
       <c r="K10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
-        <v>0.30341908797231432</v>
+        <v>0.3821236845260918</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.32590608580431069</v>
+        <v>0.40206994364200543</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.35405389117397068</v>
+        <v>0.42703741256080774</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.38852018628672946</v>
+        <v>0.45760946394004709</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.4296033276297414</v>
+        <v>0.49405074385858883</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.47703240163494742</v>
+        <v>0.53612094846320657</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.52980778985909904</v>
+        <v>0.58293340321268139</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.58617901908531289</v>
+        <v>0.63293541563021916</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.6438209809146872</v>
+        <v>0.68406458436978101</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.70019221014090094</v>
+        <v>0.73406659678731867</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.75296759836505256</v>
+        <v>0.78087905153679338</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.80039667237025858</v>
+        <v>0.82294925614141134</v>
       </c>
       <c r="W10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
-        <v>0.84147981371327052</v>
+        <v>0.85939053605995297</v>
       </c>
       <c r="X10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
-        <v>0.87594610882602941</v>
+        <v>0.88996258743919232</v>
       </c>
       <c r="Y10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
-        <v>0.9040939141956893</v>
+        <v>0.91493005635799451</v>
       </c>
       <c r="Z10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
-        <v>0.92658091202768578</v>
+        <v>0.93487631547390837</v>
       </c>
       <c r="AA10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
-        <v>0.94423160627163139</v>
+        <v>0.95053271049808341</v>
       </c>
       <c r="AB10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
-        <v>0.95789538574372557</v>
+        <v>0.96265266034151242</v>
       </c>
       <c r="AC10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
-        <v>0.96835971578564195</v>
+        <v>0.97193465698908255</v>
       </c>
       <c r="AD10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
-        <v>0.97630797829499605</v>
+        <v>0.9789848690590679</v>
       </c>
       <c r="AE10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
-        <v>0.98230742516928027</v>
+        <v>0.98430645635145253</v>
       </c>
       <c r="AF10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
-        <v>0.98681449434688973</v>
+        <v>0.98830428524535807</v>
       </c>
       <c r="AG10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
-        <v>0.99018839091263411</v>
+        <v>0.99129697531601191</v>
       </c>
       <c r="AH10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
-        <v>0.99270729644190148</v>
+        <v>0.99353127723353074</v>
       </c>
       <c r="AI10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
-        <v>0.9945841378906537</v>
+        <v>0.99519605997313842</v>
       </c>
       <c r="AJ10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
-        <v>0.9959805032159601</v>
+        <v>0.99643465415129961</v>
       </c>
       <c r="AK10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
-        <v>0.99701824935068328</v>
+        <v>0.99735514845002182</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.35">
@@ -63804,13 +63804,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="22">
-        <v>0.16400000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E14" s="22">
-        <v>0.10199999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F14" s="41">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -63818,119 +63818,119 @@
       </c>
       <c r="I14" s="22">
         <f>D14</f>
-        <v>0.16400000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,J$9))</f>
-        <v>0.10547647129735284</v>
+        <v>0.17681066213403793</v>
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>0.10657677431515725</v>
+        <v>0.17738373662247772</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>0.10797856119299598</v>
+        <v>0.17811383395468541</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>0.10973322957967609</v>
+        <v>0.17902772373941461</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>0.11188177784644547</v>
+        <v>0.18014675929502369</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>0.1144428048392566</v>
+        <v>0.18148062752044614</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>0.11739942243958112</v>
+        <v>0.18302053252061518</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>0.12068931677043734</v>
+        <v>0.18473401915126944</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>0.12420336742350002</v>
+        <v>0.18656425386640627</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>0.12779663257649998</v>
+        <v>0.18843574613359373</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>0.13131068322956266</v>
+        <v>0.19026598084873056</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>0.13460057756041885</v>
+        <v>0.19197946747938482</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>0.13755719516074338</v>
+        <v>0.19351937247955386</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>0.14011822215355452</v>
+        <v>0.19485324070497631</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>0.1422667704203239</v>
+        <v>0.19597227626058539</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>0.14402143880700402</v>
+        <v>0.19688616604531459</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>0.14542322568484273</v>
+        <v>0.19761626337752228</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>0.14652352870264715</v>
+        <v>0.19818933786596207</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>0.14737529677363484</v>
+        <v>0.19863296706960148</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>0.14802761864637767</v>
+        <v>0.19897271804498839</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>0.1485230947508569</v>
+        <v>0.19923077851607132</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>0.14889708624431877</v>
+        <v>0.19942556575224937</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>0.14917804640084506</v>
+        <v>0.19957189916710683</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>0.14938836722572263</v>
+        <v>0.19968144126339721</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>0.14954538990806659</v>
+        <v>0.19976322391045137</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>0.14966238781656022</v>
+        <v>0.19982416032112513</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>0.1497494339667092</v>
+        <v>0.19986949685766106</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>0.14981412463484778</v>
+        <v>0.19990318991398323</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.35">
@@ -64746,7 +64746,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -64758,115 +64758,115 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>2.2161047539909582E-3</v>
+        <v>2.9548063386546112E-3</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>2.9760458601116261E-3</v>
+        <v>3.9680611468155018E-3</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>3.9895490365298792E-3</v>
+        <v>5.3193987153731734E-3</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>5.3356783908954262E-3</v>
+        <v>7.1142378545272361E-3</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>7.1138809766350172E-3</v>
+        <v>9.4851746355133562E-3</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>9.4460034085494752E-3</v>
+        <v>1.2594671211399303E-2</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>1.2475904474088355E-2</v>
+        <v>1.6634539298784477E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>1.6364523179341936E-2</v>
+        <v>2.1819364239122584E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>2.1277659735073173E-2</v>
+        <v>2.8370212980097564E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>2.7363828570953451E-2</v>
+        <v>3.6485104761271273E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>3.4721282475147351E-2</v>
+        <v>4.629504330019648E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>4.3357574606249408E-2</v>
+        <v>5.7810099474999217E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>5.3151554066130681E-2</v>
+        <v>7.0868738754840913E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>6.3833622478251154E-2</v>
+        <v>8.5111496637668205E-2</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>8.6166377521748855E-2</v>
+        <v>0.11488850336233181</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>9.6848445933869307E-2</v>
+        <v>0.12913126124515908</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>0.10664242539375059</v>
+        <v>0.1421899005250008</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>0.11527871752485264</v>
+        <v>0.15370495669980352</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>0.12263617142904654</v>
+        <v>0.16351489523872872</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>0.12872234026492685</v>
+        <v>0.17162978701990247</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>0.13363547682065807</v>
+        <v>0.17818063576087742</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>0.13752409552591163</v>
+        <v>0.18336546070121554</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>0.14055399659145051</v>
+        <v>0.18740532878860072</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>0.14288611902336498</v>
+        <v>0.19051482536448666</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>0.14466432160910458</v>
+        <v>0.19288576214547279</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>0.1460104509634701</v>
+        <v>0.19468060128462683</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>0.14702395413988836</v>
+        <v>0.19603193885318451</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B442D69-8641-4D6D-ADE1-DB9FEDC0D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD535C-B7D2-4D33-AB4A-A634E072B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57795" yWindow="3525" windowWidth="15195" windowHeight="10920" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58245" yWindow="3480" windowWidth="15195" windowHeight="10920" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -8944,7 +8944,7 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -9084,115 +9084,115 @@
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>9.5562561094424667E-2</v>
+        <v>6.4035330108609401E-2</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.10021340066388315</v>
+        <v>6.8848290447373631E-2</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.10641604010356287</v>
+        <v>7.5267143898022582E-2</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.11465435175228002</v>
+        <v>8.3792629809004371E-2</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.12553695157700631</v>
+        <v>9.505457951868844E-2</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.1398095408603228</v>
+        <v>0.10982468825414668</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.15835253538142074</v>
+        <v>0.12901406166922624</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.18215088185757267</v>
+        <v>0.15364198013583227</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.21221927757864784</v>
+        <v>0.18475851165546342</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.24946663085423515</v>
+        <v>0.22330424761603851</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.29449424874790181</v>
+        <v>0.26990145567593327</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.34734835659024643</v>
+        <v>0.32459797250624622</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.40728751088471982</v>
+        <v>0.38662650908549429</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.47266176956689709</v>
+        <v>0.45427960902892389</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.54100000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.60933823043310298</v>
+        <v>0.5957203909710761</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.67471248911528015</v>
+        <v>0.6633734909145057</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.73465164340975353</v>
+        <v>0.72540202749375371</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.7875057512520981</v>
+        <v>0.78009854432406667</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.83253336914576481</v>
+        <v>0.82669575238396142</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.86978072242135229</v>
+        <v>0.86524148834453662</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.89984911814242741</v>
+        <v>0.89635801986416774</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.92364746461857927</v>
+        <v>0.9209859383307738</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.94219045913967725</v>
+        <v>0.94017531174585334</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.95646304842299379</v>
+        <v>0.9549454204813117</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.96734564824772007</v>
+        <v>0.96620737019099567</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.97558395989643709</v>
+        <v>0.97473285610197735</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.98178659933611689</v>
+        <v>0.98115170955262643</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -62966,8 +62966,8 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64216,7 +64216,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E17" s="22">
-        <v>8.2000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
         <f>F10</f>
@@ -64232,115 +64232,115 @@
       </c>
       <c r="J17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>9.5562561094424667E-2</v>
+        <v>6.4035330108609401E-2</v>
       </c>
       <c r="K17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.10021340066388315</v>
+        <v>6.8848290447373631E-2</v>
       </c>
       <c r="L17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.10641604010356287</v>
+        <v>7.5267143898022582E-2</v>
       </c>
       <c r="M17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.11465435175228002</v>
+        <v>8.3792629809004371E-2</v>
       </c>
       <c r="N17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.12553695157700631</v>
+        <v>9.505457951868844E-2</v>
       </c>
       <c r="O17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.1398095408603228</v>
+        <v>0.10982468825414668</v>
       </c>
       <c r="P17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.15835253538142074</v>
+        <v>0.12901406166922624</v>
       </c>
       <c r="Q17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.18215088185757267</v>
+        <v>0.15364198013583227</v>
       </c>
       <c r="R17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.21221927757864784</v>
+        <v>0.18475851165546342</v>
       </c>
       <c r="S17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.24946663085423515</v>
+        <v>0.22330424761603851</v>
       </c>
       <c r="T17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.29449424874790181</v>
+        <v>0.26990145567593327</v>
       </c>
       <c r="U17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.34734835659024643</v>
+        <v>0.32459797250624622</v>
       </c>
       <c r="V17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.40728751088471982</v>
+        <v>0.38662650908549429</v>
       </c>
       <c r="W17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.47266176956689709</v>
+        <v>0.45427960902892389</v>
       </c>
       <c r="X17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.54100000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Y17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.60933823043310298</v>
+        <v>0.5957203909710761</v>
       </c>
       <c r="Z17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.67471248911528015</v>
+        <v>0.6633734909145057</v>
       </c>
       <c r="AA17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.73465164340975353</v>
+        <v>0.72540202749375371</v>
       </c>
       <c r="AB17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.7875057512520981</v>
+        <v>0.78009854432406667</v>
       </c>
       <c r="AC17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.83253336914576481</v>
+        <v>0.82669575238396142</v>
       </c>
       <c r="AD17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.86978072242135229</v>
+        <v>0.86524148834453662</v>
       </c>
       <c r="AE17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.89984911814242741</v>
+        <v>0.89635801986416774</v>
       </c>
       <c r="AF17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.92364746461857927</v>
+        <v>0.9209859383307738</v>
       </c>
       <c r="AG17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.94219045913967725</v>
+        <v>0.94017531174585334</v>
       </c>
       <c r="AH17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.95646304842299379</v>
+        <v>0.9549454204813117</v>
       </c>
       <c r="AI17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.96734564824772007</v>
+        <v>0.96620737019099567</v>
       </c>
       <c r="AJ17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.97558395989643709</v>
+        <v>0.97473285610197735</v>
       </c>
       <c r="AK17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.98178659933611689</v>
+        <v>0.98115170955262643</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BD535C-B7D2-4D33-AB4A-A634E072B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF31D1-F1BE-4223-8C2C-95A4DBB11B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58245" yWindow="3480" windowWidth="15195" windowHeight="10920" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58245" yWindow="3480" windowWidth="13950" windowHeight="10920" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7407,7 +7407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -8944,7 +8944,7 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -11064,115 +11064,115 @@
       </c>
       <c r="C2">
         <f>Data!J31</f>
-        <v>6.3827684068669371E-2</v>
+        <v>5.3456921017167341E-2</v>
       </c>
       <c r="D2">
         <f>Data!K31</f>
-        <v>6.1464835179773747E-2</v>
+        <v>5.2866208794943442E-2</v>
       </c>
       <c r="E2">
         <f>Data!L31</f>
-        <v>6.3827684068669371E-2</v>
+        <v>5.3456921017167341E-2</v>
       </c>
       <c r="F2">
         <f>Data!M31</f>
-        <v>6.6634539298784476E-2</v>
+        <v>5.4158634824696121E-2</v>
       </c>
       <c r="G2">
         <f>Data!N31</f>
-        <v>6.9950097823937032E-2</v>
+        <v>5.498752445598426E-2</v>
       </c>
       <c r="H2">
         <f>Data!O31</f>
-        <v>7.3840584404423509E-2</v>
+        <v>5.5960146101105883E-2</v>
       </c>
       <c r="I2">
         <f>Data!P31</f>
-        <v>7.8370212980097553E-2</v>
+        <v>5.7092553245024394E-2</v>
       </c>
       <c r="J2">
         <f>Data!Q31</f>
-        <v>8.3596322973215106E-2</v>
+        <v>5.8399080743303779E-2</v>
       </c>
       <c r="K2">
         <f>Data!R31</f>
-        <v>8.9563222288283645E-2</v>
+        <v>5.9890805572070917E-2</v>
       </c>
       <c r="L2">
         <f>Data!S31</f>
-        <v>9.6295043300196476E-2</v>
+        <v>6.1573760825049118E-2</v>
       </c>
       <c r="M2">
         <f>Data!T31</f>
-        <v>0.10378828427399903</v>
+        <v>6.3447071068499755E-2</v>
       </c>
       <c r="N2">
         <f>Data!U31</f>
-        <v>0.1120051037744775</v>
+        <v>6.5501275943619375E-2</v>
       </c>
       <c r="O2">
         <f>Data!V31</f>
-        <v>0.12086873875484092</v>
+        <v>6.7717184688710227E-2</v>
       </c>
       <c r="P2">
         <f>Data!W31</f>
-        <v>0.13026246797750962</v>
+        <v>7.0065616994377411E-2</v>
       </c>
       <c r="Q2">
         <f>Data!X31</f>
-        <v>0.14003320053750445</v>
+        <v>7.2508300134376119E-2</v>
       </c>
       <c r="R2">
         <f>Data!Y31</f>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="S2">
         <f>Data!Z31</f>
-        <v>0.15996679946249559</v>
+        <v>7.7491699865623903E-2</v>
       </c>
       <c r="T2">
         <f>Data!AA31</f>
-        <v>0.16973753202249042</v>
+        <v>7.9934383005622611E-2</v>
       </c>
       <c r="U2">
         <f>Data!AB31</f>
-        <v>0.1791312612451591</v>
+        <v>8.2282815311289781E-2</v>
       </c>
       <c r="V2">
         <f>Data!AC31</f>
-        <v>0.18799489622552251</v>
+        <v>8.449872405638062E-2</v>
       </c>
       <c r="W2">
         <f>Data!AD31</f>
-        <v>0.19621171572600099</v>
+        <v>8.6552928931500239E-2</v>
       </c>
       <c r="X2">
         <f>Data!AE31</f>
-        <v>0.20370495669980354</v>
+        <v>8.8426239174950891E-2</v>
       </c>
       <c r="Y2">
         <f>Data!AF31</f>
-        <v>0.21043677771171637</v>
+        <v>9.0109194427929099E-2</v>
       </c>
       <c r="Z2">
         <f>Data!AG31</f>
-        <v>0.21640367702678492</v>
+        <v>9.1600919256696223E-2</v>
       </c>
       <c r="AA2">
         <f>Data!AH31</f>
-        <v>0.22162978701990249</v>
+        <v>9.2907446754975614E-2</v>
       </c>
       <c r="AB2">
         <f>Data!AI31</f>
-        <v>0.22615941559557651</v>
+        <v>9.4039853898894132E-2</v>
       </c>
       <c r="AC2">
         <f>Data!AJ31</f>
-        <v>0.23004990217606297</v>
+        <v>9.5012475544015748E-2</v>
       </c>
       <c r="AD2">
         <f>Data!AK31</f>
-        <v>0.23336546070121555</v>
+        <v>9.5841365175303894E-2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -11181,119 +11181,119 @@
       </c>
       <c r="B3">
         <f>Data!I32</f>
-        <v>5.9409446603675671E-3</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C3">
         <f>Data!J32</f>
-        <v>6.6337411639312942E-3</v>
+        <v>9.4564261632134401E-4</v>
       </c>
       <c r="D3">
         <f>Data!K32</f>
-        <v>6.8713132102375934E-3</v>
+        <v>1.1464697192988325E-3</v>
       </c>
       <c r="E3">
         <f>Data!L32</f>
-        <v>7.18815358328801E-3</v>
+        <v>1.4143048253869629E-3</v>
       </c>
       <c r="F3">
         <f>Data!M32</f>
-        <v>7.6089792271883949E-3</v>
+        <v>1.7700419427672982E-3</v>
       </c>
       <c r="G3">
         <f>Data!N32</f>
-        <v>8.1648791826439276E-3</v>
+        <v>2.2399616127587473E-3</v>
       </c>
       <c r="H3">
         <f>Data!O32</f>
-        <v>8.8939450193572869E-3</v>
+        <v>2.8562638340993416E-3</v>
       </c>
       <c r="I3">
         <f>Data!P32</f>
-        <v>9.8411497309437278E-3</v>
+        <v>3.656965689019083E-3</v>
       </c>
       <c r="J3">
         <f>Data!Q32</f>
-        <v>1.1056805912286489E-2</v>
+        <v>4.6845979921940964E-3</v>
       </c>
       <c r="K3">
         <f>Data!R32</f>
-        <v>1.2592745863325292E-2</v>
+        <v>5.982976212655337E-3</v>
       </c>
       <c r="L3">
         <f>Data!S32</f>
-        <v>1.4495398019999283E-2</v>
+        <v>7.5913477636839659E-3</v>
       </c>
       <c r="M3">
         <f>Data!T32</f>
-        <v>1.67954780729739E-2</v>
+        <v>9.5356775820989413E-3</v>
       </c>
       <c r="N3">
         <f>Data!U32</f>
-        <v>1.9495347283311256E-2</v>
+        <v>1.1817961715944843E-2</v>
       </c>
       <c r="O3">
         <f>Data!V32</f>
-        <v>2.2557131575575082E-2</v>
+        <v>1.4406184021209467E-2</v>
       </c>
       <c r="P3">
         <f>Data!W32</f>
-        <v>2.589654936862756E-2</v>
+        <v>1.7229098633585838E-2</v>
       </c>
       <c r="Q3">
         <f>Data!X32</f>
-        <v>2.938737140247252E-2</v>
+        <v>2.018E-2</v>
       </c>
       <c r="R3">
         <f>Data!Y32</f>
-        <v>3.2878193436317482E-2</v>
+        <v>2.3130901366414165E-2</v>
       </c>
       <c r="S3">
         <f>Data!Z32</f>
-        <v>3.6217611229369957E-2</v>
+        <v>2.5953815978790529E-2</v>
       </c>
       <c r="T3">
         <f>Data!AA32</f>
-        <v>3.9279395521633786E-2</v>
+        <v>2.8542038284055157E-2</v>
       </c>
       <c r="U3">
         <f>Data!AB32</f>
-        <v>4.1979264731971139E-2</v>
+        <v>3.0824322417901059E-2</v>
       </c>
       <c r="V3">
         <f>Data!AC32</f>
-        <v>4.4279344784945759E-2</v>
+        <v>3.2768652236316032E-2</v>
       </c>
       <c r="W3">
         <f>Data!AD32</f>
-        <v>4.6181996941619757E-2</v>
+        <v>3.4377023787344668E-2</v>
       </c>
       <c r="X3">
         <f>Data!AE32</f>
-        <v>4.7717936892658554E-2</v>
+        <v>3.5675402007805904E-2</v>
       </c>
       <c r="Y3">
         <f>Data!AF32</f>
-        <v>4.8933593074001316E-2</v>
+        <v>3.6703034310980917E-2</v>
       </c>
       <c r="Z3">
         <f>Data!AG32</f>
-        <v>4.9880797785587759E-2</v>
+        <v>3.7503736165900664E-2</v>
       </c>
       <c r="AA3">
         <f>Data!AH32</f>
-        <v>5.0609863622301118E-2</v>
+        <v>3.8120038387241255E-2</v>
       </c>
       <c r="AB3">
         <f>Data!AI32</f>
-        <v>5.1165763577756651E-2</v>
+        <v>3.8589958057232705E-2</v>
       </c>
       <c r="AC3">
         <f>Data!AJ32</f>
-        <v>5.1586589221657028E-2</v>
+        <v>3.8945695174613035E-2</v>
       </c>
       <c r="AD3">
         <f>Data!AK32</f>
-        <v>5.1903429594707451E-2</v>
+        <v>3.9213530280701167E-2</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -11306,115 +11306,115 @@
       </c>
       <c r="C4">
         <f>Data!J33</f>
-        <v>0</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="D4">
         <f>Data!K33</f>
-        <v>0</v>
+        <v>1.1111111111112848E-3</v>
       </c>
       <c r="E4">
         <f>Data!L33</f>
-        <v>0</v>
+        <v>2.2222222222225696E-3</v>
       </c>
       <c r="F4">
         <f>Data!M33</f>
-        <v>0</v>
+        <v>3.3333333333338544E-3</v>
       </c>
       <c r="G4">
         <f>Data!N33</f>
-        <v>0</v>
+        <v>4.4444444444446951E-3</v>
       </c>
       <c r="H4">
         <f>Data!O33</f>
-        <v>0</v>
+        <v>5.5555555555559799E-3</v>
       </c>
       <c r="I4">
         <f>Data!P33</f>
-        <v>0</v>
+        <v>6.6666666666668206E-3</v>
       </c>
       <c r="J4">
         <f>Data!Q33</f>
-        <v>0</v>
+        <v>7.7777777777781054E-3</v>
       </c>
       <c r="K4">
         <f>Data!R33</f>
-        <v>0</v>
+        <v>8.8888888888893902E-3</v>
       </c>
       <c r="L4">
         <f>Data!S33</f>
-        <v>0</v>
+        <v>1.0000000000000231E-2</v>
       </c>
       <c r="M4">
         <f>Data!T33</f>
-        <v>0</v>
+        <v>1.1111111111111516E-2</v>
       </c>
       <c r="N4">
         <f>Data!U33</f>
-        <v>0</v>
+        <v>1.2222222222222356E-2</v>
       </c>
       <c r="O4">
         <f>Data!V33</f>
-        <v>0</v>
+        <v>1.3333333333333641E-2</v>
       </c>
       <c r="P4">
         <f>Data!W33</f>
-        <v>0</v>
+        <v>1.4444444444444926E-2</v>
       </c>
       <c r="Q4">
         <f>Data!X33</f>
-        <v>0</v>
+        <v>1.5555555555555767E-2</v>
       </c>
       <c r="R4">
         <f>Data!Y33</f>
-        <v>0</v>
+        <v>1.6666666666667052E-2</v>
       </c>
       <c r="S4">
         <f>Data!Z33</f>
-        <v>0</v>
+        <v>1.7777777777778336E-2</v>
       </c>
       <c r="T4">
         <f>Data!AA33</f>
-        <v>0</v>
+        <v>1.8888888888889177E-2</v>
       </c>
       <c r="U4">
         <f>Data!AB33</f>
-        <v>0</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="V4">
         <f>Data!AC33</f>
-        <v>0</v>
+        <v>2.1111111111111303E-2</v>
       </c>
       <c r="W4">
         <f>Data!AD33</f>
-        <v>0</v>
+        <v>2.2222222222222587E-2</v>
       </c>
       <c r="X4">
         <f>Data!AE33</f>
-        <v>0</v>
+        <v>2.3333333333333872E-2</v>
       </c>
       <c r="Y4">
         <f>Data!AF33</f>
-        <v>0</v>
+        <v>2.4444444444444713E-2</v>
       </c>
       <c r="Z4">
         <f>Data!AG33</f>
-        <v>0</v>
+        <v>2.5555555555555998E-2</v>
       </c>
       <c r="AA4">
         <f>Data!AH33</f>
-        <v>0</v>
+        <v>2.6666666666666838E-2</v>
       </c>
       <c r="AB4">
         <f>Data!AI33</f>
-        <v>0</v>
+        <v>2.7777777777778123E-2</v>
       </c>
       <c r="AC4">
         <f>Data!AJ33</f>
-        <v>0</v>
+        <v>2.8888888888889408E-2</v>
       </c>
       <c r="AD4">
         <f>Data!AK33</f>
-        <v>0</v>
+        <v>3.0000000000000249E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -11673,111 +11673,111 @@
       </c>
       <c r="D7">
         <f>Data!K36</f>
-        <v>2.2883696571535106E-4</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>Data!L36</f>
-        <v>4.5767393143075763E-4</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>Data!M36</f>
-        <v>6.8651089714610869E-4</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>Data!N36</f>
-        <v>9.1534786286151526E-4</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f>Data!O36</f>
-        <v>1.1441848285768663E-3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f>Data!P36</f>
-        <v>1.3730217942922729E-3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f>Data!Q36</f>
-        <v>1.6018587600076239E-3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f>Data!R36</f>
-        <v>1.8306957257230305E-3</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f>Data!S36</f>
-        <v>2.0595326914383816E-3</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f>Data!T36</f>
-        <v>2.2883696571537882E-3</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f>Data!U36</f>
-        <v>2.5172066228691392E-3</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f>Data!V36</f>
-        <v>2.7460435885845458E-3</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <f>Data!W36</f>
-        <v>2.9748805542998968E-3</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f>Data!X36</f>
-        <v>3.2037175200153034E-3</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f>Data!Y36</f>
-        <v>3.4325544857306545E-3</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f>Data!Z36</f>
-        <v>3.661391451446061E-3</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f>Data!AA36</f>
-        <v>3.8902284171614121E-3</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <f>Data!AB36</f>
-        <v>4.1190653828768187E-3</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <f>Data!AC36</f>
-        <v>4.3479023485921697E-3</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f>Data!AD36</f>
-        <v>4.5767393143075763E-3</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f>Data!AE36</f>
-        <v>4.8055762800229274E-3</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f>Data!AF36</f>
-        <v>5.0344132457383339E-3</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <f>Data!AG36</f>
-        <v>5.263250211453685E-3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <f>Data!AH36</f>
-        <v>5.4920871771690916E-3</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <f>Data!AI36</f>
-        <v>5.7209241428844426E-3</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <f>Data!AJ36</f>
-        <v>5.9497611085997937E-3</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <f>Data!AK36</f>
-        <v>6.1785980743152003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -15869,7 +15869,7 @@
   </sheetPr>
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
@@ -62966,8 +62966,8 @@
   </sheetPr>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -66081,7 +66081,7 @@
         <v>0.05</v>
       </c>
       <c r="F31" s="22">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G31" s="7" t="str">
         <f>IF(E31=F31,"n/a",IF(OR(C31="battery electric vehicle",C31="natural gas vehicle",C31="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66093,115 +66093,115 @@
       </c>
       <c r="J31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT(J$9:$K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,J$9))</f>
-        <v>6.3827684068669371E-2</v>
+        <v>5.3456921017167341E-2</v>
       </c>
       <c r="K31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,K$9))</f>
-        <v>6.1464835179773747E-2</v>
+        <v>5.2866208794943442E-2</v>
       </c>
       <c r="L31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:L$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,L$9))</f>
-        <v>6.3827684068669371E-2</v>
+        <v>5.3456921017167341E-2</v>
       </c>
       <c r="M31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:M$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,M$9))</f>
-        <v>6.6634539298784476E-2</v>
+        <v>5.4158634824696121E-2</v>
       </c>
       <c r="N31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:N$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,N$9))</f>
-        <v>6.9950097823937032E-2</v>
+        <v>5.498752445598426E-2</v>
       </c>
       <c r="O31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:O$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,O$9))</f>
-        <v>7.3840584404423509E-2</v>
+        <v>5.5960146101105883E-2</v>
       </c>
       <c r="P31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:P$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,P$9))</f>
-        <v>7.8370212980097553E-2</v>
+        <v>5.7092553245024394E-2</v>
       </c>
       <c r="Q31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Q$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Q$9))</f>
-        <v>8.3596322973215106E-2</v>
+        <v>5.8399080743303779E-2</v>
       </c>
       <c r="R31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:R$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,R$9))</f>
-        <v>8.9563222288283645E-2</v>
+        <v>5.9890805572070917E-2</v>
       </c>
       <c r="S31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:S$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,S$9))</f>
-        <v>9.6295043300196476E-2</v>
+        <v>6.1573760825049118E-2</v>
       </c>
       <c r="T31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:T$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,T$9))</f>
-        <v>0.10378828427399903</v>
+        <v>6.3447071068499755E-2</v>
       </c>
       <c r="U31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:U$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,U$9))</f>
-        <v>0.1120051037744775</v>
+        <v>6.5501275943619375E-2</v>
       </c>
       <c r="V31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:V$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,V$9))</f>
-        <v>0.12086873875484092</v>
+        <v>6.7717184688710227E-2</v>
       </c>
       <c r="W31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:W$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,W$9))</f>
-        <v>0.13026246797750962</v>
+        <v>7.0065616994377411E-2</v>
       </c>
       <c r="X31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:X$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,X$9))</f>
-        <v>0.14003320053750445</v>
+        <v>7.2508300134376119E-2</v>
       </c>
       <c r="Y31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Y$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Y$9))</f>
-        <v>0.15000000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="Z31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Z$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Z$9))</f>
-        <v>0.15996679946249559</v>
+        <v>7.7491699865623903E-2</v>
       </c>
       <c r="AA31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AA$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AA$9))</f>
-        <v>0.16973753202249042</v>
+        <v>7.9934383005622611E-2</v>
       </c>
       <c r="AB31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AB$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AB$9))</f>
-        <v>0.1791312612451591</v>
+        <v>8.2282815311289781E-2</v>
       </c>
       <c r="AC31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AC$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AC$9))</f>
-        <v>0.18799489622552251</v>
+        <v>8.449872405638062E-2</v>
       </c>
       <c r="AD31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AD$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AD$9))</f>
-        <v>0.19621171572600099</v>
+        <v>8.6552928931500239E-2</v>
       </c>
       <c r="AE31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AE$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AE$9))</f>
-        <v>0.20370495669980354</v>
+        <v>8.8426239174950891E-2</v>
       </c>
       <c r="AF31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AF$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AF$9))</f>
-        <v>0.21043677771171637</v>
+        <v>9.0109194427929099E-2</v>
       </c>
       <c r="AG31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AG$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AG$9))</f>
-        <v>0.21640367702678492</v>
+        <v>9.1600919256696223E-2</v>
       </c>
       <c r="AH31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AH$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AH$9))</f>
-        <v>0.22162978701990249</v>
+        <v>9.2907446754975614E-2</v>
       </c>
       <c r="AI31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AI$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AI$9))</f>
-        <v>0.22615941559557651</v>
+        <v>9.4039853898894132E-2</v>
       </c>
       <c r="AJ31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AJ$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AJ$9))</f>
-        <v>0.23004990217606297</v>
+        <v>9.5012475544015748E-2</v>
       </c>
       <c r="AK31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AK$9))</f>
-        <v>0.23336546070121555</v>
+        <v>9.5841365175303894E-2</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
@@ -66209,12 +66209,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="22">
-        <f>SUM(INDEX('AEO 49'!$208:$208,MATCH(E$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$219:$219,MATCH(E$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$230:$230,MATCH(E$9,'AEO 49'!$1:$1,0)))/INDEX('AEO 49'!$237:$237,MATCH(E$9,'AEO 49'!$1:$1,0))</f>
-        <v>5.9409446603675671E-3</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="F32" s="22">
-        <f>SUM(INDEX('AEO 49'!$208:$208,MATCH(F$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$219:$219,MATCH(F$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$230:$230,MATCH(F$9,'AEO 49'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 49'!$237:$237,MATCH(F$9,'AEO 49'!$1:$1,0))</f>
-        <v>5.2833798144577476E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>IF(E32=F32,"n/a",IF(OR(C32="battery electric vehicle",C32="natural gas vehicle",C32="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -66222,119 +66220,119 @@
       </c>
       <c r="I32" s="22">
         <f t="shared" si="2"/>
-        <v>5.9409446603675671E-3</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="J32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,J$9))</f>
-        <v>6.6337411639312942E-3</v>
+        <v>9.4564261632134401E-4</v>
       </c>
       <c r="K32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,K$9))</f>
-        <v>6.8713132102375934E-3</v>
+        <v>1.1464697192988325E-3</v>
       </c>
       <c r="L32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,L$9))</f>
-        <v>7.18815358328801E-3</v>
+        <v>1.4143048253869629E-3</v>
       </c>
       <c r="M32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,M$9))</f>
-        <v>7.6089792271883949E-3</v>
+        <v>1.7700419427672982E-3</v>
       </c>
       <c r="N32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,N$9))</f>
-        <v>8.1648791826439276E-3</v>
+        <v>2.2399616127587473E-3</v>
       </c>
       <c r="O32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,O$9))</f>
-        <v>8.8939450193572869E-3</v>
+        <v>2.8562638340993416E-3</v>
       </c>
       <c r="P32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,P$9))</f>
-        <v>9.8411497309437278E-3</v>
+        <v>3.656965689019083E-3</v>
       </c>
       <c r="Q32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,Q$9))</f>
-        <v>1.1056805912286489E-2</v>
+        <v>4.6845979921940964E-3</v>
       </c>
       <c r="R32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,R$9))</f>
-        <v>1.2592745863325292E-2</v>
+        <v>5.982976212655337E-3</v>
       </c>
       <c r="S32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,S$9))</f>
-        <v>1.4495398019999283E-2</v>
+        <v>7.5913477636839659E-3</v>
       </c>
       <c r="T32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,T$9))</f>
-        <v>1.67954780729739E-2</v>
+        <v>9.5356775820989413E-3</v>
       </c>
       <c r="U32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,U$9))</f>
-        <v>1.9495347283311256E-2</v>
+        <v>1.1817961715944843E-2</v>
       </c>
       <c r="V32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,V$9))</f>
-        <v>2.2557131575575082E-2</v>
+        <v>1.4406184021209467E-2</v>
       </c>
       <c r="W32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,W$9))</f>
-        <v>2.589654936862756E-2</v>
+        <v>1.7229098633585838E-2</v>
       </c>
       <c r="X32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,X$9))</f>
-        <v>2.938737140247252E-2</v>
+        <v>2.018E-2</v>
       </c>
       <c r="Y32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,Y$9))</f>
-        <v>3.2878193436317482E-2</v>
+        <v>2.3130901366414165E-2</v>
       </c>
       <c r="Z32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,Z$9))</f>
-        <v>3.6217611229369957E-2</v>
+        <v>2.5953815978790529E-2</v>
       </c>
       <c r="AA32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AA$9))</f>
-        <v>3.9279395521633786E-2</v>
+        <v>2.8542038284055157E-2</v>
       </c>
       <c r="AB32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AB$9))</f>
-        <v>4.1979264731971139E-2</v>
+        <v>3.0824322417901059E-2</v>
       </c>
       <c r="AC32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AC$9))</f>
-        <v>4.4279344784945759E-2</v>
+        <v>3.2768652236316032E-2</v>
       </c>
       <c r="AD32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AD$9))</f>
-        <v>4.6181996941619757E-2</v>
+        <v>3.4377023787344668E-2</v>
       </c>
       <c r="AE32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AE$9))</f>
-        <v>4.7717936892658554E-2</v>
+        <v>3.5675402007805904E-2</v>
       </c>
       <c r="AF32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AF$9))</f>
-        <v>4.8933593074001316E-2</v>
+        <v>3.6703034310980917E-2</v>
       </c>
       <c r="AG32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AG$9))</f>
-        <v>4.9880797785587759E-2</v>
+        <v>3.7503736165900664E-2</v>
       </c>
       <c r="AH32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AH$9))</f>
-        <v>5.0609863622301118E-2</v>
+        <v>3.8120038387241255E-2</v>
       </c>
       <c r="AI32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AI$9))</f>
-        <v>5.1165763577756651E-2</v>
+        <v>3.8589958057232705E-2</v>
       </c>
       <c r="AJ32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AJ$9))</f>
-        <v>5.1586589221657028E-2</v>
+        <v>3.8945695174613035E-2</v>
       </c>
       <c r="AK32">
         <f>IF($G32="s-curve",$E32+($F32-$E32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E32:$F32,$E$9:$F$9,AK$9))</f>
-        <v>5.1903429594707451E-2</v>
+        <v>3.9213530280701167E-2</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.35">
@@ -66345,11 +66343,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G33" s="7" t="str">
         <f>IF(E33=F33,"n/a",IF(OR(C33="battery electric vehicle",C33="natural gas vehicle",C33="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <v>linear</v>
       </c>
       <c r="I33" s="22">
         <f t="shared" si="2"/>
@@ -66357,115 +66355,115 @@
       </c>
       <c r="J33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,J$9))</f>
-        <v>0</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="K33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,K$9))</f>
-        <v>0</v>
+        <v>1.1111111111112848E-3</v>
       </c>
       <c r="L33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,L$9))</f>
-        <v>0</v>
+        <v>2.2222222222225696E-3</v>
       </c>
       <c r="M33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,M$9))</f>
-        <v>0</v>
+        <v>3.3333333333338544E-3</v>
       </c>
       <c r="N33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,N$9))</f>
-        <v>0</v>
+        <v>4.4444444444446951E-3</v>
       </c>
       <c r="O33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,O$9))</f>
-        <v>0</v>
+        <v>5.5555555555559799E-3</v>
       </c>
       <c r="P33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,P$9))</f>
-        <v>0</v>
+        <v>6.6666666666668206E-3</v>
       </c>
       <c r="Q33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,Q$9))</f>
-        <v>0</v>
+        <v>7.7777777777781054E-3</v>
       </c>
       <c r="R33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,R$9))</f>
-        <v>0</v>
+        <v>8.8888888888893902E-3</v>
       </c>
       <c r="S33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,S$9))</f>
-        <v>0</v>
+        <v>1.0000000000000231E-2</v>
       </c>
       <c r="T33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,T$9))</f>
-        <v>0</v>
+        <v>1.1111111111111516E-2</v>
       </c>
       <c r="U33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,U$9))</f>
-        <v>0</v>
+        <v>1.2222222222222356E-2</v>
       </c>
       <c r="V33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,V$9))</f>
-        <v>0</v>
+        <v>1.3333333333333641E-2</v>
       </c>
       <c r="W33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,W$9))</f>
-        <v>0</v>
+        <v>1.4444444444444926E-2</v>
       </c>
       <c r="X33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,X$9))</f>
-        <v>0</v>
+        <v>1.5555555555555767E-2</v>
       </c>
       <c r="Y33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,Y$9))</f>
-        <v>0</v>
+        <v>1.6666666666667052E-2</v>
       </c>
       <c r="Z33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,Z$9))</f>
-        <v>0</v>
+        <v>1.7777777777778336E-2</v>
       </c>
       <c r="AA33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AA$9))</f>
-        <v>0</v>
+        <v>1.8888888888889177E-2</v>
       </c>
       <c r="AB33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AB$9))</f>
-        <v>0</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="AC33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AC$9))</f>
-        <v>0</v>
+        <v>2.1111111111111303E-2</v>
       </c>
       <c r="AD33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AD$9))</f>
-        <v>0</v>
+        <v>2.2222222222222587E-2</v>
       </c>
       <c r="AE33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AE$9))</f>
-        <v>0</v>
+        <v>2.3333333333333872E-2</v>
       </c>
       <c r="AF33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AF$9))</f>
-        <v>0</v>
+        <v>2.4444444444444713E-2</v>
       </c>
       <c r="AG33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AG$9))</f>
-        <v>0</v>
+        <v>2.5555555555555998E-2</v>
       </c>
       <c r="AH33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AH$9))</f>
-        <v>0</v>
+        <v>2.6666666666666838E-2</v>
       </c>
       <c r="AI33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AI$9))</f>
-        <v>0</v>
+        <v>2.7777777777778123E-2</v>
       </c>
       <c r="AJ33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AJ$9))</f>
-        <v>0</v>
+        <v>2.8888888888889408E-2</v>
       </c>
       <c r="AK33">
         <f>IF($G33="s-curve",$E33+($F33-$E33)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E33:$F33,$E$9:$F$9,AK$9))</f>
-        <v>0</v>
+        <v>3.0000000000000249E-2</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.35">
@@ -66739,12 +66737,11 @@
         <v>0</v>
       </c>
       <c r="F36" s="22">
-        <f>SUM(SUM(INDEX('AEO 49'!136:136,0,MATCH(F$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!147:147,0,MATCH(F$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!158:158,0,MATCH(F$9,'AEO 49'!$1:$1,0))))/INDEX('AEO 49'!$166:$166,MATCH(F$9,'AEO 49'!$1:$1,0))*Assumptions!A11</f>
-        <v>6.1785980743151968E-3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>IF(E36=F36,"n/a",IF(OR(C36="battery electric vehicle",C36="natural gas vehicle",C36="plugin hybrid vehicle",C36="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="I36" s="22">
         <f t="shared" si="2"/>
@@ -66756,111 +66753,111 @@
       </c>
       <c r="K36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,K$9))</f>
-        <v>2.2883696571535106E-4</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,L$9))</f>
-        <v>4.5767393143075763E-4</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,M$9))</f>
-        <v>6.8651089714610869E-4</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,N$9))</f>
-        <v>9.1534786286151526E-4</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,O$9))</f>
-        <v>1.1441848285768663E-3</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,P$9))</f>
-        <v>1.3730217942922729E-3</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Q$9))</f>
-        <v>1.6018587600076239E-3</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,R$9))</f>
-        <v>1.8306957257230305E-3</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,S$9))</f>
-        <v>2.0595326914383816E-3</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,T$9))</f>
-        <v>2.2883696571537882E-3</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,U$9))</f>
-        <v>2.5172066228691392E-3</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,V$9))</f>
-        <v>2.7460435885845458E-3</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,W$9))</f>
-        <v>2.9748805542998968E-3</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,X$9))</f>
-        <v>3.2037175200153034E-3</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Y$9))</f>
-        <v>3.4325544857306545E-3</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,Z$9))</f>
-        <v>3.661391451446061E-3</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AA$9))</f>
-        <v>3.8902284171614121E-3</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AB$9))</f>
-        <v>4.1190653828768187E-3</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AC$9))</f>
-        <v>4.3479023485921697E-3</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AD$9))</f>
-        <v>4.5767393143075763E-3</v>
+        <v>0</v>
       </c>
       <c r="AE36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AE$9))</f>
-        <v>4.8055762800229274E-3</v>
+        <v>0</v>
       </c>
       <c r="AF36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AF$9))</f>
-        <v>5.0344132457383339E-3</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AG$9))</f>
-        <v>5.263250211453685E-3</v>
+        <v>0</v>
       </c>
       <c r="AH36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AH$9))</f>
-        <v>5.4920871771690916E-3</v>
+        <v>0</v>
       </c>
       <c r="AI36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AI$9))</f>
-        <v>5.7209241428844426E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AJ$9))</f>
-        <v>5.9497611085997937E-3</v>
+        <v>0</v>
       </c>
       <c r="AK36">
         <f>IF($G36="s-curve",$E36+($F36-$E36)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E36:$F36,$E$9:$F$9,AK$9))</f>
-        <v>6.1785980743152003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
